--- a/input/reg_health.xlsx
+++ b/input/reg_health.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\data work\regression_estimates\reg files\revised\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8CC824-4249-43E8-8258-C66D9EB92500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE282C1-1E2C-458A-BD6E-545D4D900867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="944" xr2:uid="{8F8EB3C6-ADA8-4D50-A668-C6931E9C8858}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="944" activeTab="3" xr2:uid="{8F8EB3C6-ADA8-4D50-A668-C6931E9C8858}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="10" r:id="rId1"/>
@@ -27,26 +27,17 @@
     <sheet name="IT Process H1b" sheetId="33" r:id="rId12"/>
     <sheet name="IT Process H2b" sheetId="34" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="154">
   <si>
     <t>REGRESSOR</t>
   </si>
@@ -485,6 +476,30 @@
   <si>
     <t>Dhe_c5_4</t>
   </si>
+  <si>
+    <t>Dhe_Poor_L1</t>
+  </si>
+  <si>
+    <t>Dhe_Fair_L1</t>
+  </si>
+  <si>
+    <t>Dhe_Good_L1</t>
+  </si>
+  <si>
+    <t>Dhe_VeryGood_L1</t>
+  </si>
+  <si>
+    <t>Dhe_Poor</t>
+  </si>
+  <si>
+    <t>Dhe_Fair</t>
+  </si>
+  <si>
+    <t>Dhe_Good</t>
+  </si>
+  <si>
+    <t>Dhe_VeryGood</t>
+  </si>
 </sst>
 </file>
 
@@ -699,6 +714,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -708,7 +724,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,9 +745,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -770,7 +785,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -876,7 +891,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1018,7 +1033,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1028,7 +1043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35291330-9A4F-420D-915D-74EB386D0C2E}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2998,29 +3013,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="I1" s="48" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="I1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -3487,22 +3502,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="I1" s="48" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="I1" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
     </row>
     <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -4190,22 +4205,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="I1" s="49" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="I1" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I2" s="9"/>
@@ -4930,7 +4945,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26849F9A-6EEB-4F2B-B83B-7A1F9C42C79C}">
   <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5653,7 +5670,7 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="B9" s="46">
         <v>-2.8388175955995125</v>
@@ -5742,7 +5759,7 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="B10" s="46">
         <v>-2.3887796629324534</v>
@@ -5831,7 +5848,7 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="B11" s="46">
         <v>-1.6555116059498809</v>
@@ -5920,7 +5937,7 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="B12" s="46">
         <v>-0.86497745127485282</v>
@@ -7440,7 +7457,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E35CE5-36E8-43E8-9770-69DE64307817}">
   <dimension ref="A1:AJ35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8770,7 +8789,7 @@
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="B13">
         <v>-4.0748384372192143</v>
@@ -8880,7 +8899,7 @@
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="B14">
         <v>-2.8104187343177847</v>
@@ -8990,7 +9009,7 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="B15">
         <v>-1.8218089018628425</v>
@@ -9100,7 +9119,7 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="B16">
         <v>-0.91807582168633373</v>
@@ -11307,7 +11326,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537A90FA-7F5A-4C8F-BFD4-0E297B57C8A0}">
   <dimension ref="A1:AJ35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11429,7 +11450,7 @@
       <c r="A2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="50">
+      <c r="B2" s="47">
         <v>1.4094764909995837E-2</v>
       </c>
       <c r="C2">
@@ -11539,7 +11560,7 @@
       <c r="A3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="47">
         <v>9.8653070345728219E-2</v>
       </c>
       <c r="C3">
@@ -11649,7 +11670,7 @@
       <c r="A4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4" s="47">
         <v>-1.1133492466328548E-3</v>
       </c>
       <c r="C4">
@@ -11759,7 +11780,7 @@
       <c r="A5" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="47">
         <v>9.5035924590572265E-2</v>
       </c>
       <c r="C5">
@@ -11869,7 +11890,7 @@
       <c r="A6" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="47">
         <v>0.19138057646140869</v>
       </c>
       <c r="C6">
@@ -11979,7 +12000,7 @@
       <c r="A7" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7" s="47">
         <v>-0.54846347140054608</v>
       </c>
       <c r="C7">
@@ -12089,7 +12110,7 @@
       <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="50">
+      <c r="B8" s="47">
         <v>-0.70765922254344893</v>
       </c>
       <c r="C8">
@@ -12199,7 +12220,7 @@
       <c r="A9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="50">
+      <c r="B9" s="47">
         <v>-0.78721592830316789</v>
       </c>
       <c r="C9">
@@ -12309,7 +12330,7 @@
       <c r="A10" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="50">
+      <c r="B10" s="47">
         <v>-0.99804008840540492</v>
       </c>
       <c r="C10">
@@ -12417,9 +12438,9 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>142</v>
-      </c>
-      <c r="B11" s="50">
+        <v>150</v>
+      </c>
+      <c r="B11" s="47">
         <v>1.6631231782117988</v>
       </c>
       <c r="C11">
@@ -12527,9 +12548,9 @@
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12" s="50">
+        <v>151</v>
+      </c>
+      <c r="B12" s="47">
         <v>1.1168234145687983</v>
       </c>
       <c r="C12">
@@ -12637,9 +12658,9 @@
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B13" s="50">
+        <v>152</v>
+      </c>
+      <c r="B13" s="47">
         <v>0.60772171086371951</v>
       </c>
       <c r="C13">
@@ -12747,9 +12768,9 @@
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" s="50">
+        <v>153</v>
+      </c>
+      <c r="B14" s="47">
         <v>0.26236861818682444</v>
       </c>
       <c r="C14">
@@ -12857,9 +12878,9 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="50">
+        <v>146</v>
+      </c>
+      <c r="B15" s="47">
         <v>0.16871270304391586</v>
       </c>
       <c r="C15">
@@ -12967,9 +12988,9 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" s="50">
+        <v>147</v>
+      </c>
+      <c r="B16" s="47">
         <v>7.2677747813148008E-2</v>
       </c>
       <c r="C16">
@@ -13077,9 +13098,9 @@
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="50">
+        <v>148</v>
+      </c>
+      <c r="B17" s="47">
         <v>-0.14501266594886403</v>
       </c>
       <c r="C17">
@@ -13187,9 +13208,9 @@
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="50">
+        <v>149</v>
+      </c>
+      <c r="B18" s="47">
         <v>-0.16100231054819378</v>
       </c>
       <c r="C18">
@@ -13299,7 +13320,7 @@
       <c r="A19" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="50">
+      <c r="B19" s="47">
         <v>1.886057509339147</v>
       </c>
       <c r="C19">
@@ -13409,7 +13430,7 @@
       <c r="A20" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="50">
+      <c r="B20" s="47">
         <v>-0.21146197763246732</v>
       </c>
       <c r="C20">
@@ -13519,7 +13540,7 @@
       <c r="A21" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="50">
+      <c r="B21" s="47">
         <v>7.3620139258141259E-2</v>
       </c>
       <c r="C21">
@@ -13629,7 +13650,7 @@
       <c r="A22" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="50">
+      <c r="B22" s="47">
         <v>-0.19030282815108587</v>
       </c>
       <c r="C22">
@@ -13739,7 +13760,7 @@
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="50">
+      <c r="B23" s="47">
         <v>0.17969560384280261</v>
       </c>
       <c r="C23">
@@ -13849,7 +13870,7 @@
       <c r="A24" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="50">
+      <c r="B24" s="47">
         <v>0.13258190334552789</v>
       </c>
       <c r="C24">
@@ -13959,7 +13980,7 @@
       <c r="A25" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="50">
+      <c r="B25" s="47">
         <v>0.12371690438620446</v>
       </c>
       <c r="C25">
@@ -14069,7 +14090,7 @@
       <c r="A26" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="50">
+      <c r="B26" s="47">
         <v>-8.5170430324261262E-3</v>
       </c>
       <c r="C26">
@@ -14179,7 +14200,7 @@
       <c r="A27" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="50">
+      <c r="B27" s="47">
         <v>-7.9231926455070434E-2</v>
       </c>
       <c r="C27">
@@ -14289,7 +14310,7 @@
       <c r="A28" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="50">
+      <c r="B28" s="47">
         <v>8.2445148537546781E-2</v>
       </c>
       <c r="C28">
@@ -14399,7 +14420,7 @@
       <c r="A29" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="50">
+      <c r="B29" s="47">
         <v>6.3492462431212981E-2</v>
       </c>
       <c r="C29">
@@ -14509,7 +14530,7 @@
       <c r="A30" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="50">
+      <c r="B30" s="47">
         <v>6.1189370267544535E-2</v>
       </c>
       <c r="C30">
@@ -14619,7 +14640,7 @@
       <c r="A31" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="50">
+      <c r="B31" s="47">
         <v>2.9801750633023909E-2</v>
       </c>
       <c r="C31">
@@ -14729,7 +14750,7 @@
       <c r="A32" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="50">
+      <c r="B32" s="47">
         <v>0.15525927665503014</v>
       </c>
       <c r="C32">
@@ -14839,7 +14860,7 @@
       <c r="A33" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="50">
+      <c r="B33" s="47">
         <v>0.15607280850294866</v>
       </c>
       <c r="C33">
@@ -14949,7 +14970,7 @@
       <c r="A34" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="50">
+      <c r="B34" s="47">
         <v>-1.7617647162894501E-3</v>
       </c>
       <c r="C34">
@@ -15059,7 +15080,7 @@
       <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="50">
+      <c r="B35" s="47">
         <v>-4.5819185314988129</v>
       </c>
       <c r="C35">
@@ -17006,7 +17027,7 @@
       <c r="H4" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="50">
+      <c r="I4" s="47">
         <v>1.4094764909995837E-2</v>
       </c>
       <c r="J4">
@@ -17129,7 +17150,7 @@
       <c r="H5" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="50">
+      <c r="I5" s="47">
         <v>9.8653070345728219E-2</v>
       </c>
       <c r="J5">
@@ -17252,7 +17273,7 @@
       <c r="H6" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="50">
+      <c r="I6" s="47">
         <v>-1.1133492466328548E-3</v>
       </c>
       <c r="J6">
@@ -17369,7 +17390,7 @@
       <c r="H7" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="50">
+      <c r="I7" s="47">
         <v>9.5035924590572265E-2</v>
       </c>
       <c r="J7">
@@ -17492,7 +17513,7 @@
       <c r="H8" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="50">
+      <c r="I8" s="47">
         <v>0.19138057646140869</v>
       </c>
       <c r="J8">
@@ -17615,7 +17636,7 @@
       <c r="H9" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="50">
+      <c r="I9" s="47">
         <v>-0.54846347140054608</v>
       </c>
       <c r="J9">
@@ -17732,7 +17753,7 @@
       <c r="H10" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="50">
+      <c r="I10" s="47">
         <v>-0.70765922254344893</v>
       </c>
       <c r="J10">
@@ -17855,7 +17876,7 @@
       <c r="H11" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="50">
+      <c r="I11" s="47">
         <v>-0.78721592830316789</v>
       </c>
       <c r="J11">
@@ -17978,7 +17999,7 @@
       <c r="H12" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="50">
+      <c r="I12" s="47">
         <v>-0.99804008840540492</v>
       </c>
       <c r="J12">
@@ -18101,7 +18122,7 @@
       <c r="H13" t="s">
         <v>142</v>
       </c>
-      <c r="I13" s="50">
+      <c r="I13" s="47">
         <v>1.6631231782117988</v>
       </c>
       <c r="J13">
@@ -18224,7 +18245,7 @@
       <c r="H14" t="s">
         <v>143</v>
       </c>
-      <c r="I14" s="50">
+      <c r="I14" s="47">
         <v>1.1168234145687983</v>
       </c>
       <c r="J14">
@@ -18341,7 +18362,7 @@
       <c r="H15" t="s">
         <v>144</v>
       </c>
-      <c r="I15" s="50">
+      <c r="I15" s="47">
         <v>0.60772171086371951</v>
       </c>
       <c r="J15">
@@ -18464,7 +18485,7 @@
       <c r="H16" t="s">
         <v>145</v>
       </c>
-      <c r="I16" s="50">
+      <c r="I16" s="47">
         <v>0.26236861818682444</v>
       </c>
       <c r="J16">
@@ -18587,7 +18608,7 @@
       <c r="H17" t="s">
         <v>100</v>
       </c>
-      <c r="I17" s="50">
+      <c r="I17" s="47">
         <v>0.16871270304391586</v>
       </c>
       <c r="J17">
@@ -18710,7 +18731,7 @@
       <c r="H18" t="s">
         <v>101</v>
       </c>
-      <c r="I18" s="50">
+      <c r="I18" s="47">
         <v>7.2677747813148008E-2</v>
       </c>
       <c r="J18">
@@ -18833,7 +18854,7 @@
       <c r="H19" t="s">
         <v>102</v>
       </c>
-      <c r="I19" s="50">
+      <c r="I19" s="47">
         <v>-0.14501266594886403</v>
       </c>
       <c r="J19">
@@ -18950,7 +18971,7 @@
       <c r="H20" t="s">
         <v>103</v>
       </c>
-      <c r="I20" s="50">
+      <c r="I20" s="47">
         <v>-0.16100231054819378</v>
       </c>
       <c r="J20">
@@ -19073,7 +19094,7 @@
       <c r="H21" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="50">
+      <c r="I21" s="47">
         <v>1.886057509339147</v>
       </c>
       <c r="J21">
@@ -19196,7 +19217,7 @@
       <c r="H22" t="s">
         <v>71</v>
       </c>
-      <c r="I22" s="50">
+      <c r="I22" s="47">
         <v>-0.21146197763246732</v>
       </c>
       <c r="J22">
@@ -19319,7 +19340,7 @@
       <c r="H23" t="s">
         <v>72</v>
       </c>
-      <c r="I23" s="50">
+      <c r="I23" s="47">
         <v>7.3620139258141259E-2</v>
       </c>
       <c r="J23">
@@ -19442,7 +19463,7 @@
       <c r="H24" t="s">
         <v>73</v>
       </c>
-      <c r="I24" s="50">
+      <c r="I24" s="47">
         <v>-0.19030282815108587</v>
       </c>
       <c r="J24">
@@ -19565,7 +19586,7 @@
       <c r="H25" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="50">
+      <c r="I25" s="47">
         <v>0.17969560384280261</v>
       </c>
       <c r="J25">
@@ -19682,7 +19703,7 @@
       <c r="H26" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="50">
+      <c r="I26" s="47">
         <v>0.13258190334552789</v>
       </c>
       <c r="J26">
@@ -19804,7 +19825,7 @@
       <c r="H27" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="50">
+      <c r="I27" s="47">
         <v>0.12371690438620446</v>
       </c>
       <c r="J27">
@@ -19926,7 +19947,7 @@
       <c r="H28" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="50">
+      <c r="I28" s="47">
         <v>-8.5170430324261262E-3</v>
       </c>
       <c r="J28">
@@ -20048,7 +20069,7 @@
       <c r="H29" t="s">
         <v>50</v>
       </c>
-      <c r="I29" s="50">
+      <c r="I29" s="47">
         <v>-7.9231926455070434E-2</v>
       </c>
       <c r="J29">
@@ -20164,7 +20185,7 @@
       <c r="H30" t="s">
         <v>51</v>
       </c>
-      <c r="I30" s="50">
+      <c r="I30" s="47">
         <v>8.2445148537546781E-2</v>
       </c>
       <c r="J30">
@@ -20286,7 +20307,7 @@
       <c r="H31" t="s">
         <v>52</v>
       </c>
-      <c r="I31" s="50">
+      <c r="I31" s="47">
         <v>6.3492462431212981E-2</v>
       </c>
       <c r="J31">
@@ -20408,7 +20429,7 @@
       <c r="H32" t="s">
         <v>53</v>
       </c>
-      <c r="I32" s="50">
+      <c r="I32" s="47">
         <v>6.1189370267544535E-2</v>
       </c>
       <c r="J32">
@@ -20530,7 +20551,7 @@
       <c r="H33" t="s">
         <v>54</v>
       </c>
-      <c r="I33" s="50">
+      <c r="I33" s="47">
         <v>2.9801750633023909E-2</v>
       </c>
       <c r="J33">
@@ -20652,7 +20673,7 @@
       <c r="H34" t="s">
         <v>55</v>
       </c>
-      <c r="I34" s="50">
+      <c r="I34" s="47">
         <v>0.15525927665503014</v>
       </c>
       <c r="J34">
@@ -20774,7 +20795,7 @@
       <c r="H35" t="s">
         <v>56</v>
       </c>
-      <c r="I35" s="50">
+      <c r="I35" s="47">
         <v>0.15607280850294866</v>
       </c>
       <c r="J35">
@@ -20896,7 +20917,7 @@
       <c r="H36" t="s">
         <v>99</v>
       </c>
-      <c r="I36" s="50">
+      <c r="I36" s="47">
         <v>-1.7617647162894501E-3</v>
       </c>
       <c r="J36">
@@ -21018,7 +21039,7 @@
       <c r="H37" t="s">
         <v>33</v>
       </c>
-      <c r="I37" s="50">
+      <c r="I37" s="47">
         <v>-4.5819185314988129</v>
       </c>
       <c r="J37">

--- a/input/reg_health.xlsx
+++ b/input/reg_health.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE282C1-1E2C-458A-BD6E-545D4D900867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38CBAC7-02EC-4A54-9E10-DA18A1842386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="944" activeTab="3" xr2:uid="{8F8EB3C6-ADA8-4D50-A668-C6931E9C8858}"/>
+    <workbookView xWindow="35355" yWindow="2280" windowWidth="21600" windowHeight="11295" tabRatio="944" activeTab="3" xr2:uid="{8F8EB3C6-ADA8-4D50-A668-C6931E9C8858}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="10" r:id="rId1"/>
@@ -27,17 +27,26 @@
     <sheet name="IT Process H1b" sheetId="33" r:id="rId12"/>
     <sheet name="IT Process H2b" sheetId="34" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="154">
   <si>
     <t>REGRESSOR</t>
   </si>
@@ -745,9 +754,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -785,7 +794,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -891,7 +900,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1033,7 +1042,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11326,9 +11335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537A90FA-7F5A-4C8F-BFD4-0E297B57C8A0}">
   <dimension ref="A1:AJ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15195,8 +15202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44F9F5B-5712-49A8-8CF7-AF6C3F502D89}">
   <dimension ref="A1:AI35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AI35" sqref="AI35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16403,7 +16410,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F39173-0E21-4C81-B5C3-8599CFE04BC7}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16964,7 +16973,7 @@
         <v>80</v>
       </c>
       <c r="B44" s="35">
-        <v>0.2472</v>
+        <v>0.24729999999999999</v>
       </c>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -16979,8 +16988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949FF3B0-521B-4B5D-849B-2B64CC34E749}">
   <dimension ref="A1:AQ49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:AQ37"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17024,114 +17033,42 @@
         <v>0.65200000000000002</v>
       </c>
       <c r="G4"/>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="47">
-        <v>1.4094764909995837E-2</v>
-      </c>
-      <c r="J4">
-        <v>9.7447675049071932E-4</v>
-      </c>
-      <c r="K4">
-        <v>-2.0886557615149811E-5</v>
-      </c>
-      <c r="L4">
-        <v>1.5695084303986801E-7</v>
-      </c>
-      <c r="M4">
-        <v>-4.0564833447669224E-5</v>
-      </c>
-      <c r="N4">
-        <v>5.2432800596458366E-5</v>
-      </c>
-      <c r="O4">
-        <v>-7.7775512060242034E-5</v>
-      </c>
-      <c r="P4">
-        <v>-6.9258462287710574E-5</v>
-      </c>
-      <c r="Q4">
-        <v>-1.1470236695179599E-4</v>
-      </c>
-      <c r="R4">
-        <v>-2.6024240279992356E-4</v>
-      </c>
-      <c r="S4">
-        <v>1.1139256202407304E-4</v>
-      </c>
-      <c r="T4">
-        <v>1.7914005841761471E-4</v>
-      </c>
-      <c r="U4">
-        <v>1.6327232193064859E-4</v>
-      </c>
-      <c r="V4">
-        <v>1.8937730326684793E-4</v>
-      </c>
-      <c r="W4">
-        <v>-1.0771676236334479E-4</v>
-      </c>
-      <c r="X4">
-        <v>-1.0564718394100322E-4</v>
-      </c>
-      <c r="Y4">
-        <v>-1.8226228713842096E-4</v>
-      </c>
-      <c r="Z4">
-        <v>-1.0206869247006805E-4</v>
-      </c>
-      <c r="AA4">
-        <v>-1.3359984183512714E-5</v>
-      </c>
-      <c r="AB4">
-        <v>-1.4362565859562406E-4</v>
-      </c>
-      <c r="AC4">
-        <v>-8.0895557393649049E-5</v>
-      </c>
-      <c r="AD4">
-        <v>1.5086360570841184E-4</v>
-      </c>
-      <c r="AE4">
-        <v>-9.0268750407439973E-5</v>
-      </c>
-      <c r="AF4">
-        <v>-1.8541122098036738E-4</v>
-      </c>
-      <c r="AG4">
-        <v>-2.365817594751087E-4</v>
-      </c>
-      <c r="AH4">
-        <v>-1.6710738720126812E-4</v>
-      </c>
-      <c r="AI4">
-        <v>-1.9622688139257712E-4</v>
-      </c>
-      <c r="AJ4">
-        <v>-1.6777303567815663E-4</v>
-      </c>
-      <c r="AK4">
-        <v>-6.4196656881536775E-5</v>
-      </c>
-      <c r="AL4">
-        <v>-1.7805744786306556E-4</v>
-      </c>
-      <c r="AM4">
-        <v>-1.6285447349238157E-4</v>
-      </c>
-      <c r="AN4">
-        <v>-2.0673486016294017E-4</v>
-      </c>
-      <c r="AO4">
-        <v>-2.1289421408208668E-4</v>
-      </c>
-      <c r="AP4">
-        <v>2.2284817845827186E-5</v>
-      </c>
-      <c r="AQ4">
-        <v>1.6364789553417682E-4</v>
-      </c>
+      <c r="H4"/>
+      <c r="I4" s="47"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4"/>
+      <c r="AP4"/>
+      <c r="AQ4"/>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -17147,114 +17084,42 @@
         <v>0</v>
       </c>
       <c r="G5"/>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="47">
-        <v>9.8653070345728219E-2</v>
-      </c>
-      <c r="J5">
-        <v>-2.0886557615149811E-5</v>
-      </c>
-      <c r="K5">
-        <v>8.0811498588981038E-5</v>
-      </c>
-      <c r="L5">
-        <v>-8.4062552560882886E-7</v>
-      </c>
-      <c r="M5">
-        <v>-4.3302800667419477E-5</v>
-      </c>
-      <c r="N5">
-        <v>-2.6711605551663835E-5</v>
-      </c>
-      <c r="O5">
-        <v>8.2147681759345373E-5</v>
-      </c>
-      <c r="P5">
-        <v>5.3023493859500736E-5</v>
-      </c>
-      <c r="Q5">
-        <v>6.1559790372674736E-6</v>
-      </c>
-      <c r="R5">
-        <v>-7.4216006546169418E-6</v>
-      </c>
-      <c r="S5">
-        <v>9.6834924145507964E-5</v>
-      </c>
-      <c r="T5">
-        <v>6.6446287976950345E-5</v>
-      </c>
-      <c r="U5">
-        <v>5.8843775571926498E-5</v>
-      </c>
-      <c r="V5">
-        <v>1.1029444674445652E-4</v>
-      </c>
-      <c r="W5">
-        <v>-1.8439933209777335E-6</v>
-      </c>
-      <c r="X5">
-        <v>-1.2121117044501019E-5</v>
-      </c>
-      <c r="Y5">
-        <v>-1.451657086369416E-5</v>
-      </c>
-      <c r="Z5">
-        <v>-1.0852950053712439E-4</v>
-      </c>
-      <c r="AA5">
-        <v>-5.7232128237783602E-5</v>
-      </c>
-      <c r="AB5">
-        <v>-5.4432273368076748E-5</v>
-      </c>
-      <c r="AC5">
-        <v>9.2565322367456248E-5</v>
-      </c>
-      <c r="AD5">
-        <v>1.2816773123985127E-5</v>
-      </c>
-      <c r="AE5">
-        <v>5.0825259634968258E-5</v>
-      </c>
-      <c r="AF5">
-        <v>1.0298904800211411E-4</v>
-      </c>
-      <c r="AG5">
-        <v>1.0909446024441236E-4</v>
-      </c>
-      <c r="AH5">
-        <v>7.9626234637117637E-5</v>
-      </c>
-      <c r="AI5">
-        <v>7.227091945214792E-5</v>
-      </c>
-      <c r="AJ5">
-        <v>1.095375700610017E-4</v>
-      </c>
-      <c r="AK5">
-        <v>5.6827286154889216E-5</v>
-      </c>
-      <c r="AL5">
-        <v>1.1312497274377424E-4</v>
-      </c>
-      <c r="AM5">
-        <v>1.2104105896573042E-4</v>
-      </c>
-      <c r="AN5">
-        <v>1.0887033139270425E-4</v>
-      </c>
-      <c r="AO5">
-        <v>8.964747041362753E-5</v>
-      </c>
-      <c r="AP5">
-        <v>-3.4053739376892293E-6</v>
-      </c>
-      <c r="AQ5">
-        <v>-1.8898363798937837E-3</v>
-      </c>
+      <c r="H5"/>
+      <c r="I5" s="47"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
+      <c r="AM5"/>
+      <c r="AN5"/>
+      <c r="AO5"/>
+      <c r="AP5"/>
+      <c r="AQ5"/>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -17270,114 +17135,42 @@
         <v>0</v>
       </c>
       <c r="G6"/>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="47">
-        <v>-1.1133492466328548E-3</v>
-      </c>
-      <c r="J6">
-        <v>1.5695084303986801E-7</v>
-      </c>
-      <c r="K6">
-        <v>-8.4062552560882886E-7</v>
-      </c>
-      <c r="L6">
-        <v>9.0340997313774144E-9</v>
-      </c>
-      <c r="M6">
-        <v>4.5106664538854215E-7</v>
-      </c>
-      <c r="N6">
-        <v>5.5114027774348062E-8</v>
-      </c>
-      <c r="O6">
-        <v>-1.0533476152770799E-6</v>
-      </c>
-      <c r="P6">
-        <v>-7.1020199041718089E-7</v>
-      </c>
-      <c r="Q6">
-        <v>-1.3579741371066686E-7</v>
-      </c>
-      <c r="R6">
-        <v>1.0137510875611022E-7</v>
-      </c>
-      <c r="S6">
-        <v>-1.0041058570878498E-6</v>
-      </c>
-      <c r="T6">
-        <v>-6.3108677611654758E-7</v>
-      </c>
-      <c r="U6">
-        <v>-4.2922813599933047E-7</v>
-      </c>
-      <c r="V6">
-        <v>-1.1097304153802518E-6</v>
-      </c>
-      <c r="W6">
-        <v>-6.6729877126834707E-8</v>
-      </c>
-      <c r="X6">
-        <v>5.5123987845709872E-8</v>
-      </c>
-      <c r="Y6">
-        <v>7.7851643576016448E-8</v>
-      </c>
-      <c r="Z6">
-        <v>1.2110120727260064E-6</v>
-      </c>
-      <c r="AA6">
-        <v>5.8674033137995082E-7</v>
-      </c>
-      <c r="AB6">
-        <v>8.9830412468759305E-7</v>
-      </c>
-      <c r="AC6">
-        <v>-8.2964276444319758E-7</v>
-      </c>
-      <c r="AD6">
-        <v>2.0917769210004647E-7</v>
-      </c>
-      <c r="AE6">
-        <v>-6.8939954326092707E-7</v>
-      </c>
-      <c r="AF6">
-        <v>-1.1095470822593357E-6</v>
-      </c>
-      <c r="AG6">
-        <v>-1.201153516559201E-6</v>
-      </c>
-      <c r="AH6">
-        <v>-8.8780422068829119E-7</v>
-      </c>
-      <c r="AI6">
-        <v>-7.8456714113284631E-7</v>
-      </c>
-      <c r="AJ6">
-        <v>-1.2296457352062454E-6</v>
-      </c>
-      <c r="AK6">
-        <v>-7.3851116743216019E-7</v>
-      </c>
-      <c r="AL6">
-        <v>-1.2418948648810938E-6</v>
-      </c>
-      <c r="AM6">
-        <v>-1.3592055529005462E-6</v>
-      </c>
-      <c r="AN6">
-        <v>-1.2628070365202037E-6</v>
-      </c>
-      <c r="AO6">
-        <v>-9.5300632391202175E-7</v>
-      </c>
-      <c r="AP6">
-        <v>2.2034941406576526E-8</v>
-      </c>
-      <c r="AQ6">
-        <v>1.9158857542924758E-5</v>
-      </c>
+      <c r="H6"/>
+      <c r="I6" s="47"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
+      <c r="AM6"/>
+      <c r="AN6"/>
+      <c r="AO6"/>
+      <c r="AP6"/>
+      <c r="AQ6"/>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -17387,114 +17180,42 @@
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
       <c r="G7"/>
-      <c r="H7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" s="47">
-        <v>9.5035924590572265E-2</v>
-      </c>
-      <c r="J7">
-        <v>-4.0564833447669224E-5</v>
-      </c>
-      <c r="K7">
-        <v>-4.3302800667419477E-5</v>
-      </c>
-      <c r="L7">
-        <v>4.5106664538854215E-7</v>
-      </c>
-      <c r="M7">
-        <v>1.8502103969023161E-3</v>
-      </c>
-      <c r="N7">
-        <v>1.5390988775475529E-3</v>
-      </c>
-      <c r="O7">
-        <v>-1.1827321071110005E-4</v>
-      </c>
-      <c r="P7">
-        <v>-5.6177738736668328E-5</v>
-      </c>
-      <c r="Q7">
-        <v>1.3187074645356755E-4</v>
-      </c>
-      <c r="R7">
-        <v>4.5026047268643076E-4</v>
-      </c>
-      <c r="S7">
-        <v>-9.6775352656328084E-5</v>
-      </c>
-      <c r="T7">
-        <v>-9.4822637142202436E-5</v>
-      </c>
-      <c r="U7">
-        <v>-1.5939604360685014E-4</v>
-      </c>
-      <c r="V7">
-        <v>7.8314294775036312E-5</v>
-      </c>
-      <c r="W7">
-        <v>-3.0141423804179907E-4</v>
-      </c>
-      <c r="X7">
-        <v>-3.8014030825715662E-4</v>
-      </c>
-      <c r="Y7">
-        <v>-2.8301959316147601E-4</v>
-      </c>
-      <c r="Z7">
-        <v>-8.4117598516411814E-5</v>
-      </c>
-      <c r="AA7">
-        <v>6.3529203282005562E-5</v>
-      </c>
-      <c r="AB7">
-        <v>2.2547862871807683E-5</v>
-      </c>
-      <c r="AC7">
-        <v>-1.0720821259159469E-4</v>
-      </c>
-      <c r="AD7">
-        <v>-1.0717289568344765E-4</v>
-      </c>
-      <c r="AE7">
-        <v>2.3415981172823688E-4</v>
-      </c>
-      <c r="AF7">
-        <v>1.7105318564241627E-4</v>
-      </c>
-      <c r="AG7">
-        <v>2.3893871533631108E-4</v>
-      </c>
-      <c r="AH7">
-        <v>1.6774577383562997E-4</v>
-      </c>
-      <c r="AI7">
-        <v>2.1451403412662791E-4</v>
-      </c>
-      <c r="AJ7">
-        <v>2.6028388363316711E-4</v>
-      </c>
-      <c r="AK7">
-        <v>3.0686103322729317E-4</v>
-      </c>
-      <c r="AL7">
-        <v>1.8308445278301857E-4</v>
-      </c>
-      <c r="AM7">
-        <v>9.4444696472537905E-5</v>
-      </c>
-      <c r="AN7">
-        <v>2.2149080057087448E-4</v>
-      </c>
-      <c r="AO7">
-        <v>1.6068998178646191E-4</v>
-      </c>
-      <c r="AP7">
-        <v>-4.112660678420952E-7</v>
-      </c>
-      <c r="AQ7">
-        <v>-3.0505234668552327E-4</v>
-      </c>
+      <c r="H7"/>
+      <c r="I7" s="47"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7"/>
+      <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -17510,114 +17231,42 @@
         <v>2.7E-2</v>
       </c>
       <c r="G8"/>
-      <c r="H8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="47">
-        <v>0.19138057646140869</v>
-      </c>
-      <c r="J8">
-        <v>5.2432800596458366E-5</v>
-      </c>
-      <c r="K8">
-        <v>-2.6711605551663835E-5</v>
-      </c>
-      <c r="L8">
-        <v>5.5114027774348062E-8</v>
-      </c>
-      <c r="M8">
-        <v>1.5390988775475529E-3</v>
-      </c>
-      <c r="N8">
-        <v>2.6744919603071552E-3</v>
-      </c>
-      <c r="O8">
-        <v>2.0058882070062489E-5</v>
-      </c>
-      <c r="P8">
-        <v>2.2802688359459602E-4</v>
-      </c>
-      <c r="Q8">
-        <v>3.8134024336651035E-4</v>
-      </c>
-      <c r="R8">
-        <v>6.549925607455796E-4</v>
-      </c>
-      <c r="S8">
-        <v>-5.2286015461645938E-4</v>
-      </c>
-      <c r="T8">
-        <v>-5.2615436803405097E-4</v>
-      </c>
-      <c r="U8">
-        <v>-5.2808149361866625E-4</v>
-      </c>
-      <c r="V8">
-        <v>-1.377950329757368E-4</v>
-      </c>
-      <c r="W8">
-        <v>-1.5357224442947057E-4</v>
-      </c>
-      <c r="X8">
-        <v>-2.3389708717848877E-4</v>
-      </c>
-      <c r="Y8">
-        <v>-1.5374731647574554E-4</v>
-      </c>
-      <c r="Z8">
-        <v>-2.8097680502338872E-4</v>
-      </c>
-      <c r="AA8">
-        <v>2.9808900406737678E-5</v>
-      </c>
-      <c r="AB8">
-        <v>-5.5254127371698932E-5</v>
-      </c>
-      <c r="AC8">
-        <v>-8.2775820624159113E-5</v>
-      </c>
-      <c r="AD8">
-        <v>-4.1674939546623073E-5</v>
-      </c>
-      <c r="AE8">
-        <v>3.8931963242128359E-4</v>
-      </c>
-      <c r="AF8">
-        <v>1.3739932332609362E-4</v>
-      </c>
-      <c r="AG8">
-        <v>1.688171311082314E-4</v>
-      </c>
-      <c r="AH8">
-        <v>1.6332043930826587E-4</v>
-      </c>
-      <c r="AI8">
-        <v>1.6674840630771944E-4</v>
-      </c>
-      <c r="AJ8">
-        <v>4.0667056390944999E-4</v>
-      </c>
-      <c r="AK8">
-        <v>2.6675257858460892E-4</v>
-      </c>
-      <c r="AL8">
-        <v>1.287098540549501E-4</v>
-      </c>
-      <c r="AM8">
-        <v>-4.4912153889222145E-6</v>
-      </c>
-      <c r="AN8">
-        <v>2.3759040930140628E-4</v>
-      </c>
-      <c r="AO8">
-        <v>-6.8452261699806019E-5</v>
-      </c>
-      <c r="AP8">
-        <v>2.2078560207240027E-5</v>
-      </c>
-      <c r="AQ8">
-        <v>-4.1052839407284322E-4</v>
-      </c>
+      <c r="H8"/>
+      <c r="I8" s="47"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
+      <c r="AL8"/>
+      <c r="AM8"/>
+      <c r="AN8"/>
+      <c r="AO8"/>
+      <c r="AP8"/>
+      <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -17633,114 +17282,42 @@
         <v>0</v>
       </c>
       <c r="G9"/>
-      <c r="H9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="47">
-        <v>-0.54846347140054608</v>
-      </c>
-      <c r="J9">
-        <v>-7.7775512060242034E-5</v>
-      </c>
-      <c r="K9">
-        <v>8.2147681759345373E-5</v>
-      </c>
-      <c r="L9">
-        <v>-1.0533476152770799E-6</v>
-      </c>
-      <c r="M9">
-        <v>-1.1827321071110005E-4</v>
-      </c>
-      <c r="N9">
-        <v>2.0058882070062489E-5</v>
-      </c>
-      <c r="O9">
-        <v>1.8579474112428249E-3</v>
-      </c>
-      <c r="P9">
-        <v>8.5791155424639655E-4</v>
-      </c>
-      <c r="Q9">
-        <v>7.6560642239787682E-4</v>
-      </c>
-      <c r="R9">
-        <v>7.169539367878027E-4</v>
-      </c>
-      <c r="S9">
-        <v>-2.4308590844713672E-4</v>
-      </c>
-      <c r="T9">
-        <v>-2.678916584687895E-4</v>
-      </c>
-      <c r="U9">
-        <v>-4.592897214688007E-4</v>
-      </c>
-      <c r="V9">
-        <v>-3.0752455634113732E-4</v>
-      </c>
-      <c r="W9">
-        <v>2.3110727641706126E-4</v>
-      </c>
-      <c r="X9">
-        <v>1.923345298116179E-4</v>
-      </c>
-      <c r="Y9">
-        <v>3.2719378755038562E-4</v>
-      </c>
-      <c r="Z9">
-        <v>1.5969019330105511E-4</v>
-      </c>
-      <c r="AA9">
-        <v>2.3703765699794975E-4</v>
-      </c>
-      <c r="AB9">
-        <v>-1.0025909823821558E-4</v>
-      </c>
-      <c r="AC9">
-        <v>2.4303843952997952E-4</v>
-      </c>
-      <c r="AD9">
-        <v>1.2096951318704246E-4</v>
-      </c>
-      <c r="AE9">
-        <v>1.0422626666896053E-4</v>
-      </c>
-      <c r="AF9">
-        <v>1.4044658485480544E-4</v>
-      </c>
-      <c r="AG9">
-        <v>1.9837048723941712E-4</v>
-      </c>
-      <c r="AH9">
-        <v>5.9172545838995986E-5</v>
-      </c>
-      <c r="AI9">
-        <v>1.1057522390026629E-4</v>
-      </c>
-      <c r="AJ9">
-        <v>2.348561508809183E-4</v>
-      </c>
-      <c r="AK9">
-        <v>1.7425085551606433E-4</v>
-      </c>
-      <c r="AL9">
-        <v>2.5148406564470035E-4</v>
-      </c>
-      <c r="AM9">
-        <v>2.2713232604140189E-4</v>
-      </c>
-      <c r="AN9">
-        <v>1.332871782033858E-4</v>
-      </c>
-      <c r="AO9">
-        <v>1.7147851612465828E-4</v>
-      </c>
-      <c r="AP9">
-        <v>8.8560104132368533E-6</v>
-      </c>
-      <c r="AQ9">
-        <v>-2.2804205479685603E-3</v>
-      </c>
+      <c r="H9"/>
+      <c r="I9" s="47"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9"/>
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9"/>
+      <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -17750,114 +17327,42 @@
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
       <c r="G10"/>
-      <c r="H10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="47">
-        <v>-0.70765922254344893</v>
-      </c>
-      <c r="J10">
-        <v>-6.9258462287710574E-5</v>
-      </c>
-      <c r="K10">
-        <v>5.3023493859500736E-5</v>
-      </c>
-      <c r="L10">
-        <v>-7.1020199041718089E-7</v>
-      </c>
-      <c r="M10">
-        <v>-5.6177738736668328E-5</v>
-      </c>
-      <c r="N10">
-        <v>2.2802688359459602E-4</v>
-      </c>
-      <c r="O10">
-        <v>8.5791155424639655E-4</v>
-      </c>
-      <c r="P10">
-        <v>2.1309255326268524E-3</v>
-      </c>
-      <c r="Q10">
-        <v>7.8612566195335426E-4</v>
-      </c>
-      <c r="R10">
-        <v>7.9016271839875819E-4</v>
-      </c>
-      <c r="S10">
-        <v>-3.9776687884390306E-4</v>
-      </c>
-      <c r="T10">
-        <v>-3.9664177371042118E-4</v>
-      </c>
-      <c r="U10">
-        <v>-5.058801223920184E-4</v>
-      </c>
-      <c r="V10">
-        <v>-1.1046788091593845E-4</v>
-      </c>
-      <c r="W10">
-        <v>4.6485155560111282E-4</v>
-      </c>
-      <c r="X10">
-        <v>4.9803730323172218E-4</v>
-      </c>
-      <c r="Y10">
-        <v>4.3999364277854091E-4</v>
-      </c>
-      <c r="Z10">
-        <v>1.9310855094889181E-4</v>
-      </c>
-      <c r="AA10">
-        <v>2.8135115644912026E-4</v>
-      </c>
-      <c r="AB10">
-        <v>-4.4585310637305681E-5</v>
-      </c>
-      <c r="AC10">
-        <v>1.3635306315146249E-4</v>
-      </c>
-      <c r="AD10">
-        <v>2.9745787578277301E-4</v>
-      </c>
-      <c r="AE10">
-        <v>2.4595382528704214E-4</v>
-      </c>
-      <c r="AF10">
-        <v>1.872610751663028E-4</v>
-      </c>
-      <c r="AG10">
-        <v>7.9631149135292044E-5</v>
-      </c>
-      <c r="AH10">
-        <v>3.30278092626412E-5</v>
-      </c>
-      <c r="AI10">
-        <v>5.4726491849981375E-5</v>
-      </c>
-      <c r="AJ10">
-        <v>3.4531407444936214E-4</v>
-      </c>
-      <c r="AK10">
-        <v>2.1521572029661477E-4</v>
-      </c>
-      <c r="AL10">
-        <v>1.5748233917215414E-4</v>
-      </c>
-      <c r="AM10">
-        <v>5.6855220571969513E-5</v>
-      </c>
-      <c r="AN10">
-        <v>9.486696474055007E-5</v>
-      </c>
-      <c r="AO10">
-        <v>1.6229255681791347E-4</v>
-      </c>
-      <c r="AP10">
-        <v>5.3939130219564949E-6</v>
-      </c>
-      <c r="AQ10">
-        <v>-1.8903555715807498E-3</v>
-      </c>
+      <c r="H10"/>
+      <c r="I10" s="47"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
+      <c r="AL10"/>
+      <c r="AM10"/>
+      <c r="AN10"/>
+      <c r="AO10"/>
+      <c r="AP10"/>
+      <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -17873,114 +17378,42 @@
         <v>0</v>
       </c>
       <c r="G11"/>
-      <c r="H11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="47">
-        <v>-0.78721592830316789</v>
-      </c>
-      <c r="J11">
-        <v>-1.1470236695179599E-4</v>
-      </c>
-      <c r="K11">
-        <v>6.1559790372674736E-6</v>
-      </c>
-      <c r="L11">
-        <v>-1.3579741371066686E-7</v>
-      </c>
-      <c r="M11">
-        <v>1.3187074645356755E-4</v>
-      </c>
-      <c r="N11">
-        <v>3.8134024336651035E-4</v>
-      </c>
-      <c r="O11">
-        <v>7.6560642239787682E-4</v>
-      </c>
-      <c r="P11">
-        <v>7.8612566195335426E-4</v>
-      </c>
-      <c r="Q11">
-        <v>2.1758379394343479E-3</v>
-      </c>
-      <c r="R11">
-        <v>9.3128564045036138E-4</v>
-      </c>
-      <c r="S11">
-        <v>-4.9498899566781081E-4</v>
-      </c>
-      <c r="T11">
-        <v>-4.4951791329608597E-4</v>
-      </c>
-      <c r="U11">
-        <v>-5.5563343333458906E-4</v>
-      </c>
-      <c r="V11">
-        <v>-6.4663255059867458E-4</v>
-      </c>
-      <c r="W11">
-        <v>4.7837469470327239E-4</v>
-      </c>
-      <c r="X11">
-        <v>3.9731292680072355E-4</v>
-      </c>
-      <c r="Y11">
-        <v>3.3203338709621307E-4</v>
-      </c>
-      <c r="Z11">
-        <v>5.1199698995499712E-4</v>
-      </c>
-      <c r="AA11">
-        <v>3.4440935976168919E-4</v>
-      </c>
-      <c r="AB11">
-        <v>6.7326765333223864E-5</v>
-      </c>
-      <c r="AC11">
-        <v>1.9369655810391295E-4</v>
-      </c>
-      <c r="AD11">
-        <v>4.8401480656092011E-4</v>
-      </c>
-      <c r="AE11">
-        <v>3.9131966013050961E-4</v>
-      </c>
-      <c r="AF11">
-        <v>2.1754998541661787E-4</v>
-      </c>
-      <c r="AG11">
-        <v>1.6861400083713682E-4</v>
-      </c>
-      <c r="AH11">
-        <v>8.4745237022685715E-5</v>
-      </c>
-      <c r="AI11">
-        <v>9.6012200405124599E-5</v>
-      </c>
-      <c r="AJ11">
-        <v>2.8917186648809933E-4</v>
-      </c>
-      <c r="AK11">
-        <v>2.6936193966500902E-4</v>
-      </c>
-      <c r="AL11">
-        <v>1.6573373344537946E-4</v>
-      </c>
-      <c r="AM11">
-        <v>3.2543486990874214E-4</v>
-      </c>
-      <c r="AN11">
-        <v>1.4899216291891994E-4</v>
-      </c>
-      <c r="AO11">
-        <v>3.1805218348558923E-4</v>
-      </c>
-      <c r="AP11">
-        <v>5.4421892434410808E-6</v>
-      </c>
-      <c r="AQ11">
-        <v>-1.2022394808432089E-3</v>
-      </c>
+      <c r="H11"/>
+      <c r="I11" s="47"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
+      <c r="AL11"/>
+      <c r="AM11"/>
+      <c r="AN11"/>
+      <c r="AO11"/>
+      <c r="AP11"/>
+      <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -17996,114 +17429,42 @@
         <v>0</v>
       </c>
       <c r="G12"/>
-      <c r="H12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="47">
-        <v>-0.99804008840540492</v>
-      </c>
-      <c r="J12">
-        <v>-2.6024240279992356E-4</v>
-      </c>
-      <c r="K12">
-        <v>-7.4216006546169418E-6</v>
-      </c>
-      <c r="L12">
-        <v>1.0137510875611022E-7</v>
-      </c>
-      <c r="M12">
-        <v>4.5026047268643076E-4</v>
-      </c>
-      <c r="N12">
-        <v>6.549925607455796E-4</v>
-      </c>
-      <c r="O12">
-        <v>7.169539367878027E-4</v>
-      </c>
-      <c r="P12">
-        <v>7.9016271839875819E-4</v>
-      </c>
-      <c r="Q12">
-        <v>9.3128564045036138E-4</v>
-      </c>
-      <c r="R12">
-        <v>2.952027179763876E-3</v>
-      </c>
-      <c r="S12">
-        <v>-3.0442012228238031E-4</v>
-      </c>
-      <c r="T12">
-        <v>-2.7505553256895336E-4</v>
-      </c>
-      <c r="U12">
-        <v>-4.1952335505449404E-4</v>
-      </c>
-      <c r="V12">
-        <v>-3.6298786389098398E-4</v>
-      </c>
-      <c r="W12">
-        <v>3.5827594154032853E-4</v>
-      </c>
-      <c r="X12">
-        <v>3.1144317511255749E-4</v>
-      </c>
-      <c r="Y12">
-        <v>4.2476183831465278E-4</v>
-      </c>
-      <c r="Z12">
-        <v>1.9897870101492953E-4</v>
-      </c>
-      <c r="AA12">
-        <v>4.0499272698995772E-4</v>
-      </c>
-      <c r="AB12">
-        <v>5.2112404879399465E-4</v>
-      </c>
-      <c r="AC12">
-        <v>4.7150906142079754E-4</v>
-      </c>
-      <c r="AD12">
-        <v>8.0307276224332168E-4</v>
-      </c>
-      <c r="AE12">
-        <v>3.3967005862869259E-4</v>
-      </c>
-      <c r="AF12">
-        <v>2.4875394998677885E-4</v>
-      </c>
-      <c r="AG12">
-        <v>2.8840302061887652E-4</v>
-      </c>
-      <c r="AH12">
-        <v>2.9084296969698035E-4</v>
-      </c>
-      <c r="AI12">
-        <v>1.9391098470908662E-4</v>
-      </c>
-      <c r="AJ12">
-        <v>1.9069384863552928E-4</v>
-      </c>
-      <c r="AK12">
-        <v>1.1468423931124309E-4</v>
-      </c>
-      <c r="AL12">
-        <v>2.3555318654352081E-4</v>
-      </c>
-      <c r="AM12">
-        <v>2.8681794283297437E-4</v>
-      </c>
-      <c r="AN12">
-        <v>2.6501969576270192E-4</v>
-      </c>
-      <c r="AO12">
-        <v>2.9231483499745693E-4</v>
-      </c>
-      <c r="AP12">
-        <v>-2.4530077756221394E-5</v>
-      </c>
-      <c r="AQ12">
-        <v>-1.2641842863107971E-3</v>
-      </c>
+      <c r="H12"/>
+      <c r="I12" s="47"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12"/>
+      <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -18119,114 +17480,42 @@
         <v>0</v>
       </c>
       <c r="G13"/>
-      <c r="H13" t="s">
-        <v>142</v>
-      </c>
-      <c r="I13" s="47">
-        <v>1.6631231782117988</v>
-      </c>
-      <c r="J13">
-        <v>1.1139256202407304E-4</v>
-      </c>
-      <c r="K13">
-        <v>9.6834924145507964E-5</v>
-      </c>
-      <c r="L13">
-        <v>-1.0041058570878498E-6</v>
-      </c>
-      <c r="M13">
-        <v>-9.6775352656328084E-5</v>
-      </c>
-      <c r="N13">
-        <v>-5.2286015461645938E-4</v>
-      </c>
-      <c r="O13">
-        <v>-2.4308590844713672E-4</v>
-      </c>
-      <c r="P13">
-        <v>-3.9776687884390306E-4</v>
-      </c>
-      <c r="Q13">
-        <v>-4.9498899566781081E-4</v>
-      </c>
-      <c r="R13">
-        <v>-3.0442012228238031E-4</v>
-      </c>
-      <c r="S13">
-        <v>1.3663906032466533E-2</v>
-      </c>
-      <c r="T13">
-        <v>1.2294197070743361E-2</v>
-      </c>
-      <c r="U13">
-        <v>1.1698355101509633E-2</v>
-      </c>
-      <c r="V13">
-        <v>1.060255005674525E-2</v>
-      </c>
-      <c r="W13">
-        <v>-5.6579108127837278E-3</v>
-      </c>
-      <c r="X13">
-        <v>-4.9164974230783628E-3</v>
-      </c>
-      <c r="Y13">
-        <v>-4.3185385459342789E-3</v>
-      </c>
-      <c r="Z13">
-        <v>-3.1338983505659846E-3</v>
-      </c>
-      <c r="AA13">
-        <v>2.0635497752502052E-5</v>
-      </c>
-      <c r="AB13">
-        <v>-1.4502963137332913E-5</v>
-      </c>
-      <c r="AC13">
-        <v>2.3035332096288863E-5</v>
-      </c>
-      <c r="AD13">
-        <v>-4.989527862533209E-4</v>
-      </c>
-      <c r="AE13">
-        <v>-1.060942838846344E-3</v>
-      </c>
-      <c r="AF13">
-        <v>1.4669603664602387E-4</v>
-      </c>
-      <c r="AG13">
-        <v>-1.3803241006292736E-4</v>
-      </c>
-      <c r="AH13">
-        <v>-2.8179397688095353E-4</v>
-      </c>
-      <c r="AI13">
-        <v>-3.6685332366916991E-4</v>
-      </c>
-      <c r="AJ13">
-        <v>-4.0185980009484982E-4</v>
-      </c>
-      <c r="AK13">
-        <v>3.6664112218165804E-5</v>
-      </c>
-      <c r="AL13">
-        <v>-2.618814072370499E-4</v>
-      </c>
-      <c r="AM13">
-        <v>-5.1679815157479672E-4</v>
-      </c>
-      <c r="AN13">
-        <v>-2.3594827626988515E-4</v>
-      </c>
-      <c r="AO13">
-        <v>-3.6283822453167872E-4</v>
-      </c>
-      <c r="AP13">
-        <v>3.0476241633295821E-6</v>
-      </c>
-      <c r="AQ13">
-        <v>-9.0945248341246857E-3</v>
-      </c>
+      <c r="H13"/>
+      <c r="I13" s="47"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13"/>
+      <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -18242,114 +17531,42 @@
         <v>0</v>
       </c>
       <c r="G14"/>
-      <c r="H14" t="s">
-        <v>143</v>
-      </c>
-      <c r="I14" s="47">
-        <v>1.1168234145687983</v>
-      </c>
-      <c r="J14">
-        <v>1.7914005841761471E-4</v>
-      </c>
-      <c r="K14">
-        <v>6.6446287976950345E-5</v>
-      </c>
-      <c r="L14">
-        <v>-6.3108677611654758E-7</v>
-      </c>
-      <c r="M14">
-        <v>-9.4822637142202436E-5</v>
-      </c>
-      <c r="N14">
-        <v>-5.2615436803405097E-4</v>
-      </c>
-      <c r="O14">
-        <v>-2.678916584687895E-4</v>
-      </c>
-      <c r="P14">
-        <v>-3.9664177371042118E-4</v>
-      </c>
-      <c r="Q14">
-        <v>-4.4951791329608597E-4</v>
-      </c>
-      <c r="R14">
-        <v>-2.7505553256895336E-4</v>
-      </c>
-      <c r="S14">
-        <v>1.2294197070743361E-2</v>
-      </c>
-      <c r="T14">
-        <v>1.2823190967889283E-2</v>
-      </c>
-      <c r="U14">
-        <v>1.1793595517452618E-2</v>
-      </c>
-      <c r="V14">
-        <v>1.0627620933460358E-2</v>
-      </c>
-      <c r="W14">
-        <v>-4.7974439155468417E-3</v>
-      </c>
-      <c r="X14">
-        <v>-4.9384186236914544E-3</v>
-      </c>
-      <c r="Y14">
-        <v>-4.505097608847531E-3</v>
-      </c>
-      <c r="Z14">
-        <v>-3.1285755315341125E-3</v>
-      </c>
-      <c r="AA14">
-        <v>-4.1430179519482248E-5</v>
-      </c>
-      <c r="AB14">
-        <v>3.5206547883907379E-5</v>
-      </c>
-      <c r="AC14">
-        <v>2.9529559102182013E-5</v>
-      </c>
-      <c r="AD14">
-        <v>-3.4323934294178148E-4</v>
-      </c>
-      <c r="AE14">
-        <v>-1.1459044312094506E-3</v>
-      </c>
-      <c r="AF14">
-        <v>6.0909979499092996E-5</v>
-      </c>
-      <c r="AG14">
-        <v>-2.6454667488009804E-4</v>
-      </c>
-      <c r="AH14">
-        <v>-3.3995867190374663E-4</v>
-      </c>
-      <c r="AI14">
-        <v>-5.3156893990120423E-4</v>
-      </c>
-      <c r="AJ14">
-        <v>-4.2978568001342775E-4</v>
-      </c>
-      <c r="AK14">
-        <v>3.8811129883587533E-5</v>
-      </c>
-      <c r="AL14">
-        <v>-3.2429759029123546E-4</v>
-      </c>
-      <c r="AM14">
-        <v>-7.0991276276136063E-4</v>
-      </c>
-      <c r="AN14">
-        <v>-4.5181208446199144E-4</v>
-      </c>
-      <c r="AO14">
-        <v>-4.4467930443747253E-4</v>
-      </c>
-      <c r="AP14">
-        <v>-3.9463605416280257E-6</v>
-      </c>
-      <c r="AQ14">
-        <v>-8.4319400018704367E-3</v>
-      </c>
+      <c r="H14"/>
+      <c r="I14" s="47"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+      <c r="AK14"/>
+      <c r="AL14"/>
+      <c r="AM14"/>
+      <c r="AN14"/>
+      <c r="AO14"/>
+      <c r="AP14"/>
+      <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -18359,114 +17576,42 @@
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
       <c r="G15"/>
-      <c r="H15" t="s">
-        <v>144</v>
-      </c>
-      <c r="I15" s="47">
-        <v>0.60772171086371951</v>
-      </c>
-      <c r="J15">
-        <v>1.6327232193064859E-4</v>
-      </c>
-      <c r="K15">
-        <v>5.8843775571926498E-5</v>
-      </c>
-      <c r="L15">
-        <v>-4.2922813599933047E-7</v>
-      </c>
-      <c r="M15">
-        <v>-1.5939604360685014E-4</v>
-      </c>
-      <c r="N15">
-        <v>-5.2808149361866625E-4</v>
-      </c>
-      <c r="O15">
-        <v>-4.592897214688007E-4</v>
-      </c>
-      <c r="P15">
-        <v>-5.058801223920184E-4</v>
-      </c>
-      <c r="Q15">
-        <v>-5.5563343333458906E-4</v>
-      </c>
-      <c r="R15">
-        <v>-4.1952335505449404E-4</v>
-      </c>
-      <c r="S15">
-        <v>1.1698355101509633E-2</v>
-      </c>
-      <c r="T15">
-        <v>1.1793595517452618E-2</v>
-      </c>
-      <c r="U15">
-        <v>1.2657540593605467E-2</v>
-      </c>
-      <c r="V15">
-        <v>1.0703629571745735E-2</v>
-      </c>
-      <c r="W15">
-        <v>-4.3035843765346759E-3</v>
-      </c>
-      <c r="X15">
-        <v>-4.4533812383556089E-3</v>
-      </c>
-      <c r="Y15">
-        <v>-4.5769471490657437E-3</v>
-      </c>
-      <c r="Z15">
-        <v>-3.4424507099552522E-3</v>
-      </c>
-      <c r="AA15">
-        <v>-6.320701591674624E-5</v>
-      </c>
-      <c r="AB15">
-        <v>8.1559633782647602E-5</v>
-      </c>
-      <c r="AC15">
-        <v>5.4074279709010278E-5</v>
-      </c>
-      <c r="AD15">
-        <v>-3.2953336109498E-4</v>
-      </c>
-      <c r="AE15">
-        <v>-1.1310523039188671E-3</v>
-      </c>
-      <c r="AF15">
-        <v>5.0276617605021952E-6</v>
-      </c>
-      <c r="AG15">
-        <v>-4.3948147443627177E-4</v>
-      </c>
-      <c r="AH15">
-        <v>-5.1323272999809731E-4</v>
-      </c>
-      <c r="AI15">
-        <v>-4.9862667220478083E-4</v>
-      </c>
-      <c r="AJ15">
-        <v>-4.3322605628628996E-4</v>
-      </c>
-      <c r="AK15">
-        <v>-1.9963382035225082E-4</v>
-      </c>
-      <c r="AL15">
-        <v>-4.5161843086875472E-4</v>
-      </c>
-      <c r="AM15">
-        <v>-8.9691200955641223E-4</v>
-      </c>
-      <c r="AN15">
-        <v>-6.5605867212804305E-4</v>
-      </c>
-      <c r="AO15">
-        <v>-5.6393681097274048E-4</v>
-      </c>
-      <c r="AP15">
-        <v>-1.0901070852298539E-5</v>
-      </c>
-      <c r="AQ15">
-        <v>-8.163651813512536E-3</v>
-      </c>
+      <c r="H15"/>
+      <c r="I15" s="47"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+      <c r="AK15"/>
+      <c r="AL15"/>
+      <c r="AM15"/>
+      <c r="AN15"/>
+      <c r="AO15"/>
+      <c r="AP15"/>
+      <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -18482,114 +17627,42 @@
         <v>0</v>
       </c>
       <c r="G16"/>
-      <c r="H16" t="s">
-        <v>145</v>
-      </c>
-      <c r="I16" s="47">
-        <v>0.26236861818682444</v>
-      </c>
-      <c r="J16">
-        <v>1.8937730326684793E-4</v>
-      </c>
-      <c r="K16">
-        <v>1.1029444674445652E-4</v>
-      </c>
-      <c r="L16">
-        <v>-1.1097304153802518E-6</v>
-      </c>
-      <c r="M16">
-        <v>7.8314294775036312E-5</v>
-      </c>
-      <c r="N16">
-        <v>-1.377950329757368E-4</v>
-      </c>
-      <c r="O16">
-        <v>-3.0752455634113732E-4</v>
-      </c>
-      <c r="P16">
-        <v>-1.1046788091593845E-4</v>
-      </c>
-      <c r="Q16">
-        <v>-6.4663255059867458E-4</v>
-      </c>
-      <c r="R16">
-        <v>-3.6298786389098398E-4</v>
-      </c>
-      <c r="S16">
-        <v>1.060255005674525E-2</v>
-      </c>
-      <c r="T16">
-        <v>1.0627620933460358E-2</v>
-      </c>
-      <c r="U16">
-        <v>1.0703629571745735E-2</v>
-      </c>
-      <c r="V16">
-        <v>1.2926561562560989E-2</v>
-      </c>
-      <c r="W16">
-        <v>-2.8784409038518132E-3</v>
-      </c>
-      <c r="X16">
-        <v>-2.9591012184355739E-3</v>
-      </c>
-      <c r="Y16">
-        <v>-2.9879431488591328E-3</v>
-      </c>
-      <c r="Z16">
-        <v>-3.2734094719196623E-3</v>
-      </c>
-      <c r="AA16">
-        <v>-1.4278379702353089E-4</v>
-      </c>
-      <c r="AB16">
-        <v>-1.219034775508587E-4</v>
-      </c>
-      <c r="AC16">
-        <v>9.5646924406883084E-5</v>
-      </c>
-      <c r="AD16">
-        <v>-4.4224929874572957E-4</v>
-      </c>
-      <c r="AE16">
-        <v>-9.6771971075978493E-4</v>
-      </c>
-      <c r="AF16">
-        <v>4.3107170906231439E-4</v>
-      </c>
-      <c r="AG16">
-        <v>-7.8224180352351545E-5</v>
-      </c>
-      <c r="AH16">
-        <v>8.5434270915740046E-5</v>
-      </c>
-      <c r="AI16">
-        <v>-2.3092758706598493E-4</v>
-      </c>
-      <c r="AJ16">
-        <v>1.9546351133942381E-4</v>
-      </c>
-      <c r="AK16">
-        <v>-7.6732731861421655E-5</v>
-      </c>
-      <c r="AL16">
-        <v>-2.0187066009082297E-4</v>
-      </c>
-      <c r="AM16">
-        <v>-5.8834612418136702E-4</v>
-      </c>
-      <c r="AN16">
-        <v>-4.3325552544317726E-4</v>
-      </c>
-      <c r="AO16">
-        <v>-3.6499088519130907E-4</v>
-      </c>
-      <c r="AP16">
-        <v>9.6145521576087179E-7</v>
-      </c>
-      <c r="AQ16">
-        <v>-9.9800629420479237E-3</v>
-      </c>
+      <c r="H16"/>
+      <c r="I16" s="47"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
+      <c r="AL16"/>
+      <c r="AM16"/>
+      <c r="AN16"/>
+      <c r="AO16"/>
+      <c r="AP16"/>
+      <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -18605,114 +17678,42 @@
         <v>0</v>
       </c>
       <c r="G17"/>
-      <c r="H17" t="s">
-        <v>100</v>
-      </c>
-      <c r="I17" s="47">
-        <v>0.16871270304391586</v>
-      </c>
-      <c r="J17">
-        <v>-1.0771676236334479E-4</v>
-      </c>
-      <c r="K17">
-        <v>-1.8439933209777335E-6</v>
-      </c>
-      <c r="L17">
-        <v>-6.6729877126834707E-8</v>
-      </c>
-      <c r="M17">
-        <v>-3.0141423804179907E-4</v>
-      </c>
-      <c r="N17">
-        <v>-1.5357224442947057E-4</v>
-      </c>
-      <c r="O17">
-        <v>2.3110727641706126E-4</v>
-      </c>
-      <c r="P17">
-        <v>4.6485155560111282E-4</v>
-      </c>
-      <c r="Q17">
-        <v>4.7837469470327239E-4</v>
-      </c>
-      <c r="R17">
-        <v>3.5827594154032853E-4</v>
-      </c>
-      <c r="S17">
-        <v>-5.6579108127837278E-3</v>
-      </c>
-      <c r="T17">
-        <v>-4.7974439155468417E-3</v>
-      </c>
-      <c r="U17">
-        <v>-4.3035843765346759E-3</v>
-      </c>
-      <c r="V17">
-        <v>-2.8784409038518132E-3</v>
-      </c>
-      <c r="W17">
-        <v>9.9240235667652551E-3</v>
-      </c>
-      <c r="X17">
-        <v>8.3050281075867094E-3</v>
-      </c>
-      <c r="Y17">
-        <v>7.7493289181211249E-3</v>
-      </c>
-      <c r="Z17">
-        <v>6.6424299593588598E-3</v>
-      </c>
-      <c r="AA17">
-        <v>-5.3390124863159332E-4</v>
-      </c>
-      <c r="AB17">
-        <v>2.8884994373264876E-4</v>
-      </c>
-      <c r="AC17">
-        <v>1.8242007442286824E-6</v>
-      </c>
-      <c r="AD17">
-        <v>3.6268811635420384E-4</v>
-      </c>
-      <c r="AE17">
-        <v>-2.4502364778232304E-4</v>
-      </c>
-      <c r="AF17">
-        <v>-5.3356665025964655E-4</v>
-      </c>
-      <c r="AG17">
-        <v>-3.3577827338704988E-4</v>
-      </c>
-      <c r="AH17">
-        <v>3.013581486947162E-4</v>
-      </c>
-      <c r="AI17">
-        <v>-2.4487021026407688E-4</v>
-      </c>
-      <c r="AJ17">
-        <v>9.0887440921515227E-5</v>
-      </c>
-      <c r="AK17">
-        <v>-1.2268337015319624E-4</v>
-      </c>
-      <c r="AL17">
-        <v>8.4772573270268815E-6</v>
-      </c>
-      <c r="AM17">
-        <v>2.0945948178898647E-4</v>
-      </c>
-      <c r="AN17">
-        <v>-5.1955086894066283E-5</v>
-      </c>
-      <c r="AO17">
-        <v>1.803493385603705E-4</v>
-      </c>
-      <c r="AP17">
-        <v>1.5525568133286955E-6</v>
-      </c>
-      <c r="AQ17">
-        <v>-2.9454827508576327E-3</v>
-      </c>
+      <c r="H17"/>
+      <c r="I17" s="47"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17"/>
+      <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -18728,114 +17729,42 @@
         <v>0</v>
       </c>
       <c r="G18"/>
-      <c r="H18" t="s">
-        <v>101</v>
-      </c>
-      <c r="I18" s="47">
-        <v>7.2677747813148008E-2</v>
-      </c>
-      <c r="J18">
-        <v>-1.0564718394100322E-4</v>
-      </c>
-      <c r="K18">
-        <v>-1.2121117044501019E-5</v>
-      </c>
-      <c r="L18">
-        <v>5.5123987845709872E-8</v>
-      </c>
-      <c r="M18">
-        <v>-3.8014030825715662E-4</v>
-      </c>
-      <c r="N18">
-        <v>-2.3389708717848877E-4</v>
-      </c>
-      <c r="O18">
-        <v>1.923345298116179E-4</v>
-      </c>
-      <c r="P18">
-        <v>4.9803730323172218E-4</v>
-      </c>
-      <c r="Q18">
-        <v>3.9731292680072355E-4</v>
-      </c>
-      <c r="R18">
-        <v>3.1144317511255749E-4</v>
-      </c>
-      <c r="S18">
-        <v>-4.9164974230783628E-3</v>
-      </c>
-      <c r="T18">
-        <v>-4.9384186236914544E-3</v>
-      </c>
-      <c r="U18">
-        <v>-4.4533812383556089E-3</v>
-      </c>
-      <c r="V18">
-        <v>-2.9591012184355739E-3</v>
-      </c>
-      <c r="W18">
-        <v>8.3050281075867094E-3</v>
-      </c>
-      <c r="X18">
-        <v>8.8117545174281903E-3</v>
-      </c>
-      <c r="Y18">
-        <v>7.807602408663232E-3</v>
-      </c>
-      <c r="Z18">
-        <v>6.7065957169113212E-3</v>
-      </c>
-      <c r="AA18">
-        <v>-2.0376817658056975E-4</v>
-      </c>
-      <c r="AB18">
-        <v>3.1477286544057581E-4</v>
-      </c>
-      <c r="AC18">
-        <v>3.1391133905859977E-5</v>
-      </c>
-      <c r="AD18">
-        <v>3.3894567588992015E-4</v>
-      </c>
-      <c r="AE18">
-        <v>-1.8739337731266061E-4</v>
-      </c>
-      <c r="AF18">
-        <v>-4.5675919150763565E-4</v>
-      </c>
-      <c r="AG18">
-        <v>-6.2705560720569941E-5</v>
-      </c>
-      <c r="AH18">
-        <v>2.4462249114652027E-4</v>
-      </c>
-      <c r="AI18">
-        <v>-2.2467368139375251E-4</v>
-      </c>
-      <c r="AJ18">
-        <v>6.111302311444136E-5</v>
-      </c>
-      <c r="AK18">
-        <v>-5.9943301714432428E-5</v>
-      </c>
-      <c r="AL18">
-        <v>5.225265012437732E-5</v>
-      </c>
-      <c r="AM18">
-        <v>1.9677086811014256E-4</v>
-      </c>
-      <c r="AN18">
-        <v>5.8886714375629905E-5</v>
-      </c>
-      <c r="AO18">
-        <v>1.6811686012786439E-4</v>
-      </c>
-      <c r="AP18">
-        <v>9.5525505914044115E-8</v>
-      </c>
-      <c r="AQ18">
-        <v>-2.7223585082279565E-3</v>
-      </c>
+      <c r="H18"/>
+      <c r="I18" s="47"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18"/>
+      <c r="AN18"/>
+      <c r="AO18"/>
+      <c r="AP18"/>
+      <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -18851,114 +17780,42 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G19"/>
-      <c r="H19" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" s="47">
-        <v>-0.14501266594886403</v>
-      </c>
-      <c r="J19">
-        <v>-1.8226228713842096E-4</v>
-      </c>
-      <c r="K19">
-        <v>-1.451657086369416E-5</v>
-      </c>
-      <c r="L19">
-        <v>7.7851643576016448E-8</v>
-      </c>
-      <c r="M19">
-        <v>-2.8301959316147601E-4</v>
-      </c>
-      <c r="N19">
-        <v>-1.5374731647574554E-4</v>
-      </c>
-      <c r="O19">
-        <v>3.2719378755038562E-4</v>
-      </c>
-      <c r="P19">
-        <v>4.3999364277854091E-4</v>
-      </c>
-      <c r="Q19">
-        <v>3.3203338709621307E-4</v>
-      </c>
-      <c r="R19">
-        <v>4.2476183831465278E-4</v>
-      </c>
-      <c r="S19">
-        <v>-4.3185385459342789E-3</v>
-      </c>
-      <c r="T19">
-        <v>-4.505097608847531E-3</v>
-      </c>
-      <c r="U19">
-        <v>-4.5769471490657437E-3</v>
-      </c>
-      <c r="V19">
-        <v>-2.9879431488591328E-3</v>
-      </c>
-      <c r="W19">
-        <v>7.7493289181211249E-3</v>
-      </c>
-      <c r="X19">
-        <v>7.807602408663232E-3</v>
-      </c>
-      <c r="Y19">
-        <v>8.6135852642294265E-3</v>
-      </c>
-      <c r="Z19">
-        <v>6.8261325821777769E-3</v>
-      </c>
-      <c r="AA19">
-        <v>1.3072673754048415E-5</v>
-      </c>
-      <c r="AB19">
-        <v>1.4601076612277451E-4</v>
-      </c>
-      <c r="AC19">
-        <v>-5.2750213968622044E-5</v>
-      </c>
-      <c r="AD19">
-        <v>1.9028346789570902E-4</v>
-      </c>
-      <c r="AE19">
-        <v>-6.925647439348084E-5</v>
-      </c>
-      <c r="AF19">
-        <v>-4.5198964333850386E-4</v>
-      </c>
-      <c r="AG19">
-        <v>-1.3613545620931328E-4</v>
-      </c>
-      <c r="AH19">
-        <v>2.7148009930853573E-4</v>
-      </c>
-      <c r="AI19">
-        <v>-2.5333426846002116E-5</v>
-      </c>
-      <c r="AJ19">
-        <v>2.7719310387806111E-4</v>
-      </c>
-      <c r="AK19">
-        <v>-4.6323455686800709E-5</v>
-      </c>
-      <c r="AL19">
-        <v>1.0534886787780728E-4</v>
-      </c>
-      <c r="AM19">
-        <v>3.927064909716076E-4</v>
-      </c>
-      <c r="AN19">
-        <v>2.2632303899510397E-4</v>
-      </c>
-      <c r="AO19">
-        <v>3.6508579544375992E-4</v>
-      </c>
-      <c r="AP19">
-        <v>-7.5978172932100263E-8</v>
-      </c>
-      <c r="AQ19">
-        <v>-2.799192375726736E-3</v>
-      </c>
+      <c r="H19"/>
+      <c r="I19" s="47"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
+      <c r="AJ19"/>
+      <c r="AK19"/>
+      <c r="AL19"/>
+      <c r="AM19"/>
+      <c r="AN19"/>
+      <c r="AO19"/>
+      <c r="AP19"/>
+      <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -18968,114 +17825,42 @@
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="G20"/>
-      <c r="H20" t="s">
-        <v>103</v>
-      </c>
-      <c r="I20" s="47">
-        <v>-0.16100231054819378</v>
-      </c>
-      <c r="J20">
-        <v>-1.0206869247006805E-4</v>
-      </c>
-      <c r="K20">
-        <v>-1.0852950053712439E-4</v>
-      </c>
-      <c r="L20">
-        <v>1.2110120727260064E-6</v>
-      </c>
-      <c r="M20">
-        <v>-8.4117598516411814E-5</v>
-      </c>
-      <c r="N20">
-        <v>-2.8097680502338872E-4</v>
-      </c>
-      <c r="O20">
-        <v>1.5969019330105511E-4</v>
-      </c>
-      <c r="P20">
-        <v>1.9310855094889181E-4</v>
-      </c>
-      <c r="Q20">
-        <v>5.1199698995499712E-4</v>
-      </c>
-      <c r="R20">
-        <v>1.9897870101492953E-4</v>
-      </c>
-      <c r="S20">
-        <v>-3.1338983505659846E-3</v>
-      </c>
-      <c r="T20">
-        <v>-3.1285755315341125E-3</v>
-      </c>
-      <c r="U20">
-        <v>-3.4424507099552522E-3</v>
-      </c>
-      <c r="V20">
-        <v>-3.2734094719196623E-3</v>
-      </c>
-      <c r="W20">
-        <v>6.6424299593588598E-3</v>
-      </c>
-      <c r="X20">
-        <v>6.7065957169113212E-3</v>
-      </c>
-      <c r="Y20">
-        <v>6.8261325821777769E-3</v>
-      </c>
-      <c r="Z20">
-        <v>8.4272850895478254E-3</v>
-      </c>
-      <c r="AA20">
-        <v>2.2915895111893324E-4</v>
-      </c>
-      <c r="AB20">
-        <v>3.3220075274687964E-4</v>
-      </c>
-      <c r="AC20">
-        <v>-3.3125645317610703E-4</v>
-      </c>
-      <c r="AD20">
-        <v>2.8995989562650043E-4</v>
-      </c>
-      <c r="AE20">
-        <v>-4.5171904771601035E-4</v>
-      </c>
-      <c r="AF20">
-        <v>-7.6231622938906208E-4</v>
-      </c>
-      <c r="AG20">
-        <v>-2.3780321369531229E-4</v>
-      </c>
-      <c r="AH20">
-        <v>2.4538737211627195E-5</v>
-      </c>
-      <c r="AI20">
-        <v>-1.7747076012674724E-4</v>
-      </c>
-      <c r="AJ20">
-        <v>-2.5052019748397292E-4</v>
-      </c>
-      <c r="AK20">
-        <v>1.117111843239153E-5</v>
-      </c>
-      <c r="AL20">
-        <v>-1.0052535965597532E-4</v>
-      </c>
-      <c r="AM20">
-        <v>4.7102399483079684E-5</v>
-      </c>
-      <c r="AN20">
-        <v>-5.0783404417059077E-5</v>
-      </c>
-      <c r="AO20">
-        <v>1.2434880955627513E-4</v>
-      </c>
-      <c r="AP20">
-        <v>3.1691933824627358E-5</v>
-      </c>
-      <c r="AQ20">
-        <v>-1.5949327945432631E-3</v>
-      </c>
+      <c r="H20"/>
+      <c r="I20" s="47"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+      <c r="AK20"/>
+      <c r="AL20"/>
+      <c r="AM20"/>
+      <c r="AN20"/>
+      <c r="AO20"/>
+      <c r="AP20"/>
+      <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -19091,114 +17876,42 @@
         <v>0.09</v>
       </c>
       <c r="G21"/>
-      <c r="H21" t="s">
-        <v>83</v>
-      </c>
-      <c r="I21" s="47">
-        <v>1.886057509339147</v>
-      </c>
-      <c r="J21">
-        <v>-1.3359984183512714E-5</v>
-      </c>
-      <c r="K21">
-        <v>-5.7232128237783602E-5</v>
-      </c>
-      <c r="L21">
-        <v>5.8674033137995082E-7</v>
-      </c>
-      <c r="M21">
-        <v>6.3529203282005562E-5</v>
-      </c>
-      <c r="N21">
-        <v>2.9808900406737678E-5</v>
-      </c>
-      <c r="O21">
-        <v>2.3703765699794975E-4</v>
-      </c>
-      <c r="P21">
-        <v>2.8135115644912026E-4</v>
-      </c>
-      <c r="Q21">
-        <v>3.4440935976168919E-4</v>
-      </c>
-      <c r="R21">
-        <v>4.0499272698995772E-4</v>
-      </c>
-      <c r="S21">
-        <v>2.0635497752502052E-5</v>
-      </c>
-      <c r="T21">
-        <v>-4.1430179519482248E-5</v>
-      </c>
-      <c r="U21">
-        <v>-6.320701591674624E-5</v>
-      </c>
-      <c r="V21">
-        <v>-1.4278379702353089E-4</v>
-      </c>
-      <c r="W21">
-        <v>-5.3390124863159332E-4</v>
-      </c>
-      <c r="X21">
-        <v>-2.0376817658056975E-4</v>
-      </c>
-      <c r="Y21">
-        <v>1.3072673754048415E-5</v>
-      </c>
-      <c r="Z21">
-        <v>2.2915895111893324E-4</v>
-      </c>
-      <c r="AA21">
-        <v>1.5452983771693299E-3</v>
-      </c>
-      <c r="AB21">
-        <v>6.4693978278961825E-5</v>
-      </c>
-      <c r="AC21">
-        <v>-9.4118585314219505E-5</v>
-      </c>
-      <c r="AD21">
-        <v>6.6180467238451332E-5</v>
-      </c>
-      <c r="AE21">
-        <v>4.226282501733667E-5</v>
-      </c>
-      <c r="AF21">
-        <v>-1.0291063486781305E-4</v>
-      </c>
-      <c r="AG21">
-        <v>-1.6114365804566802E-5</v>
-      </c>
-      <c r="AH21">
-        <v>-8.1067515109987151E-5</v>
-      </c>
-      <c r="AI21">
-        <v>8.1913871537381082E-6</v>
-      </c>
-      <c r="AJ21">
-        <v>-7.6907773037931194E-5</v>
-      </c>
-      <c r="AK21">
-        <v>-4.8202042033732977E-5</v>
-      </c>
-      <c r="AL21">
-        <v>-1.0824209946675182E-4</v>
-      </c>
-      <c r="AM21">
-        <v>-2.8216998564374921E-5</v>
-      </c>
-      <c r="AN21">
-        <v>-3.7070858881529153E-5</v>
-      </c>
-      <c r="AO21">
-        <v>-7.2733544900411315E-5</v>
-      </c>
-      <c r="AP21">
-        <v>1.2653110333725994E-5</v>
-      </c>
-      <c r="AQ21">
-        <v>7.7070994774891619E-4</v>
-      </c>
+      <c r="H21"/>
+      <c r="I21" s="47"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
+      <c r="AJ21"/>
+      <c r="AK21"/>
+      <c r="AL21"/>
+      <c r="AM21"/>
+      <c r="AN21"/>
+      <c r="AO21"/>
+      <c r="AP21"/>
+      <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -19214,114 +17927,42 @@
         <v>0.439</v>
       </c>
       <c r="G22"/>
-      <c r="H22" t="s">
-        <v>71</v>
-      </c>
-      <c r="I22" s="47">
-        <v>-0.21146197763246732</v>
-      </c>
-      <c r="J22">
-        <v>-1.4362565859562406E-4</v>
-      </c>
-      <c r="K22">
-        <v>-5.4432273368076748E-5</v>
-      </c>
-      <c r="L22">
-        <v>8.9830412468759305E-7</v>
-      </c>
-      <c r="M22">
-        <v>2.2547862871807683E-5</v>
-      </c>
-      <c r="N22">
-        <v>-5.5254127371698932E-5</v>
-      </c>
-      <c r="O22">
-        <v>-1.0025909823821558E-4</v>
-      </c>
-      <c r="P22">
-        <v>-4.4585310637305681E-5</v>
-      </c>
-      <c r="Q22">
-        <v>6.7326765333223864E-5</v>
-      </c>
-      <c r="R22">
-        <v>5.2112404879399465E-4</v>
-      </c>
-      <c r="S22">
-        <v>-1.4502963137332913E-5</v>
-      </c>
-      <c r="T22">
-        <v>3.5206547883907379E-5</v>
-      </c>
-      <c r="U22">
-        <v>8.1559633782647602E-5</v>
-      </c>
-      <c r="V22">
-        <v>-1.219034775508587E-4</v>
-      </c>
-      <c r="W22">
-        <v>2.8884994373264876E-4</v>
-      </c>
-      <c r="X22">
-        <v>3.1477286544057581E-4</v>
-      </c>
-      <c r="Y22">
-        <v>1.4601076612277451E-4</v>
-      </c>
-      <c r="Z22">
-        <v>3.3220075274687964E-4</v>
-      </c>
-      <c r="AA22">
-        <v>6.4693978278961825E-5</v>
-      </c>
-      <c r="AB22">
-        <v>2.1365024371543615E-3</v>
-      </c>
-      <c r="AC22">
-        <v>9.0080571533987508E-4</v>
-      </c>
-      <c r="AD22">
-        <v>1.2768841050124435E-3</v>
-      </c>
-      <c r="AE22">
-        <v>1.8999366169349056E-4</v>
-      </c>
-      <c r="AF22">
-        <v>1.6570509886762669E-4</v>
-      </c>
-      <c r="AG22">
-        <v>1.7350961157258237E-4</v>
-      </c>
-      <c r="AH22">
-        <v>3.7154101508396573E-4</v>
-      </c>
-      <c r="AI22">
-        <v>1.729922873784211E-4</v>
-      </c>
-      <c r="AJ22">
-        <v>-5.9458974466511253E-5</v>
-      </c>
-      <c r="AK22">
-        <v>-2.7469545710273455E-5</v>
-      </c>
-      <c r="AL22">
-        <v>2.1685596724060018E-4</v>
-      </c>
-      <c r="AM22">
-        <v>1.0016795333092824E-4</v>
-      </c>
-      <c r="AN22">
-        <v>1.0848997602183304E-5</v>
-      </c>
-      <c r="AO22">
-        <v>2.1038802893659703E-4</v>
-      </c>
-      <c r="AP22">
-        <v>-2.3150854284806388E-5</v>
-      </c>
-      <c r="AQ22">
-        <v>-6.3518917230409784E-4</v>
-      </c>
+      <c r="H22"/>
+      <c r="I22" s="47"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
+      <c r="AH22"/>
+      <c r="AI22"/>
+      <c r="AJ22"/>
+      <c r="AK22"/>
+      <c r="AL22"/>
+      <c r="AM22"/>
+      <c r="AN22"/>
+      <c r="AO22"/>
+      <c r="AP22"/>
+      <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -19337,114 +17978,42 @@
         <v>0.11799999999999999</v>
       </c>
       <c r="G23"/>
-      <c r="H23" t="s">
-        <v>72</v>
-      </c>
-      <c r="I23" s="47">
-        <v>7.3620139258141259E-2</v>
-      </c>
-      <c r="J23">
-        <v>-8.0895557393649049E-5</v>
-      </c>
-      <c r="K23">
-        <v>9.2565322367456248E-5</v>
-      </c>
-      <c r="L23">
-        <v>-8.2964276444319758E-7</v>
-      </c>
-      <c r="M23">
-        <v>-1.0720821259159469E-4</v>
-      </c>
-      <c r="N23">
-        <v>-8.2775820624159113E-5</v>
-      </c>
-      <c r="O23">
-        <v>2.4303843952997952E-4</v>
-      </c>
-      <c r="P23">
-        <v>1.3635306315146249E-4</v>
-      </c>
-      <c r="Q23">
-        <v>1.9369655810391295E-4</v>
-      </c>
-      <c r="R23">
-        <v>4.7150906142079754E-4</v>
-      </c>
-      <c r="S23">
-        <v>2.3035332096288863E-5</v>
-      </c>
-      <c r="T23">
-        <v>2.9529559102182013E-5</v>
-      </c>
-      <c r="U23">
-        <v>5.4074279709010278E-5</v>
-      </c>
-      <c r="V23">
-        <v>9.5646924406883084E-5</v>
-      </c>
-      <c r="W23">
-        <v>1.8242007442286824E-6</v>
-      </c>
-      <c r="X23">
-        <v>3.1391133905859977E-5</v>
-      </c>
-      <c r="Y23">
-        <v>-5.2750213968622044E-5</v>
-      </c>
-      <c r="Z23">
-        <v>-3.3125645317610703E-4</v>
-      </c>
-      <c r="AA23">
-        <v>-9.4118585314219505E-5</v>
-      </c>
-      <c r="AB23">
-        <v>9.0080571533987508E-4</v>
-      </c>
-      <c r="AC23">
-        <v>1.5390403823955191E-3</v>
-      </c>
-      <c r="AD23">
-        <v>1.0466834622503071E-3</v>
-      </c>
-      <c r="AE23">
-        <v>3.7259574579151826E-4</v>
-      </c>
-      <c r="AF23">
-        <v>3.4948006904977674E-4</v>
-      </c>
-      <c r="AG23">
-        <v>2.9838787308472594E-4</v>
-      </c>
-      <c r="AH23">
-        <v>2.9397666718028654E-4</v>
-      </c>
-      <c r="AI23">
-        <v>1.9739525963651504E-4</v>
-      </c>
-      <c r="AJ23">
-        <v>1.0513492454891724E-4</v>
-      </c>
-      <c r="AK23">
-        <v>3.5531726023204334E-5</v>
-      </c>
-      <c r="AL23">
-        <v>2.9754708073001773E-4</v>
-      </c>
-      <c r="AM23">
-        <v>3.0549669665098954E-4</v>
-      </c>
-      <c r="AN23">
-        <v>9.6272365150075869E-5</v>
-      </c>
-      <c r="AO23">
-        <v>1.5234635300167458E-4</v>
-      </c>
-      <c r="AP23">
-        <v>-1.9781888863354576E-5</v>
-      </c>
-      <c r="AQ23">
-        <v>-3.1951203387579189E-3</v>
-      </c>
+      <c r="H23"/>
+      <c r="I23" s="47"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
+      <c r="AI23"/>
+      <c r="AJ23"/>
+      <c r="AK23"/>
+      <c r="AL23"/>
+      <c r="AM23"/>
+      <c r="AN23"/>
+      <c r="AO23"/>
+      <c r="AP23"/>
+      <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -19460,114 +18029,42 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="G24"/>
-      <c r="H24" t="s">
-        <v>73</v>
-      </c>
-      <c r="I24" s="47">
-        <v>-0.19030282815108587</v>
-      </c>
-      <c r="J24">
-        <v>1.5086360570841184E-4</v>
-      </c>
-      <c r="K24">
-        <v>1.2816773123985127E-5</v>
-      </c>
-      <c r="L24">
-        <v>2.0917769210004647E-7</v>
-      </c>
-      <c r="M24">
-        <v>-1.0717289568344765E-4</v>
-      </c>
-      <c r="N24">
-        <v>-4.1674939546623073E-5</v>
-      </c>
-      <c r="O24">
-        <v>1.2096951318704246E-4</v>
-      </c>
-      <c r="P24">
-        <v>2.9745787578277301E-4</v>
-      </c>
-      <c r="Q24">
-        <v>4.8401480656092011E-4</v>
-      </c>
-      <c r="R24">
-        <v>8.0307276224332168E-4</v>
-      </c>
-      <c r="S24">
-        <v>-4.989527862533209E-4</v>
-      </c>
-      <c r="T24">
-        <v>-3.4323934294178148E-4</v>
-      </c>
-      <c r="U24">
-        <v>-3.2953336109498E-4</v>
-      </c>
-      <c r="V24">
-        <v>-4.4224929874572957E-4</v>
-      </c>
-      <c r="W24">
-        <v>3.6268811635420384E-4</v>
-      </c>
-      <c r="X24">
-        <v>3.3894567588992015E-4</v>
-      </c>
-      <c r="Y24">
-        <v>1.9028346789570902E-4</v>
-      </c>
-      <c r="Z24">
-        <v>2.8995989562650043E-4</v>
-      </c>
-      <c r="AA24">
-        <v>6.6180467238451332E-5</v>
-      </c>
-      <c r="AB24">
-        <v>1.2768841050124435E-3</v>
-      </c>
-      <c r="AC24">
-        <v>1.0466834622503071E-3</v>
-      </c>
-      <c r="AD24">
-        <v>4.0268810614106131E-3</v>
-      </c>
-      <c r="AE24">
-        <v>5.4651923072001403E-4</v>
-      </c>
-      <c r="AF24">
-        <v>4.3945751743571871E-4</v>
-      </c>
-      <c r="AG24">
-        <v>4.1953977256448366E-4</v>
-      </c>
-      <c r="AH24">
-        <v>3.2102188380305592E-4</v>
-      </c>
-      <c r="AI24">
-        <v>1.6758806384259038E-4</v>
-      </c>
-      <c r="AJ24">
-        <v>1.7279685589083966E-4</v>
-      </c>
-      <c r="AK24">
-        <v>1.1465179169257398E-4</v>
-      </c>
-      <c r="AL24">
-        <v>3.8570356319526434E-4</v>
-      </c>
-      <c r="AM24">
-        <v>1.6714200181895461E-4</v>
-      </c>
-      <c r="AN24">
-        <v>2.7462655609768459E-4</v>
-      </c>
-      <c r="AO24">
-        <v>2.4333814828698497E-4</v>
-      </c>
-      <c r="AP24">
-        <v>-4.9178638845981143E-6</v>
-      </c>
-      <c r="AQ24">
-        <v>-2.5597806506792585E-3</v>
-      </c>
+      <c r="H24"/>
+      <c r="I24" s="47"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24"/>
+      <c r="AH24"/>
+      <c r="AI24"/>
+      <c r="AJ24"/>
+      <c r="AK24"/>
+      <c r="AL24"/>
+      <c r="AM24"/>
+      <c r="AN24"/>
+      <c r="AO24"/>
+      <c r="AP24"/>
+      <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -19583,114 +18080,42 @@
         <v>0</v>
       </c>
       <c r="G25"/>
-      <c r="H25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" s="47">
-        <v>0.17969560384280261</v>
-      </c>
-      <c r="J25">
-        <v>-9.0268750407439973E-5</v>
-      </c>
-      <c r="K25">
-        <v>5.0825259634968258E-5</v>
-      </c>
-      <c r="L25">
-        <v>-6.8939954326092707E-7</v>
-      </c>
-      <c r="M25">
-        <v>2.3415981172823688E-4</v>
-      </c>
-      <c r="N25">
-        <v>3.8931963242128359E-4</v>
-      </c>
-      <c r="O25">
-        <v>1.0422626666896053E-4</v>
-      </c>
-      <c r="P25">
-        <v>2.4595382528704214E-4</v>
-      </c>
-      <c r="Q25">
-        <v>3.9131966013050961E-4</v>
-      </c>
-      <c r="R25">
-        <v>3.3967005862869259E-4</v>
-      </c>
-      <c r="S25">
-        <v>-1.060942838846344E-3</v>
-      </c>
-      <c r="T25">
-        <v>-1.1459044312094506E-3</v>
-      </c>
-      <c r="U25">
-        <v>-1.1310523039188671E-3</v>
-      </c>
-      <c r="V25">
-        <v>-9.6771971075978493E-4</v>
-      </c>
-      <c r="W25">
-        <v>-2.4502364778232304E-4</v>
-      </c>
-      <c r="X25">
-        <v>-1.8739337731266061E-4</v>
-      </c>
-      <c r="Y25">
-        <v>-6.925647439348084E-5</v>
-      </c>
-      <c r="Z25">
-        <v>-4.5171904771601035E-4</v>
-      </c>
-      <c r="AA25">
-        <v>4.226282501733667E-5</v>
-      </c>
-      <c r="AB25">
-        <v>1.8999366169349056E-4</v>
-      </c>
-      <c r="AC25">
-        <v>3.7259574579151826E-4</v>
-      </c>
-      <c r="AD25">
-        <v>5.4651923072001403E-4</v>
-      </c>
-      <c r="AE25">
-        <v>7.2032685185716714E-3</v>
-      </c>
-      <c r="AF25">
-        <v>3.4599892455671665E-3</v>
-      </c>
-      <c r="AG25">
-        <v>3.4442193256682511E-3</v>
-      </c>
-      <c r="AH25">
-        <v>3.4206960894515972E-3</v>
-      </c>
-      <c r="AI25">
-        <v>3.354362691886232E-3</v>
-      </c>
-      <c r="AJ25">
-        <v>3.3697038667499643E-3</v>
-      </c>
-      <c r="AK25">
-        <v>3.3740241653140075E-3</v>
-      </c>
-      <c r="AL25">
-        <v>3.4749606439865091E-3</v>
-      </c>
-      <c r="AM25">
-        <v>3.4805065247757458E-3</v>
-      </c>
-      <c r="AN25">
-        <v>3.4818560722406451E-3</v>
-      </c>
-      <c r="AO25">
-        <v>3.328832181761541E-3</v>
-      </c>
-      <c r="AP25">
-        <v>-3.0559418988674881E-5</v>
-      </c>
-      <c r="AQ25">
-        <v>-2.9846068386378617E-3</v>
-      </c>
+      <c r="H25"/>
+      <c r="I25" s="47"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
+      <c r="AG25"/>
+      <c r="AH25"/>
+      <c r="AI25"/>
+      <c r="AJ25"/>
+      <c r="AK25"/>
+      <c r="AL25"/>
+      <c r="AM25"/>
+      <c r="AN25"/>
+      <c r="AO25"/>
+      <c r="AP25"/>
+      <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -19700,114 +18125,42 @@
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
       <c r="G26"/>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="47">
-        <v>0.13258190334552789</v>
-      </c>
-      <c r="J26">
-        <v>-1.8541122098036738E-4</v>
-      </c>
-      <c r="K26">
-        <v>1.0298904800211411E-4</v>
-      </c>
-      <c r="L26">
-        <v>-1.1095470822593357E-6</v>
-      </c>
-      <c r="M26">
-        <v>1.7105318564241627E-4</v>
-      </c>
-      <c r="N26">
-        <v>1.3739932332609362E-4</v>
-      </c>
-      <c r="O26">
-        <v>1.4044658485480544E-4</v>
-      </c>
-      <c r="P26">
-        <v>1.872610751663028E-4</v>
-      </c>
-      <c r="Q26">
-        <v>2.1754998541661787E-4</v>
-      </c>
-      <c r="R26">
-        <v>2.4875394998677885E-4</v>
-      </c>
-      <c r="S26">
-        <v>1.4669603664602387E-4</v>
-      </c>
-      <c r="T26">
-        <v>6.0909979499092996E-5</v>
-      </c>
-      <c r="U26">
-        <v>5.0276617605021952E-6</v>
-      </c>
-      <c r="V26">
-        <v>4.3107170906231439E-4</v>
-      </c>
-      <c r="W26">
-        <v>-5.3356665025964655E-4</v>
-      </c>
-      <c r="X26">
-        <v>-4.5675919150763565E-4</v>
-      </c>
-      <c r="Y26">
-        <v>-4.5198964333850386E-4</v>
-      </c>
-      <c r="Z26">
-        <v>-7.6231622938906208E-4</v>
-      </c>
-      <c r="AA26">
-        <v>-1.0291063486781305E-4</v>
-      </c>
-      <c r="AB26">
-        <v>1.6570509886762669E-4</v>
-      </c>
-      <c r="AC26">
-        <v>3.4948006904977674E-4</v>
-      </c>
-      <c r="AD26">
-        <v>4.3945751743571871E-4</v>
-      </c>
-      <c r="AE26">
-        <v>3.4599892455671665E-3</v>
-      </c>
-      <c r="AF26">
-        <v>5.1577938521966725E-3</v>
-      </c>
-      <c r="AG26">
-        <v>3.4407682025495239E-3</v>
-      </c>
-      <c r="AH26">
-        <v>3.4105748128647642E-3</v>
-      </c>
-      <c r="AI26">
-        <v>3.3784170008694476E-3</v>
-      </c>
-      <c r="AJ26">
-        <v>3.3916180161480424E-3</v>
-      </c>
-      <c r="AK26">
-        <v>3.3965100892682813E-3</v>
-      </c>
-      <c r="AL26">
-        <v>3.4612422578551615E-3</v>
-      </c>
-      <c r="AM26">
-        <v>3.4641098783837194E-3</v>
-      </c>
-      <c r="AN26">
-        <v>3.4559606278119128E-3</v>
-      </c>
-      <c r="AO26">
-        <v>3.3876995691878185E-3</v>
-      </c>
-      <c r="AP26">
-        <v>-3.5650191318963858E-5</v>
-      </c>
-      <c r="AQ26">
-        <v>-5.0239148680489044E-3</v>
-      </c>
+      <c r="H26"/>
+      <c r="I26" s="47"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AF26"/>
+      <c r="AG26"/>
+      <c r="AH26"/>
+      <c r="AI26"/>
+      <c r="AJ26"/>
+      <c r="AK26"/>
+      <c r="AL26"/>
+      <c r="AM26"/>
+      <c r="AN26"/>
+      <c r="AO26"/>
+      <c r="AP26"/>
+      <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -19822,114 +18175,42 @@
       <c r="D27" s="39">
         <v>0</v>
       </c>
-      <c r="H27" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" s="47">
-        <v>0.12371690438620446</v>
-      </c>
-      <c r="J27">
-        <v>-2.365817594751087E-4</v>
-      </c>
-      <c r="K27">
-        <v>1.0909446024441236E-4</v>
-      </c>
-      <c r="L27">
-        <v>-1.201153516559201E-6</v>
-      </c>
-      <c r="M27">
-        <v>2.3893871533631108E-4</v>
-      </c>
-      <c r="N27">
-        <v>1.688171311082314E-4</v>
-      </c>
-      <c r="O27">
-        <v>1.9837048723941712E-4</v>
-      </c>
-      <c r="P27">
-        <v>7.9631149135292044E-5</v>
-      </c>
-      <c r="Q27">
-        <v>1.6861400083713682E-4</v>
-      </c>
-      <c r="R27">
-        <v>2.8840302061887652E-4</v>
-      </c>
-      <c r="S27">
-        <v>-1.3803241006292736E-4</v>
-      </c>
-      <c r="T27">
-        <v>-2.6454667488009804E-4</v>
-      </c>
-      <c r="U27">
-        <v>-4.3948147443627177E-4</v>
-      </c>
-      <c r="V27">
-        <v>-7.8224180352351545E-5</v>
-      </c>
-      <c r="W27">
-        <v>-3.3577827338704988E-4</v>
-      </c>
-      <c r="X27">
-        <v>-6.2705560720569941E-5</v>
-      </c>
-      <c r="Y27">
-        <v>-1.3613545620931328E-4</v>
-      </c>
-      <c r="Z27">
-        <v>-2.3780321369531229E-4</v>
-      </c>
-      <c r="AA27">
-        <v>-1.6114365804566802E-5</v>
-      </c>
-      <c r="AB27">
-        <v>1.7350961157258237E-4</v>
-      </c>
-      <c r="AC27">
-        <v>2.9838787308472594E-4</v>
-      </c>
-      <c r="AD27">
-        <v>4.1953977256448366E-4</v>
-      </c>
-      <c r="AE27">
-        <v>3.4442193256682511E-3</v>
-      </c>
-      <c r="AF27">
-        <v>3.4407682025495239E-3</v>
-      </c>
-      <c r="AG27">
-        <v>5.9005813414886301E-3</v>
-      </c>
-      <c r="AH27">
-        <v>3.3866232839495727E-3</v>
-      </c>
-      <c r="AI27">
-        <v>3.3448923846181307E-3</v>
-      </c>
-      <c r="AJ27">
-        <v>3.3579137020904024E-3</v>
-      </c>
-      <c r="AK27">
-        <v>3.3566257091408097E-3</v>
-      </c>
-      <c r="AL27">
-        <v>3.4268979375222273E-3</v>
-      </c>
-      <c r="AM27">
-        <v>3.4371973814214499E-3</v>
-      </c>
-      <c r="AN27">
-        <v>3.4145003741554965E-3</v>
-      </c>
-      <c r="AO27">
-        <v>3.351484785194034E-3</v>
-      </c>
-      <c r="AP27">
-        <v>-2.811745627611848E-5</v>
-      </c>
-      <c r="AQ27">
-        <v>-5.1578423076625258E-3</v>
-      </c>
+      <c r="H27"/>
+      <c r="I27" s="47"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27"/>
+      <c r="AH27"/>
+      <c r="AI27"/>
+      <c r="AJ27"/>
+      <c r="AK27"/>
+      <c r="AL27"/>
+      <c r="AM27"/>
+      <c r="AN27"/>
+      <c r="AO27"/>
+      <c r="AP27"/>
+      <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -19944,114 +18225,42 @@
       <c r="D28" s="40">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="H28" t="s">
-        <v>49</v>
-      </c>
-      <c r="I28" s="47">
-        <v>-8.5170430324261262E-3</v>
-      </c>
-      <c r="J28">
-        <v>-1.6710738720126812E-4</v>
-      </c>
-      <c r="K28">
-        <v>7.9626234637117637E-5</v>
-      </c>
-      <c r="L28">
-        <v>-8.8780422068829119E-7</v>
-      </c>
-      <c r="M28">
-        <v>1.6774577383562997E-4</v>
-      </c>
-      <c r="N28">
-        <v>1.6332043930826587E-4</v>
-      </c>
-      <c r="O28">
-        <v>5.9172545838995986E-5</v>
-      </c>
-      <c r="P28">
-        <v>3.30278092626412E-5</v>
-      </c>
-      <c r="Q28">
-        <v>8.4745237022685715E-5</v>
-      </c>
-      <c r="R28">
-        <v>2.9084296969698035E-4</v>
-      </c>
-      <c r="S28">
-        <v>-2.8179397688095353E-4</v>
-      </c>
-      <c r="T28">
-        <v>-3.3995867190374663E-4</v>
-      </c>
-      <c r="U28">
-        <v>-5.1323272999809731E-4</v>
-      </c>
-      <c r="V28">
-        <v>8.5434270915740046E-5</v>
-      </c>
-      <c r="W28">
-        <v>3.013581486947162E-4</v>
-      </c>
-      <c r="X28">
-        <v>2.4462249114652027E-4</v>
-      </c>
-      <c r="Y28">
-        <v>2.7148009930853573E-4</v>
-      </c>
-      <c r="Z28">
-        <v>2.4538737211627195E-5</v>
-      </c>
-      <c r="AA28">
-        <v>-8.1067515109987151E-5</v>
-      </c>
-      <c r="AB28">
-        <v>3.7154101508396573E-4</v>
-      </c>
-      <c r="AC28">
-        <v>2.9397666718028654E-4</v>
-      </c>
-      <c r="AD28">
-        <v>3.2102188380305592E-4</v>
-      </c>
-      <c r="AE28">
-        <v>3.4206960894515972E-3</v>
-      </c>
-      <c r="AF28">
-        <v>3.4105748128647642E-3</v>
-      </c>
-      <c r="AG28">
-        <v>3.3866232839495727E-3</v>
-      </c>
-      <c r="AH28">
-        <v>6.5273021386844168E-3</v>
-      </c>
-      <c r="AI28">
-        <v>3.3500560484245019E-3</v>
-      </c>
-      <c r="AJ28">
-        <v>3.3141379574464628E-3</v>
-      </c>
-      <c r="AK28">
-        <v>3.3316572897936375E-3</v>
-      </c>
-      <c r="AL28">
-        <v>3.416077882889502E-3</v>
-      </c>
-      <c r="AM28">
-        <v>3.4280402430042979E-3</v>
-      </c>
-      <c r="AN28">
-        <v>3.4207343987964311E-3</v>
-      </c>
-      <c r="AO28">
-        <v>3.3530205727931861E-3</v>
-      </c>
-      <c r="AP28">
-        <v>-1.321047434476284E-5</v>
-      </c>
-      <c r="AQ28">
-        <v>-5.0324968740198773E-3</v>
-      </c>
+      <c r="H28"/>
+      <c r="I28" s="47"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28"/>
+      <c r="AG28"/>
+      <c r="AH28"/>
+      <c r="AI28"/>
+      <c r="AJ28"/>
+      <c r="AK28"/>
+      <c r="AL28"/>
+      <c r="AM28"/>
+      <c r="AN28"/>
+      <c r="AO28"/>
+      <c r="AP28"/>
+      <c r="AQ28"/>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -20066,114 +18275,42 @@
       <c r="D29" s="40">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H29" t="s">
-        <v>50</v>
-      </c>
-      <c r="I29" s="47">
-        <v>-7.9231926455070434E-2</v>
-      </c>
-      <c r="J29">
-        <v>-1.9622688139257712E-4</v>
-      </c>
-      <c r="K29">
-        <v>7.227091945214792E-5</v>
-      </c>
-      <c r="L29">
-        <v>-7.8456714113284631E-7</v>
-      </c>
-      <c r="M29">
-        <v>2.1451403412662791E-4</v>
-      </c>
-      <c r="N29">
-        <v>1.6674840630771944E-4</v>
-      </c>
-      <c r="O29">
-        <v>1.1057522390026629E-4</v>
-      </c>
-      <c r="P29">
-        <v>5.4726491849981375E-5</v>
-      </c>
-      <c r="Q29">
-        <v>9.6012200405124599E-5</v>
-      </c>
-      <c r="R29">
-        <v>1.9391098470908662E-4</v>
-      </c>
-      <c r="S29">
-        <v>-3.6685332366916991E-4</v>
-      </c>
-      <c r="T29">
-        <v>-5.3156893990120423E-4</v>
-      </c>
-      <c r="U29">
-        <v>-4.9862667220478083E-4</v>
-      </c>
-      <c r="V29">
-        <v>-2.3092758706598493E-4</v>
-      </c>
-      <c r="W29">
-        <v>-2.4487021026407688E-4</v>
-      </c>
-      <c r="X29">
-        <v>-2.2467368139375251E-4</v>
-      </c>
-      <c r="Y29">
-        <v>-2.5333426846002116E-5</v>
-      </c>
-      <c r="Z29">
-        <v>-1.7747076012674724E-4</v>
-      </c>
-      <c r="AA29">
-        <v>8.1913871537381082E-6</v>
-      </c>
-      <c r="AB29">
-        <v>1.729922873784211E-4</v>
-      </c>
-      <c r="AC29">
-        <v>1.9739525963651504E-4</v>
-      </c>
-      <c r="AD29">
-        <v>1.6758806384259038E-4</v>
-      </c>
-      <c r="AE29">
-        <v>3.354362691886232E-3</v>
-      </c>
-      <c r="AF29">
-        <v>3.3784170008694476E-3</v>
-      </c>
-      <c r="AG29">
-        <v>3.3448923846181307E-3</v>
-      </c>
-      <c r="AH29">
-        <v>3.3500560484245019E-3</v>
-      </c>
-      <c r="AI29">
-        <v>6.4779064624499692E-3</v>
-      </c>
-      <c r="AJ29">
-        <v>3.2987496062194454E-3</v>
-      </c>
-      <c r="AK29">
-        <v>3.3219600489549556E-3</v>
-      </c>
-      <c r="AL29">
-        <v>3.3758155911354573E-3</v>
-      </c>
-      <c r="AM29">
-        <v>3.3858749280326872E-3</v>
-      </c>
-      <c r="AN29">
-        <v>3.3689963557881736E-3</v>
-      </c>
-      <c r="AO29">
-        <v>3.336782232647534E-3</v>
-      </c>
-      <c r="AP29">
-        <v>-7.4458673923584538E-6</v>
-      </c>
-      <c r="AQ29">
-        <v>-4.4216532830372423E-3</v>
-      </c>
+      <c r="H29"/>
+      <c r="I29" s="47"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+      <c r="AE29"/>
+      <c r="AF29"/>
+      <c r="AG29"/>
+      <c r="AH29"/>
+      <c r="AI29"/>
+      <c r="AJ29"/>
+      <c r="AK29"/>
+      <c r="AL29"/>
+      <c r="AM29"/>
+      <c r="AN29"/>
+      <c r="AO29"/>
+      <c r="AP29"/>
+      <c r="AQ29"/>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -20182,114 +18319,42 @@
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
       <c r="D30" s="39"/>
-      <c r="H30" t="s">
-        <v>51</v>
-      </c>
-      <c r="I30" s="47">
-        <v>8.2445148537546781E-2</v>
-      </c>
-      <c r="J30">
-        <v>-1.6777303567815663E-4</v>
-      </c>
-      <c r="K30">
-        <v>1.095375700610017E-4</v>
-      </c>
-      <c r="L30">
-        <v>-1.2296457352062454E-6</v>
-      </c>
-      <c r="M30">
-        <v>2.6028388363316711E-4</v>
-      </c>
-      <c r="N30">
-        <v>4.0667056390944999E-4</v>
-      </c>
-      <c r="O30">
-        <v>2.348561508809183E-4</v>
-      </c>
-      <c r="P30">
-        <v>3.4531407444936214E-4</v>
-      </c>
-      <c r="Q30">
-        <v>2.8917186648809933E-4</v>
-      </c>
-      <c r="R30">
-        <v>1.9069384863552928E-4</v>
-      </c>
-      <c r="S30">
-        <v>-4.0185980009484982E-4</v>
-      </c>
-      <c r="T30">
-        <v>-4.2978568001342775E-4</v>
-      </c>
-      <c r="U30">
-        <v>-4.3322605628628996E-4</v>
-      </c>
-      <c r="V30">
-        <v>1.9546351133942381E-4</v>
-      </c>
-      <c r="W30">
-        <v>9.0887440921515227E-5</v>
-      </c>
-      <c r="X30">
-        <v>6.111302311444136E-5</v>
-      </c>
-      <c r="Y30">
-        <v>2.7719310387806111E-4</v>
-      </c>
-      <c r="Z30">
-        <v>-2.5052019748397292E-4</v>
-      </c>
-      <c r="AA30">
-        <v>-7.6907773037931194E-5</v>
-      </c>
-      <c r="AB30">
-        <v>-5.9458974466511253E-5</v>
-      </c>
-      <c r="AC30">
-        <v>1.0513492454891724E-4</v>
-      </c>
-      <c r="AD30">
-        <v>1.7279685589083966E-4</v>
-      </c>
-      <c r="AE30">
-        <v>3.3697038667499643E-3</v>
-      </c>
-      <c r="AF30">
-        <v>3.3916180161480424E-3</v>
-      </c>
-      <c r="AG30">
-        <v>3.3579137020904024E-3</v>
-      </c>
-      <c r="AH30">
-        <v>3.3141379574464628E-3</v>
-      </c>
-      <c r="AI30">
-        <v>3.2987496062194454E-3</v>
-      </c>
-      <c r="AJ30">
-        <v>5.4265345040176629E-3</v>
-      </c>
-      <c r="AK30">
-        <v>3.3018896585377501E-3</v>
-      </c>
-      <c r="AL30">
-        <v>3.3632392521773737E-3</v>
-      </c>
-      <c r="AM30">
-        <v>3.3714628282962818E-3</v>
-      </c>
-      <c r="AN30">
-        <v>3.348488885271202E-3</v>
-      </c>
-      <c r="AO30">
-        <v>3.2886025784084356E-3</v>
-      </c>
-      <c r="AP30">
-        <v>-2.4917899925505323E-5</v>
-      </c>
-      <c r="AQ30">
-        <v>-5.2312815544636494E-3</v>
-      </c>
+      <c r="H30"/>
+      <c r="I30" s="47"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+      <c r="AE30"/>
+      <c r="AF30"/>
+      <c r="AG30"/>
+      <c r="AH30"/>
+      <c r="AI30"/>
+      <c r="AJ30"/>
+      <c r="AK30"/>
+      <c r="AL30"/>
+      <c r="AM30"/>
+      <c r="AN30"/>
+      <c r="AO30"/>
+      <c r="AP30"/>
+      <c r="AQ30"/>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -20304,114 +18369,42 @@
       <c r="D31" s="39">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="H31" t="s">
-        <v>52</v>
-      </c>
-      <c r="I31" s="47">
-        <v>6.3492462431212981E-2</v>
-      </c>
-      <c r="J31">
-        <v>-6.4196656881536775E-5</v>
-      </c>
-      <c r="K31">
-        <v>5.6827286154889216E-5</v>
-      </c>
-      <c r="L31">
-        <v>-7.3851116743216019E-7</v>
-      </c>
-      <c r="M31">
-        <v>3.0686103322729317E-4</v>
-      </c>
-      <c r="N31">
-        <v>2.6675257858460892E-4</v>
-      </c>
-      <c r="O31">
-        <v>1.7425085551606433E-4</v>
-      </c>
-      <c r="P31">
-        <v>2.1521572029661477E-4</v>
-      </c>
-      <c r="Q31">
-        <v>2.6936193966500902E-4</v>
-      </c>
-      <c r="R31">
-        <v>1.1468423931124309E-4</v>
-      </c>
-      <c r="S31">
-        <v>3.6664112218165804E-5</v>
-      </c>
-      <c r="T31">
-        <v>3.8811129883587533E-5</v>
-      </c>
-      <c r="U31">
-        <v>-1.9963382035225082E-4</v>
-      </c>
-      <c r="V31">
-        <v>-7.6732731861421655E-5</v>
-      </c>
-      <c r="W31">
-        <v>-1.2268337015319624E-4</v>
-      </c>
-      <c r="X31">
-        <v>-5.9943301714432428E-5</v>
-      </c>
-      <c r="Y31">
-        <v>-4.6323455686800709E-5</v>
-      </c>
-      <c r="Z31">
-        <v>1.117111843239153E-5</v>
-      </c>
-      <c r="AA31">
-        <v>-4.8202042033732977E-5</v>
-      </c>
-      <c r="AB31">
-        <v>-2.7469545710273455E-5</v>
-      </c>
-      <c r="AC31">
-        <v>3.5531726023204334E-5</v>
-      </c>
-      <c r="AD31">
-        <v>1.1465179169257398E-4</v>
-      </c>
-      <c r="AE31">
-        <v>3.3740241653140075E-3</v>
-      </c>
-      <c r="AF31">
-        <v>3.3965100892682813E-3</v>
-      </c>
-      <c r="AG31">
-        <v>3.3566257091408097E-3</v>
-      </c>
-      <c r="AH31">
-        <v>3.3316572897936375E-3</v>
-      </c>
-      <c r="AI31">
-        <v>3.3219600489549556E-3</v>
-      </c>
-      <c r="AJ31">
-        <v>3.3018896585377501E-3</v>
-      </c>
-      <c r="AK31">
-        <v>5.4212148784484066E-3</v>
-      </c>
-      <c r="AL31">
-        <v>3.3828418917913571E-3</v>
-      </c>
-      <c r="AM31">
-        <v>3.3860244370251765E-3</v>
-      </c>
-      <c r="AN31">
-        <v>3.3587942768935597E-3</v>
-      </c>
-      <c r="AO31">
-        <v>3.3282953078744995E-3</v>
-      </c>
-      <c r="AP31">
-        <v>-1.3649870036052091E-5</v>
-      </c>
-      <c r="AQ31">
-        <v>-4.2709884747193488E-3</v>
-      </c>
+      <c r="H31"/>
+      <c r="I31" s="47"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+      <c r="AE31"/>
+      <c r="AF31"/>
+      <c r="AG31"/>
+      <c r="AH31"/>
+      <c r="AI31"/>
+      <c r="AJ31"/>
+      <c r="AK31"/>
+      <c r="AL31"/>
+      <c r="AM31"/>
+      <c r="AN31"/>
+      <c r="AO31"/>
+      <c r="AP31"/>
+      <c r="AQ31"/>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -20426,114 +18419,42 @@
       <c r="D32" s="39">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="H32" t="s">
-        <v>53</v>
-      </c>
-      <c r="I32" s="47">
-        <v>6.1189370267544535E-2</v>
-      </c>
-      <c r="J32">
-        <v>-1.7805744786306556E-4</v>
-      </c>
-      <c r="K32">
-        <v>1.1312497274377424E-4</v>
-      </c>
-      <c r="L32">
-        <v>-1.2418948648810938E-6</v>
-      </c>
-      <c r="M32">
-        <v>1.8308445278301857E-4</v>
-      </c>
-      <c r="N32">
-        <v>1.287098540549501E-4</v>
-      </c>
-      <c r="O32">
-        <v>2.5148406564470035E-4</v>
-      </c>
-      <c r="P32">
-        <v>1.5748233917215414E-4</v>
-      </c>
-      <c r="Q32">
-        <v>1.6573373344537946E-4</v>
-      </c>
-      <c r="R32">
-        <v>2.3555318654352081E-4</v>
-      </c>
-      <c r="S32">
-        <v>-2.618814072370499E-4</v>
-      </c>
-      <c r="T32">
-        <v>-3.2429759029123546E-4</v>
-      </c>
-      <c r="U32">
-        <v>-4.5161843086875472E-4</v>
-      </c>
-      <c r="V32">
-        <v>-2.0187066009082297E-4</v>
-      </c>
-      <c r="W32">
-        <v>8.4772573270268815E-6</v>
-      </c>
-      <c r="X32">
-        <v>5.225265012437732E-5</v>
-      </c>
-      <c r="Y32">
-        <v>1.0534886787780728E-4</v>
-      </c>
-      <c r="Z32">
-        <v>-1.0052535965597532E-4</v>
-      </c>
-      <c r="AA32">
-        <v>-1.0824209946675182E-4</v>
-      </c>
-      <c r="AB32">
-        <v>2.1685596724060018E-4</v>
-      </c>
-      <c r="AC32">
-        <v>2.9754708073001773E-4</v>
-      </c>
-      <c r="AD32">
-        <v>3.8570356319526434E-4</v>
-      </c>
-      <c r="AE32">
-        <v>3.4749606439865091E-3</v>
-      </c>
-      <c r="AF32">
-        <v>3.4612422578551615E-3</v>
-      </c>
-      <c r="AG32">
-        <v>3.4268979375222273E-3</v>
-      </c>
-      <c r="AH32">
-        <v>3.416077882889502E-3</v>
-      </c>
-      <c r="AI32">
-        <v>3.3758155911354573E-3</v>
-      </c>
-      <c r="AJ32">
-        <v>3.3632392521773737E-3</v>
-      </c>
-      <c r="AK32">
-        <v>3.3828418917913571E-3</v>
-      </c>
-      <c r="AL32">
-        <v>5.1393290148842924E-3</v>
-      </c>
-      <c r="AM32">
-        <v>3.4373959683280113E-3</v>
-      </c>
-      <c r="AN32">
-        <v>3.4376942311338137E-3</v>
-      </c>
-      <c r="AO32">
-        <v>3.3690692520725509E-3</v>
-      </c>
-      <c r="AP32">
-        <v>-2.827108385085569E-5</v>
-      </c>
-      <c r="AQ32">
-        <v>-5.3492678012004181E-3</v>
-      </c>
+      <c r="H32"/>
+      <c r="I32" s="47"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+      <c r="AE32"/>
+      <c r="AF32"/>
+      <c r="AG32"/>
+      <c r="AH32"/>
+      <c r="AI32"/>
+      <c r="AJ32"/>
+      <c r="AK32"/>
+      <c r="AL32"/>
+      <c r="AM32"/>
+      <c r="AN32"/>
+      <c r="AO32"/>
+      <c r="AP32"/>
+      <c r="AQ32"/>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
@@ -20548,114 +18469,42 @@
       <c r="D33" s="39">
         <v>0.107</v>
       </c>
-      <c r="H33" t="s">
-        <v>54</v>
-      </c>
-      <c r="I33" s="47">
-        <v>2.9801750633023909E-2</v>
-      </c>
-      <c r="J33">
-        <v>-1.6285447349238157E-4</v>
-      </c>
-      <c r="K33">
-        <v>1.2104105896573042E-4</v>
-      </c>
-      <c r="L33">
-        <v>-1.3592055529005462E-6</v>
-      </c>
-      <c r="M33">
-        <v>9.4444696472537905E-5</v>
-      </c>
-      <c r="N33">
-        <v>-4.4912153889222145E-6</v>
-      </c>
-      <c r="O33">
-        <v>2.2713232604140189E-4</v>
-      </c>
-      <c r="P33">
-        <v>5.6855220571969513E-5</v>
-      </c>
-      <c r="Q33">
-        <v>3.2543486990874214E-4</v>
-      </c>
-      <c r="R33">
-        <v>2.8681794283297437E-4</v>
-      </c>
-      <c r="S33">
-        <v>-5.1679815157479672E-4</v>
-      </c>
-      <c r="T33">
-        <v>-7.0991276276136063E-4</v>
-      </c>
-      <c r="U33">
-        <v>-8.9691200955641223E-4</v>
-      </c>
-      <c r="V33">
-        <v>-5.8834612418136702E-4</v>
-      </c>
-      <c r="W33">
-        <v>2.0945948178898647E-4</v>
-      </c>
-      <c r="X33">
-        <v>1.9677086811014256E-4</v>
-      </c>
-      <c r="Y33">
-        <v>3.927064909716076E-4</v>
-      </c>
-      <c r="Z33">
-        <v>4.7102399483079684E-5</v>
-      </c>
-      <c r="AA33">
-        <v>-2.8216998564374921E-5</v>
-      </c>
-      <c r="AB33">
-        <v>1.0016795333092824E-4</v>
-      </c>
-      <c r="AC33">
-        <v>3.0549669665098954E-4</v>
-      </c>
-      <c r="AD33">
-        <v>1.6714200181895461E-4</v>
-      </c>
-      <c r="AE33">
-        <v>3.4805065247757458E-3</v>
-      </c>
-      <c r="AF33">
-        <v>3.4641098783837194E-3</v>
-      </c>
-      <c r="AG33">
-        <v>3.4371973814214499E-3</v>
-      </c>
-      <c r="AH33">
-        <v>3.4280402430042979E-3</v>
-      </c>
-      <c r="AI33">
-        <v>3.3858749280326872E-3</v>
-      </c>
-      <c r="AJ33">
-        <v>3.3714628282962818E-3</v>
-      </c>
-      <c r="AK33">
-        <v>3.3860244370251765E-3</v>
-      </c>
-      <c r="AL33">
-        <v>3.4373959683280113E-3</v>
-      </c>
-      <c r="AM33">
-        <v>9.2439332043798682E-3</v>
-      </c>
-      <c r="AN33">
-        <v>3.4241809113201979E-3</v>
-      </c>
-      <c r="AO33">
-        <v>3.4372029375089454E-3</v>
-      </c>
-      <c r="AP33">
-        <v>-4.5425441401705151E-6</v>
-      </c>
-      <c r="AQ33">
-        <v>-5.5719796038062926E-3</v>
-      </c>
+      <c r="H33"/>
+      <c r="I33" s="47"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+      <c r="AE33"/>
+      <c r="AF33"/>
+      <c r="AG33"/>
+      <c r="AH33"/>
+      <c r="AI33"/>
+      <c r="AJ33"/>
+      <c r="AK33"/>
+      <c r="AL33"/>
+      <c r="AM33"/>
+      <c r="AN33"/>
+      <c r="AO33"/>
+      <c r="AP33"/>
+      <c r="AQ33"/>
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
@@ -20670,114 +18519,42 @@
       <c r="D34" s="39">
         <v>0.91600000000000004</v>
       </c>
-      <c r="H34" t="s">
-        <v>55</v>
-      </c>
-      <c r="I34" s="47">
-        <v>0.15525927665503014</v>
-      </c>
-      <c r="J34">
-        <v>-2.0673486016294017E-4</v>
-      </c>
-      <c r="K34">
-        <v>1.0887033139270425E-4</v>
-      </c>
-      <c r="L34">
-        <v>-1.2628070365202037E-6</v>
-      </c>
-      <c r="M34">
-        <v>2.2149080057087448E-4</v>
-      </c>
-      <c r="N34">
-        <v>2.3759040930140628E-4</v>
-      </c>
-      <c r="O34">
-        <v>1.332871782033858E-4</v>
-      </c>
-      <c r="P34">
-        <v>9.486696474055007E-5</v>
-      </c>
-      <c r="Q34">
-        <v>1.4899216291891994E-4</v>
-      </c>
-      <c r="R34">
-        <v>2.6501969576270192E-4</v>
-      </c>
-      <c r="S34">
-        <v>-2.3594827626988515E-4</v>
-      </c>
-      <c r="T34">
-        <v>-4.5181208446199144E-4</v>
-      </c>
-      <c r="U34">
-        <v>-6.5605867212804305E-4</v>
-      </c>
-      <c r="V34">
-        <v>-4.3325552544317726E-4</v>
-      </c>
-      <c r="W34">
-        <v>-5.1955086894066283E-5</v>
-      </c>
-      <c r="X34">
-        <v>5.8886714375629905E-5</v>
-      </c>
-      <c r="Y34">
-        <v>2.2632303899510397E-4</v>
-      </c>
-      <c r="Z34">
-        <v>-5.0783404417059077E-5</v>
-      </c>
-      <c r="AA34">
-        <v>-3.7070858881529153E-5</v>
-      </c>
-      <c r="AB34">
-        <v>1.0848997602183304E-5</v>
-      </c>
-      <c r="AC34">
-        <v>9.6272365150075869E-5</v>
-      </c>
-      <c r="AD34">
-        <v>2.7462655609768459E-4</v>
-      </c>
-      <c r="AE34">
-        <v>3.4818560722406451E-3</v>
-      </c>
-      <c r="AF34">
-        <v>3.4559606278119128E-3</v>
-      </c>
-      <c r="AG34">
-        <v>3.4145003741554965E-3</v>
-      </c>
-      <c r="AH34">
-        <v>3.4207343987964311E-3</v>
-      </c>
-      <c r="AI34">
-        <v>3.3689963557881736E-3</v>
-      </c>
-      <c r="AJ34">
-        <v>3.348488885271202E-3</v>
-      </c>
-      <c r="AK34">
-        <v>3.3587942768935597E-3</v>
-      </c>
-      <c r="AL34">
-        <v>3.4376942311338137E-3</v>
-      </c>
-      <c r="AM34">
-        <v>3.4241809113201979E-3</v>
-      </c>
-      <c r="AN34">
-        <v>5.7628634783631859E-3</v>
-      </c>
-      <c r="AO34">
-        <v>3.3602301457809174E-3</v>
-      </c>
-      <c r="AP34">
-        <v>-2.9494689527134038E-5</v>
-      </c>
-      <c r="AQ34">
-        <v>-4.8881174040488369E-3</v>
-      </c>
+      <c r="H34"/>
+      <c r="I34" s="47"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+      <c r="AE34"/>
+      <c r="AF34"/>
+      <c r="AG34"/>
+      <c r="AH34"/>
+      <c r="AI34"/>
+      <c r="AJ34"/>
+      <c r="AK34"/>
+      <c r="AL34"/>
+      <c r="AM34"/>
+      <c r="AN34"/>
+      <c r="AO34"/>
+      <c r="AP34"/>
+      <c r="AQ34"/>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
@@ -20792,114 +18569,42 @@
       <c r="D35" s="39">
         <v>0.32500000000000001</v>
       </c>
-      <c r="H35" t="s">
-        <v>56</v>
-      </c>
-      <c r="I35" s="47">
-        <v>0.15607280850294866</v>
-      </c>
-      <c r="J35">
-        <v>-2.1289421408208668E-4</v>
-      </c>
-      <c r="K35">
-        <v>8.964747041362753E-5</v>
-      </c>
-      <c r="L35">
-        <v>-9.5300632391202175E-7</v>
-      </c>
-      <c r="M35">
-        <v>1.6068998178646191E-4</v>
-      </c>
-      <c r="N35">
-        <v>-6.8452261699806019E-5</v>
-      </c>
-      <c r="O35">
-        <v>1.7147851612465828E-4</v>
-      </c>
-      <c r="P35">
-        <v>1.6229255681791347E-4</v>
-      </c>
-      <c r="Q35">
-        <v>3.1805218348558923E-4</v>
-      </c>
-      <c r="R35">
-        <v>2.9231483499745693E-4</v>
-      </c>
-      <c r="S35">
-        <v>-3.6283822453167872E-4</v>
-      </c>
-      <c r="T35">
-        <v>-4.4467930443747253E-4</v>
-      </c>
-      <c r="U35">
-        <v>-5.6393681097274048E-4</v>
-      </c>
-      <c r="V35">
-        <v>-3.6499088519130907E-4</v>
-      </c>
-      <c r="W35">
-        <v>1.803493385603705E-4</v>
-      </c>
-      <c r="X35">
-        <v>1.6811686012786439E-4</v>
-      </c>
-      <c r="Y35">
-        <v>3.6508579544375992E-4</v>
-      </c>
-      <c r="Z35">
-        <v>1.2434880955627513E-4</v>
-      </c>
-      <c r="AA35">
-        <v>-7.2733544900411315E-5</v>
-      </c>
-      <c r="AB35">
-        <v>2.1038802893659703E-4</v>
-      </c>
-      <c r="AC35">
-        <v>1.5234635300167458E-4</v>
-      </c>
-      <c r="AD35">
-        <v>2.4333814828698497E-4</v>
-      </c>
-      <c r="AE35">
-        <v>3.328832181761541E-3</v>
-      </c>
-      <c r="AF35">
-        <v>3.3876995691878185E-3</v>
-      </c>
-      <c r="AG35">
-        <v>3.351484785194034E-3</v>
-      </c>
-      <c r="AH35">
-        <v>3.3530205727931861E-3</v>
-      </c>
-      <c r="AI35">
-        <v>3.336782232647534E-3</v>
-      </c>
-      <c r="AJ35">
-        <v>3.2886025784084356E-3</v>
-      </c>
-      <c r="AK35">
-        <v>3.3282953078744995E-3</v>
-      </c>
-      <c r="AL35">
-        <v>3.3690692520725509E-3</v>
-      </c>
-      <c r="AM35">
-        <v>3.4372029375089454E-3</v>
-      </c>
-      <c r="AN35">
-        <v>3.3602301457809174E-3</v>
-      </c>
-      <c r="AO35">
-        <v>7.6490807808454256E-3</v>
-      </c>
-      <c r="AP35">
-        <v>-9.9164596629521288E-6</v>
-      </c>
-      <c r="AQ35">
-        <v>-5.1142182854530642E-3</v>
-      </c>
+      <c r="H35"/>
+      <c r="I35" s="47"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+      <c r="AE35"/>
+      <c r="AF35"/>
+      <c r="AG35"/>
+      <c r="AH35"/>
+      <c r="AI35"/>
+      <c r="AJ35"/>
+      <c r="AK35"/>
+      <c r="AL35"/>
+      <c r="AM35"/>
+      <c r="AN35"/>
+      <c r="AO35"/>
+      <c r="AP35"/>
+      <c r="AQ35"/>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -20914,114 +18619,42 @@
       <c r="D36" s="39">
         <v>0.26300000000000001</v>
       </c>
-      <c r="H36" t="s">
-        <v>99</v>
-      </c>
-      <c r="I36" s="47">
-        <v>-1.7617647162894501E-3</v>
-      </c>
-      <c r="J36">
-        <v>2.2284817845827186E-5</v>
-      </c>
-      <c r="K36">
-        <v>-3.4053739376892293E-6</v>
-      </c>
-      <c r="L36">
-        <v>2.2034941406576526E-8</v>
-      </c>
-      <c r="M36">
-        <v>-4.112660678420952E-7</v>
-      </c>
-      <c r="N36">
-        <v>2.2078560207240027E-5</v>
-      </c>
-      <c r="O36">
-        <v>8.8560104132368533E-6</v>
-      </c>
-      <c r="P36">
-        <v>5.3939130219564949E-6</v>
-      </c>
-      <c r="Q36">
-        <v>5.4421892434410808E-6</v>
-      </c>
-      <c r="R36">
-        <v>-2.4530077756221394E-5</v>
-      </c>
-      <c r="S36">
-        <v>3.0476241633295821E-6</v>
-      </c>
-      <c r="T36">
-        <v>-3.9463605416280257E-6</v>
-      </c>
-      <c r="U36">
-        <v>-1.0901070852298539E-5</v>
-      </c>
-      <c r="V36">
-        <v>9.6145521576087179E-7</v>
-      </c>
-      <c r="W36">
-        <v>1.5525568133286955E-6</v>
-      </c>
-      <c r="X36">
-        <v>9.5525505914044115E-8</v>
-      </c>
-      <c r="Y36">
-        <v>-7.5978172932100263E-8</v>
-      </c>
-      <c r="Z36">
-        <v>3.1691933824627358E-5</v>
-      </c>
-      <c r="AA36">
-        <v>1.2653110333725994E-5</v>
-      </c>
-      <c r="AB36">
-        <v>-2.3150854284806388E-5</v>
-      </c>
-      <c r="AC36">
-        <v>-1.9781888863354576E-5</v>
-      </c>
-      <c r="AD36">
-        <v>-4.9178638845981143E-6</v>
-      </c>
-      <c r="AE36">
-        <v>-3.0559418988674881E-5</v>
-      </c>
-      <c r="AF36">
-        <v>-3.5650191318963858E-5</v>
-      </c>
-      <c r="AG36">
-        <v>-2.811745627611848E-5</v>
-      </c>
-      <c r="AH36">
-        <v>-1.321047434476284E-5</v>
-      </c>
-      <c r="AI36">
-        <v>-7.4458673923584538E-6</v>
-      </c>
-      <c r="AJ36">
-        <v>-2.4917899925505323E-5</v>
-      </c>
-      <c r="AK36">
-        <v>-1.3649870036052091E-5</v>
-      </c>
-      <c r="AL36">
-        <v>-2.827108385085569E-5</v>
-      </c>
-      <c r="AM36">
-        <v>-4.5425441401705151E-6</v>
-      </c>
-      <c r="AN36">
-        <v>-2.9494689527134038E-5</v>
-      </c>
-      <c r="AO36">
-        <v>-9.9164596629521288E-6</v>
-      </c>
-      <c r="AP36">
-        <v>2.5295780252982427E-5</v>
-      </c>
-      <c r="AQ36">
-        <v>-2.5770756319980779E-4</v>
-      </c>
+      <c r="H36"/>
+      <c r="I36" s="47"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+      <c r="AE36"/>
+      <c r="AF36"/>
+      <c r="AG36"/>
+      <c r="AH36"/>
+      <c r="AI36"/>
+      <c r="AJ36"/>
+      <c r="AK36"/>
+      <c r="AL36"/>
+      <c r="AM36"/>
+      <c r="AN36"/>
+      <c r="AO36"/>
+      <c r="AP36"/>
+      <c r="AQ36"/>
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
@@ -21036,114 +18669,42 @@
       <c r="D37" s="39">
         <v>0.38900000000000001</v>
       </c>
-      <c r="H37" t="s">
-        <v>33</v>
-      </c>
-      <c r="I37" s="47">
-        <v>-4.5819185314988129</v>
-      </c>
-      <c r="J37">
-        <v>1.6364789553417682E-4</v>
-      </c>
-      <c r="K37">
-        <v>-1.8898363798937837E-3</v>
-      </c>
-      <c r="L37">
-        <v>1.9158857542924758E-5</v>
-      </c>
-      <c r="M37">
-        <v>-3.0505234668552327E-4</v>
-      </c>
-      <c r="N37">
-        <v>-4.1052839407284322E-4</v>
-      </c>
-      <c r="O37">
-        <v>-2.2804205479685603E-3</v>
-      </c>
-      <c r="P37">
-        <v>-1.8903555715807498E-3</v>
-      </c>
-      <c r="Q37">
-        <v>-1.2022394808432089E-3</v>
-      </c>
-      <c r="R37">
-        <v>-1.2641842863107971E-3</v>
-      </c>
-      <c r="S37">
-        <v>-9.0945248341246857E-3</v>
-      </c>
-      <c r="T37">
-        <v>-8.4319400018704367E-3</v>
-      </c>
-      <c r="U37">
-        <v>-8.163651813512536E-3</v>
-      </c>
-      <c r="V37">
-        <v>-9.9800629420479237E-3</v>
-      </c>
-      <c r="W37">
-        <v>-2.9454827508576327E-3</v>
-      </c>
-      <c r="X37">
-        <v>-2.7223585082279565E-3</v>
-      </c>
-      <c r="Y37">
-        <v>-2.799192375726736E-3</v>
-      </c>
-      <c r="Z37">
-        <v>-1.5949327945432631E-3</v>
-      </c>
-      <c r="AA37">
-        <v>7.7070994774891619E-4</v>
-      </c>
-      <c r="AB37">
-        <v>-6.3518917230409784E-4</v>
-      </c>
-      <c r="AC37">
-        <v>-3.1951203387579189E-3</v>
-      </c>
-      <c r="AD37">
-        <v>-2.5597806506792585E-3</v>
-      </c>
-      <c r="AE37">
-        <v>-2.9846068386378617E-3</v>
-      </c>
-      <c r="AF37">
-        <v>-5.0239148680489044E-3</v>
-      </c>
-      <c r="AG37">
-        <v>-5.1578423076625258E-3</v>
-      </c>
-      <c r="AH37">
-        <v>-5.0324968740198773E-3</v>
-      </c>
-      <c r="AI37">
-        <v>-4.4216532830372423E-3</v>
-      </c>
-      <c r="AJ37">
-        <v>-5.2312815544636494E-3</v>
-      </c>
-      <c r="AK37">
-        <v>-4.2709884747193488E-3</v>
-      </c>
-      <c r="AL37">
-        <v>-5.3492678012004181E-3</v>
-      </c>
-      <c r="AM37">
-        <v>-5.5719796038062926E-3</v>
-      </c>
-      <c r="AN37">
-        <v>-4.8881174040488369E-3</v>
-      </c>
-      <c r="AO37">
-        <v>-5.1142182854530642E-3</v>
-      </c>
-      <c r="AP37">
-        <v>-2.5770756319980779E-4</v>
-      </c>
-      <c r="AQ37">
-        <v>6.5797560307339437E-2</v>
-      </c>
+      <c r="H37"/>
+      <c r="I37" s="47"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+      <c r="AE37"/>
+      <c r="AF37"/>
+      <c r="AG37"/>
+      <c r="AH37"/>
+      <c r="AI37"/>
+      <c r="AJ37"/>
+      <c r="AK37"/>
+      <c r="AL37"/>
+      <c r="AM37"/>
+      <c r="AN37"/>
+      <c r="AO37"/>
+      <c r="AP37"/>
+      <c r="AQ37"/>
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">

--- a/input/reg_health.xlsx
+++ b/input/reg_health.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67560FAC-7F0C-4727-8B8E-AB29FECB5172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC27F36-ABAE-45AD-898B-E8B02E971B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="675" activeTab="1" xr2:uid="{8F8EB3C6-ADA8-4D50-A668-C6931E9C8858}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="675" activeTab="1" xr2:uid="{8F8EB3C6-ADA8-4D50-A668-C6931E9C8858}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="10" r:id="rId1"/>
@@ -558,12 +558,6 @@
     <t>Dhhtp_c4_SingleChildren_L1_Poor</t>
   </si>
   <si>
-    <t>HUA_Poor</t>
-  </si>
-  <si>
-    <t>HUB_Poor</t>
-  </si>
-  <si>
     <t>Year_transformed_Poor</t>
   </si>
   <si>
@@ -622,12 +616,6 @@
   </si>
   <si>
     <t>Dhhtp_c4_SingleChildren_L1_Fair</t>
-  </si>
-  <si>
-    <t>HUA_Fair</t>
-  </si>
-  <si>
-    <t>HUB_Fair</t>
   </si>
   <si>
     <t>Year_transformed_Fair</t>
@@ -690,82 +678,10 @@
     <t>Dhhtp_c4_SingleChildren_L1_Good</t>
   </si>
   <si>
-    <t>HUA_Good</t>
-  </si>
-  <si>
-    <t>HUB_Good</t>
-  </si>
-  <si>
     <t>Year_transformed_Good</t>
   </si>
   <si>
     <t>Constant_Good</t>
-  </si>
-  <si>
-    <t>Dgn_Very good</t>
-  </si>
-  <si>
-    <t>Dag_Very good</t>
-  </si>
-  <si>
-    <t>Dag_sq_Very good</t>
-  </si>
-  <si>
-    <t>Deh_c3_Medium_Very good</t>
-  </si>
-  <si>
-    <t>Deh_c3_Low_Very good</t>
-  </si>
-  <si>
-    <t>Les_c3_Student_L1_Very good</t>
-  </si>
-  <si>
-    <t>Les_c3_NotEmployed_L1_Very good</t>
-  </si>
-  <si>
-    <t>Ydses_c5_Q2_L1_Very good</t>
-  </si>
-  <si>
-    <t>Ydses_c5_Q3_L1_Very good</t>
-  </si>
-  <si>
-    <t>Ydses_c5_Q4_L1_Very good</t>
-  </si>
-  <si>
-    <t>Ydses_c5_Q5_L1_Very good</t>
-  </si>
-  <si>
-    <t>Dhe_c5_1_L1_Very good</t>
-  </si>
-  <si>
-    <t>Dhe_c5_2_L1_Very good</t>
-  </si>
-  <si>
-    <t>Dhe_c5_3_L1_Very good</t>
-  </si>
-  <si>
-    <t>Dhe_c5_4_L1_Very good</t>
-  </si>
-  <si>
-    <t>Dhhtp_c4_CoupleChildren_L1_Very good</t>
-  </si>
-  <si>
-    <t>Dhhtp_c4_SingleNoChildren_L1_Very good</t>
-  </si>
-  <si>
-    <t>Dhhtp_c4_SingleChildren_L1_Very good</t>
-  </si>
-  <si>
-    <t>HUA_Very good</t>
-  </si>
-  <si>
-    <t>HUB_Very good</t>
-  </si>
-  <si>
-    <t>Year_transformed_Very good</t>
-  </si>
-  <si>
-    <t>Constant_Very good</t>
   </si>
   <si>
     <t>Ydses_L1_Poor</t>
@@ -786,10 +702,94 @@
     <t>Dhe_L1_Good</t>
   </si>
   <si>
-    <t>Ydses_L1_Very good</t>
+    <t>Dgn_VeryGood</t>
   </si>
   <si>
-    <t>Dhe_L1_Very good</t>
+    <t>Dag_VeryGood</t>
+  </si>
+  <si>
+    <t>Dag_sq_VeryGood</t>
+  </si>
+  <si>
+    <t>Ydses_L1_VeryGood</t>
+  </si>
+  <si>
+    <t>Dhe_L1_VeryGood</t>
+  </si>
+  <si>
+    <t>Year_transformed_VeryGood</t>
+  </si>
+  <si>
+    <t>Constant_VeryGood</t>
+  </si>
+  <si>
+    <t>Deh_c3_Medium_VeryGood</t>
+  </si>
+  <si>
+    <t>Deh_c3_Low_VeryGood</t>
+  </si>
+  <si>
+    <t>Les_c3_Student_L1_VeryGood</t>
+  </si>
+  <si>
+    <t>Les_c3_NotEmployed_L1_VeryGood</t>
+  </si>
+  <si>
+    <t>Ydses_c5_Q2_L1_VeryGood</t>
+  </si>
+  <si>
+    <t>Ydses_c5_Q3_L1_VeryGood</t>
+  </si>
+  <si>
+    <t>Ydses_c5_Q4_L1_VeryGood</t>
+  </si>
+  <si>
+    <t>Ydses_c5_Q5_L1_VeryGood</t>
+  </si>
+  <si>
+    <t>Dhe_c5_1_L1_VeryGood</t>
+  </si>
+  <si>
+    <t>Dhe_c5_2_L1_VeryGood</t>
+  </si>
+  <si>
+    <t>Dhe_c5_3_L1_VeryGood</t>
+  </si>
+  <si>
+    <t>Dhe_c5_4_L1_VeryGood</t>
+  </si>
+  <si>
+    <t>Dhhtp_c4_CoupleChildren_L1_VeryGood</t>
+  </si>
+  <si>
+    <t>Dhhtp_c4_SingleNoChildren_L1_VeryGood</t>
+  </si>
+  <si>
+    <t>Dhhtp_c4_SingleChildren_L1_VeryGood</t>
+  </si>
+  <si>
+    <t>UKC_Poor</t>
+  </si>
+  <si>
+    <t>UKC_Fair</t>
+  </si>
+  <si>
+    <t>UKC_Good</t>
+  </si>
+  <si>
+    <t>UKC_VeryGood</t>
+  </si>
+  <si>
+    <t>UKD_Poor</t>
+  </si>
+  <si>
+    <t>UKD_Fair</t>
+  </si>
+  <si>
+    <t>UKD_Good</t>
+  </si>
+  <si>
+    <t>UKD_VeryGood</t>
   </si>
 </sst>
 </file>
@@ -902,7 +902,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -999,6 +999,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1007,13 +1013,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3304,29 +3303,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="I1" s="47" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="I1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -3793,22 +3792,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="I1" s="47" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="I1" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
     </row>
     <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -4496,22 +4495,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="I1" s="48" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="I1" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I2" s="9"/>
@@ -5236,11 +5235,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26849F9A-6EEB-4F2B-B83B-7A1F9C42C79C}">
   <dimension ref="A1:AL37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="29" width="9.140625" customWidth="1"/>
     <col min="30" max="36" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -5265,76 +5266,76 @@
         <v>154</v>
       </c>
       <c r="F1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H1" t="s">
         <v>240</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q1" t="s">
         <v>241</v>
       </c>
-      <c r="H1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I1" t="s">
-        <v>171</v>
-      </c>
-      <c r="J1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K1" t="s">
-        <v>173</v>
-      </c>
-      <c r="L1" t="s">
-        <v>174</v>
-      </c>
-      <c r="M1" t="s">
-        <v>175</v>
-      </c>
-      <c r="N1" t="s">
-        <v>176</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
+        <v>245</v>
+      </c>
+      <c r="S1" t="s">
+        <v>190</v>
+      </c>
+      <c r="T1" t="s">
+        <v>191</v>
+      </c>
+      <c r="U1" t="s">
+        <v>192</v>
+      </c>
+      <c r="V1" t="s">
+        <v>193</v>
+      </c>
+      <c r="W1" t="s">
+        <v>194</v>
+      </c>
+      <c r="X1" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z1" t="s">
         <v>242</v>
       </c>
-      <c r="P1" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>192</v>
-      </c>
-      <c r="R1" t="s">
-        <v>193</v>
-      </c>
-      <c r="S1" t="s">
-        <v>194</v>
-      </c>
-      <c r="T1" t="s">
-        <v>195</v>
-      </c>
-      <c r="U1" t="s">
-        <v>196</v>
-      </c>
-      <c r="V1" t="s">
-        <v>197</v>
-      </c>
-      <c r="W1" t="s">
-        <v>198</v>
-      </c>
-      <c r="X1" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>214</v>
-      </c>
       <c r="AA1" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="AB1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AC1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AD1" t="s">
         <v>218</v>
@@ -5346,137 +5347,137 @@
         <v>220</v>
       </c>
       <c r="AG1" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="AH1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>247</v>
       </c>
-      <c r="AI1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>237</v>
-      </c>
       <c r="AK1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="AL1" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="46">
         <v>4.7957223317056423E-2</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C2" s="46">
         <v>2.0579093451348058E-3</v>
       </c>
-      <c r="D2" s="49">
+      <c r="D2" s="46">
         <v>2.4440201837069587E-4</v>
       </c>
-      <c r="E2" s="49">
+      <c r="E2" s="46">
         <v>-6.2161712884245413E-6</v>
       </c>
-      <c r="F2" s="49">
+      <c r="F2" s="46">
         <v>3.8871225821754702E-5</v>
       </c>
-      <c r="G2" s="49">
+      <c r="G2" s="46">
         <v>-8.1357253790773608E-5</v>
       </c>
-      <c r="H2" s="49">
+      <c r="H2" s="46">
         <v>-7.683525442903259E-5</v>
       </c>
-      <c r="I2" s="49">
+      <c r="I2" s="46">
         <v>1.0802423045881877E-5</v>
       </c>
-      <c r="J2" s="49">
+      <c r="J2" s="46">
         <v>-1.228257843213088E-5</v>
       </c>
-      <c r="K2" s="49">
+      <c r="K2" s="46">
         <v>-2.8017574428631947E-3</v>
       </c>
-      <c r="L2" s="49">
+      <c r="L2" s="46">
         <v>2.0579093451348106E-3</v>
       </c>
-      <c r="M2" s="49">
+      <c r="M2" s="46">
         <v>2.4440201837061374E-4</v>
       </c>
-      <c r="N2" s="49">
+      <c r="N2" s="46">
         <v>-5.0150654907449803E-6</v>
       </c>
-      <c r="O2" s="49">
+      <c r="O2" s="46">
         <v>3.8871225821689908E-5</v>
       </c>
-      <c r="P2" s="49">
+      <c r="P2" s="46">
         <v>-8.1357253790772252E-5</v>
       </c>
-      <c r="Q2" s="49">
+      <c r="Q2" s="46">
         <v>-7.6835254429039244E-5</v>
       </c>
-      <c r="R2" s="49">
+      <c r="R2" s="46">
         <v>1.0802423045879058E-5</v>
       </c>
-      <c r="S2" s="49">
+      <c r="S2" s="46">
         <v>-1.2282578432133153E-5</v>
       </c>
-      <c r="T2" s="49">
+      <c r="T2" s="46">
         <v>-3.5142619861228421E-3</v>
       </c>
-      <c r="U2" s="49">
+      <c r="U2" s="46">
         <v>2.0579093451348006E-3</v>
       </c>
-      <c r="V2" s="49">
+      <c r="V2" s="46">
         <v>2.4440201837114066E-4</v>
       </c>
-      <c r="W2" s="49">
+      <c r="W2" s="46">
         <v>-5.2785767817463886E-6</v>
       </c>
-      <c r="X2" s="49">
+      <c r="X2" s="46">
         <v>3.8871225821715E-5</v>
       </c>
-      <c r="Y2" s="49">
+      <c r="Y2" s="46">
         <v>-8.1357253790749701E-5</v>
       </c>
-      <c r="Z2" s="49">
+      <c r="Z2" s="46">
         <v>-7.683525442902519E-5</v>
       </c>
-      <c r="AA2" s="49">
+      <c r="AA2" s="46">
         <v>1.0802423045884371E-5</v>
       </c>
-      <c r="AB2" s="49">
+      <c r="AB2" s="46">
         <v>-1.2282578432135667E-5</v>
       </c>
-      <c r="AC2" s="49">
+      <c r="AC2" s="46">
         <v>-3.3408237372306309E-3</v>
       </c>
-      <c r="AD2" s="50">
+      <c r="AD2">
         <v>2.0579093451348076E-3</v>
       </c>
-      <c r="AE2" s="50">
+      <c r="AE2">
         <v>2.4440201837152637E-4</v>
       </c>
-      <c r="AF2" s="50">
+      <c r="AF2">
         <v>-5.6642806576691981E-6</v>
       </c>
-      <c r="AG2" s="50">
+      <c r="AG2">
         <v>3.8871225821755773E-5</v>
       </c>
-      <c r="AH2" s="50">
+      <c r="AH2">
         <v>-8.1357253790817409E-5</v>
       </c>
-      <c r="AI2" s="50">
+      <c r="AI2">
         <v>-7.6835254429025664E-5</v>
       </c>
-      <c r="AJ2" s="50">
+      <c r="AJ2">
         <v>1.0802423045875562E-5</v>
       </c>
-      <c r="AK2" s="50">
+      <c r="AK2">
         <v>-1.2282578432130256E-5</v>
       </c>
-      <c r="AL2" s="50">
+      <c r="AL2">
         <v>-3.1466336474070397E-3</v>
       </c>
     </row>
@@ -5484,115 +5485,115 @@
       <c r="A3" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="46">
         <v>1.8095891546568421</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="46">
         <v>2.4440201837069587E-4</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="46">
         <v>2.9805168321957107E-2</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="46">
         <v>-6.7422310703128916E-4</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F3" s="46">
         <v>1.958720117129051E-3</v>
       </c>
-      <c r="G3" s="49">
+      <c r="G3" s="46">
         <v>1.9198479886554445E-3</v>
       </c>
-      <c r="H3" s="51">
+      <c r="H3" s="47">
         <v>3.5695600569846109E-4</v>
       </c>
-      <c r="I3" s="49">
+      <c r="I3" s="46">
         <v>4.1076806388001645E-4</v>
       </c>
-      <c r="J3" s="49">
+      <c r="J3" s="46">
         <v>6.5399108044422423E-5</v>
       </c>
-      <c r="K3" s="49">
+      <c r="K3" s="46">
         <v>-0.33846616290197329</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="46">
         <v>2.4440201837155093E-4</v>
       </c>
-      <c r="M3" s="49">
+      <c r="M3" s="46">
         <v>2.9805168321949002E-2</v>
       </c>
-      <c r="N3" s="49">
+      <c r="N3" s="46">
         <v>-6.9039398765925611E-4</v>
       </c>
-      <c r="O3" s="49">
+      <c r="O3" s="46">
         <v>1.9587201171212161E-3</v>
       </c>
-      <c r="P3" s="49">
+      <c r="P3" s="46">
         <v>1.919847988654716E-3</v>
       </c>
-      <c r="Q3" s="49">
+      <c r="Q3" s="46">
         <v>3.5695600569828762E-4</v>
       </c>
-      <c r="R3" s="49">
+      <c r="R3" s="46">
         <v>4.1076806388033217E-4</v>
       </c>
-      <c r="S3" s="49">
+      <c r="S3" s="46">
         <v>6.539910804441852E-5</v>
       </c>
-      <c r="T3" s="49">
+      <c r="T3" s="46">
         <v>-0.32979378749557076</v>
       </c>
-      <c r="U3" s="49">
+      <c r="U3" s="46">
         <v>2.4440201837016662E-4</v>
       </c>
-      <c r="V3" s="49">
+      <c r="V3" s="46">
         <v>2.9805168321976789E-2</v>
       </c>
-      <c r="W3" s="49">
+      <c r="W3" s="46">
         <v>-6.9370689065509329E-4</v>
       </c>
-      <c r="X3" s="49">
+      <c r="X3" s="46">
         <v>1.9587201171258868E-3</v>
       </c>
-      <c r="Y3" s="49">
+      <c r="Y3" s="46">
         <v>1.9198479886585185E-3</v>
       </c>
-      <c r="Z3" s="49">
+      <c r="Z3" s="46">
         <v>3.5695600569966845E-4</v>
       </c>
-      <c r="AA3" s="49">
+      <c r="AA3" s="46">
         <v>4.1076806388059758E-4</v>
       </c>
-      <c r="AB3" s="49">
+      <c r="AB3" s="46">
         <v>6.5399108044086971E-5</v>
       </c>
-      <c r="AC3" s="49">
+      <c r="AC3" s="46">
         <v>-0.32915759022558938</v>
       </c>
-      <c r="AD3" s="50">
+      <c r="AD3">
         <v>2.4440201837120225E-4</v>
       </c>
-      <c r="AE3" s="50">
+      <c r="AE3">
         <v>2.9805168322007577E-2</v>
       </c>
-      <c r="AF3" s="50">
+      <c r="AF3">
         <v>-6.9771699356113855E-4</v>
       </c>
-      <c r="AG3" s="50">
+      <c r="AG3">
         <v>1.9587201171308291E-3</v>
       </c>
-      <c r="AH3" s="50">
+      <c r="AH3">
         <v>1.9198479886501363E-3</v>
       </c>
-      <c r="AI3" s="50">
+      <c r="AI3">
         <v>3.5695600569982805E-4</v>
       </c>
-      <c r="AJ3" s="50">
+      <c r="AJ3">
         <v>4.1076806388017778E-4</v>
       </c>
-      <c r="AK3" s="50">
+      <c r="AK3">
         <v>6.5399108044719061E-5</v>
       </c>
-      <c r="AL3" s="50">
+      <c r="AL3">
         <v>-0.32782208371058508</v>
       </c>
     </row>
@@ -5600,2899 +5601,2899 @@
       <c r="A4" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="46">
         <v>-4.608856265691675E-2</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="46">
         <v>-6.2161712884245413E-6</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="46">
         <v>-6.7422310703128916E-4</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="46">
         <v>2.5664471235754797E-5</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="46">
         <v>-4.1902304407297769E-5</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="46">
         <v>-4.6357463169213612E-5</v>
       </c>
-      <c r="H4" s="51">
+      <c r="H4" s="47">
         <v>-4.5393253104006521E-6</v>
       </c>
-      <c r="I4" s="49">
+      <c r="I4" s="46">
         <v>-7.9052932085504836E-6</v>
       </c>
-      <c r="J4" s="49">
+      <c r="J4" s="46">
         <v>-1.5902023290385162E-6</v>
       </c>
-      <c r="K4" s="49">
+      <c r="K4" s="46">
         <v>2.7968755200296833E-3</v>
       </c>
-      <c r="L4" s="49">
+      <c r="L4" s="46">
         <v>-6.2161712884585107E-6</v>
       </c>
-      <c r="M4" s="49">
+      <c r="M4" s="46">
         <v>-6.7422310703271131E-4</v>
       </c>
-      <c r="N4" s="49">
+      <c r="N4" s="46">
         <v>1.7328612454282528E-5</v>
       </c>
-      <c r="O4" s="49">
+      <c r="O4" s="46">
         <v>-4.1902304407114566E-5</v>
       </c>
-      <c r="P4" s="49">
+      <c r="P4" s="46">
         <v>-4.6357463169195072E-5</v>
       </c>
-      <c r="Q4" s="49">
+      <c r="Q4" s="46">
         <v>-4.539325310396749E-6</v>
       </c>
-      <c r="R4" s="49">
+      <c r="R4" s="46">
         <v>-7.9052932085569346E-6</v>
       </c>
-      <c r="S4" s="49">
+      <c r="S4" s="46">
         <v>-1.5902023290381909E-6</v>
       </c>
-      <c r="T4" s="49">
+      <c r="T4" s="46">
         <v>6.7704267696005512E-3</v>
       </c>
-      <c r="U4" s="49">
+      <c r="U4" s="46">
         <v>-6.216171288425944E-6</v>
       </c>
-      <c r="V4" s="49">
+      <c r="V4" s="46">
         <v>-6.742231070338211E-4</v>
       </c>
-      <c r="W4" s="49">
+      <c r="W4" s="46">
         <v>1.5958448619620834E-5</v>
       </c>
-      <c r="X4" s="49">
+      <c r="X4" s="46">
         <v>-4.1902304407224843E-5</v>
       </c>
-      <c r="Y4" s="49">
+      <c r="Y4" s="46">
         <v>-4.635746316928376E-5</v>
       </c>
-      <c r="Z4" s="49">
+      <c r="Z4" s="46">
         <v>-4.5393253104295461E-6</v>
       </c>
-      <c r="AA4" s="49">
+      <c r="AA4" s="46">
         <v>-7.9052932085636567E-6</v>
       </c>
-      <c r="AB4" s="49">
+      <c r="AB4" s="46">
         <v>-1.5902023290306218E-6</v>
       </c>
-      <c r="AC4" s="49">
+      <c r="AC4" s="46">
         <v>7.3434046314924369E-3</v>
       </c>
-      <c r="AD4" s="50">
+      <c r="AD4">
         <v>-6.2161712884505012E-6</v>
       </c>
-      <c r="AE4" s="50">
+      <c r="AE4">
         <v>-6.742231070352633E-4</v>
       </c>
-      <c r="AF4" s="50">
+      <c r="AF4">
         <v>1.5809567110118137E-5</v>
       </c>
-      <c r="AG4" s="50">
+      <c r="AG4">
         <v>-4.1902304407340853E-5</v>
       </c>
-      <c r="AH4" s="50">
+      <c r="AH4">
         <v>-4.6357463169087627E-5</v>
       </c>
-      <c r="AI4" s="50">
+      <c r="AI4">
         <v>-4.5393253104335034E-6</v>
       </c>
-      <c r="AJ4" s="50">
+      <c r="AJ4">
         <v>-7.9052932085540615E-6</v>
       </c>
-      <c r="AK4" s="50">
+      <c r="AK4">
         <v>-1.5902023290454754E-6</v>
       </c>
-      <c r="AL4" s="50">
+      <c r="AL4">
         <v>7.4120653010988757E-3</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B5" s="49">
+        <v>159</v>
+      </c>
+      <c r="B5" s="46">
         <v>0.11210477498055732</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="46">
         <v>3.8871225821754702E-5</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="46">
         <v>1.958720117129051E-3</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="46">
         <v>-4.1902304407297769E-5</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="46">
         <v>5.1668018538719837E-4</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="46">
         <v>1.1752413294954973E-5</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="47">
         <v>8.1580454641811111E-5</v>
       </c>
-      <c r="I5" s="49">
+      <c r="I5" s="46">
         <v>9.2403391488414185E-5</v>
       </c>
-      <c r="J5" s="49">
+      <c r="J5" s="46">
         <v>-6.0565880512638767E-6</v>
       </c>
-      <c r="K5" s="49">
+      <c r="K5" s="46">
         <v>-2.3766290393598413E-2</v>
       </c>
-      <c r="L5" s="49">
+      <c r="L5" s="46">
         <v>3.8871225821768241E-5</v>
       </c>
-      <c r="M5" s="49">
+      <c r="M5" s="46">
         <v>1.9587201171246977E-3</v>
       </c>
-      <c r="N5" s="49">
+      <c r="N5" s="46">
         <v>-4.3398918948620798E-5</v>
       </c>
-      <c r="O5" s="49">
+      <c r="O5" s="46">
         <v>5.1668018538665291E-4</v>
       </c>
-      <c r="P5" s="49">
+      <c r="P5" s="46">
         <v>1.1752413294892957E-5</v>
       </c>
-      <c r="Q5" s="49">
+      <c r="Q5" s="46">
         <v>8.158045464179268E-5</v>
       </c>
-      <c r="R5" s="49">
+      <c r="R5" s="46">
         <v>9.2403391488432725E-5</v>
       </c>
-      <c r="S5" s="49">
+      <c r="S5" s="46">
         <v>-6.0565880512614644E-6</v>
       </c>
-      <c r="T5" s="49">
+      <c r="T5" s="46">
         <v>-2.2871562037919874E-2</v>
       </c>
-      <c r="U5" s="49">
+      <c r="U5" s="46">
         <v>3.8871225821677439E-5</v>
       </c>
-      <c r="V5" s="49">
+      <c r="V5" s="46">
         <v>1.9587201171278878E-3</v>
       </c>
-      <c r="W5" s="49">
+      <c r="W5" s="46">
         <v>-4.3303073613973934E-5</v>
       </c>
-      <c r="X5" s="49">
+      <c r="X5" s="46">
         <v>5.1668018538697145E-4</v>
       </c>
-      <c r="Y5" s="49">
+      <c r="Y5" s="46">
         <v>1.1752413295131048E-5</v>
       </c>
-      <c r="Z5" s="49">
+      <c r="Z5" s="46">
         <v>8.1580454641885054E-5</v>
       </c>
-      <c r="AA5" s="49">
+      <c r="AA5" s="46">
         <v>9.2403391488451374E-5</v>
       </c>
-      <c r="AB5" s="49">
+      <c r="AB5" s="46">
         <v>-6.0565880512849645E-6</v>
       </c>
-      <c r="AC5" s="49">
+      <c r="AC5" s="46">
         <v>-2.2917219103627869E-2</v>
       </c>
-      <c r="AD5" s="50">
+      <c r="AD5">
         <v>3.8871225821743413E-5</v>
       </c>
-      <c r="AE5" s="50">
+      <c r="AE5">
         <v>1.9587201171319588E-3</v>
       </c>
-      <c r="AF5" s="50">
+      <c r="AF5">
         <v>-4.3573469895552066E-5</v>
       </c>
-      <c r="AG5" s="50">
+      <c r="AG5">
         <v>5.1668018538722981E-4</v>
       </c>
-      <c r="AH5" s="50">
+      <c r="AH5">
         <v>1.1752413294573334E-5</v>
       </c>
-      <c r="AI5" s="50">
+      <c r="AI5">
         <v>8.158045464189698E-5</v>
       </c>
-      <c r="AJ5" s="50">
+      <c r="AJ5">
         <v>9.2403391488421558E-5</v>
       </c>
-      <c r="AK5" s="50">
+      <c r="AK5">
         <v>-6.0565880512415964E-6</v>
       </c>
-      <c r="AL5" s="50">
+      <c r="AL5">
         <v>-2.283844166061761E-2</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>241</v>
-      </c>
-      <c r="B6" s="49">
+        <v>213</v>
+      </c>
+      <c r="B6" s="46">
         <v>1.9445940692169863</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="46">
         <v>-8.1357253790773608E-5</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="46">
         <v>1.9198479886554445E-3</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="46">
         <v>-4.6357463169213612E-5</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="46">
         <v>1.1752413294954973E-5</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="46">
         <v>2.3958904604175248E-3</v>
       </c>
-      <c r="H6" s="51">
+      <c r="H6" s="47">
         <v>1.2214490577302172E-4</v>
       </c>
-      <c r="I6" s="49">
+      <c r="I6" s="46">
         <v>1.6368351774965909E-4</v>
       </c>
-      <c r="J6" s="49">
+      <c r="J6" s="46">
         <v>1.3878993418569972E-5</v>
       </c>
-      <c r="K6" s="49">
+      <c r="K6" s="46">
         <v>-2.735625710853281E-2</v>
       </c>
-      <c r="L6" s="49">
+      <c r="L6" s="46">
         <v>-8.1357253790760597E-5</v>
       </c>
-      <c r="M6" s="49">
+      <c r="M6" s="46">
         <v>1.919847988649118E-3</v>
       </c>
-      <c r="N6" s="49">
+      <c r="N6" s="46">
         <v>-4.4830521583513308E-5</v>
       </c>
-      <c r="O6" s="49">
+      <c r="O6" s="46">
         <v>1.1752413294411571E-5</v>
       </c>
-      <c r="P6" s="49">
+      <c r="P6" s="46">
         <v>2.3958904604175885E-3</v>
       </c>
-      <c r="Q6" s="49">
+      <c r="Q6" s="46">
         <v>1.2214490577300502E-4</v>
       </c>
-      <c r="R6" s="49">
+      <c r="R6" s="46">
         <v>1.6368351774968229E-4</v>
       </c>
-      <c r="S6" s="49">
+      <c r="S6" s="46">
         <v>1.3878993418568047E-5</v>
       </c>
-      <c r="T6" s="49">
+      <c r="T6" s="46">
         <v>-2.9124980529094558E-2</v>
       </c>
-      <c r="U6" s="49">
+      <c r="U6" s="46">
         <v>-8.1357253790850207E-5</v>
       </c>
-      <c r="V6" s="49">
+      <c r="V6" s="46">
         <v>1.9198479886536695E-3</v>
       </c>
-      <c r="W6" s="49">
+      <c r="W6" s="46">
         <v>-4.4111942917845798E-5</v>
       </c>
-      <c r="X6" s="49">
+      <c r="X6" s="46">
         <v>1.1752413294614751E-5</v>
       </c>
-      <c r="Y6" s="49">
+      <c r="Y6" s="46">
         <v>2.3958904604176536E-3</v>
       </c>
-      <c r="Z6" s="49">
+      <c r="Z6" s="46">
         <v>1.2214490577310347E-4</v>
       </c>
-      <c r="AA6" s="49">
+      <c r="AA6" s="46">
         <v>1.6368351774970766E-4</v>
       </c>
-      <c r="AB6" s="49">
+      <c r="AB6" s="46">
         <v>1.3878993418547827E-5</v>
       </c>
-      <c r="AC6" s="49">
+      <c r="AC6" s="46">
         <v>-3.0549007873232767E-2</v>
       </c>
-      <c r="AD6" s="50">
+      <c r="AD6">
         <v>-8.1357253790775098E-5</v>
       </c>
-      <c r="AE6" s="50">
+      <c r="AE6">
         <v>1.9198479886552364E-3</v>
       </c>
-      <c r="AF6" s="50">
+      <c r="AF6">
         <v>-4.3505795877081427E-5</v>
       </c>
-      <c r="AG6" s="50">
+      <c r="AG6">
         <v>1.1752413294991728E-5</v>
       </c>
-      <c r="AH6" s="50">
+      <c r="AH6">
         <v>2.3958904604174549E-3</v>
       </c>
-      <c r="AI6" s="50">
+      <c r="AI6">
         <v>1.2214490577310781E-4</v>
       </c>
-      <c r="AJ6" s="50">
+      <c r="AJ6">
         <v>1.6368351774964586E-4</v>
       </c>
-      <c r="AK6" s="50">
+      <c r="AK6">
         <v>1.387899341858778E-5</v>
       </c>
-      <c r="AL6" s="50">
+      <c r="AL6">
         <v>-3.2124587852342665E-2</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B7" s="49">
+        <v>240</v>
+      </c>
+      <c r="B7" s="46">
         <v>6.2654924397043454E-2</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="46">
         <v>-7.683525442903259E-5</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="46">
         <v>3.5695600569846109E-4</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="46">
         <v>-4.5393253104006521E-6</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="46">
         <v>8.1580454641811111E-5</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="46">
         <v>1.2214490577302172E-4</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="47">
         <v>4.7347903191299881E-3</v>
       </c>
-      <c r="I7" s="49">
+      <c r="I7" s="46">
         <v>2.7744094127375991E-3</v>
       </c>
-      <c r="J7" s="49">
+      <c r="J7" s="46">
         <v>-2.8009313066154932E-5</v>
       </c>
-      <c r="K7" s="49">
+      <c r="K7" s="46">
         <v>-8.0922619082370618E-3</v>
       </c>
-      <c r="L7" s="49">
+      <c r="L7" s="46">
         <v>-7.6835254429020596E-5</v>
       </c>
-      <c r="M7" s="49">
+      <c r="M7" s="46">
         <v>3.5695600569880261E-4</v>
       </c>
-      <c r="N7" s="49">
+      <c r="N7" s="46">
         <v>-6.4141972458106931E-6</v>
       </c>
-      <c r="O7" s="49">
+      <c r="O7" s="46">
         <v>8.158045464180195E-5</v>
       </c>
-      <c r="P7" s="49">
+      <c r="P7" s="46">
         <v>1.2214490577312705E-4</v>
       </c>
-      <c r="Q7" s="49">
+      <c r="Q7" s="46">
         <v>4.7347903191299725E-3</v>
       </c>
-      <c r="R7" s="49">
+      <c r="R7" s="46">
         <v>2.7744094127375931E-3</v>
       </c>
-      <c r="S7" s="49">
+      <c r="S7" s="46">
         <v>-2.8009313066162416E-5</v>
       </c>
-      <c r="T7" s="49">
+      <c r="T7" s="46">
         <v>-7.6835051413862024E-3</v>
       </c>
-      <c r="U7" s="49">
+      <c r="U7" s="46">
         <v>-7.6835254429031465E-5</v>
       </c>
-      <c r="V7" s="49">
+      <c r="V7" s="46">
         <v>3.5695600569946392E-4</v>
       </c>
-      <c r="W7" s="49">
+      <c r="W7" s="46">
         <v>-7.8935967634108316E-6</v>
       </c>
-      <c r="X7" s="49">
+      <c r="X7" s="46">
         <v>8.1580454641897089E-5</v>
       </c>
-      <c r="Y7" s="49">
+      <c r="Y7" s="46">
         <v>1.2214490577311583E-4</v>
       </c>
-      <c r="Z7" s="49">
+      <c r="Z7" s="46">
         <v>4.7347903191299785E-3</v>
       </c>
-      <c r="AA7" s="49">
+      <c r="AA7" s="46">
         <v>2.7744094127375948E-3</v>
       </c>
-      <c r="AB7" s="49">
+      <c r="AB7" s="46">
         <v>-2.8009313066162274E-5</v>
       </c>
-      <c r="AC7" s="49">
+      <c r="AC7" s="46">
         <v>-6.9927991238971348E-3</v>
       </c>
-      <c r="AD7" s="50">
+      <c r="AD7">
         <v>-7.6835254429023157E-5</v>
       </c>
-      <c r="AE7" s="50">
+      <c r="AE7">
         <v>3.5695600569975541E-4</v>
       </c>
-      <c r="AF7" s="50">
+      <c r="AF7">
         <v>-7.0059646201930722E-6</v>
       </c>
-      <c r="AG7" s="50">
+      <c r="AG7">
         <v>8.1580454641886192E-5</v>
       </c>
-      <c r="AH7" s="50">
+      <c r="AH7">
         <v>1.2214490577306498E-4</v>
       </c>
-      <c r="AI7" s="50">
+      <c r="AI7">
         <v>4.7347903191299829E-3</v>
       </c>
-      <c r="AJ7" s="50">
+      <c r="AJ7">
         <v>2.7744094127375844E-3</v>
       </c>
-      <c r="AK7" s="50">
+      <c r="AK7">
         <v>-2.8009313066158886E-5</v>
       </c>
-      <c r="AL7" s="50">
+      <c r="AL7">
         <v>-7.3889058913380323E-3</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B8" s="49">
+        <v>244</v>
+      </c>
+      <c r="B8" s="46">
         <v>-9.142780929068077E-2</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="46">
         <v>1.0802423045881877E-5</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="46">
         <v>4.1076806388001645E-4</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="46">
         <v>-7.9052932085504836E-6</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="46">
         <v>9.2403391488414185E-5</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="46">
         <v>1.6368351774965909E-4</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="47">
         <v>2.7744094127375991E-3</v>
       </c>
-      <c r="I8" s="49">
+      <c r="I8" s="46">
         <v>3.7159031263584432E-3</v>
       </c>
-      <c r="J8" s="49">
+      <c r="J8" s="46">
         <v>-3.6211806915326003E-5</v>
       </c>
-      <c r="K8" s="49">
+      <c r="K8" s="46">
         <v>-8.2230951296829429E-3</v>
       </c>
-      <c r="L8" s="49">
+      <c r="L8" s="46">
         <v>1.0802423045892211E-5</v>
       </c>
-      <c r="M8" s="49">
+      <c r="M8" s="46">
         <v>4.107680638798799E-4</v>
       </c>
-      <c r="N8" s="49">
+      <c r="N8" s="46">
         <v>-8.8810704325522433E-6</v>
       </c>
-      <c r="O8" s="49">
+      <c r="O8" s="46">
         <v>9.2403391488367538E-5</v>
       </c>
-      <c r="P8" s="49">
+      <c r="P8" s="46">
         <v>1.6368351774975331E-4</v>
       </c>
-      <c r="Q8" s="49">
+      <c r="Q8" s="46">
         <v>2.7744094127375796E-3</v>
       </c>
-      <c r="R8" s="49">
+      <c r="R8" s="46">
         <v>3.7159031263584406E-3</v>
       </c>
-      <c r="S8" s="49">
+      <c r="S8" s="46">
         <v>-3.62118069153279E-5</v>
       </c>
-      <c r="T8" s="49">
+      <c r="T8" s="46">
         <v>-7.7784889114853959E-3</v>
       </c>
-      <c r="U8" s="49">
+      <c r="U8" s="46">
         <v>1.0802423045876863E-5</v>
       </c>
-      <c r="V8" s="49">
+      <c r="V8" s="46">
         <v>4.1076806388094529E-4</v>
       </c>
-      <c r="W8" s="49">
+      <c r="W8" s="46">
         <v>-8.5976070546360269E-6</v>
       </c>
-      <c r="X8" s="49">
+      <c r="X8" s="46">
         <v>9.2403391488467311E-5</v>
       </c>
-      <c r="Y8" s="49">
+      <c r="Y8" s="46">
         <v>1.636835177497622E-4</v>
       </c>
-      <c r="Z8" s="49">
+      <c r="Z8" s="46">
         <v>2.7744094127376013E-3</v>
       </c>
-      <c r="AA8" s="49">
+      <c r="AA8" s="46">
         <v>3.7159031263584445E-3</v>
       </c>
-      <c r="AB8" s="49">
+      <c r="AB8" s="46">
         <v>-3.6211806915331634E-5</v>
       </c>
-      <c r="AC8" s="49">
+      <c r="AC8" s="46">
         <v>-7.9878863094123564E-3</v>
       </c>
-      <c r="AD8" s="50">
+      <c r="AD8">
         <v>1.0802423045889385E-5</v>
       </c>
-      <c r="AE8" s="50">
+      <c r="AE8">
         <v>4.1076806388141935E-4</v>
       </c>
-      <c r="AF8" s="50">
+      <c r="AF8">
         <v>-8.0117184273402675E-6</v>
       </c>
-      <c r="AG8" s="50">
+      <c r="AG8">
         <v>9.2403391488506641E-5</v>
       </c>
-      <c r="AH8" s="50">
+      <c r="AH8">
         <v>1.636835177496773E-4</v>
       </c>
-      <c r="AI8" s="50">
+      <c r="AI8">
         <v>2.7744094127376039E-3</v>
       </c>
-      <c r="AJ8" s="50">
+      <c r="AJ8">
         <v>3.7159031263584354E-3</v>
       </c>
-      <c r="AK8" s="50">
+      <c r="AK8">
         <v>-3.6211806915324254E-5</v>
       </c>
-      <c r="AL8" s="50">
+      <c r="AL8">
         <v>-8.1998346042545245E-3</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B9" s="49">
+        <v>170</v>
+      </c>
+      <c r="B9" s="46">
         <v>2.9322733083300245E-2</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="46">
         <v>-1.228257843213088E-5</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="46">
         <v>6.5399108044422423E-5</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="46">
         <v>-1.5902023290385162E-6</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="46">
         <v>-6.0565880512638767E-6</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="46">
         <v>1.3878993418569972E-5</v>
       </c>
-      <c r="H9" s="51">
+      <c r="H9" s="47">
         <v>-2.8009313066154932E-5</v>
       </c>
-      <c r="I9" s="49">
+      <c r="I9" s="46">
         <v>-3.6211806915326003E-5</v>
       </c>
-      <c r="J9" s="49">
+      <c r="J9" s="46">
         <v>7.6214153394962882E-5</v>
       </c>
-      <c r="K9" s="49">
+      <c r="K9" s="46">
         <v>-1.7426946337935454E-3</v>
       </c>
-      <c r="L9" s="49">
+      <c r="L9" s="46">
         <v>-1.2282578432129057E-5</v>
       </c>
-      <c r="M9" s="49">
+      <c r="M9" s="46">
         <v>6.5399108044421014E-5</v>
       </c>
-      <c r="N9" s="49">
+      <c r="N9" s="46">
         <v>-1.5356902763145409E-6</v>
       </c>
-      <c r="O9" s="49">
+      <c r="O9" s="46">
         <v>-6.0565880512861368E-6</v>
       </c>
-      <c r="P9" s="49">
+      <c r="P9" s="46">
         <v>1.3878993418582576E-5</v>
       </c>
-      <c r="Q9" s="49">
+      <c r="Q9" s="46">
         <v>-2.8009313066160177E-5</v>
       </c>
-      <c r="R9" s="49">
+      <c r="R9" s="46">
         <v>-3.6211806915326423E-5</v>
       </c>
-      <c r="S9" s="49">
+      <c r="S9" s="46">
         <v>7.6214153394961595E-5</v>
       </c>
-      <c r="T9" s="49">
+      <c r="T9" s="46">
         <v>-1.7290067943791245E-3</v>
       </c>
-      <c r="U9" s="49">
+      <c r="U9" s="46">
         <v>-1.2282578432133428E-5</v>
       </c>
-      <c r="V9" s="49">
+      <c r="V9" s="46">
         <v>6.5399108044637963E-5</v>
       </c>
-      <c r="W9" s="49">
+      <c r="W9" s="46">
         <v>-1.5376299325477758E-6</v>
       </c>
-      <c r="X9" s="49">
+      <c r="X9" s="46">
         <v>-6.0565880512827012E-6</v>
       </c>
-      <c r="Y9" s="49">
+      <c r="Y9" s="46">
         <v>1.3878993418583877E-5</v>
       </c>
-      <c r="Z9" s="49">
+      <c r="Z9" s="46">
         <v>-2.8009313066155352E-5</v>
       </c>
-      <c r="AA9" s="49">
+      <c r="AA9" s="46">
         <v>-3.6211806915328415E-5</v>
       </c>
-      <c r="AB9" s="49">
+      <c r="AB9" s="46">
         <v>7.621415339496276E-5</v>
       </c>
-      <c r="AC9" s="49">
+      <c r="AC9" s="46">
         <v>-1.7386530695139586E-3</v>
       </c>
-      <c r="AD9" s="50">
+      <c r="AD9">
         <v>-1.2282578432132865E-5</v>
       </c>
-      <c r="AE9" s="50">
+      <c r="AE9">
         <v>6.5399108044607442E-5</v>
       </c>
-      <c r="AF9" s="50">
+      <c r="AF9">
         <v>-1.5158770963136299E-6</v>
       </c>
-      <c r="AG9" s="50">
+      <c r="AG9">
         <v>-6.0565880512494094E-6</v>
       </c>
-      <c r="AH9" s="50">
+      <c r="AH9">
         <v>1.3878993418549481E-5</v>
       </c>
-      <c r="AI9" s="50">
+      <c r="AI9">
         <v>-2.8009313066158381E-5</v>
       </c>
-      <c r="AJ9" s="50">
+      <c r="AJ9">
         <v>-3.6211806915331153E-5</v>
       </c>
-      <c r="AK9" s="50">
+      <c r="AK9">
         <v>7.6214153394963628E-5</v>
       </c>
-      <c r="AL9" s="50">
+      <c r="AL9">
         <v>-1.781490889534598E-3</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" s="49">
+        <v>171</v>
+      </c>
+      <c r="B10" s="46">
         <v>-19.081528762609302</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="46">
         <v>-2.8017574428631947E-3</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="46">
         <v>-0.33846616290197329</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="46">
         <v>2.7968755200296833E-3</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="46">
         <v>-2.3766290393598413E-2</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="46">
         <v>-2.735625710853281E-2</v>
       </c>
-      <c r="H10" s="51">
+      <c r="H10" s="47">
         <v>-8.0922619082370618E-3</v>
       </c>
-      <c r="I10" s="49">
+      <c r="I10" s="46">
         <v>-8.2230951296829429E-3</v>
       </c>
-      <c r="J10" s="49">
+      <c r="J10" s="46">
         <v>-1.7426946337935454E-3</v>
       </c>
-      <c r="K10" s="49">
+      <c r="K10" s="46">
         <v>6.219405020276418</v>
       </c>
-      <c r="L10" s="49">
+      <c r="L10" s="46">
         <v>-2.8017574428665336E-3</v>
       </c>
-      <c r="M10" s="49">
+      <c r="M10" s="46">
         <v>-0.33846616290112325</v>
       </c>
-      <c r="N10" s="49">
+      <c r="N10" s="46">
         <v>7.0921057345397602E-3</v>
       </c>
-      <c r="O10" s="49">
+      <c r="O10" s="46">
         <v>-2.3766290393508971E-2</v>
       </c>
-      <c r="P10" s="49">
+      <c r="P10" s="46">
         <v>-2.7356257108535065E-2</v>
       </c>
-      <c r="Q10" s="49">
+      <c r="Q10" s="46">
         <v>-8.0922619082270941E-3</v>
       </c>
-      <c r="R10" s="49">
+      <c r="R10" s="46">
         <v>-8.2230951296794752E-3</v>
       </c>
-      <c r="S10" s="49">
+      <c r="S10" s="46">
         <v>-1.7426946337918761E-3</v>
       </c>
-      <c r="T10" s="49">
+      <c r="T10" s="46">
         <v>4.0978119637307149</v>
       </c>
-      <c r="U10" s="49">
+      <c r="U10" s="46">
         <v>-2.8017574428514484E-3</v>
       </c>
-      <c r="V10" s="49">
+      <c r="V10" s="46">
         <v>-0.33846616290164899</v>
       </c>
-      <c r="W10" s="49">
+      <c r="W10" s="46">
         <v>7.7538761464506804E-3</v>
       </c>
-      <c r="X10" s="49">
+      <c r="X10" s="46">
         <v>-2.3766290393559202E-2</v>
       </c>
-      <c r="Y10" s="49">
+      <c r="Y10" s="46">
         <v>-2.7356257108576532E-2</v>
       </c>
-      <c r="Z10" s="49">
+      <c r="Z10" s="46">
         <v>-8.0922619082419711E-3</v>
       </c>
-      <c r="AA10" s="49">
+      <c r="AA10" s="46">
         <v>-8.223095129682223E-3</v>
       </c>
-      <c r="AB10" s="49">
+      <c r="AB10" s="46">
         <v>-1.7426946337881534E-3</v>
       </c>
-      <c r="AC10" s="49">
+      <c r="AC10" s="46">
         <v>3.8324131639937988</v>
       </c>
-      <c r="AD10" s="50">
+      <c r="AD10">
         <v>-2.8017574428626513E-3</v>
       </c>
-      <c r="AE10" s="50">
+      <c r="AE10">
         <v>-0.33846616290231279</v>
       </c>
-      <c r="AF10" s="50">
+      <c r="AF10">
         <v>7.9004293671879732E-3</v>
       </c>
-      <c r="AG10" s="50">
+      <c r="AG10">
         <v>-2.3766290393613686E-2</v>
       </c>
-      <c r="AH10" s="50">
+      <c r="AH10">
         <v>-2.7356257108484994E-2</v>
       </c>
-      <c r="AI10" s="50">
+      <c r="AI10">
         <v>-8.0922619082436087E-3</v>
       </c>
-      <c r="AJ10" s="50">
+      <c r="AJ10">
         <v>-8.223095129677116E-3</v>
       </c>
-      <c r="AK10" s="50">
+      <c r="AK10">
         <v>-1.7426946337950333E-3</v>
       </c>
-      <c r="AL10" s="50">
+      <c r="AL10">
         <v>3.7789978040002516</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B11" s="49">
+        <v>172</v>
+      </c>
+      <c r="B11" s="46">
         <v>4.795722331705863E-2</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="46">
         <v>2.0579093451348106E-3</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="46">
         <v>2.4440201837155093E-4</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="46">
         <v>-6.2161712884585107E-6</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="46">
         <v>3.8871225821768241E-5</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="46">
         <v>-8.1357253790760597E-5</v>
       </c>
-      <c r="H11" s="51">
+      <c r="H11" s="47">
         <v>-7.6835254429020596E-5</v>
       </c>
-      <c r="I11" s="49">
+      <c r="I11" s="46">
         <v>1.0802423045892211E-5</v>
       </c>
-      <c r="J11" s="49">
+      <c r="J11" s="46">
         <v>-1.2282578432129057E-5</v>
       </c>
-      <c r="K11" s="49">
+      <c r="K11" s="46">
         <v>-2.8017574428665336E-3</v>
       </c>
-      <c r="L11" s="49">
+      <c r="L11" s="46">
         <v>2.057909345134815E-3</v>
       </c>
-      <c r="M11" s="49">
+      <c r="M11" s="46">
         <v>2.4440201837064085E-4</v>
       </c>
-      <c r="N11" s="49">
+      <c r="N11" s="46">
         <v>-5.0150654907456071E-6</v>
       </c>
-      <c r="O11" s="49">
+      <c r="O11" s="46">
         <v>3.8871225821691981E-5</v>
       </c>
-      <c r="P11" s="49">
+      <c r="P11" s="46">
         <v>-8.1357253790769921E-5</v>
       </c>
-      <c r="Q11" s="49">
+      <c r="Q11" s="46">
         <v>-7.6835254429038946E-5</v>
       </c>
-      <c r="R11" s="49">
+      <c r="R11" s="46">
         <v>1.0802423045879302E-5</v>
       </c>
-      <c r="S11" s="49">
+      <c r="S11" s="46">
         <v>-1.2282578432133019E-5</v>
       </c>
-      <c r="T11" s="49">
+      <c r="T11" s="46">
         <v>-3.5142619861231617E-3</v>
       </c>
-      <c r="U11" s="49">
+      <c r="U11" s="46">
         <v>2.0579093451348019E-3</v>
       </c>
-      <c r="V11" s="49">
+      <c r="V11" s="46">
         <v>2.4440201837116809E-4</v>
       </c>
-      <c r="W11" s="49">
+      <c r="W11" s="46">
         <v>-5.2785767817470146E-6</v>
       </c>
-      <c r="X11" s="49">
+      <c r="X11" s="46">
         <v>3.8871225821717053E-5</v>
       </c>
-      <c r="Y11" s="49">
+      <c r="Y11" s="46">
         <v>-8.1357253790747153E-5</v>
       </c>
-      <c r="Z11" s="49">
+      <c r="Z11" s="46">
         <v>-7.6835254429024878E-5</v>
       </c>
-      <c r="AA11" s="49">
+      <c r="AA11" s="46">
         <v>1.0802423045884642E-5</v>
       </c>
-      <c r="AB11" s="49">
+      <c r="AB11" s="46">
         <v>-1.2282578432135533E-5</v>
       </c>
-      <c r="AC11" s="49">
+      <c r="AC11" s="46">
         <v>-3.3408237372309396E-3</v>
       </c>
-      <c r="AD11" s="50">
+      <c r="AD11">
         <v>2.0579093451348093E-3</v>
       </c>
-      <c r="AE11" s="50">
+      <c r="AE11">
         <v>2.4440201837155358E-4</v>
       </c>
-      <c r="AF11" s="50">
+      <c r="AF11">
         <v>-5.6642806576698376E-6</v>
       </c>
-      <c r="AG11" s="50">
+      <c r="AG11">
         <v>3.8871225821757826E-5</v>
       </c>
-      <c r="AH11" s="50">
+      <c r="AH11">
         <v>-8.1357253790815078E-5</v>
       </c>
-      <c r="AI11" s="50">
+      <c r="AI11">
         <v>-7.6835254429025353E-5</v>
       </c>
-      <c r="AJ11" s="50">
+      <c r="AJ11">
         <v>1.0802423045875833E-5</v>
       </c>
-      <c r="AK11" s="50">
+      <c r="AK11">
         <v>-1.2282578432130131E-5</v>
       </c>
-      <c r="AL11" s="50">
+      <c r="AL11">
         <v>-3.1466336474073476E-3</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>175</v>
-      </c>
-      <c r="B12" s="49">
+        <v>173</v>
+      </c>
+      <c r="B12" s="46">
         <v>1.8095891546568412</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="46">
         <v>2.4440201837061374E-4</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="46">
         <v>2.9805168321949002E-2</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="46">
         <v>-6.7422310703271131E-4</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="46">
         <v>1.9587201171246977E-3</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="46">
         <v>1.919847988649118E-3</v>
       </c>
-      <c r="H12" s="51">
+      <c r="H12" s="47">
         <v>3.5695600569880261E-4</v>
       </c>
-      <c r="I12" s="49">
+      <c r="I12" s="46">
         <v>4.107680638798799E-4</v>
       </c>
-      <c r="J12" s="49">
+      <c r="J12" s="46">
         <v>6.5399108044421014E-5</v>
       </c>
-      <c r="K12" s="49">
+      <c r="K12" s="46">
         <v>-0.33846616290112325</v>
       </c>
-      <c r="L12" s="49">
+      <c r="L12" s="46">
         <v>2.4440201837064085E-4</v>
       </c>
-      <c r="M12" s="49">
+      <c r="M12" s="46">
         <v>2.9805168321948947E-2</v>
       </c>
-      <c r="N12" s="49">
+      <c r="N12" s="46">
         <v>-6.9039398765925514E-4</v>
       </c>
-      <c r="O12" s="49">
+      <c r="O12" s="46">
         <v>1.9587201171212317E-3</v>
       </c>
-      <c r="P12" s="49">
+      <c r="P12" s="46">
         <v>1.919847988654709E-3</v>
       </c>
-      <c r="Q12" s="49">
+      <c r="Q12" s="46">
         <v>3.5695600569828415E-4</v>
       </c>
-      <c r="R12" s="49">
+      <c r="R12" s="46">
         <v>4.1076806388033391E-4</v>
       </c>
-      <c r="S12" s="49">
+      <c r="S12" s="46">
         <v>6.5399108044420472E-5</v>
       </c>
-      <c r="T12" s="49">
+      <c r="T12" s="46">
         <v>-0.32979378749557015</v>
       </c>
-      <c r="U12" s="49">
+      <c r="U12" s="46">
         <v>2.4440201837016662E-4</v>
       </c>
-      <c r="V12" s="49">
+      <c r="V12" s="46">
         <v>2.9805168321972709E-2</v>
       </c>
-      <c r="W12" s="49">
+      <c r="W12" s="46">
         <v>-6.9370689065509209E-4</v>
       </c>
-      <c r="X12" s="49">
+      <c r="X12" s="46">
         <v>1.9587201171259016E-3</v>
       </c>
-      <c r="Y12" s="49">
+      <c r="Y12" s="46">
         <v>1.9198479886585254E-3</v>
       </c>
-      <c r="Z12" s="49">
+      <c r="Z12" s="46">
         <v>3.5695600569966845E-4</v>
       </c>
-      <c r="AA12" s="49">
+      <c r="AA12" s="46">
         <v>4.1076806388060452E-4</v>
       </c>
-      <c r="AB12" s="49">
+      <c r="AB12" s="46">
         <v>6.539910804408914E-5</v>
       </c>
-      <c r="AC12" s="49">
+      <c r="AC12" s="46">
         <v>-0.32915759022558844</v>
       </c>
-      <c r="AD12" s="50">
+      <c r="AD12">
         <v>2.4440201837120311E-4</v>
       </c>
-      <c r="AE12" s="50">
+      <c r="AE12">
         <v>2.98051683220035E-2</v>
       </c>
-      <c r="AF12" s="50">
+      <c r="AF12">
         <v>-6.9771699356113714E-4</v>
       </c>
-      <c r="AG12" s="50">
+      <c r="AG12">
         <v>1.9587201171308421E-3</v>
       </c>
-      <c r="AH12" s="50">
+      <c r="AH12">
         <v>1.9198479886501155E-3</v>
       </c>
-      <c r="AI12" s="50">
+      <c r="AI12">
         <v>3.5695600569982805E-4</v>
       </c>
-      <c r="AJ12" s="50">
+      <c r="AJ12">
         <v>4.1076806388017431E-4</v>
       </c>
-      <c r="AK12" s="50">
+      <c r="AK12">
         <v>6.5399108044720362E-5</v>
       </c>
-      <c r="AL12" s="50">
+      <c r="AL12">
         <v>-0.32782208371058474</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>176</v>
-      </c>
-      <c r="B13" s="49">
+        <v>174</v>
+      </c>
+      <c r="B13" s="46">
         <v>-3.8512463911479305E-2</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="46">
         <v>-5.0150654907449803E-6</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D13" s="46">
         <v>-6.9039398765925611E-4</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="46">
         <v>1.7328612454282528E-5</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="46">
         <v>-4.3398918948620798E-5</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="46">
         <v>-4.4830521583513308E-5</v>
       </c>
-      <c r="H13" s="51">
+      <c r="H13" s="47">
         <v>-6.4141972458106931E-6</v>
       </c>
-      <c r="I13" s="49">
+      <c r="I13" s="46">
         <v>-8.8810704325522433E-6</v>
       </c>
-      <c r="J13" s="49">
+      <c r="J13" s="46">
         <v>-1.5356902763145409E-6</v>
       </c>
-      <c r="K13" s="49">
+      <c r="K13" s="46">
         <v>7.0921057345397602E-3</v>
       </c>
-      <c r="L13" s="49">
+      <c r="L13" s="46">
         <v>-5.0150654907456071E-6</v>
       </c>
-      <c r="M13" s="49">
+      <c r="M13" s="46">
         <v>-6.9039398765925514E-4</v>
       </c>
-      <c r="N13" s="49">
+      <c r="N13" s="46">
         <v>1.7659892730653542E-5</v>
       </c>
-      <c r="O13" s="49">
+      <c r="O13" s="46">
         <v>-4.3398918948530979E-5</v>
       </c>
-      <c r="P13" s="49">
+      <c r="P13" s="46">
         <v>-4.4830521583595151E-5</v>
       </c>
-      <c r="Q13" s="49">
+      <c r="Q13" s="46">
         <v>-6.4141972457783009E-6</v>
       </c>
-      <c r="R13" s="49">
+      <c r="R13" s="46">
         <v>-8.8810704325369442E-6</v>
       </c>
-      <c r="S13" s="49">
+      <c r="S13" s="46">
         <v>-1.5356902763092071E-6</v>
       </c>
-      <c r="T13" s="49">
+      <c r="T13" s="46">
         <v>6.9620309225938148E-3</v>
       </c>
-      <c r="U13" s="49">
+      <c r="U13" s="46">
         <v>-5.0150654907269284E-6</v>
       </c>
-      <c r="V13" s="49">
+      <c r="V13" s="46">
         <v>-6.9039398766025108E-4</v>
       </c>
-      <c r="W13" s="49">
+      <c r="W13" s="46">
         <v>1.6333427013527549E-5</v>
       </c>
-      <c r="X13" s="49">
+      <c r="X13" s="46">
         <v>-4.3398918948643587E-5</v>
       </c>
-      <c r="Y13" s="49">
+      <c r="Y13" s="46">
         <v>-4.4830521583685357E-5</v>
       </c>
-      <c r="Z13" s="49">
+      <c r="Z13" s="46">
         <v>-6.4141972458105017E-6</v>
       </c>
-      <c r="AA13" s="49">
+      <c r="AA13" s="46">
         <v>-8.8810704325436121E-6</v>
       </c>
-      <c r="AB13" s="49">
+      <c r="AB13" s="46">
         <v>-1.5356902763016177E-6</v>
       </c>
-      <c r="AC13" s="49">
+      <c r="AC13" s="46">
         <v>7.5122810894399294E-3</v>
       </c>
-      <c r="AD13" s="50">
+      <c r="AD13">
         <v>-5.0150654907512348E-6</v>
       </c>
-      <c r="AE13" s="50">
+      <c r="AE13">
         <v>-6.9039398766169535E-4</v>
       </c>
-      <c r="AF13" s="50">
+      <c r="AF13">
         <v>1.6188105917740814E-5</v>
       </c>
-      <c r="AG13" s="50">
+      <c r="AG13">
         <v>-4.3398918948756398E-5</v>
       </c>
-      <c r="AH13" s="50">
+      <c r="AH13">
         <v>-4.4830521583488032E-5</v>
       </c>
-      <c r="AI13" s="50">
+      <c r="AI13">
         <v>-6.4141972458141338E-6</v>
       </c>
-      <c r="AJ13" s="50">
+      <c r="AJ13">
         <v>-8.8810704325334748E-6</v>
       </c>
-      <c r="AK13" s="50">
+      <c r="AK13">
         <v>-1.5356902763163561E-6</v>
       </c>
-      <c r="AL13" s="50">
+      <c r="AL13">
         <v>7.5780556550874168E-3</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>242</v>
-      </c>
-      <c r="B14" s="49">
+        <v>179</v>
+      </c>
+      <c r="B14" s="46">
         <v>0.11210477498056017</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="46">
         <v>3.8871225821689908E-5</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="46">
         <v>1.9587201171212161E-3</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="46">
         <v>-4.1902304407114566E-5</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="46">
         <v>5.1668018538665291E-4</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="46">
         <v>1.1752413294411571E-5</v>
       </c>
-      <c r="H14" s="51">
+      <c r="H14" s="47">
         <v>8.158045464180195E-5</v>
       </c>
-      <c r="I14" s="49">
+      <c r="I14" s="46">
         <v>9.2403391488367538E-5</v>
       </c>
-      <c r="J14" s="49">
+      <c r="J14" s="46">
         <v>-6.0565880512861368E-6</v>
       </c>
-      <c r="K14" s="49">
+      <c r="K14" s="46">
         <v>-2.3766290393508971E-2</v>
       </c>
-      <c r="L14" s="49">
+      <c r="L14" s="46">
         <v>3.8871225821691981E-5</v>
       </c>
-      <c r="M14" s="49">
+      <c r="M14" s="46">
         <v>1.9587201171212317E-3</v>
       </c>
-      <c r="N14" s="49">
+      <c r="N14" s="46">
         <v>-4.3398918948530979E-5</v>
       </c>
-      <c r="O14" s="49">
+      <c r="O14" s="46">
         <v>5.1668018538663122E-4</v>
       </c>
-      <c r="P14" s="49">
+      <c r="P14" s="46">
         <v>1.1752413294901197E-5</v>
       </c>
-      <c r="Q14" s="49">
+      <c r="Q14" s="46">
         <v>8.1580454641784006E-5</v>
       </c>
-      <c r="R14" s="49">
+      <c r="R14" s="46">
         <v>9.240339148842763E-5</v>
       </c>
-      <c r="S14" s="49">
+      <c r="S14" s="46">
         <v>-6.0565880512685117E-6</v>
       </c>
-      <c r="T14" s="49">
+      <c r="T14" s="46">
         <v>-2.2871562037920238E-2</v>
       </c>
-      <c r="U14" s="49">
+      <c r="U14" s="46">
         <v>3.8871225821676992E-5</v>
       </c>
-      <c r="V14" s="49">
+      <c r="V14" s="46">
         <v>1.9587201171279499E-3</v>
       </c>
-      <c r="W14" s="49">
+      <c r="W14" s="46">
         <v>-4.3303073613975303E-5</v>
       </c>
-      <c r="X14" s="49">
+      <c r="X14" s="46">
         <v>5.1668018538679711E-4</v>
       </c>
-      <c r="Y14" s="49">
+      <c r="Y14" s="46">
         <v>1.1752413295139721E-5</v>
       </c>
-      <c r="Z14" s="49">
+      <c r="Z14" s="46">
         <v>8.158045464187638E-5</v>
       </c>
-      <c r="AA14" s="49">
+      <c r="AA14" s="46">
         <v>9.2403391488446061E-5</v>
       </c>
-      <c r="AB14" s="49">
+      <c r="AB14" s="46">
         <v>-6.0565880512919576E-6</v>
       </c>
-      <c r="AC14" s="49">
+      <c r="AC14" s="46">
         <v>-2.2917219103628501E-2</v>
       </c>
-      <c r="AD14" s="50">
+      <c r="AD14">
         <v>3.8871225821743101E-5</v>
       </c>
-      <c r="AE14" s="50">
+      <c r="AE14">
         <v>1.9587201171320195E-3</v>
       </c>
-      <c r="AF14" s="50">
+      <c r="AF14">
         <v>-4.3573469895553475E-5</v>
       </c>
-      <c r="AG14" s="50">
+      <c r="AG14">
         <v>5.1668018538694629E-4</v>
       </c>
-      <c r="AH14" s="50">
+      <c r="AH14">
         <v>1.1752413294580273E-5</v>
       </c>
-      <c r="AI14" s="50">
+      <c r="AI14">
         <v>8.1580454641887873E-5</v>
       </c>
-      <c r="AJ14" s="50">
+      <c r="AJ14">
         <v>9.2403391488416245E-5</v>
       </c>
-      <c r="AK14" s="50">
+      <c r="AK14">
         <v>-6.0565880512486979E-6</v>
       </c>
-      <c r="AL14" s="50">
+      <c r="AL14">
         <v>-2.2838441660618228E-2</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>243</v>
-      </c>
-      <c r="B15" s="49">
+        <v>215</v>
+      </c>
+      <c r="B15" s="46">
         <v>1.9445940692169885</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="46">
         <v>-8.1357253790772252E-5</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="46">
         <v>1.919847988654716E-3</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="46">
         <v>-4.6357463169195072E-5</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="46">
         <v>1.1752413294892957E-5</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="46">
         <v>2.3958904604175885E-3</v>
       </c>
-      <c r="H15" s="51">
+      <c r="H15" s="47">
         <v>1.2214490577312705E-4</v>
       </c>
-      <c r="I15" s="49">
+      <c r="I15" s="46">
         <v>1.6368351774975331E-4</v>
       </c>
-      <c r="J15" s="49">
+      <c r="J15" s="46">
         <v>1.3878993418582576E-5</v>
       </c>
-      <c r="K15" s="49">
+      <c r="K15" s="46">
         <v>-2.7356257108535065E-2</v>
       </c>
-      <c r="L15" s="49">
+      <c r="L15" s="46">
         <v>-8.1357253790769921E-5</v>
       </c>
-      <c r="M15" s="49">
+      <c r="M15" s="46">
         <v>1.919847988654709E-3</v>
       </c>
-      <c r="N15" s="49">
+      <c r="N15" s="46">
         <v>-4.4830521583595151E-5</v>
       </c>
-      <c r="O15" s="49">
+      <c r="O15" s="46">
         <v>1.1752413294901197E-5</v>
       </c>
-      <c r="P15" s="49">
+      <c r="P15" s="46">
         <v>2.3958904604176527E-3</v>
       </c>
-      <c r="Q15" s="49">
+      <c r="Q15" s="46">
         <v>1.2214490577300719E-4</v>
       </c>
-      <c r="R15" s="49">
+      <c r="R15" s="46">
         <v>1.6368351774968316E-4</v>
       </c>
-      <c r="S15" s="49">
+      <c r="S15" s="46">
         <v>1.3878993418568535E-5</v>
       </c>
-      <c r="T15" s="49">
+      <c r="T15" s="46">
         <v>-2.9124980529094728E-2</v>
       </c>
-      <c r="U15" s="49">
+      <c r="U15" s="46">
         <v>-8.13572537908498E-5</v>
       </c>
-      <c r="V15" s="49">
+      <c r="V15" s="46">
         <v>1.9198479886536838E-3</v>
       </c>
-      <c r="W15" s="49">
+      <c r="W15" s="46">
         <v>-4.4111942917846137E-5</v>
       </c>
-      <c r="X15" s="49">
+      <c r="X15" s="46">
         <v>1.1752413294615293E-5</v>
       </c>
-      <c r="Y15" s="49">
+      <c r="Y15" s="46">
         <v>2.3958904604177173E-3</v>
       </c>
-      <c r="Z15" s="49">
+      <c r="Z15" s="46">
         <v>1.221449057731052E-4</v>
       </c>
-      <c r="AA15" s="49">
+      <c r="AA15" s="46">
         <v>1.636835177497094E-4</v>
       </c>
-      <c r="AB15" s="49">
+      <c r="AB15" s="46">
         <v>1.3878993418548261E-5</v>
       </c>
-      <c r="AC15" s="49">
+      <c r="AC15" s="46">
         <v>-3.0549007873232892E-2</v>
       </c>
-      <c r="AD15" s="50">
+      <c r="AD15">
         <v>-8.1357253790774692E-5</v>
       </c>
-      <c r="AE15" s="50">
+      <c r="AE15">
         <v>1.9198479886552505E-3</v>
       </c>
-      <c r="AF15" s="50">
+      <c r="AF15">
         <v>-4.3505795877081759E-5</v>
       </c>
-      <c r="AG15" s="50">
+      <c r="AG15">
         <v>1.1752413294992162E-5</v>
       </c>
-      <c r="AH15" s="50">
+      <c r="AH15">
         <v>2.3958904604174554E-3</v>
       </c>
-      <c r="AI15" s="50">
+      <c r="AI15">
         <v>1.2214490577310932E-4</v>
       </c>
-      <c r="AJ15" s="50">
+      <c r="AJ15">
         <v>1.6368351774964695E-4</v>
       </c>
-      <c r="AK15" s="50">
+      <c r="AK15">
         <v>1.3878993418588295E-5</v>
       </c>
-      <c r="AL15" s="50">
+      <c r="AL15">
         <v>-3.2124587852342811E-2</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>192</v>
-      </c>
-      <c r="B16" s="49">
+        <v>241</v>
+      </c>
+      <c r="B16" s="46">
         <v>6.2654924397042594E-2</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="46">
         <v>-7.6835254429039244E-5</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="46">
         <v>3.5695600569828762E-4</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="46">
         <v>-4.539325310396749E-6</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="46">
         <v>8.158045464179268E-5</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="46">
         <v>1.2214490577300502E-4</v>
       </c>
-      <c r="H16" s="51">
+      <c r="H16" s="47">
         <v>4.7347903191299725E-3</v>
       </c>
-      <c r="I16" s="49">
+      <c r="I16" s="46">
         <v>2.7744094127375796E-3</v>
       </c>
-      <c r="J16" s="49">
+      <c r="J16" s="46">
         <v>-2.8009313066160177E-5</v>
       </c>
-      <c r="K16" s="49">
+      <c r="K16" s="46">
         <v>-8.0922619082270941E-3</v>
       </c>
-      <c r="L16" s="49">
+      <c r="L16" s="46">
         <v>-7.6835254429038946E-5</v>
       </c>
-      <c r="M16" s="49">
+      <c r="M16" s="46">
         <v>3.5695600569828415E-4</v>
       </c>
-      <c r="N16" s="49">
+      <c r="N16" s="46">
         <v>-6.4141972457783009E-6</v>
       </c>
-      <c r="O16" s="49">
+      <c r="O16" s="46">
         <v>8.1580454641784006E-5</v>
       </c>
-      <c r="P16" s="49">
+      <c r="P16" s="46">
         <v>1.2214490577300719E-4</v>
       </c>
-      <c r="Q16" s="49">
+      <c r="Q16" s="46">
         <v>4.7347903191299707E-3</v>
       </c>
-      <c r="R16" s="49">
+      <c r="R16" s="46">
         <v>2.7744094127375913E-3</v>
       </c>
-      <c r="S16" s="49">
+      <c r="S16" s="46">
         <v>-2.8009313066162924E-5</v>
       </c>
-      <c r="T16" s="49">
+      <c r="T16" s="46">
         <v>-7.6835051413861556E-3</v>
       </c>
-      <c r="U16" s="49">
+      <c r="U16" s="46">
         <v>-7.683525442903221E-5</v>
       </c>
-      <c r="V16" s="49">
+      <c r="V16" s="46">
         <v>3.5695600569946007E-4</v>
       </c>
-      <c r="W16" s="49">
+      <c r="W16" s="46">
         <v>-7.8935967634107385E-6</v>
       </c>
-      <c r="X16" s="49">
+      <c r="X16" s="46">
         <v>8.158045464189328E-5</v>
       </c>
-      <c r="Y16" s="49">
+      <c r="Y16" s="46">
         <v>1.2214490577311854E-4</v>
       </c>
-      <c r="Z16" s="49">
+      <c r="Z16" s="46">
         <v>4.7347903191299707E-3</v>
       </c>
-      <c r="AA16" s="49">
+      <c r="AA16" s="46">
         <v>2.7744094127375935E-3</v>
       </c>
-      <c r="AB16" s="49">
+      <c r="AB16" s="46">
         <v>-2.8009313066162809E-5</v>
       </c>
-      <c r="AC16" s="49">
+      <c r="AC16" s="46">
         <v>-6.9927991238971044E-3</v>
       </c>
-      <c r="AD16" s="50">
+      <c r="AD16">
         <v>-7.6835254429023902E-5</v>
       </c>
-      <c r="AE16" s="50">
+      <c r="AE16">
         <v>3.5695600569975161E-4</v>
       </c>
-      <c r="AF16" s="50">
+      <c r="AF16">
         <v>-7.005964620192979E-6</v>
       </c>
-      <c r="AG16" s="50">
+      <c r="AG16">
         <v>8.1580454641882398E-5</v>
       </c>
-      <c r="AH16" s="50">
+      <c r="AH16">
         <v>1.2214490577306769E-4</v>
       </c>
-      <c r="AI16" s="50">
+      <c r="AI16">
         <v>4.7347903191299742E-3</v>
       </c>
-      <c r="AJ16" s="50">
+      <c r="AJ16">
         <v>2.7744094127375826E-3</v>
       </c>
-      <c r="AK16" s="50">
+      <c r="AK16">
         <v>-2.8009313066159391E-5</v>
       </c>
-      <c r="AL16" s="50">
+      <c r="AL16">
         <v>-7.3889058913380185E-3</v>
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>193</v>
-      </c>
-      <c r="B17" s="49">
+        <v>245</v>
+      </c>
+      <c r="B17" s="46">
         <v>-9.1427809290669779E-2</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="46">
         <v>1.0802423045879058E-5</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="46">
         <v>4.1076806388033217E-4</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="46">
         <v>-7.9052932085569346E-6</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="46">
         <v>9.2403391488432725E-5</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="46">
         <v>1.6368351774968229E-4</v>
       </c>
-      <c r="H17" s="51">
+      <c r="H17" s="47">
         <v>2.7744094127375931E-3</v>
       </c>
-      <c r="I17" s="49">
+      <c r="I17" s="46">
         <v>3.7159031263584406E-3</v>
       </c>
-      <c r="J17" s="49">
+      <c r="J17" s="46">
         <v>-3.6211806915326423E-5</v>
       </c>
-      <c r="K17" s="49">
+      <c r="K17" s="46">
         <v>-8.2230951296794752E-3</v>
       </c>
-      <c r="L17" s="49">
+      <c r="L17" s="46">
         <v>1.0802423045879302E-5</v>
       </c>
-      <c r="M17" s="49">
+      <c r="M17" s="46">
         <v>4.1076806388033391E-4</v>
       </c>
-      <c r="N17" s="49">
+      <c r="N17" s="46">
         <v>-8.8810704325369442E-6</v>
       </c>
-      <c r="O17" s="49">
+      <c r="O17" s="46">
         <v>9.240339148842763E-5</v>
       </c>
-      <c r="P17" s="49">
+      <c r="P17" s="46">
         <v>1.6368351774968316E-4</v>
       </c>
-      <c r="Q17" s="49">
+      <c r="Q17" s="46">
         <v>2.7744094127375913E-3</v>
       </c>
-      <c r="R17" s="49">
+      <c r="R17" s="46">
         <v>3.7159031263584454E-3</v>
       </c>
-      <c r="S17" s="49">
+      <c r="S17" s="46">
         <v>-3.6211806915326674E-5</v>
       </c>
-      <c r="T17" s="49">
+      <c r="T17" s="46">
         <v>-7.7784889114871688E-3</v>
       </c>
-      <c r="U17" s="49">
+      <c r="U17" s="46">
         <v>1.0802423045876781E-5</v>
       </c>
-      <c r="V17" s="49">
+      <c r="V17" s="46">
         <v>4.1076806388110423E-4</v>
       </c>
-      <c r="W17" s="49">
+      <c r="W17" s="46">
         <v>-8.5976070546396658E-6</v>
       </c>
-      <c r="X17" s="49">
+      <c r="X17" s="46">
         <v>9.240339148847837E-5</v>
       </c>
-      <c r="Y17" s="49">
+      <c r="Y17" s="46">
         <v>1.6368351774977293E-4</v>
       </c>
-      <c r="Z17" s="49">
+      <c r="Z17" s="46">
         <v>2.7744094127376E-3</v>
       </c>
-      <c r="AA17" s="49">
+      <c r="AA17" s="46">
         <v>3.7159031263584458E-3</v>
       </c>
-      <c r="AB17" s="49">
+      <c r="AB17" s="46">
         <v>-3.6211806915330407E-5</v>
       </c>
-      <c r="AC17" s="49">
+      <c r="AC17" s="46">
         <v>-7.9878863094141328E-3</v>
       </c>
-      <c r="AD17" s="50">
+      <c r="AD17">
         <v>1.0802423045889311E-5</v>
       </c>
-      <c r="AE17" s="50">
+      <c r="AE17">
         <v>4.1076806388157781E-4</v>
       </c>
-      <c r="AF17" s="50">
+      <c r="AF17">
         <v>-8.0117184273439978E-6</v>
       </c>
-      <c r="AG17" s="50">
+      <c r="AG17">
         <v>9.2403391488517673E-5</v>
       </c>
-      <c r="AH17" s="50">
+      <c r="AH17">
         <v>1.6368351774968804E-4</v>
       </c>
-      <c r="AI17" s="50">
+      <c r="AI17">
         <v>2.774409412737603E-3</v>
       </c>
-      <c r="AJ17" s="50">
+      <c r="AJ17">
         <v>3.7159031263584389E-3</v>
       </c>
-      <c r="AK17" s="50">
+      <c r="AK17">
         <v>-3.6211806915323035E-5</v>
       </c>
-      <c r="AL17" s="50">
+      <c r="AL17">
         <v>-8.1998346042562592E-3</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>194</v>
-      </c>
-      <c r="B18" s="49">
+        <v>190</v>
+      </c>
+      <c r="B18" s="46">
         <v>2.9322733083299024E-2</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="46">
         <v>-1.2282578432133153E-5</v>
       </c>
-      <c r="D18" s="49">
+      <c r="D18" s="46">
         <v>6.539910804441852E-5</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="46">
         <v>-1.5902023290381909E-6</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="46">
         <v>-6.0565880512614644E-6</v>
       </c>
-      <c r="G18" s="49">
+      <c r="G18" s="46">
         <v>1.3878993418568047E-5</v>
       </c>
-      <c r="H18" s="51">
+      <c r="H18" s="47">
         <v>-2.8009313066162416E-5</v>
       </c>
-      <c r="I18" s="49">
+      <c r="I18" s="46">
         <v>-3.62118069153279E-5</v>
       </c>
-      <c r="J18" s="49">
+      <c r="J18" s="46">
         <v>7.6214153394961595E-5</v>
       </c>
-      <c r="K18" s="49">
+      <c r="K18" s="46">
         <v>-1.7426946337918761E-3</v>
       </c>
-      <c r="L18" s="49">
+      <c r="L18" s="46">
         <v>-1.2282578432133019E-5</v>
       </c>
-      <c r="M18" s="49">
+      <c r="M18" s="46">
         <v>6.5399108044420472E-5</v>
       </c>
-      <c r="N18" s="49">
+      <c r="N18" s="46">
         <v>-1.5356902763092071E-6</v>
       </c>
-      <c r="O18" s="49">
+      <c r="O18" s="46">
         <v>-6.0565880512685117E-6</v>
       </c>
-      <c r="P18" s="49">
+      <c r="P18" s="46">
         <v>1.3878993418568535E-5</v>
       </c>
-      <c r="Q18" s="49">
+      <c r="Q18" s="46">
         <v>-2.8009313066162924E-5</v>
       </c>
-      <c r="R18" s="49">
+      <c r="R18" s="46">
         <v>-3.6211806915326674E-5</v>
       </c>
-      <c r="S18" s="49">
+      <c r="S18" s="46">
         <v>7.6214153394960876E-5</v>
       </c>
-      <c r="T18" s="49">
+      <c r="T18" s="46">
         <v>-1.7290067943792216E-3</v>
       </c>
-      <c r="U18" s="49">
+      <c r="U18" s="46">
         <v>-1.2282578432134735E-5</v>
       </c>
-      <c r="V18" s="49">
+      <c r="V18" s="46">
         <v>6.5399108044643858E-5</v>
       </c>
-      <c r="W18" s="49">
+      <c r="W18" s="46">
         <v>-1.5376299325479351E-6</v>
       </c>
-      <c r="X18" s="49">
+      <c r="X18" s="46">
         <v>-6.0565880512786219E-6</v>
       </c>
-      <c r="Y18" s="49">
+      <c r="Y18" s="46">
         <v>1.3878993418590111E-5</v>
       </c>
-      <c r="Z18" s="49">
+      <c r="Z18" s="46">
         <v>-2.8009313066161844E-5</v>
       </c>
-      <c r="AA18" s="49">
+      <c r="AA18" s="46">
         <v>-3.6211806915328984E-5</v>
       </c>
-      <c r="AB18" s="49">
+      <c r="AB18" s="46">
         <v>7.6214153394962028E-5</v>
       </c>
-      <c r="AC18" s="49">
+      <c r="AC18" s="46">
         <v>-1.7386530695140871E-3</v>
       </c>
-      <c r="AD18" s="50">
+      <c r="AD18">
         <v>-1.2282578432134171E-5</v>
       </c>
-      <c r="AE18" s="50">
+      <c r="AE18">
         <v>6.5399108044613378E-5</v>
       </c>
-      <c r="AF18" s="50">
+      <c r="AF18">
         <v>-1.5158770963138211E-6</v>
       </c>
-      <c r="AG18" s="50">
+      <c r="AG18">
         <v>-6.0565880512453165E-6</v>
       </c>
-      <c r="AH18" s="50">
+      <c r="AH18">
         <v>1.387899341855566E-5</v>
       </c>
-      <c r="AI18" s="50">
+      <c r="AI18">
         <v>-2.8009313066164879E-5</v>
       </c>
-      <c r="AJ18" s="50">
+      <c r="AJ18">
         <v>-3.6211806915331722E-5</v>
       </c>
-      <c r="AK18" s="50">
+      <c r="AK18">
         <v>7.6214153394962625E-5</v>
       </c>
-      <c r="AL18" s="50">
+      <c r="AL18">
         <v>-1.7814908895347299E-3</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>195</v>
-      </c>
-      <c r="B19" s="49">
+        <v>191</v>
+      </c>
+      <c r="B19" s="46">
         <v>-24.448135760028638</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="46">
         <v>-3.5142619861228421E-3</v>
       </c>
-      <c r="D19" s="49">
+      <c r="D19" s="46">
         <v>-0.32979378749557076</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E19" s="46">
         <v>6.7704267696005512E-3</v>
       </c>
-      <c r="F19" s="49">
+      <c r="F19" s="46">
         <v>-2.2871562037919874E-2</v>
       </c>
-      <c r="G19" s="49">
+      <c r="G19" s="46">
         <v>-2.9124980529094558E-2</v>
       </c>
-      <c r="H19" s="51">
+      <c r="H19" s="47">
         <v>-7.6835051413862024E-3</v>
       </c>
-      <c r="I19" s="49">
+      <c r="I19" s="46">
         <v>-7.7784889114853959E-3</v>
       </c>
-      <c r="J19" s="49">
+      <c r="J19" s="46">
         <v>-1.7290067943791245E-3</v>
       </c>
-      <c r="K19" s="49">
+      <c r="K19" s="46">
         <v>4.0978119637307149</v>
       </c>
-      <c r="L19" s="49">
+      <c r="L19" s="46">
         <v>-3.5142619861231617E-3</v>
       </c>
-      <c r="M19" s="49">
+      <c r="M19" s="46">
         <v>-0.32979378749557015</v>
       </c>
-      <c r="N19" s="49">
+      <c r="N19" s="46">
         <v>6.9620309225938148E-3</v>
       </c>
-      <c r="O19" s="49">
+      <c r="O19" s="46">
         <v>-2.2871562037920238E-2</v>
       </c>
-      <c r="P19" s="49">
+      <c r="P19" s="46">
         <v>-2.9124980529094728E-2</v>
       </c>
-      <c r="Q19" s="49">
+      <c r="Q19" s="46">
         <v>-7.6835051413861556E-3</v>
       </c>
-      <c r="R19" s="49">
+      <c r="R19" s="46">
         <v>-7.7784889114871688E-3</v>
       </c>
-      <c r="S19" s="49">
+      <c r="S19" s="46">
         <v>-1.7290067943792216E-3</v>
       </c>
-      <c r="T19" s="49">
+      <c r="T19" s="46">
         <v>3.9837256648443171</v>
       </c>
-      <c r="U19" s="49">
+      <c r="U19" s="46">
         <v>-3.514261986109872E-3</v>
       </c>
-      <c r="V19" s="49">
+      <c r="V19" s="46">
         <v>-0.32979378749553501</v>
       </c>
-      <c r="W19" s="49">
+      <c r="W19" s="46">
         <v>7.5596311790258166E-3</v>
       </c>
-      <c r="X19" s="49">
+      <c r="X19" s="46">
         <v>-2.2871562037898224E-2</v>
       </c>
-      <c r="Y19" s="49">
+      <c r="Y19" s="46">
         <v>-2.912498052915713E-2</v>
       </c>
-      <c r="Z19" s="49">
+      <c r="Z19" s="46">
         <v>-7.6835051413892963E-3</v>
       </c>
-      <c r="AA19" s="49">
+      <c r="AA19" s="46">
         <v>-7.7784889114839995E-3</v>
       </c>
-      <c r="AB19" s="49">
+      <c r="AB19" s="46">
         <v>-1.7290067943733604E-3</v>
       </c>
-      <c r="AC19" s="49">
+      <c r="AC19" s="46">
         <v>3.7429924994697097</v>
       </c>
-      <c r="AD19" s="50">
+      <c r="AD19">
         <v>-3.5142619861212171E-3</v>
       </c>
-      <c r="AE19" s="50">
+      <c r="AE19">
         <v>-0.32979378749619775</v>
       </c>
-      <c r="AF19" s="50">
+      <c r="AF19">
         <v>7.6973919056252029E-3</v>
       </c>
-      <c r="AG19" s="50">
+      <c r="AG19">
         <v>-2.2871562037952403E-2</v>
       </c>
-      <c r="AH19" s="50">
+      <c r="AH19">
         <v>-2.9124980529066036E-2</v>
       </c>
-      <c r="AI19" s="50">
+      <c r="AI19">
         <v>-7.6835051413910727E-3</v>
       </c>
-      <c r="AJ19" s="50">
+      <c r="AJ19">
         <v>-7.7784889114789479E-3</v>
       </c>
-      <c r="AK19" s="50">
+      <c r="AK19">
         <v>-1.7290067943802334E-3</v>
       </c>
-      <c r="AL19" s="50">
+      <c r="AL19">
         <v>3.6938238714533558</v>
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>196</v>
-      </c>
-      <c r="B20" s="49">
+        <v>192</v>
+      </c>
+      <c r="B20" s="46">
         <v>4.7957223317055028E-2</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="46">
         <v>2.0579093451348006E-3</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="46">
         <v>2.4440201837016662E-4</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="46">
         <v>-6.216171288425944E-6</v>
       </c>
-      <c r="F20" s="49">
+      <c r="F20" s="46">
         <v>3.8871225821677439E-5</v>
       </c>
-      <c r="G20" s="49">
+      <c r="G20" s="46">
         <v>-8.1357253790850207E-5</v>
       </c>
-      <c r="H20" s="51">
+      <c r="H20" s="47">
         <v>-7.6835254429031465E-5</v>
       </c>
-      <c r="I20" s="49">
+      <c r="I20" s="46">
         <v>1.0802423045876863E-5</v>
       </c>
-      <c r="J20" s="49">
+      <c r="J20" s="46">
         <v>-1.2282578432133428E-5</v>
       </c>
-      <c r="K20" s="49">
+      <c r="K20" s="46">
         <v>-2.8017574428514484E-3</v>
       </c>
-      <c r="L20" s="49">
+      <c r="L20" s="46">
         <v>2.0579093451348019E-3</v>
       </c>
-      <c r="M20" s="49">
+      <c r="M20" s="46">
         <v>2.4440201837016662E-4</v>
       </c>
-      <c r="N20" s="49">
+      <c r="N20" s="46">
         <v>-5.0150654907269284E-6</v>
       </c>
-      <c r="O20" s="49">
+      <c r="O20" s="46">
         <v>3.8871225821676992E-5</v>
       </c>
-      <c r="P20" s="49">
+      <c r="P20" s="46">
         <v>-8.13572537908498E-5</v>
       </c>
-      <c r="Q20" s="49">
+      <c r="Q20" s="46">
         <v>-7.683525442903221E-5</v>
       </c>
-      <c r="R20" s="49">
+      <c r="R20" s="46">
         <v>1.0802423045876781E-5</v>
       </c>
-      <c r="S20" s="49">
+      <c r="S20" s="46">
         <v>-1.2282578432134735E-5</v>
       </c>
-      <c r="T20" s="49">
+      <c r="T20" s="46">
         <v>-3.514261986109872E-3</v>
       </c>
-      <c r="U20" s="49">
+      <c r="U20" s="46">
         <v>2.0579093451348015E-3</v>
       </c>
-      <c r="V20" s="49">
+      <c r="V20" s="46">
         <v>2.4440201837112635E-4</v>
       </c>
-      <c r="W20" s="49">
+      <c r="W20" s="46">
         <v>-5.2785767817460625E-6</v>
       </c>
-      <c r="X20" s="49">
+      <c r="X20" s="46">
         <v>3.8871225821714058E-5</v>
       </c>
-      <c r="Y20" s="49">
+      <c r="Y20" s="46">
         <v>-8.1357253790751056E-5</v>
       </c>
-      <c r="Z20" s="49">
+      <c r="Z20" s="46">
         <v>-7.6835254429025366E-5</v>
       </c>
-      <c r="AA20" s="49">
+      <c r="AA20" s="46">
         <v>1.0802423045883964E-5</v>
       </c>
-      <c r="AB20" s="49">
+      <c r="AB20" s="46">
         <v>-1.2282578432135798E-5</v>
       </c>
-      <c r="AC20" s="49">
+      <c r="AC20" s="46">
         <v>-3.340823737230463E-3</v>
       </c>
-      <c r="AD20" s="50">
+      <c r="AD20">
         <v>2.0579093451348054E-3</v>
       </c>
-      <c r="AE20" s="50">
+      <c r="AE20">
         <v>2.4440201837151211E-4</v>
       </c>
-      <c r="AF20" s="50">
+      <c r="AF20">
         <v>-5.6642806576688669E-6</v>
       </c>
-      <c r="AG20" s="50">
+      <c r="AG20">
         <v>3.8871225821754831E-5</v>
       </c>
-      <c r="AH20" s="50">
+      <c r="AH20">
         <v>-8.1357253790818819E-5</v>
       </c>
-      <c r="AI20" s="50">
+      <c r="AI20">
         <v>-7.68352544290258E-5</v>
       </c>
-      <c r="AJ20" s="50">
+      <c r="AJ20">
         <v>1.0802423045875155E-5</v>
       </c>
-      <c r="AK20" s="50">
+      <c r="AK20">
         <v>-1.2282578432130388E-5</v>
       </c>
-      <c r="AL20" s="50">
+      <c r="AL20">
         <v>-3.1466336474068818E-3</v>
       </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>197</v>
-      </c>
-      <c r="B21" s="49">
+        <v>193</v>
+      </c>
+      <c r="B21" s="46">
         <v>1.8095891546568423</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="46">
         <v>2.4440201837114066E-4</v>
       </c>
-      <c r="D21" s="49">
+      <c r="D21" s="46">
         <v>2.9805168321976789E-2</v>
       </c>
-      <c r="E21" s="49">
+      <c r="E21" s="46">
         <v>-6.742231070338211E-4</v>
       </c>
-      <c r="F21" s="49">
+      <c r="F21" s="46">
         <v>1.9587201171278878E-3</v>
       </c>
-      <c r="G21" s="49">
+      <c r="G21" s="46">
         <v>1.9198479886536695E-3</v>
       </c>
-      <c r="H21" s="51">
+      <c r="H21" s="47">
         <v>3.5695600569946392E-4</v>
       </c>
-      <c r="I21" s="49">
+      <c r="I21" s="46">
         <v>4.1076806388094529E-4</v>
       </c>
-      <c r="J21" s="49">
+      <c r="J21" s="46">
         <v>6.5399108044637963E-5</v>
       </c>
-      <c r="K21" s="49">
+      <c r="K21" s="46">
         <v>-0.33846616290164899</v>
       </c>
-      <c r="L21" s="49">
+      <c r="L21" s="46">
         <v>2.4440201837116809E-4</v>
       </c>
-      <c r="M21" s="49">
+      <c r="M21" s="46">
         <v>2.9805168321972709E-2</v>
       </c>
-      <c r="N21" s="49">
+      <c r="N21" s="46">
         <v>-6.9039398766025108E-4</v>
       </c>
-      <c r="O21" s="49">
+      <c r="O21" s="46">
         <v>1.9587201171279499E-3</v>
       </c>
-      <c r="P21" s="49">
+      <c r="P21" s="46">
         <v>1.9198479886536838E-3</v>
       </c>
-      <c r="Q21" s="49">
+      <c r="Q21" s="46">
         <v>3.5695600569946007E-4</v>
       </c>
-      <c r="R21" s="49">
+      <c r="R21" s="46">
         <v>4.1076806388110423E-4</v>
       </c>
-      <c r="S21" s="49">
+      <c r="S21" s="46">
         <v>6.5399108044643858E-5</v>
       </c>
-      <c r="T21" s="49">
+      <c r="T21" s="46">
         <v>-0.32979378749553501</v>
       </c>
-      <c r="U21" s="49">
+      <c r="U21" s="46">
         <v>2.4440201837112635E-4</v>
       </c>
-      <c r="V21" s="49">
+      <c r="V21" s="46">
         <v>2.9805168321996468E-2</v>
       </c>
-      <c r="W21" s="49">
+      <c r="W21" s="46">
         <v>-6.9370689065509437E-4</v>
       </c>
-      <c r="X21" s="49">
+      <c r="X21" s="46">
         <v>1.9587201171258921E-3</v>
       </c>
-      <c r="Y21" s="49">
+      <c r="Y21" s="46">
         <v>1.9198479886585462E-3</v>
       </c>
-      <c r="Z21" s="49">
+      <c r="Z21" s="46">
         <v>3.5695600569966152E-4</v>
       </c>
-      <c r="AA21" s="49">
+      <c r="AA21" s="46">
         <v>4.1076806388059585E-4</v>
       </c>
-      <c r="AB21" s="49">
+      <c r="AB21" s="46">
         <v>6.5399108044081116E-5</v>
       </c>
-      <c r="AC21" s="49">
+      <c r="AC21" s="46">
         <v>-0.3291575902255901</v>
       </c>
-      <c r="AD21" s="50">
+      <c r="AD21">
         <v>2.4440201837120441E-4</v>
       </c>
-      <c r="AE21" s="50">
+      <c r="AE21">
         <v>2.9805168322027259E-2</v>
       </c>
-      <c r="AF21" s="50">
+      <c r="AF21">
         <v>-6.9771699356113964E-4</v>
       </c>
-      <c r="AG21" s="50">
+      <c r="AG21">
         <v>1.9587201171308317E-3</v>
       </c>
-      <c r="AH21" s="50">
+      <c r="AH21">
         <v>1.919847988650164E-3</v>
       </c>
-      <c r="AI21" s="50">
+      <c r="AI21">
         <v>3.5695600569982805E-4</v>
       </c>
-      <c r="AJ21" s="50">
+      <c r="AJ21">
         <v>4.1076806388017084E-4</v>
       </c>
-      <c r="AK21" s="50">
+      <c r="AK21">
         <v>6.5399108044712556E-5</v>
       </c>
-      <c r="AL21" s="50">
+      <c r="AL21">
         <v>-0.32782208371058585</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>198</v>
-      </c>
-      <c r="B22" s="49">
+        <v>194</v>
+      </c>
+      <c r="B22" s="46">
         <v>-3.8393118562815041E-2</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="46">
         <v>-5.2785767817463886E-6</v>
       </c>
-      <c r="D22" s="49">
+      <c r="D22" s="46">
         <v>-6.9370689065509329E-4</v>
       </c>
-      <c r="E22" s="49">
+      <c r="E22" s="46">
         <v>1.5958448619620834E-5</v>
       </c>
-      <c r="F22" s="49">
+      <c r="F22" s="46">
         <v>-4.3303073613973934E-5</v>
       </c>
-      <c r="G22" s="49">
+      <c r="G22" s="46">
         <v>-4.4111942917845798E-5</v>
       </c>
-      <c r="H22" s="51">
+      <c r="H22" s="47">
         <v>-7.8935967634108316E-6</v>
       </c>
-      <c r="I22" s="49">
+      <c r="I22" s="46">
         <v>-8.5976070546360269E-6</v>
       </c>
-      <c r="J22" s="49">
+      <c r="J22" s="46">
         <v>-1.5376299325477758E-6</v>
       </c>
-      <c r="K22" s="49">
+      <c r="K22" s="46">
         <v>7.7538761464506804E-3</v>
       </c>
-      <c r="L22" s="49">
+      <c r="L22" s="46">
         <v>-5.2785767817470146E-6</v>
       </c>
-      <c r="M22" s="49">
+      <c r="M22" s="46">
         <v>-6.9370689065509209E-4</v>
       </c>
-      <c r="N22" s="49">
+      <c r="N22" s="46">
         <v>1.6333427013527549E-5</v>
       </c>
-      <c r="O22" s="49">
+      <c r="O22" s="46">
         <v>-4.3303073613975303E-5</v>
       </c>
-      <c r="P22" s="49">
+      <c r="P22" s="46">
         <v>-4.4111942917846137E-5</v>
       </c>
-      <c r="Q22" s="49">
+      <c r="Q22" s="46">
         <v>-7.8935967634107385E-6</v>
       </c>
-      <c r="R22" s="49">
+      <c r="R22" s="46">
         <v>-8.5976070546396658E-6</v>
       </c>
-      <c r="S22" s="49">
+      <c r="S22" s="46">
         <v>-1.5376299325479351E-6</v>
       </c>
-      <c r="T22" s="49">
+      <c r="T22" s="46">
         <v>7.5596311790258166E-3</v>
       </c>
-      <c r="U22" s="49">
+      <c r="U22" s="46">
         <v>-5.2785767817460625E-6</v>
       </c>
-      <c r="V22" s="49">
+      <c r="V22" s="46">
         <v>-6.9370689065509437E-4</v>
       </c>
-      <c r="W22" s="49">
+      <c r="W22" s="46">
         <v>1.651933345794549E-5</v>
       </c>
-      <c r="X22" s="49">
+      <c r="X22" s="46">
         <v>-4.3303073614193248E-5</v>
       </c>
-      <c r="Y22" s="49">
+      <c r="Y22" s="46">
         <v>-4.4111942918220607E-5</v>
       </c>
-      <c r="Z22" s="49">
+      <c r="Z22" s="46">
         <v>-7.8935967634402322E-6</v>
       </c>
-      <c r="AA22" s="49">
+      <c r="AA22" s="46">
         <v>-8.5976070546720461E-6</v>
       </c>
-      <c r="AB22" s="49">
+      <c r="AB22" s="46">
         <v>-1.5376299325505622E-6</v>
       </c>
-      <c r="AC22" s="49">
+      <c r="AC22" s="46">
         <v>7.504010881660461E-3</v>
       </c>
-      <c r="AD22" s="50">
+      <c r="AD22">
         <v>-5.2785767817784048E-6</v>
       </c>
-      <c r="AE22" s="50">
+      <c r="AE22">
         <v>-6.937068906605645E-4</v>
       </c>
-      <c r="AF22" s="50">
+      <c r="AF22">
         <v>1.6274871436774501E-5</v>
       </c>
-      <c r="AG22" s="50">
+      <c r="AG22">
         <v>-4.3303073614308471E-5</v>
       </c>
-      <c r="AH22" s="50">
+      <c r="AH22">
         <v>-4.411194291802339E-5</v>
       </c>
-      <c r="AI22" s="50">
+      <c r="AI22">
         <v>-7.8935967634441353E-6</v>
       </c>
-      <c r="AJ22" s="50">
+      <c r="AJ22">
         <v>-8.5976070546621257E-6</v>
       </c>
-      <c r="AK22" s="50">
+      <c r="AK22">
         <v>-1.5376299325653276E-6</v>
       </c>
-      <c r="AL22" s="50">
+      <c r="AL22">
         <v>7.6060550245593186E-3</v>
       </c>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>244</v>
-      </c>
-      <c r="B23" s="49">
+        <v>199</v>
+      </c>
+      <c r="B23" s="46">
         <v>0.11210477498054905</v>
       </c>
-      <c r="C23" s="49">
+      <c r="C23" s="46">
         <v>3.8871225821715E-5</v>
       </c>
-      <c r="D23" s="49">
+      <c r="D23" s="46">
         <v>1.9587201171258868E-3</v>
       </c>
-      <c r="E23" s="49">
+      <c r="E23" s="46">
         <v>-4.1902304407224843E-5</v>
       </c>
-      <c r="F23" s="49">
+      <c r="F23" s="46">
         <v>5.1668018538697145E-4</v>
       </c>
-      <c r="G23" s="49">
+      <c r="G23" s="46">
         <v>1.1752413294614751E-5</v>
       </c>
-      <c r="H23" s="51">
+      <c r="H23" s="47">
         <v>8.1580454641897089E-5</v>
       </c>
-      <c r="I23" s="49">
+      <c r="I23" s="46">
         <v>9.2403391488467311E-5</v>
       </c>
-      <c r="J23" s="49">
+      <c r="J23" s="46">
         <v>-6.0565880512827012E-6</v>
       </c>
-      <c r="K23" s="49">
+      <c r="K23" s="46">
         <v>-2.3766290393559202E-2</v>
       </c>
-      <c r="L23" s="49">
+      <c r="L23" s="46">
         <v>3.8871225821717053E-5</v>
       </c>
-      <c r="M23" s="49">
+      <c r="M23" s="46">
         <v>1.9587201171259016E-3</v>
       </c>
-      <c r="N23" s="49">
+      <c r="N23" s="46">
         <v>-4.3398918948643587E-5</v>
       </c>
-      <c r="O23" s="49">
+      <c r="O23" s="46">
         <v>5.1668018538679711E-4</v>
       </c>
-      <c r="P23" s="49">
+      <c r="P23" s="46">
         <v>1.1752413294615293E-5</v>
       </c>
-      <c r="Q23" s="49">
+      <c r="Q23" s="46">
         <v>8.158045464189328E-5</v>
       </c>
-      <c r="R23" s="49">
+      <c r="R23" s="46">
         <v>9.240339148847837E-5</v>
       </c>
-      <c r="S23" s="49">
+      <c r="S23" s="46">
         <v>-6.0565880512786219E-6</v>
       </c>
-      <c r="T23" s="49">
+      <c r="T23" s="46">
         <v>-2.2871562037898224E-2</v>
       </c>
-      <c r="U23" s="49">
+      <c r="U23" s="46">
         <v>3.8871225821714058E-5</v>
       </c>
-      <c r="V23" s="49">
+      <c r="V23" s="46">
         <v>1.9587201171258921E-3</v>
       </c>
-      <c r="W23" s="49">
+      <c r="W23" s="46">
         <v>-4.3303073614193248E-5</v>
       </c>
-      <c r="X23" s="49">
+      <c r="X23" s="46">
         <v>5.1668018538696299E-4</v>
       </c>
-      <c r="Y23" s="49">
+      <c r="Y23" s="46">
         <v>1.1752413295128446E-5</v>
       </c>
-      <c r="Z23" s="49">
+      <c r="Z23" s="46">
         <v>8.1580454641897197E-5</v>
       </c>
-      <c r="AA23" s="49">
+      <c r="AA23" s="46">
         <v>9.240339148844953E-5</v>
       </c>
-      <c r="AB23" s="49">
+      <c r="AB23" s="46">
         <v>-6.0565880512905752E-6</v>
       </c>
-      <c r="AC23" s="49">
+      <c r="AC23" s="46">
         <v>-2.2917219103626468E-2</v>
       </c>
-      <c r="AD23" s="50">
+      <c r="AD23">
         <v>3.8871225821747818E-5</v>
       </c>
-      <c r="AE23" s="50">
+      <c r="AE23">
         <v>1.9587201171318348E-3</v>
       </c>
-      <c r="AF23" s="50">
+      <c r="AF23">
         <v>-4.3573469895549389E-5</v>
       </c>
-      <c r="AG23" s="50">
+      <c r="AG23">
         <v>5.1668018538711218E-4</v>
       </c>
-      <c r="AH23" s="50">
+      <c r="AH23">
         <v>1.1752413294568564E-5</v>
       </c>
-      <c r="AI23" s="50">
+      <c r="AI23">
         <v>8.1580454641908906E-5</v>
       </c>
-      <c r="AJ23" s="50">
+      <c r="AJ23">
         <v>9.2403391488419606E-5</v>
       </c>
-      <c r="AK23" s="50">
+      <c r="AK23">
         <v>-6.0565880512472071E-6</v>
       </c>
-      <c r="AL23" s="50">
+      <c r="AL23">
         <v>-2.2838441660616181E-2</v>
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>245</v>
-      </c>
-      <c r="B24" s="49">
+        <v>217</v>
+      </c>
+      <c r="B24" s="46">
         <v>1.9445940692169854</v>
       </c>
-      <c r="C24" s="49">
+      <c r="C24" s="46">
         <v>-8.1357253790749701E-5</v>
       </c>
-      <c r="D24" s="49">
+      <c r="D24" s="46">
         <v>1.9198479886585185E-3</v>
       </c>
-      <c r="E24" s="49">
+      <c r="E24" s="46">
         <v>-4.635746316928376E-5</v>
       </c>
-      <c r="F24" s="49">
+      <c r="F24" s="46">
         <v>1.1752413295131048E-5</v>
       </c>
-      <c r="G24" s="49">
+      <c r="G24" s="46">
         <v>2.3958904604176536E-3</v>
       </c>
-      <c r="H24" s="51">
+      <c r="H24" s="47">
         <v>1.2214490577311583E-4</v>
       </c>
-      <c r="I24" s="49">
+      <c r="I24" s="46">
         <v>1.636835177497622E-4</v>
       </c>
-      <c r="J24" s="49">
+      <c r="J24" s="46">
         <v>1.3878993418583877E-5</v>
       </c>
-      <c r="K24" s="49">
+      <c r="K24" s="46">
         <v>-2.7356257108576532E-2</v>
       </c>
-      <c r="L24" s="49">
+      <c r="L24" s="46">
         <v>-8.1357253790747153E-5</v>
       </c>
-      <c r="M24" s="49">
+      <c r="M24" s="46">
         <v>1.9198479886585254E-3</v>
       </c>
-      <c r="N24" s="49">
+      <c r="N24" s="46">
         <v>-4.4830521583685357E-5</v>
       </c>
-      <c r="O24" s="49">
+      <c r="O24" s="46">
         <v>1.1752413295139721E-5</v>
       </c>
-      <c r="P24" s="49">
+      <c r="P24" s="46">
         <v>2.3958904604177173E-3</v>
       </c>
-      <c r="Q24" s="49">
+      <c r="Q24" s="46">
         <v>1.2214490577311854E-4</v>
       </c>
-      <c r="R24" s="49">
+      <c r="R24" s="46">
         <v>1.6368351774977293E-4</v>
       </c>
-      <c r="S24" s="49">
+      <c r="S24" s="46">
         <v>1.3878993418590111E-5</v>
       </c>
-      <c r="T24" s="49">
+      <c r="T24" s="46">
         <v>-2.912498052915713E-2</v>
       </c>
-      <c r="U24" s="49">
+      <c r="U24" s="46">
         <v>-8.1357253790751056E-5</v>
       </c>
-      <c r="V24" s="49">
+      <c r="V24" s="46">
         <v>1.9198479886585462E-3</v>
       </c>
-      <c r="W24" s="49">
+      <c r="W24" s="46">
         <v>-4.4111942918220607E-5</v>
       </c>
-      <c r="X24" s="49">
+      <c r="X24" s="46">
         <v>1.1752413295128446E-5</v>
       </c>
-      <c r="Y24" s="49">
+      <c r="Y24" s="46">
         <v>2.3958904604177819E-3</v>
       </c>
-      <c r="Z24" s="49">
+      <c r="Z24" s="46">
         <v>1.2214490577310347E-4</v>
       </c>
-      <c r="AA24" s="49">
+      <c r="AA24" s="46">
         <v>1.6368351774970701E-4</v>
       </c>
-      <c r="AB24" s="49">
+      <c r="AB24" s="46">
         <v>1.3878993418547854E-5</v>
       </c>
-      <c r="AC24" s="49">
+      <c r="AC24" s="46">
         <v>-3.0549007873232677E-2</v>
       </c>
-      <c r="AD24" s="50">
+      <c r="AD24">
         <v>-8.1357253790774949E-5</v>
       </c>
-      <c r="AE24" s="50">
+      <c r="AE24">
         <v>1.9198479886552307E-3</v>
       </c>
-      <c r="AF24" s="50">
+      <c r="AF24">
         <v>-4.3505795877081271E-5</v>
       </c>
-      <c r="AG24" s="50">
+      <c r="AG24">
         <v>1.1752413294990969E-5</v>
       </c>
-      <c r="AH24" s="50">
+      <c r="AH24">
         <v>2.3958904604174545E-3</v>
       </c>
-      <c r="AI24" s="50">
+      <c r="AI24">
         <v>1.2214490577310781E-4</v>
       </c>
-      <c r="AJ24" s="50">
+      <c r="AJ24">
         <v>1.6368351774964543E-4</v>
       </c>
-      <c r="AK24" s="50">
+      <c r="AK24">
         <v>1.387899341858778E-5</v>
       </c>
-      <c r="AL24" s="50">
+      <c r="AL24">
         <v>-3.2124587852342588E-2</v>
       </c>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>214</v>
-      </c>
-      <c r="B25" s="49">
+        <v>242</v>
+      </c>
+      <c r="B25" s="46">
         <v>6.2654924397044537E-2</v>
       </c>
-      <c r="C25" s="49">
+      <c r="C25" s="46">
         <v>-7.683525442902519E-5</v>
       </c>
-      <c r="D25" s="49">
+      <c r="D25" s="46">
         <v>3.5695600569966845E-4</v>
       </c>
-      <c r="E25" s="49">
+      <c r="E25" s="46">
         <v>-4.5393253104295461E-6</v>
       </c>
-      <c r="F25" s="49">
+      <c r="F25" s="46">
         <v>8.1580454641885054E-5</v>
       </c>
-      <c r="G25" s="49">
+      <c r="G25" s="46">
         <v>1.2214490577310347E-4</v>
       </c>
-      <c r="H25" s="51">
+      <c r="H25" s="47">
         <v>4.7347903191299785E-3</v>
       </c>
-      <c r="I25" s="49">
+      <c r="I25" s="46">
         <v>2.7744094127376013E-3</v>
       </c>
-      <c r="J25" s="49">
+      <c r="J25" s="46">
         <v>-2.8009313066155352E-5</v>
       </c>
-      <c r="K25" s="49">
+      <c r="K25" s="46">
         <v>-8.0922619082419711E-3</v>
       </c>
-      <c r="L25" s="49">
+      <c r="L25" s="46">
         <v>-7.6835254429024878E-5</v>
       </c>
-      <c r="M25" s="49">
+      <c r="M25" s="46">
         <v>3.5695600569966845E-4</v>
       </c>
-      <c r="N25" s="49">
+      <c r="N25" s="46">
         <v>-6.4141972458105017E-6</v>
       </c>
-      <c r="O25" s="49">
+      <c r="O25" s="46">
         <v>8.158045464187638E-5</v>
       </c>
-      <c r="P25" s="49">
+      <c r="P25" s="46">
         <v>1.221449057731052E-4</v>
       </c>
-      <c r="Q25" s="49">
+      <c r="Q25" s="46">
         <v>4.7347903191299707E-3</v>
       </c>
-      <c r="R25" s="49">
+      <c r="R25" s="46">
         <v>2.7744094127376E-3</v>
       </c>
-      <c r="S25" s="49">
+      <c r="S25" s="46">
         <v>-2.8009313066161844E-5</v>
       </c>
-      <c r="T25" s="49">
+      <c r="T25" s="46">
         <v>-7.6835051413892963E-3</v>
       </c>
-      <c r="U25" s="49">
+      <c r="U25" s="46">
         <v>-7.6835254429025366E-5</v>
       </c>
-      <c r="V25" s="49">
+      <c r="V25" s="46">
         <v>3.5695600569966152E-4</v>
       </c>
-      <c r="W25" s="49">
+      <c r="W25" s="46">
         <v>-7.8935967634402322E-6</v>
       </c>
-      <c r="X25" s="49">
+      <c r="X25" s="46">
         <v>8.1580454641897197E-5</v>
       </c>
-      <c r="Y25" s="49">
+      <c r="Y25" s="46">
         <v>1.2214490577310347E-4</v>
       </c>
-      <c r="Z25" s="49">
+      <c r="Z25" s="46">
         <v>4.7347903191299699E-3</v>
       </c>
-      <c r="AA25" s="49">
+      <c r="AA25" s="46">
         <v>2.7744094127375931E-3</v>
       </c>
-      <c r="AB25" s="49">
+      <c r="AB25" s="46">
         <v>-2.8009313066162457E-5</v>
       </c>
-      <c r="AC25" s="49">
+      <c r="AC25" s="46">
         <v>-6.9927991238973673E-3</v>
       </c>
-      <c r="AD25" s="50">
+      <c r="AD25">
         <v>-7.6835254429025583E-5</v>
       </c>
-      <c r="AE25" s="50">
+      <c r="AE25">
         <v>3.5695600569977612E-4</v>
       </c>
-      <c r="AF25" s="50">
+      <c r="AF25">
         <v>-7.0059646201935601E-6</v>
       </c>
-      <c r="AG25" s="50">
+      <c r="AG25">
         <v>8.1580454641884783E-5</v>
       </c>
-      <c r="AH25" s="50">
+      <c r="AH25">
         <v>1.2214490577306829E-4</v>
       </c>
-      <c r="AI25" s="50">
+      <c r="AI25">
         <v>4.7347903191299733E-3</v>
       </c>
-      <c r="AJ25" s="50">
+      <c r="AJ25">
         <v>2.7744094127375835E-3</v>
       </c>
-      <c r="AK25" s="50">
+      <c r="AK25">
         <v>-2.8009313066159052E-5</v>
       </c>
-      <c r="AL25" s="50">
+      <c r="AL25">
         <v>-7.3889058913382873E-3</v>
       </c>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>215</v>
-      </c>
-      <c r="B26" s="49">
+        <v>246</v>
+      </c>
+      <c r="B26" s="46">
         <v>-9.1427809290675552E-2</v>
       </c>
-      <c r="C26" s="49">
+      <c r="C26" s="46">
         <v>1.0802423045884371E-5</v>
       </c>
-      <c r="D26" s="49">
+      <c r="D26" s="46">
         <v>4.1076806388059758E-4</v>
       </c>
-      <c r="E26" s="49">
+      <c r="E26" s="46">
         <v>-7.9052932085636567E-6</v>
       </c>
-      <c r="F26" s="49">
+      <c r="F26" s="46">
         <v>9.2403391488451374E-5</v>
       </c>
-      <c r="G26" s="49">
+      <c r="G26" s="46">
         <v>1.6368351774970766E-4</v>
       </c>
-      <c r="H26" s="51">
+      <c r="H26" s="47">
         <v>2.7744094127375948E-3</v>
       </c>
-      <c r="I26" s="49">
+      <c r="I26" s="46">
         <v>3.7159031263584445E-3</v>
       </c>
-      <c r="J26" s="49">
+      <c r="J26" s="46">
         <v>-3.6211806915328415E-5</v>
       </c>
-      <c r="K26" s="49">
+      <c r="K26" s="46">
         <v>-8.223095129682223E-3</v>
       </c>
-      <c r="L26" s="49">
+      <c r="L26" s="46">
         <v>1.0802423045884642E-5</v>
       </c>
-      <c r="M26" s="49">
+      <c r="M26" s="46">
         <v>4.1076806388060452E-4</v>
       </c>
-      <c r="N26" s="49">
+      <c r="N26" s="46">
         <v>-8.8810704325436121E-6</v>
       </c>
-      <c r="O26" s="49">
+      <c r="O26" s="46">
         <v>9.2403391488446061E-5</v>
       </c>
-      <c r="P26" s="49">
+      <c r="P26" s="46">
         <v>1.636835177497094E-4</v>
       </c>
-      <c r="Q26" s="49">
+      <c r="Q26" s="46">
         <v>2.7744094127375935E-3</v>
       </c>
-      <c r="R26" s="49">
+      <c r="R26" s="46">
         <v>3.7159031263584458E-3</v>
       </c>
-      <c r="S26" s="49">
+      <c r="S26" s="46">
         <v>-3.6211806915328984E-5</v>
       </c>
-      <c r="T26" s="49">
+      <c r="T26" s="46">
         <v>-7.7784889114839995E-3</v>
       </c>
-      <c r="U26" s="49">
+      <c r="U26" s="46">
         <v>1.0802423045883964E-5</v>
       </c>
-      <c r="V26" s="49">
+      <c r="V26" s="46">
         <v>4.1076806388059585E-4</v>
       </c>
-      <c r="W26" s="49">
+      <c r="W26" s="46">
         <v>-8.5976070546720461E-6</v>
       </c>
-      <c r="X26" s="49">
+      <c r="X26" s="46">
         <v>9.240339148844953E-5</v>
       </c>
-      <c r="Y26" s="49">
+      <c r="Y26" s="46">
         <v>1.6368351774970701E-4</v>
       </c>
-      <c r="Z26" s="49">
+      <c r="Z26" s="46">
         <v>2.7744094127375931E-3</v>
       </c>
-      <c r="AA26" s="49">
+      <c r="AA26" s="46">
         <v>3.7159031263584458E-3</v>
       </c>
-      <c r="AB26" s="49">
+      <c r="AB26" s="46">
         <v>-3.6211806915331004E-5</v>
       </c>
-      <c r="AC26" s="49">
+      <c r="AC26" s="46">
         <v>-7.9878863094134615E-3</v>
       </c>
-      <c r="AD26" s="50">
+      <c r="AD26">
         <v>1.0802423045888403E-5</v>
       </c>
-      <c r="AE26" s="50">
+      <c r="AE26">
         <v>4.1076806388151287E-4</v>
       </c>
-      <c r="AF26" s="50">
+      <c r="AF26">
         <v>-8.0117184273425053E-6</v>
       </c>
-      <c r="AG26" s="50">
+      <c r="AG26">
         <v>9.2403391488515125E-5</v>
       </c>
-      <c r="AH26" s="50">
+      <c r="AH26">
         <v>1.6368351774968739E-4</v>
       </c>
-      <c r="AI26" s="50">
+      <c r="AI26">
         <v>2.7744094127375991E-3</v>
       </c>
-      <c r="AJ26" s="50">
+      <c r="AJ26">
         <v>3.715903126358435E-3</v>
       </c>
-      <c r="AK26" s="50">
+      <c r="AK26">
         <v>-3.6211806915323624E-5</v>
       </c>
-      <c r="AL26" s="50">
+      <c r="AL26">
         <v>-8.1998346042555931E-3</v>
       </c>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>216</v>
-      </c>
-      <c r="B27" s="49">
+        <v>210</v>
+      </c>
+      <c r="B27" s="46">
         <v>2.9322733083299357E-2</v>
       </c>
-      <c r="C27" s="49">
+      <c r="C27" s="46">
         <v>-1.2282578432135667E-5</v>
       </c>
-      <c r="D27" s="49">
+      <c r="D27" s="46">
         <v>6.5399108044086971E-5</v>
       </c>
-      <c r="E27" s="49">
+      <c r="E27" s="46">
         <v>-1.5902023290306218E-6</v>
       </c>
-      <c r="F27" s="49">
+      <c r="F27" s="46">
         <v>-6.0565880512849645E-6</v>
       </c>
-      <c r="G27" s="49">
+      <c r="G27" s="46">
         <v>1.3878993418547827E-5</v>
       </c>
-      <c r="H27" s="51">
+      <c r="H27" s="47">
         <v>-2.8009313066162274E-5</v>
       </c>
-      <c r="I27" s="49">
+      <c r="I27" s="46">
         <v>-3.6211806915331634E-5</v>
       </c>
-      <c r="J27" s="49">
+      <c r="J27" s="46">
         <v>7.621415339496276E-5</v>
       </c>
-      <c r="K27" s="49">
+      <c r="K27" s="46">
         <v>-1.7426946337881534E-3</v>
       </c>
-      <c r="L27" s="49">
+      <c r="L27" s="46">
         <v>-1.2282578432135533E-5</v>
       </c>
-      <c r="M27" s="49">
+      <c r="M27" s="46">
         <v>6.539910804408914E-5</v>
       </c>
-      <c r="N27" s="49">
+      <c r="N27" s="46">
         <v>-1.5356902763016177E-6</v>
       </c>
-      <c r="O27" s="49">
+      <c r="O27" s="46">
         <v>-6.0565880512919576E-6</v>
       </c>
-      <c r="P27" s="49">
+      <c r="P27" s="46">
         <v>1.3878993418548261E-5</v>
       </c>
-      <c r="Q27" s="49">
+      <c r="Q27" s="46">
         <v>-2.8009313066162809E-5</v>
       </c>
-      <c r="R27" s="49">
+      <c r="R27" s="46">
         <v>-3.6211806915330407E-5</v>
       </c>
-      <c r="S27" s="49">
+      <c r="S27" s="46">
         <v>7.6214153394962028E-5</v>
       </c>
-      <c r="T27" s="49">
+      <c r="T27" s="46">
         <v>-1.7290067943733604E-3</v>
       </c>
-      <c r="U27" s="49">
+      <c r="U27" s="46">
         <v>-1.2282578432135798E-5</v>
       </c>
-      <c r="V27" s="49">
+      <c r="V27" s="46">
         <v>6.5399108044081116E-5</v>
       </c>
-      <c r="W27" s="49">
+      <c r="W27" s="46">
         <v>-1.5376299325505622E-6</v>
       </c>
-      <c r="X27" s="49">
+      <c r="X27" s="46">
         <v>-6.0565880512905752E-6</v>
       </c>
-      <c r="Y27" s="49">
+      <c r="Y27" s="46">
         <v>1.3878993418547854E-5</v>
       </c>
-      <c r="Z27" s="49">
+      <c r="Z27" s="46">
         <v>-2.8009313066162457E-5</v>
       </c>
-      <c r="AA27" s="49">
+      <c r="AA27" s="46">
         <v>-3.6211806915331004E-5</v>
       </c>
-      <c r="AB27" s="49">
+      <c r="AB27" s="46">
         <v>7.6214153394963492E-5</v>
       </c>
-      <c r="AC27" s="49">
+      <c r="AC27" s="46">
         <v>-1.7386530695139412E-3</v>
       </c>
-      <c r="AD27" s="50">
+      <c r="AD27">
         <v>-1.2282578432134054E-5</v>
       </c>
-      <c r="AE27" s="50">
+      <c r="AE27">
         <v>6.5399108044603783E-5</v>
       </c>
-      <c r="AF27" s="50">
+      <c r="AF27">
         <v>-1.5158770963135876E-6</v>
       </c>
-      <c r="AG27" s="50">
+      <c r="AG27">
         <v>-6.0565880512478102E-6</v>
       </c>
-      <c r="AH27" s="50">
+      <c r="AH27">
         <v>1.3878993418552869E-5</v>
       </c>
-      <c r="AI27" s="50">
+      <c r="AI27">
         <v>-2.8009313066162745E-5</v>
       </c>
-      <c r="AJ27" s="50">
+      <c r="AJ27">
         <v>-3.6211806915332237E-5</v>
       </c>
-      <c r="AK27" s="50">
+      <c r="AK27">
         <v>7.6214153394963926E-5</v>
       </c>
-      <c r="AL27" s="50">
+      <c r="AL27">
         <v>-1.7814908895346059E-3</v>
       </c>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>217</v>
-      </c>
-      <c r="B28" s="49">
+        <v>211</v>
+      </c>
+      <c r="B28" s="46">
         <v>-26.657420447030471</v>
       </c>
-      <c r="C28" s="49">
+      <c r="C28" s="46">
         <v>-3.3408237372306309E-3</v>
       </c>
-      <c r="D28" s="49">
+      <c r="D28" s="46">
         <v>-0.32915759022558938</v>
       </c>
-      <c r="E28" s="49">
+      <c r="E28" s="46">
         <v>7.3434046314924369E-3</v>
       </c>
-      <c r="F28" s="49">
+      <c r="F28" s="46">
         <v>-2.2917219103627869E-2</v>
       </c>
-      <c r="G28" s="49">
+      <c r="G28" s="46">
         <v>-3.0549007873232767E-2</v>
       </c>
-      <c r="H28" s="51">
+      <c r="H28" s="47">
         <v>-6.9927991238971348E-3</v>
       </c>
-      <c r="I28" s="49">
+      <c r="I28" s="46">
         <v>-7.9878863094123564E-3</v>
       </c>
-      <c r="J28" s="49">
+      <c r="J28" s="46">
         <v>-1.7386530695139586E-3</v>
       </c>
-      <c r="K28" s="49">
+      <c r="K28" s="46">
         <v>3.8324131639937988</v>
       </c>
-      <c r="L28" s="49">
+      <c r="L28" s="46">
         <v>-3.3408237372309396E-3</v>
       </c>
-      <c r="M28" s="49">
+      <c r="M28" s="46">
         <v>-0.32915759022558844</v>
       </c>
-      <c r="N28" s="49">
+      <c r="N28" s="46">
         <v>7.5122810894399294E-3</v>
       </c>
-      <c r="O28" s="49">
+      <c r="O28" s="46">
         <v>-2.2917219103628501E-2</v>
       </c>
-      <c r="P28" s="49">
+      <c r="P28" s="46">
         <v>-3.0549007873232892E-2</v>
       </c>
-      <c r="Q28" s="49">
+      <c r="Q28" s="46">
         <v>-6.9927991238971044E-3</v>
       </c>
-      <c r="R28" s="49">
+      <c r="R28" s="46">
         <v>-7.9878863094141328E-3</v>
       </c>
-      <c r="S28" s="49">
+      <c r="S28" s="46">
         <v>-1.7386530695140871E-3</v>
       </c>
-      <c r="T28" s="49">
+      <c r="T28" s="46">
         <v>3.7429924994697097</v>
       </c>
-      <c r="U28" s="49">
+      <c r="U28" s="46">
         <v>-3.340823737230463E-3</v>
       </c>
-      <c r="V28" s="49">
+      <c r="V28" s="46">
         <v>-0.3291575902255901</v>
       </c>
-      <c r="W28" s="49">
+      <c r="W28" s="46">
         <v>7.504010881660461E-3</v>
       </c>
-      <c r="X28" s="49">
+      <c r="X28" s="46">
         <v>-2.2917219103626468E-2</v>
       </c>
-      <c r="Y28" s="49">
+      <c r="Y28" s="46">
         <v>-3.0549007873232677E-2</v>
       </c>
-      <c r="Z28" s="49">
+      <c r="Z28" s="46">
         <v>-6.9927991238973673E-3</v>
       </c>
-      <c r="AA28" s="49">
+      <c r="AA28" s="46">
         <v>-7.9878863094134615E-3</v>
       </c>
-      <c r="AB28" s="49">
+      <c r="AB28" s="46">
         <v>-1.7386530695139412E-3</v>
       </c>
-      <c r="AC28" s="49">
+      <c r="AC28" s="46">
         <v>3.7581089781854553</v>
       </c>
-      <c r="AD28" s="50">
+      <c r="AD28">
         <v>-3.3408237372373195E-3</v>
       </c>
-      <c r="AE28" s="50">
+      <c r="AE28">
         <v>-0.32915759022704971</v>
       </c>
-      <c r="AF28" s="50">
+      <c r="AF28">
         <v>7.6781070221150971E-3</v>
       </c>
-      <c r="AG28" s="50">
+      <c r="AG28">
         <v>-2.2917219103714727E-2</v>
       </c>
-      <c r="AH28" s="50">
+      <c r="AH28">
         <v>-3.0549007873248157E-2</v>
       </c>
-      <c r="AI28" s="50">
+      <c r="AI28">
         <v>-6.9927991239049636E-3</v>
       </c>
-      <c r="AJ28" s="50">
+      <c r="AJ28">
         <v>-7.9878863094119401E-3</v>
       </c>
-      <c r="AK28" s="50">
+      <c r="AK28">
         <v>-1.7386530695171903E-3</v>
       </c>
-      <c r="AL28" s="50">
+      <c r="AL28">
         <v>3.6956203394853961</v>
       </c>
     </row>
@@ -8500,115 +8501,115 @@
       <c r="A29" t="s">
         <v>218</v>
       </c>
-      <c r="B29" s="50">
+      <c r="B29">
         <v>4.7957223317056902E-2</v>
       </c>
-      <c r="C29" s="50">
+      <c r="C29">
         <v>2.0579093451348076E-3</v>
       </c>
-      <c r="D29" s="50">
+      <c r="D29">
         <v>2.4440201837120225E-4</v>
       </c>
-      <c r="E29" s="50">
+      <c r="E29">
         <v>-6.2161712884505012E-6</v>
       </c>
-      <c r="F29" s="50">
+      <c r="F29">
         <v>3.8871225821743413E-5</v>
       </c>
-      <c r="G29" s="50">
+      <c r="G29">
         <v>-8.1357253790775098E-5</v>
       </c>
-      <c r="H29" s="50">
+      <c r="H29">
         <v>-7.6835254429023157E-5</v>
       </c>
-      <c r="I29" s="50">
+      <c r="I29">
         <v>1.0802423045889385E-5</v>
       </c>
-      <c r="J29" s="50">
+      <c r="J29">
         <v>-1.2282578432132865E-5</v>
       </c>
-      <c r="K29" s="50">
+      <c r="K29">
         <v>-2.8017574428626513E-3</v>
       </c>
-      <c r="L29" s="50">
+      <c r="L29">
         <v>2.0579093451348093E-3</v>
       </c>
-      <c r="M29" s="50">
+      <c r="M29">
         <v>2.4440201837120311E-4</v>
       </c>
-      <c r="N29" s="50">
+      <c r="N29">
         <v>-5.0150654907512348E-6</v>
       </c>
-      <c r="O29" s="50">
+      <c r="O29">
         <v>3.8871225821743101E-5</v>
       </c>
-      <c r="P29" s="50">
+      <c r="P29">
         <v>-8.1357253790774692E-5</v>
       </c>
-      <c r="Q29" s="50">
+      <c r="Q29">
         <v>-7.6835254429023902E-5</v>
       </c>
-      <c r="R29" s="50">
+      <c r="R29">
         <v>1.0802423045889311E-5</v>
       </c>
-      <c r="S29" s="50">
+      <c r="S29">
         <v>-1.2282578432134171E-5</v>
       </c>
-      <c r="T29" s="50">
+      <c r="T29">
         <v>-3.5142619861212171E-3</v>
       </c>
-      <c r="U29" s="50">
+      <c r="U29">
         <v>2.0579093451348054E-3</v>
       </c>
-      <c r="V29" s="50">
+      <c r="V29">
         <v>2.4440201837120441E-4</v>
       </c>
-      <c r="W29" s="50">
+      <c r="W29">
         <v>-5.2785767817784048E-6</v>
       </c>
-      <c r="X29" s="50">
+      <c r="X29">
         <v>3.8871225821747818E-5</v>
       </c>
-      <c r="Y29" s="50">
+      <c r="Y29">
         <v>-8.1357253790774949E-5</v>
       </c>
-      <c r="Z29" s="50">
+      <c r="Z29">
         <v>-7.6835254429025583E-5</v>
       </c>
-      <c r="AA29" s="50">
+      <c r="AA29">
         <v>1.0802423045888403E-5</v>
       </c>
-      <c r="AB29" s="50">
+      <c r="AB29">
         <v>-1.2282578432134054E-5</v>
       </c>
-      <c r="AC29" s="50">
+      <c r="AC29">
         <v>-3.3408237372373195E-3</v>
       </c>
-      <c r="AD29" s="50">
+      <c r="AD29">
         <v>2.0579093451348093E-3</v>
       </c>
-      <c r="AE29" s="50">
+      <c r="AE29">
         <v>2.444020183715338E-4</v>
       </c>
-      <c r="AF29" s="50">
+      <c r="AF29">
         <v>-5.6642806576693726E-6</v>
       </c>
-      <c r="AG29" s="50">
+      <c r="AG29">
         <v>3.8871225821756241E-5</v>
       </c>
-      <c r="AH29" s="50">
+      <c r="AH29">
         <v>-8.1357253790817138E-5</v>
       </c>
-      <c r="AI29" s="50">
+      <c r="AI29">
         <v>-7.6835254429025475E-5</v>
       </c>
-      <c r="AJ29" s="50">
+      <c r="AJ29">
         <v>1.0802423045875914E-5</v>
       </c>
-      <c r="AK29" s="50">
+      <c r="AK29">
         <v>-1.2282578432130295E-5</v>
       </c>
-      <c r="AL29" s="50">
+      <c r="AL29">
         <v>-3.1466336474071221E-3</v>
       </c>
     </row>
@@ -8616,115 +8617,115 @@
       <c r="A30" t="s">
         <v>219</v>
       </c>
-      <c r="B30" s="50">
+      <c r="B30">
         <v>1.8095891546568426</v>
       </c>
-      <c r="C30" s="50">
+      <c r="C30">
         <v>2.4440201837152637E-4</v>
       </c>
-      <c r="D30" s="50">
+      <c r="D30">
         <v>2.9805168322007577E-2</v>
       </c>
-      <c r="E30" s="50">
+      <c r="E30">
         <v>-6.742231070352633E-4</v>
       </c>
-      <c r="F30" s="50">
+      <c r="F30">
         <v>1.9587201171319588E-3</v>
       </c>
-      <c r="G30" s="50">
+      <c r="G30">
         <v>1.9198479886552364E-3</v>
       </c>
-      <c r="H30" s="50">
+      <c r="H30">
         <v>3.5695600569975541E-4</v>
       </c>
-      <c r="I30" s="50">
+      <c r="I30">
         <v>4.1076806388141935E-4</v>
       </c>
-      <c r="J30" s="50">
+      <c r="J30">
         <v>6.5399108044607442E-5</v>
       </c>
-      <c r="K30" s="50">
+      <c r="K30">
         <v>-0.33846616290231279</v>
       </c>
-      <c r="L30" s="50">
+      <c r="L30">
         <v>2.4440201837155358E-4</v>
       </c>
-      <c r="M30" s="50">
+      <c r="M30">
         <v>2.98051683220035E-2</v>
       </c>
-      <c r="N30" s="50">
+      <c r="N30">
         <v>-6.9039398766169535E-4</v>
       </c>
-      <c r="O30" s="50">
+      <c r="O30">
         <v>1.9587201171320195E-3</v>
       </c>
-      <c r="P30" s="50">
+      <c r="P30">
         <v>1.9198479886552505E-3</v>
       </c>
-      <c r="Q30" s="50">
+      <c r="Q30">
         <v>3.5695600569975161E-4</v>
       </c>
-      <c r="R30" s="50">
+      <c r="R30">
         <v>4.1076806388157781E-4</v>
       </c>
-      <c r="S30" s="50">
+      <c r="S30">
         <v>6.5399108044613378E-5</v>
       </c>
-      <c r="T30" s="50">
+      <c r="T30">
         <v>-0.32979378749619775</v>
       </c>
-      <c r="U30" s="50">
+      <c r="U30">
         <v>2.4440201837151211E-4</v>
       </c>
-      <c r="V30" s="50">
+      <c r="V30">
         <v>2.9805168322027259E-2</v>
       </c>
-      <c r="W30" s="50">
+      <c r="W30">
         <v>-6.937068906605645E-4</v>
       </c>
-      <c r="X30" s="50">
+      <c r="X30">
         <v>1.9587201171318348E-3</v>
       </c>
-      <c r="Y30" s="50">
+      <c r="Y30">
         <v>1.9198479886552307E-3</v>
       </c>
-      <c r="Z30" s="50">
+      <c r="Z30">
         <v>3.5695600569977612E-4</v>
       </c>
-      <c r="AA30" s="50">
+      <c r="AA30">
         <v>4.1076806388151287E-4</v>
       </c>
-      <c r="AB30" s="50">
+      <c r="AB30">
         <v>6.5399108044603783E-5</v>
       </c>
-      <c r="AC30" s="50">
+      <c r="AC30">
         <v>-0.32915759022704971</v>
       </c>
-      <c r="AD30" s="50">
+      <c r="AD30">
         <v>2.444020183715338E-4</v>
       </c>
-      <c r="AE30" s="50">
+      <c r="AE30">
         <v>2.980516832205805E-2</v>
       </c>
-      <c r="AF30" s="50">
+      <c r="AF30">
         <v>-6.9771699356113845E-4</v>
       </c>
-      <c r="AG30" s="50">
+      <c r="AG30">
         <v>1.9587201171308265E-3</v>
       </c>
-      <c r="AH30" s="50">
+      <c r="AH30">
         <v>1.9198479886501293E-3</v>
       </c>
-      <c r="AI30" s="50">
+      <c r="AI30">
         <v>3.5695600569983152E-4</v>
       </c>
-      <c r="AJ30" s="50">
+      <c r="AJ30">
         <v>4.1076806388017431E-4</v>
       </c>
-      <c r="AK30" s="50">
+      <c r="AK30">
         <v>6.5399108044716242E-5</v>
       </c>
-      <c r="AL30" s="50">
+      <c r="AL30">
         <v>-0.3278220837105853</v>
       </c>
     </row>
@@ -8732,811 +8733,811 @@
       <c r="A31" t="s">
         <v>220</v>
       </c>
-      <c r="B31" s="50">
+      <c r="B31">
         <v>-4.0116292111520603E-2</v>
       </c>
-      <c r="C31" s="50">
+      <c r="C31">
         <v>-5.6642806576691981E-6</v>
       </c>
-      <c r="D31" s="50">
+      <c r="D31">
         <v>-6.9771699356113855E-4</v>
       </c>
-      <c r="E31" s="50">
+      <c r="E31">
         <v>1.5809567110118137E-5</v>
       </c>
-      <c r="F31" s="50">
+      <c r="F31">
         <v>-4.3573469895552066E-5</v>
       </c>
-      <c r="G31" s="50">
+      <c r="G31">
         <v>-4.3505795877081427E-5</v>
       </c>
-      <c r="H31" s="50">
+      <c r="H31">
         <v>-7.0059646201930722E-6</v>
       </c>
-      <c r="I31" s="50">
+      <c r="I31">
         <v>-8.0117184273402675E-6</v>
       </c>
-      <c r="J31" s="50">
+      <c r="J31">
         <v>-1.5158770963136299E-6</v>
       </c>
-      <c r="K31" s="50">
+      <c r="K31">
         <v>7.9004293671879732E-3</v>
       </c>
-      <c r="L31" s="50">
+      <c r="L31">
         <v>-5.6642806576698376E-6</v>
       </c>
-      <c r="M31" s="50">
+      <c r="M31">
         <v>-6.9771699356113714E-4</v>
       </c>
-      <c r="N31" s="50">
+      <c r="N31">
         <v>1.6188105917740814E-5</v>
       </c>
-      <c r="O31" s="50">
+      <c r="O31">
         <v>-4.3573469895553475E-5</v>
       </c>
-      <c r="P31" s="50">
+      <c r="P31">
         <v>-4.3505795877081759E-5</v>
       </c>
-      <c r="Q31" s="50">
+      <c r="Q31">
         <v>-7.005964620192979E-6</v>
       </c>
-      <c r="R31" s="50">
+      <c r="R31">
         <v>-8.0117184273439978E-6</v>
       </c>
-      <c r="S31" s="50">
+      <c r="S31">
         <v>-1.5158770963138211E-6</v>
       </c>
-      <c r="T31" s="50">
+      <c r="T31">
         <v>7.6973919056252029E-3</v>
       </c>
-      <c r="U31" s="50">
+      <c r="U31">
         <v>-5.6642806576688669E-6</v>
       </c>
-      <c r="V31" s="50">
+      <c r="V31">
         <v>-6.9771699356113964E-4</v>
       </c>
-      <c r="W31" s="50">
+      <c r="W31">
         <v>1.6274871436774501E-5</v>
       </c>
-      <c r="X31" s="50">
+      <c r="X31">
         <v>-4.3573469895549389E-5</v>
       </c>
-      <c r="Y31" s="50">
+      <c r="Y31">
         <v>-4.3505795877081271E-5</v>
       </c>
-      <c r="Z31" s="50">
+      <c r="Z31">
         <v>-7.0059646201935601E-6</v>
       </c>
-      <c r="AA31" s="50">
+      <c r="AA31">
         <v>-8.0117184273425053E-6</v>
       </c>
-      <c r="AB31" s="50">
+      <c r="AB31">
         <v>-1.5158770963135876E-6</v>
       </c>
-      <c r="AC31" s="50">
+      <c r="AC31">
         <v>7.6781070221150971E-3</v>
       </c>
-      <c r="AD31" s="50">
+      <c r="AD31">
         <v>-5.6642806576693726E-6</v>
       </c>
-      <c r="AE31" s="50">
+      <c r="AE31">
         <v>-6.9771699356113845E-4</v>
       </c>
-      <c r="AF31" s="50">
+      <c r="AF31">
         <v>1.6399826242638046E-5</v>
       </c>
-      <c r="AG31" s="50">
+      <c r="AG31">
         <v>-4.3573469895367379E-5</v>
       </c>
-      <c r="AH31" s="50">
+      <c r="AH31">
         <v>-4.3505795876774421E-5</v>
       </c>
-      <c r="AI31" s="50">
+      <c r="AI31">
         <v>-7.0059646201725621E-6</v>
       </c>
-      <c r="AJ31" s="50">
+      <c r="AJ31">
         <v>-8.0117184272801112E-6</v>
       </c>
-      <c r="AK31" s="50">
+      <c r="AK31">
         <v>-1.5158770963113736E-6</v>
       </c>
-      <c r="AL31" s="50">
+      <c r="AL31">
         <v>7.6331687368054665E-3</v>
       </c>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>246</v>
-      </c>
-      <c r="B32" s="50">
+        <v>229</v>
+      </c>
+      <c r="B32">
         <v>0.11210477498055749</v>
       </c>
-      <c r="C32" s="50">
+      <c r="C32">
         <v>3.8871225821755773E-5</v>
       </c>
-      <c r="D32" s="50">
+      <c r="D32">
         <v>1.9587201171308291E-3</v>
       </c>
-      <c r="E32" s="50">
+      <c r="E32">
         <v>-4.1902304407340853E-5</v>
       </c>
-      <c r="F32" s="50">
+      <c r="F32">
         <v>5.1668018538722981E-4</v>
       </c>
-      <c r="G32" s="50">
+      <c r="G32">
         <v>1.1752413294991728E-5</v>
       </c>
-      <c r="H32" s="50">
+      <c r="H32">
         <v>8.1580454641886192E-5</v>
       </c>
-      <c r="I32" s="50">
+      <c r="I32">
         <v>9.2403391488506641E-5</v>
       </c>
-      <c r="J32" s="50">
+      <c r="J32">
         <v>-6.0565880512494094E-6</v>
       </c>
-      <c r="K32" s="50">
+      <c r="K32">
         <v>-2.3766290393613686E-2</v>
       </c>
-      <c r="L32" s="50">
+      <c r="L32">
         <v>3.8871225821757826E-5</v>
       </c>
-      <c r="M32" s="50">
+      <c r="M32">
         <v>1.9587201171308421E-3</v>
       </c>
-      <c r="N32" s="50">
+      <c r="N32">
         <v>-4.3398918948756398E-5</v>
       </c>
-      <c r="O32" s="50">
+      <c r="O32">
         <v>5.1668018538694629E-4</v>
       </c>
-      <c r="P32" s="50">
+      <c r="P32">
         <v>1.1752413294992162E-5</v>
       </c>
-      <c r="Q32" s="50">
+      <c r="Q32">
         <v>8.1580454641882398E-5</v>
       </c>
-      <c r="R32" s="50">
+      <c r="R32">
         <v>9.2403391488517673E-5</v>
       </c>
-      <c r="S32" s="50">
+      <c r="S32">
         <v>-6.0565880512453165E-6</v>
       </c>
-      <c r="T32" s="50">
+      <c r="T32">
         <v>-2.2871562037952403E-2</v>
       </c>
-      <c r="U32" s="50">
+      <c r="U32">
         <v>3.8871225821754831E-5</v>
       </c>
-      <c r="V32" s="50">
+      <c r="V32">
         <v>1.9587201171308317E-3</v>
       </c>
-      <c r="W32" s="50">
+      <c r="W32">
         <v>-4.3303073614308471E-5</v>
       </c>
-      <c r="X32" s="50">
+      <c r="X32">
         <v>5.1668018538711218E-4</v>
       </c>
-      <c r="Y32" s="50">
+      <c r="Y32">
         <v>1.1752413294990969E-5</v>
       </c>
-      <c r="Z32" s="50">
+      <c r="Z32">
         <v>8.1580454641884783E-5</v>
       </c>
-      <c r="AA32" s="50">
+      <c r="AA32">
         <v>9.2403391488515125E-5</v>
       </c>
-      <c r="AB32" s="50">
+      <c r="AB32">
         <v>-6.0565880512478102E-6</v>
       </c>
-      <c r="AC32" s="50">
+      <c r="AC32">
         <v>-2.2917219103714727E-2</v>
       </c>
-      <c r="AD32" s="50">
+      <c r="AD32">
         <v>3.8871225821756241E-5</v>
       </c>
-      <c r="AE32" s="50">
+      <c r="AE32">
         <v>1.9587201171308265E-3</v>
       </c>
-      <c r="AF32" s="50">
+      <c r="AF32">
         <v>-4.3573469895367379E-5</v>
       </c>
-      <c r="AG32" s="50">
+      <c r="AG32">
         <v>5.1668018538726125E-4</v>
       </c>
-      <c r="AH32" s="50">
+      <c r="AH32">
         <v>1.175241329456813E-5</v>
       </c>
-      <c r="AI32" s="50">
+      <c r="AI32">
         <v>8.15804546418805E-5</v>
       </c>
-      <c r="AJ32" s="50">
+      <c r="AJ32">
         <v>9.2403391488418848E-5</v>
       </c>
-      <c r="AK32" s="50">
+      <c r="AK32">
         <v>-6.0565880512401327E-6</v>
       </c>
-      <c r="AL32" s="50">
+      <c r="AL32">
         <v>-2.2838441660617811E-2</v>
       </c>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>247</v>
-      </c>
-      <c r="B33" s="50">
+        <v>222</v>
+      </c>
+      <c r="B33">
         <v>1.9445940692169901</v>
       </c>
-      <c r="C33" s="50">
+      <c r="C33">
         <v>-8.1357253790817409E-5</v>
       </c>
-      <c r="D33" s="50">
+      <c r="D33">
         <v>1.9198479886501363E-3</v>
       </c>
-      <c r="E33" s="50">
+      <c r="E33">
         <v>-4.6357463169087627E-5</v>
       </c>
-      <c r="F33" s="50">
+      <c r="F33">
         <v>1.1752413294573334E-5</v>
       </c>
-      <c r="G33" s="50">
+      <c r="G33">
         <v>2.3958904604174549E-3</v>
       </c>
-      <c r="H33" s="50">
+      <c r="H33">
         <v>1.2214490577306498E-4</v>
       </c>
-      <c r="I33" s="50">
+      <c r="I33">
         <v>1.636835177496773E-4</v>
       </c>
-      <c r="J33" s="50">
+      <c r="J33">
         <v>1.3878993418549481E-5</v>
       </c>
-      <c r="K33" s="50">
+      <c r="K33">
         <v>-2.7356257108484994E-2</v>
       </c>
-      <c r="L33" s="50">
+      <c r="L33">
         <v>-8.1357253790815078E-5</v>
       </c>
-      <c r="M33" s="50">
+      <c r="M33">
         <v>1.9198479886501155E-3</v>
       </c>
-      <c r="N33" s="50">
+      <c r="N33">
         <v>-4.4830521583488032E-5</v>
       </c>
-      <c r="O33" s="50">
+      <c r="O33">
         <v>1.1752413294580273E-5</v>
       </c>
-      <c r="P33" s="50">
+      <c r="P33">
         <v>2.3958904604174554E-3</v>
       </c>
-      <c r="Q33" s="50">
+      <c r="Q33">
         <v>1.2214490577306769E-4</v>
       </c>
-      <c r="R33" s="50">
+      <c r="R33">
         <v>1.6368351774968804E-4</v>
       </c>
-      <c r="S33" s="50">
+      <c r="S33">
         <v>1.387899341855566E-5</v>
       </c>
-      <c r="T33" s="50">
+      <c r="T33">
         <v>-2.9124980529066036E-2</v>
       </c>
-      <c r="U33" s="50">
+      <c r="U33">
         <v>-8.1357253790818819E-5</v>
       </c>
-      <c r="V33" s="50">
+      <c r="V33">
         <v>1.919847988650164E-3</v>
       </c>
-      <c r="W33" s="50">
+      <c r="W33">
         <v>-4.411194291802339E-5</v>
       </c>
-      <c r="X33" s="50">
+      <c r="X33">
         <v>1.1752413294568564E-5</v>
       </c>
-      <c r="Y33" s="50">
+      <c r="Y33">
         <v>2.3958904604174545E-3</v>
       </c>
-      <c r="Z33" s="50">
+      <c r="Z33">
         <v>1.2214490577306829E-4</v>
       </c>
-      <c r="AA33" s="50">
+      <c r="AA33">
         <v>1.6368351774968739E-4</v>
       </c>
-      <c r="AB33" s="50">
+      <c r="AB33">
         <v>1.3878993418552869E-5</v>
       </c>
-      <c r="AC33" s="50">
+      <c r="AC33">
         <v>-3.0549007873248157E-2</v>
       </c>
-      <c r="AD33" s="50">
+      <c r="AD33">
         <v>-8.1357253790817138E-5</v>
       </c>
-      <c r="AE33" s="50">
+      <c r="AE33">
         <v>1.9198479886501293E-3</v>
       </c>
-      <c r="AF33" s="50">
+      <c r="AF33">
         <v>-4.3505795876774421E-5</v>
       </c>
-      <c r="AG33" s="50">
+      <c r="AG33">
         <v>1.175241329456813E-5</v>
       </c>
-      <c r="AH33" s="50">
+      <c r="AH33">
         <v>2.395890460417458E-3</v>
       </c>
-      <c r="AI33" s="50">
+      <c r="AI33">
         <v>1.2214490577311149E-4</v>
       </c>
-      <c r="AJ33" s="50">
+      <c r="AJ33">
         <v>1.6368351774964868E-4</v>
       </c>
-      <c r="AK33" s="50">
+      <c r="AK33">
         <v>1.3878993418588132E-5</v>
       </c>
-      <c r="AL33" s="50">
+      <c r="AL33">
         <v>-3.2124587852343144E-2</v>
       </c>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>236</v>
-      </c>
-      <c r="B34" s="50">
+        <v>243</v>
+      </c>
+      <c r="B34">
         <v>6.2654924397042316E-2</v>
       </c>
-      <c r="C34" s="50">
+      <c r="C34">
         <v>-7.6835254429025664E-5</v>
       </c>
-      <c r="D34" s="50">
+      <c r="D34">
         <v>3.5695600569982805E-4</v>
       </c>
-      <c r="E34" s="50">
+      <c r="E34">
         <v>-4.5393253104335034E-6</v>
       </c>
-      <c r="F34" s="50">
+      <c r="F34">
         <v>8.158045464189698E-5</v>
       </c>
-      <c r="G34" s="50">
+      <c r="G34">
         <v>1.2214490577310781E-4</v>
       </c>
-      <c r="H34" s="50">
+      <c r="H34">
         <v>4.7347903191299829E-3</v>
       </c>
-      <c r="I34" s="50">
+      <c r="I34">
         <v>2.7744094127376039E-3</v>
       </c>
-      <c r="J34" s="50">
+      <c r="J34">
         <v>-2.8009313066158381E-5</v>
       </c>
-      <c r="K34" s="50">
+      <c r="K34">
         <v>-8.0922619082436087E-3</v>
       </c>
-      <c r="L34" s="50">
+      <c r="L34">
         <v>-7.6835254429025353E-5</v>
       </c>
-      <c r="M34" s="50">
+      <c r="M34">
         <v>3.5695600569982805E-4</v>
       </c>
-      <c r="N34" s="50">
+      <c r="N34">
         <v>-6.4141972458141338E-6</v>
       </c>
-      <c r="O34" s="50">
+      <c r="O34">
         <v>8.1580454641887873E-5</v>
       </c>
-      <c r="P34" s="50">
+      <c r="P34">
         <v>1.2214490577310932E-4</v>
       </c>
-      <c r="Q34" s="50">
+      <c r="Q34">
         <v>4.7347903191299742E-3</v>
       </c>
-      <c r="R34" s="50">
+      <c r="R34">
         <v>2.774409412737603E-3</v>
       </c>
-      <c r="S34" s="50">
+      <c r="S34">
         <v>-2.8009313066164879E-5</v>
       </c>
-      <c r="T34" s="50">
+      <c r="T34">
         <v>-7.6835051413910727E-3</v>
       </c>
-      <c r="U34" s="50">
+      <c r="U34">
         <v>-7.68352544290258E-5</v>
       </c>
-      <c r="V34" s="50">
+      <c r="V34">
         <v>3.5695600569982805E-4</v>
       </c>
-      <c r="W34" s="50">
+      <c r="W34">
         <v>-7.8935967634441353E-6</v>
       </c>
-      <c r="X34" s="50">
+      <c r="X34">
         <v>8.1580454641908906E-5</v>
       </c>
-      <c r="Y34" s="50">
+      <c r="Y34">
         <v>1.2214490577310781E-4</v>
       </c>
-      <c r="Z34" s="50">
+      <c r="Z34">
         <v>4.7347903191299733E-3</v>
       </c>
-      <c r="AA34" s="50">
+      <c r="AA34">
         <v>2.7744094127375991E-3</v>
       </c>
-      <c r="AB34" s="50">
+      <c r="AB34">
         <v>-2.8009313066162745E-5</v>
       </c>
-      <c r="AC34" s="50">
+      <c r="AC34">
         <v>-6.9927991239049636E-3</v>
       </c>
-      <c r="AD34" s="50">
+      <c r="AD34">
         <v>-7.6835254429025475E-5</v>
       </c>
-      <c r="AE34" s="50">
+      <c r="AE34">
         <v>3.5695600569983152E-4</v>
       </c>
-      <c r="AF34" s="50">
+      <c r="AF34">
         <v>-7.0059646201725621E-6</v>
       </c>
-      <c r="AG34" s="50">
+      <c r="AG34">
         <v>8.15804546418805E-5</v>
       </c>
-      <c r="AH34" s="50">
+      <c r="AH34">
         <v>1.2214490577311149E-4</v>
       </c>
-      <c r="AI34" s="50">
+      <c r="AI34">
         <v>4.7347903191299768E-3</v>
       </c>
-      <c r="AJ34" s="50">
+      <c r="AJ34">
         <v>2.7744094127375826E-3</v>
       </c>
-      <c r="AK34" s="50">
+      <c r="AK34">
         <v>-2.8009313066159313E-5</v>
       </c>
-      <c r="AL34" s="50">
+      <c r="AL34">
         <v>-7.3889058913378554E-3</v>
       </c>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>237</v>
-      </c>
-      <c r="B35" s="50">
+        <v>247</v>
+      </c>
+      <c r="B35">
         <v>-9.142780929067966E-2</v>
       </c>
-      <c r="C35" s="50">
+      <c r="C35">
         <v>1.0802423045875562E-5</v>
       </c>
-      <c r="D35" s="50">
+      <c r="D35">
         <v>4.1076806388017778E-4</v>
       </c>
-      <c r="E35" s="50">
+      <c r="E35">
         <v>-7.9052932085540615E-6</v>
       </c>
-      <c r="F35" s="50">
+      <c r="F35">
         <v>9.2403391488421558E-5</v>
       </c>
-      <c r="G35" s="50">
+      <c r="G35">
         <v>1.6368351774964586E-4</v>
       </c>
-      <c r="H35" s="50">
+      <c r="H35">
         <v>2.7744094127375844E-3</v>
       </c>
-      <c r="I35" s="50">
+      <c r="I35">
         <v>3.7159031263584354E-3</v>
       </c>
-      <c r="J35" s="50">
+      <c r="J35">
         <v>-3.6211806915331153E-5</v>
       </c>
-      <c r="K35" s="50">
+      <c r="K35">
         <v>-8.223095129677116E-3</v>
       </c>
-      <c r="L35" s="50">
+      <c r="L35">
         <v>1.0802423045875833E-5</v>
       </c>
-      <c r="M35" s="50">
+      <c r="M35">
         <v>4.1076806388017431E-4</v>
       </c>
-      <c r="N35" s="50">
+      <c r="N35">
         <v>-8.8810704325334748E-6</v>
       </c>
-      <c r="O35" s="50">
+      <c r="O35">
         <v>9.2403391488416245E-5</v>
       </c>
-      <c r="P35" s="50">
+      <c r="P35">
         <v>1.6368351774964695E-4</v>
       </c>
-      <c r="Q35" s="50">
+      <c r="Q35">
         <v>2.7744094127375826E-3</v>
       </c>
-      <c r="R35" s="50">
+      <c r="R35">
         <v>3.7159031263584389E-3</v>
       </c>
-      <c r="S35" s="50">
+      <c r="S35">
         <v>-3.6211806915331722E-5</v>
       </c>
-      <c r="T35" s="50">
+      <c r="T35">
         <v>-7.7784889114789479E-3</v>
       </c>
-      <c r="U35" s="50">
+      <c r="U35">
         <v>1.0802423045875155E-5</v>
       </c>
-      <c r="V35" s="50">
+      <c r="V35">
         <v>4.1076806388017084E-4</v>
       </c>
-      <c r="W35" s="50">
+      <c r="W35">
         <v>-8.5976070546621257E-6</v>
       </c>
-      <c r="X35" s="50">
+      <c r="X35">
         <v>9.2403391488419606E-5</v>
       </c>
-      <c r="Y35" s="50">
+      <c r="Y35">
         <v>1.6368351774964543E-4</v>
       </c>
-      <c r="Z35" s="50">
+      <c r="Z35">
         <v>2.7744094127375835E-3</v>
       </c>
-      <c r="AA35" s="50">
+      <c r="AA35">
         <v>3.715903126358435E-3</v>
       </c>
-      <c r="AB35" s="50">
+      <c r="AB35">
         <v>-3.6211806915332237E-5</v>
       </c>
-      <c r="AC35" s="50">
+      <c r="AC35">
         <v>-7.9878863094119401E-3</v>
       </c>
-      <c r="AD35" s="50">
+      <c r="AD35">
         <v>1.0802423045875914E-5</v>
       </c>
-      <c r="AE35" s="50">
+      <c r="AE35">
         <v>4.1076806388017431E-4</v>
       </c>
-      <c r="AF35" s="50">
+      <c r="AF35">
         <v>-8.0117184272801112E-6</v>
       </c>
-      <c r="AG35" s="50">
+      <c r="AG35">
         <v>9.2403391488418848E-5</v>
       </c>
-      <c r="AH35" s="50">
+      <c r="AH35">
         <v>1.6368351774964868E-4</v>
       </c>
-      <c r="AI35" s="50">
+      <c r="AI35">
         <v>2.7744094127375826E-3</v>
       </c>
-      <c r="AJ35" s="50">
+      <c r="AJ35">
         <v>3.7159031263584328E-3</v>
       </c>
-      <c r="AK35" s="50">
+      <c r="AK35">
         <v>-3.6211806915324336E-5</v>
       </c>
-      <c r="AL35" s="50">
+      <c r="AL35">
         <v>-8.1998346042548246E-3</v>
       </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>238</v>
-      </c>
-      <c r="B36" s="50">
+        <v>223</v>
+      </c>
+      <c r="B36">
         <v>2.9322733083303687E-2</v>
       </c>
-      <c r="C36" s="50">
+      <c r="C36">
         <v>-1.2282578432130256E-5</v>
       </c>
-      <c r="D36" s="50">
+      <c r="D36">
         <v>6.5399108044719061E-5</v>
       </c>
-      <c r="E36" s="50">
+      <c r="E36">
         <v>-1.5902023290454754E-6</v>
       </c>
-      <c r="F36" s="50">
+      <c r="F36">
         <v>-6.0565880512415964E-6</v>
       </c>
-      <c r="G36" s="50">
+      <c r="G36">
         <v>1.387899341858778E-5</v>
       </c>
-      <c r="H36" s="50">
+      <c r="H36">
         <v>-2.8009313066158886E-5</v>
       </c>
-      <c r="I36" s="50">
+      <c r="I36">
         <v>-3.6211806915324254E-5</v>
       </c>
-      <c r="J36" s="50">
+      <c r="J36">
         <v>7.6214153394963628E-5</v>
       </c>
-      <c r="K36" s="50">
+      <c r="K36">
         <v>-1.7426946337950333E-3</v>
       </c>
-      <c r="L36" s="50">
+      <c r="L36">
         <v>-1.2282578432130131E-5</v>
       </c>
-      <c r="M36" s="50">
+      <c r="M36">
         <v>6.5399108044720362E-5</v>
       </c>
-      <c r="N36" s="50">
+      <c r="N36">
         <v>-1.5356902763163561E-6</v>
       </c>
-      <c r="O36" s="50">
+      <c r="O36">
         <v>-6.0565880512486979E-6</v>
       </c>
-      <c r="P36" s="50">
+      <c r="P36">
         <v>1.3878993418588295E-5</v>
       </c>
-      <c r="Q36" s="50">
+      <c r="Q36">
         <v>-2.8009313066159391E-5</v>
       </c>
-      <c r="R36" s="50">
+      <c r="R36">
         <v>-3.6211806915323035E-5</v>
       </c>
-      <c r="S36" s="50">
+      <c r="S36">
         <v>7.6214153394962625E-5</v>
       </c>
-      <c r="T36" s="50">
+      <c r="T36">
         <v>-1.7290067943802334E-3</v>
       </c>
-      <c r="U36" s="50">
+      <c r="U36">
         <v>-1.2282578432130388E-5</v>
       </c>
-      <c r="V36" s="50">
+      <c r="V36">
         <v>6.5399108044712556E-5</v>
       </c>
-      <c r="W36" s="50">
+      <c r="W36">
         <v>-1.5376299325653276E-6</v>
       </c>
-      <c r="X36" s="50">
+      <c r="X36">
         <v>-6.0565880512472071E-6</v>
       </c>
-      <c r="Y36" s="50">
+      <c r="Y36">
         <v>1.387899341858778E-5</v>
       </c>
-      <c r="Z36" s="50">
+      <c r="Z36">
         <v>-2.8009313066159052E-5</v>
       </c>
-      <c r="AA36" s="50">
+      <c r="AA36">
         <v>-3.6211806915323624E-5</v>
       </c>
-      <c r="AB36" s="50">
+      <c r="AB36">
         <v>7.6214153394963926E-5</v>
       </c>
-      <c r="AC36" s="50">
+      <c r="AC36">
         <v>-1.7386530695171903E-3</v>
       </c>
-      <c r="AD36" s="50">
+      <c r="AD36">
         <v>-1.2282578432130295E-5</v>
       </c>
-      <c r="AE36" s="50">
+      <c r="AE36">
         <v>6.5399108044716242E-5</v>
       </c>
-      <c r="AF36" s="50">
+      <c r="AF36">
         <v>-1.5158770963113736E-6</v>
       </c>
-      <c r="AG36" s="50">
+      <c r="AG36">
         <v>-6.0565880512401327E-6</v>
       </c>
-      <c r="AH36" s="50">
+      <c r="AH36">
         <v>1.3878993418588132E-5</v>
       </c>
-      <c r="AI36" s="50">
+      <c r="AI36">
         <v>-2.8009313066159313E-5</v>
       </c>
-      <c r="AJ36" s="50">
+      <c r="AJ36">
         <v>-3.6211806915324336E-5</v>
       </c>
-      <c r="AK36" s="50">
+      <c r="AK36">
         <v>7.6214153394964373E-5</v>
       </c>
-      <c r="AL36" s="50">
+      <c r="AL36">
         <v>-1.7814908895351462E-3</v>
       </c>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>239</v>
-      </c>
-      <c r="B37" s="50">
+        <v>224</v>
+      </c>
+      <c r="B37">
         <v>-29.257298170000475</v>
       </c>
-      <c r="C37" s="50">
+      <c r="C37">
         <v>-3.1466336474070397E-3</v>
       </c>
-      <c r="D37" s="50">
+      <c r="D37">
         <v>-0.32782208371058508</v>
       </c>
-      <c r="E37" s="50">
+      <c r="E37">
         <v>7.4120653010988757E-3</v>
       </c>
-      <c r="F37" s="50">
+      <c r="F37">
         <v>-2.283844166061761E-2</v>
       </c>
-      <c r="G37" s="50">
+      <c r="G37">
         <v>-3.2124587852342665E-2</v>
       </c>
-      <c r="H37" s="50">
+      <c r="H37">
         <v>-7.3889058913380323E-3</v>
       </c>
-      <c r="I37" s="50">
+      <c r="I37">
         <v>-8.1998346042545245E-3</v>
       </c>
-      <c r="J37" s="50">
+      <c r="J37">
         <v>-1.781490889534598E-3</v>
       </c>
-      <c r="K37" s="50">
+      <c r="K37">
         <v>3.7789978040002516</v>
       </c>
-      <c r="L37" s="50">
+      <c r="L37">
         <v>-3.1466336474073476E-3</v>
       </c>
-      <c r="M37" s="50">
+      <c r="M37">
         <v>-0.32782208371058474</v>
       </c>
-      <c r="N37" s="50">
+      <c r="N37">
         <v>7.5780556550874168E-3</v>
       </c>
-      <c r="O37" s="50">
+      <c r="O37">
         <v>-2.2838441660618228E-2</v>
       </c>
-      <c r="P37" s="50">
+      <c r="P37">
         <v>-3.2124587852342811E-2</v>
       </c>
-      <c r="Q37" s="50">
+      <c r="Q37">
         <v>-7.3889058913380185E-3</v>
       </c>
-      <c r="R37" s="50">
+      <c r="R37">
         <v>-8.1998346042562592E-3</v>
       </c>
-      <c r="S37" s="50">
+      <c r="S37">
         <v>-1.7814908895347299E-3</v>
       </c>
-      <c r="T37" s="50">
+      <c r="T37">
         <v>3.6938238714533558</v>
       </c>
-      <c r="U37" s="50">
+      <c r="U37">
         <v>-3.1466336474068818E-3</v>
       </c>
-      <c r="V37" s="50">
+      <c r="V37">
         <v>-0.32782208371058585</v>
       </c>
-      <c r="W37" s="50">
+      <c r="W37">
         <v>7.6060550245593186E-3</v>
       </c>
-      <c r="X37" s="50">
+      <c r="X37">
         <v>-2.2838441660616181E-2</v>
       </c>
-      <c r="Y37" s="50">
+      <c r="Y37">
         <v>-3.2124587852342588E-2</v>
       </c>
-      <c r="Z37" s="50">
+      <c r="Z37">
         <v>-7.3889058913382873E-3</v>
       </c>
-      <c r="AA37" s="50">
+      <c r="AA37">
         <v>-8.1998346042555931E-3</v>
       </c>
-      <c r="AB37" s="50">
+      <c r="AB37">
         <v>-1.7814908895346059E-3</v>
       </c>
-      <c r="AC37" s="50">
+      <c r="AC37">
         <v>3.6956203394853961</v>
       </c>
-      <c r="AD37" s="50">
+      <c r="AD37">
         <v>-3.1466336474071221E-3</v>
       </c>
-      <c r="AE37" s="50">
+      <c r="AE37">
         <v>-0.3278220837105853</v>
       </c>
-      <c r="AF37" s="50">
+      <c r="AF37">
         <v>7.6331687368054665E-3</v>
       </c>
-      <c r="AG37" s="50">
+      <c r="AG37">
         <v>-2.2838441660617811E-2</v>
       </c>
-      <c r="AH37" s="50">
+      <c r="AH37">
         <v>-3.2124587852343144E-2</v>
       </c>
-      <c r="AI37" s="50">
+      <c r="AI37">
         <v>-7.3889058913378554E-3</v>
       </c>
-      <c r="AJ37" s="50">
+      <c r="AJ37">
         <v>-8.1998346042548246E-3</v>
       </c>
-      <c r="AK37" s="50">
+      <c r="AK37">
         <v>-1.7814908895351462E-3</v>
       </c>
-      <c r="AL37" s="50">
+      <c r="AL37">
         <v>3.6951723455656902</v>
       </c>
     </row>
@@ -9550,7 +9551,7 @@
   <dimension ref="A1:CL89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:CL89"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9621,148 +9622,148 @@
         <v>169</v>
       </c>
       <c r="U1" t="s">
+        <v>240</v>
+      </c>
+      <c r="V1" t="s">
+        <v>244</v>
+      </c>
+      <c r="W1" t="s">
         <v>170</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>171</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>172</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>173</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>174</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>175</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>176</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>177</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>178</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>179</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>180</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>181</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>182</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>183</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>184</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>185</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>186</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>187</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>188</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>189</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AS1" t="s">
         <v>190</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AT1" t="s">
         <v>191</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AU1" t="s">
         <v>192</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AV1" t="s">
         <v>193</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AW1" t="s">
         <v>194</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AX1" t="s">
         <v>195</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AY1" t="s">
         <v>196</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AZ1" t="s">
         <v>197</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BA1" t="s">
         <v>198</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BB1" t="s">
         <v>199</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BC1" t="s">
         <v>200</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BD1" t="s">
         <v>201</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BE1" t="s">
         <v>202</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BF1" t="s">
         <v>203</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BG1" t="s">
         <v>204</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BH1" t="s">
         <v>205</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BI1" t="s">
         <v>206</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BJ1" t="s">
         <v>207</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BK1" t="s">
         <v>208</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BL1" t="s">
         <v>209</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BM1" t="s">
+        <v>242</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>246</v>
+      </c>
+      <c r="BO1" t="s">
         <v>210</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BP1" t="s">
         <v>211</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>212</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>214</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>215</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>216</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>217</v>
       </c>
       <c r="BQ1" t="s">
         <v>218</v>
@@ -9774,61 +9775,61 @@
         <v>220</v>
       </c>
       <c r="BT1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="BU1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="BV1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>228</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>231</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>232</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>233</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>235</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>236</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>237</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>238</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>239</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>243</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>247</v>
+      </c>
+      <c r="CK1" t="s">
         <v>223</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CL1" t="s">
         <v>224</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>225</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>226</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>227</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>228</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>229</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>230</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>231</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>232</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>233</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>234</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>235</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>236</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>237</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>238</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:90" x14ac:dyDescent="0.25">
@@ -14729,7 +14730,7 @@
     </row>
     <row r="20" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="B20">
         <v>0.13918765517654272</v>
@@ -15001,7 +15002,7 @@
     </row>
     <row r="21" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>171</v>
+        <v>244</v>
       </c>
       <c r="B21">
         <v>0.28415403649826682</v>
@@ -15273,7 +15274,7 @@
     </row>
     <row r="22" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B22">
         <v>6.9793857432490693E-3</v>
@@ -15545,7 +15546,7 @@
     </row>
     <row r="23" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B23">
         <v>6.1035924032137885</v>
@@ -15817,7 +15818,7 @@
     </row>
     <row r="24" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B24">
         <v>-1.1334517259423305E-2</v>
@@ -16089,7 +16090,7 @@
     </row>
     <row r="25" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B25">
         <v>-5.4023759982192561E-2</v>
@@ -16361,7 +16362,7 @@
     </row>
     <row r="26" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B26">
         <v>3.4610235235235653E-4</v>
@@ -16633,7 +16634,7 @@
     </row>
     <row r="27" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B27">
         <v>-0.20883063050652023</v>
@@ -16905,7 +16906,7 @@
     </row>
     <row r="28" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B28">
         <v>-0.48421319186184641</v>
@@ -17177,7 +17178,7 @@
     </row>
     <row r="29" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B29">
         <v>8.4557928014271005E-2</v>
@@ -17449,7 +17450,7 @@
     </row>
     <row r="30" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B30">
         <v>-0.54075332060403125</v>
@@ -17721,7 +17722,7 @@
     </row>
     <row r="31" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B31">
         <v>-4.3068124451262582E-2</v>
@@ -17993,7 +17994,7 @@
     </row>
     <row r="32" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B32">
         <v>-4.6768912196402751E-2</v>
@@ -18265,7 +18266,7 @@
     </row>
     <row r="33" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B33">
         <v>0.2915803492209198</v>
@@ -18537,7 +18538,7 @@
     </row>
     <row r="34" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B34">
         <v>0.56173413896624114</v>
@@ -18809,7 +18810,7 @@
     </row>
     <row r="35" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B35">
         <v>-4.90926690103346</v>
@@ -19081,7 +19082,7 @@
     </row>
     <row r="36" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B36">
         <v>-4.3210661938173125</v>
@@ -19353,7 +19354,7 @@
     </row>
     <row r="37" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B37">
         <v>-1.9853268165380467</v>
@@ -19625,7 +19626,7 @@
     </row>
     <row r="38" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B38">
         <v>-0.55341757534729175</v>
@@ -19897,7 +19898,7 @@
     </row>
     <row r="39" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B39">
         <v>0.10241412756803844</v>
@@ -20169,7 +20170,7 @@
     </row>
     <row r="40" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B40">
         <v>-0.15418569046866898</v>
@@ -20441,7 +20442,7 @@
     </row>
     <row r="41" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B41">
         <v>3.8644794605721025E-2</v>
@@ -20713,7 +20714,7 @@
     </row>
     <row r="42" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="B42">
         <v>6.419236358576498E-2</v>
@@ -20985,7 +20986,7 @@
     </row>
     <row r="43" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="B43">
         <v>1.7714248972645619E-3</v>
@@ -21257,7 +21258,7 @@
     </row>
     <row r="44" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B44">
         <v>4.6145216725518357E-2</v>
@@ -21529,7 +21530,7 @@
     </row>
     <row r="45" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B45">
         <v>5.7250874204302002</v>
@@ -21801,7 +21802,7 @@
     </row>
     <row r="46" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B46">
         <v>5.4762357769571279E-2</v>
@@ -22073,7 +22074,7 @@
     </row>
     <row r="47" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B47">
         <v>-8.2598255741922338E-2</v>
@@ -22345,7 +22346,7 @@
     </row>
     <row r="48" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B48">
         <v>3.2807425716618877E-4</v>
@@ -22617,7 +22618,7 @@
     </row>
     <row r="49" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B49">
         <v>-0.2990986814653806</v>
@@ -22889,7 +22890,7 @@
     </row>
     <row r="50" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B50">
         <v>-0.57510199035817455</v>
@@ -23161,7 +23162,7 @@
     </row>
     <row r="51" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B51">
         <v>8.4557928014271144E-2</v>
@@ -23433,7 +23434,7 @@
     </row>
     <row r="52" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B52">
         <v>-0.27730224805291959</v>
@@ -23705,7 +23706,7 @@
     </row>
     <row r="53" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B53">
         <v>-4.3068124451262541E-2</v>
@@ -23977,7 +23978,7 @@
     </row>
     <row r="54" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B54">
         <v>-3.2650599225975352E-2</v>
@@ -24249,7 +24250,7 @@
     </row>
     <row r="55" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B55">
         <v>0.15217795835951287</v>
@@ -24521,7 +24522,7 @@
     </row>
     <row r="56" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B56">
         <v>0.35511461183420956</v>
@@ -24793,7 +24794,7 @@
     </row>
     <row r="57" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B57">
         <v>-4.6395492720954508</v>
@@ -25065,7 +25066,7 @@
     </row>
     <row r="58" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B58">
         <v>-4.3588366146166191</v>
@@ -25337,7 +25338,7 @@
     </row>
     <row r="59" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B59">
         <v>-2.9060005015505102</v>
@@ -25609,7 +25610,7 @@
     </row>
     <row r="60" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B60">
         <v>-0.82055363782535828</v>
@@ -25881,7 +25882,7 @@
     </row>
     <row r="61" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B61">
         <v>0.10241412756803876</v>
@@ -26153,7 +26154,7 @@
     </row>
     <row r="62" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B62">
         <v>-5.2740331614920664E-2</v>
@@ -26425,7 +26426,7 @@
     </row>
     <row r="63" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B63">
         <v>3.8644794605720414E-2</v>
@@ -26697,7 +26698,7 @@
     </row>
     <row r="64" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="B64">
         <v>2.4223758658090681E-2</v>
@@ -26969,7 +26970,7 @@
     </row>
     <row r="65" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="B65">
         <v>-0.13307297575868937</v>
@@ -27241,7 +27242,7 @@
     </row>
     <row r="66" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B66">
         <v>2.8828041113467685E-2</v>
@@ -27513,7 +27514,7 @@
     </row>
     <row r="67" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B67">
         <v>5.308828499605653</v>
@@ -28601,7 +28602,7 @@
     </row>
     <row r="71" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B71">
         <v>-0.3127882951906148</v>
@@ -28873,7 +28874,7 @@
     </row>
     <row r="72" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B72">
         <v>-0.5087194653233329</v>
@@ -29145,7 +29146,7 @@
     </row>
     <row r="73" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B73">
         <v>8.4557928014271061E-2</v>
@@ -29417,7 +29418,7 @@
     </row>
     <row r="74" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B74">
         <v>-0.14836932476573114</v>
@@ -29689,7 +29690,7 @@
     </row>
     <row r="75" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B75">
         <v>-4.3068124451263547E-2</v>
@@ -29961,7 +29962,7 @@
     </row>
     <row r="76" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B76">
         <v>-0.16821818318621698</v>
@@ -30233,7 +30234,7 @@
     </row>
     <row r="77" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B77">
         <v>-7.7215872750258971E-2</v>
@@ -30505,7 +30506,7 @@
     </row>
     <row r="78" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B78">
         <v>9.67485192912797E-2</v>
@@ -30777,7 +30778,7 @@
     </row>
     <row r="79" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B79">
         <v>-3.5289894020996906</v>
@@ -31049,7 +31050,7 @@
     </row>
     <row r="80" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B80">
         <v>-3.8819691199744795</v>
@@ -31321,7 +31322,7 @@
     </row>
     <row r="81" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B81">
         <v>-3.061382475790682</v>
@@ -31593,7 +31594,7 @@
     </row>
     <row r="82" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B82">
         <v>-1.9481772888360551</v>
@@ -31865,7 +31866,7 @@
     </row>
     <row r="83" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B83">
         <v>0.10241412756803916</v>
@@ -32137,7 +32138,7 @@
     </row>
     <row r="84" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B84">
         <v>0.10652922874815993</v>
@@ -32409,7 +32410,7 @@
     </row>
     <row r="85" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B85">
         <v>3.8644794605721705E-2</v>
@@ -32681,7 +32682,7 @@
     </row>
     <row r="86" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B86">
         <v>-0.14857136304979085</v>
@@ -32953,7 +32954,7 @@
     </row>
     <row r="87" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="B87">
         <v>-0.2703592783548765</v>
@@ -33225,7 +33226,7 @@
     </row>
     <row r="88" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="B88">
         <v>2.5259366999476375E-2</v>
@@ -33497,7 +33498,7 @@
     </row>
     <row r="89" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B89">
         <v>2.7922421147333627</v>
@@ -33778,7 +33779,7 @@
   <dimension ref="A1:AJ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A23" sqref="A23:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input/reg_health.xlsx
+++ b/input/reg_health.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC27F36-ABAE-45AD-898B-E8B02E971B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67CEA76-1BA9-4E2A-B1A8-B1B486DF5127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="675" activeTab="1" xr2:uid="{8F8EB3C6-ADA8-4D50-A668-C6931E9C8858}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="675" activeTab="1" xr2:uid="{8F8EB3C6-ADA8-4D50-A668-C6931E9C8858}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="10" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="244">
   <si>
     <t>REGRESSOR</t>
   </si>
@@ -684,19 +684,10 @@
     <t>Constant_Good</t>
   </si>
   <si>
-    <t>Ydses_L1_Poor</t>
-  </si>
-  <si>
     <t>Dhe_L1_Poor</t>
   </si>
   <si>
-    <t>Ydses_L1_Fair</t>
-  </si>
-  <si>
     <t>Dhe_L1_Fair</t>
-  </si>
-  <si>
-    <t>Ydses_L1_Good</t>
   </si>
   <si>
     <t>Dhe_L1_Good</t>
@@ -709,9 +700,6 @@
   </si>
   <si>
     <t>Dag_sq_VeryGood</t>
-  </si>
-  <si>
-    <t>Ydses_L1_VeryGood</t>
   </si>
   <si>
     <t>Dhe_L1_VeryGood</t>
@@ -902,7 +890,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -999,12 +987,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1335,14 +1317,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="7"/>
+    <col min="2" max="2" width="10.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>104</v>
       </c>
@@ -1350,7 +1332,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>114</v>
       </c>
@@ -1358,7 +1340,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>105</v>
       </c>
@@ -1366,7 +1348,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>106</v>
       </c>
@@ -1374,7 +1356,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="30" t="s">
         <v>109</v>
       </c>
@@ -1382,7 +1364,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>111</v>
       </c>
@@ -1391,7 +1373,7 @@
         <v>Ordered probit regression estimates of self reported health status - individuals aged 16-29 in continuous education</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>112</v>
       </c>
@@ -1400,7 +1382,7 @@
         <v>Ordered probit regression estimates of self reported health status - individuals aged 16+ not in continuous education</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>113</v>
       </c>
@@ -1409,7 +1391,7 @@
         <v>Probit regression estimates for being long-term sick or disabled - people aged 16 to 54 not in continuous education</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="29"/>
     </row>
   </sheetData>
@@ -1423,13 +1405,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.86328125" customWidth="1"/>
+    <col min="2" max="2" width="16.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1506,7 +1488,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -1583,7 +1565,7 @@
         <v>2.6191855146203979E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1660,7 +1642,7 @@
         <v>-1.3717768004876951E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1737,7 +1719,7 @@
         <v>-4.4673089869486527E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1814,7 +1796,7 @@
         <v>5.4353493851111521E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -1891,7 +1873,7 @@
         <v>-6.3267228548995691E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -1968,7 +1950,7 @@
         <v>-9.316019381131424E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -2045,7 +2027,7 @@
         <v>-7.2768108966953515E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -2122,7 +2104,7 @@
         <v>-3.6183741148836199E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -2199,7 +2181,7 @@
         <v>-1.4079962577235039E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -2276,7 +2258,7 @@
         <v>-4.051801489143414E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -2353,7 +2335,7 @@
         <v>-5.4423299341405329E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2430,7 +2412,7 @@
         <v>-6.1808299958924451E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -2507,7 +2489,7 @@
         <v>1.2337782979826156E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -2584,7 +2566,7 @@
         <v>2.9073078868146585E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -2661,7 +2643,7 @@
         <v>8.8037451188124061E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -2738,7 +2720,7 @@
         <v>2.4463290942026289E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -2815,7 +2797,7 @@
         <v>3.4645736524235859E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -2892,7 +2874,7 @@
         <v>1.1228080157596187E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>96</v>
       </c>
@@ -2969,7 +2951,7 @@
         <v>-5.2697736492187119E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -3046,7 +3028,7 @@
         <v>-1.958915164026287E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>98</v>
       </c>
@@ -3123,7 +3105,7 @@
         <v>-3.518530031830347E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -3200,7 +3182,7 @@
         <v>-4.1855103351621015E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -3290,44 +3272,44 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="42.85546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="42.86328125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="7.59765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.265625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="6.59765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.59765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.59765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1328125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="I1" s="49" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="I1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-    </row>
-    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+    </row>
+    <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -3350,7 +3332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
@@ -3361,7 +3343,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
@@ -3384,7 +3366,7 @@
         <v>5.9354791842140257E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
@@ -3407,7 +3389,7 @@
         <v>9.1213127916682374E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
@@ -3430,7 +3412,7 @@
         <v>4.8006972688848393E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -3438,7 +3420,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
@@ -3449,7 +3431,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="15" t="s">
         <v>16</v>
       </c>
@@ -3472,7 +3454,7 @@
         <v>2.9139153218642751E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
         <v>17</v>
       </c>
@@ -3495,7 +3477,7 @@
         <v>3.8996027922756776E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="15" t="s">
         <v>18</v>
       </c>
@@ -3518,7 +3500,7 @@
         <v>7.7042680333057306E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
         <v>19</v>
       </c>
@@ -3541,7 +3523,7 @@
         <v>7.5466045673173804E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="16" t="s">
         <v>20</v>
       </c>
@@ -3564,7 +3546,7 @@
         <v>0.38614273805359378</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -3573,7 +3555,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>86</v>
       </c>
@@ -3584,7 +3566,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
         <v>87</v>
       </c>
@@ -3607,7 +3589,7 @@
         <v>2.2488436368301584E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="11" t="s">
         <v>88</v>
       </c>
@@ -3630,7 +3612,7 @@
         <v>1.2691686017225954E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="11" t="s">
         <v>89</v>
       </c>
@@ -3653,7 +3635,7 @@
         <v>8.175517429916565E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="11" t="s">
         <v>90</v>
       </c>
@@ -3676,7 +3658,7 @@
         <v>5.9460010529588665E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="16" t="s">
         <v>74</v>
       </c>
@@ -3699,7 +3681,7 @@
         <v>2.6414234586726775E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="16" t="s">
         <v>33</v>
       </c>
@@ -3722,7 +3704,7 @@
         <v>18.514763650683591</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
         <v>34</v>
       </c>
@@ -3730,7 +3712,7 @@
         <v>12074</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="19" t="s">
         <v>91</v>
       </c>
@@ -3738,7 +3720,7 @@
         <v>52.34</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="8" t="s">
         <v>35</v>
       </c>
@@ -3746,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="8" t="s">
         <v>36</v>
       </c>
@@ -3754,7 +3736,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="8" t="s">
         <v>37</v>
       </c>
@@ -3779,37 +3761,37 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="42.85546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="42.86328125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="7.59765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.73046875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="6.59765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.59765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.59765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1328125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="I1" s="49" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="I1" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-    </row>
-    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+    </row>
+    <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -3832,7 +3814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
@@ -3843,7 +3825,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
@@ -3866,7 +3848,7 @@
         <v>3.0455389532317308E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
@@ -3889,7 +3871,7 @@
         <v>-6.7114763888718575E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
@@ -3912,7 +3894,7 @@
         <v>-8.6471375629890547E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -3920,7 +3902,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>59</v>
       </c>
@@ -3931,7 +3913,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="15" t="s">
         <v>60</v>
       </c>
@@ -3954,7 +3936,7 @@
         <v>-4.0486868183757907E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
         <v>61</v>
       </c>
@@ -3977,7 +3959,7 @@
         <v>-0.13120337335196702</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="10"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -3986,7 +3968,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="16" t="s">
         <v>62</v>
       </c>
@@ -3997,7 +3979,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="15" t="s">
         <v>63</v>
       </c>
@@ -4020,7 +4002,7 @@
         <v>5.3050940709072722E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
         <v>64</v>
       </c>
@@ -4043,7 +4025,7 @@
         <v>-1.2351184643114925E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="10"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -4052,7 +4034,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="14" t="s">
         <v>15</v>
       </c>
@@ -4063,7 +4045,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="15" t="s">
         <v>16</v>
       </c>
@@ -4086,7 +4068,7 @@
         <v>4.3393443248265592E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="15" t="s">
         <v>17</v>
       </c>
@@ -4109,7 +4091,7 @@
         <v>5.277603031757877E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="15" t="s">
         <v>18</v>
       </c>
@@ -4132,7 +4114,7 @@
         <v>9.2063665449456239E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="15" t="s">
         <v>19</v>
       </c>
@@ -4155,7 +4137,7 @@
         <v>0.12939366402150729</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="16" t="s">
         <v>20</v>
       </c>
@@ -4178,7 +4160,7 @@
         <v>0.45841659387649175</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="16"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -4187,7 +4169,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A24" s="23" t="s">
         <v>65</v>
       </c>
@@ -4198,7 +4180,7 @@
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="24" t="s">
         <v>66</v>
       </c>
@@ -4221,7 +4203,7 @@
         <v>1.3083400431115248E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="24" t="s">
         <v>67</v>
       </c>
@@ -4244,7 +4226,7 @@
         <v>-2.5598210011962177E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="24" t="s">
         <v>68</v>
       </c>
@@ -4267,7 +4249,7 @@
         <v>-9.5295922212199173E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="10"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -4276,7 +4258,7 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="8" t="s">
         <v>86</v>
       </c>
@@ -4287,7 +4269,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="11" t="s">
         <v>87</v>
       </c>
@@ -4310,7 +4292,7 @@
         <v>-6.7056807070133683E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="11" t="s">
         <v>88</v>
       </c>
@@ -4333,7 +4315,7 @@
         <v>1.434968527943865E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="11" t="s">
         <v>89</v>
       </c>
@@ -4356,7 +4338,7 @@
         <v>-1.1969372414564725E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="11" t="s">
         <v>90</v>
       </c>
@@ -4379,7 +4361,7 @@
         <v>-7.5503623195364161E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="16" t="s">
         <v>74</v>
       </c>
@@ -4402,7 +4384,7 @@
         <v>1.4095207065597047E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="16" t="s">
         <v>33</v>
       </c>
@@ -4425,7 +4407,7 @@
         <v>-21.305352557244476</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="8" t="s">
         <v>34</v>
       </c>
@@ -4433,7 +4415,7 @@
         <v>209998</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="19" t="s">
         <v>92</v>
       </c>
@@ -4441,7 +4423,7 @@
         <v>4569.76</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="8" t="s">
         <v>35</v>
       </c>
@@ -4449,7 +4431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="8" t="s">
         <v>36</v>
       </c>
@@ -4457,7 +4439,7 @@
         <v>0.4506</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="8" t="s">
         <v>37</v>
       </c>
@@ -4482,44 +4464,44 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="41.265625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.86328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.59765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.59765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1328125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="I1" s="50" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="I1" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="19" t="s">
         <v>75</v>
       </c>
@@ -4542,7 +4524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="25" t="s">
         <v>77</v>
       </c>
@@ -4565,7 +4547,7 @@
         <v>-0.40782028036921086</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="10"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -4574,7 +4556,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -4585,7 +4567,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
@@ -4608,7 +4590,7 @@
         <v>0.21004295379427881</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -4631,7 +4613,7 @@
         <v>5.7608350577795148E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
@@ -4654,7 +4636,7 @@
         <v>-4.9432135038106947E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="10"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -4663,7 +4645,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>59</v>
       </c>
@@ -4674,7 +4656,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="15" t="s">
         <v>60</v>
       </c>
@@ -4697,7 +4679,7 @@
         <v>0.2440206050941629</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
         <v>61</v>
       </c>
@@ -4720,7 +4702,7 @@
         <v>0.38162693664236336</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="16" t="s">
         <v>62</v>
       </c>
@@ -4731,7 +4713,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
@@ -4754,7 +4736,7 @@
         <v>0.65222982359095061</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
@@ -4777,7 +4759,7 @@
         <v>0.60922136663906867</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="10"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -4786,7 +4768,7 @@
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="14" t="s">
         <v>15</v>
       </c>
@@ -4797,7 +4779,7 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="15" t="s">
         <v>16</v>
       </c>
@@ -4820,7 +4802,7 @@
         <v>-0.1590252328562875</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="15" t="s">
         <v>17</v>
       </c>
@@ -4843,7 +4825,7 @@
         <v>-0.11809954234423235</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="15" t="s">
         <v>18</v>
       </c>
@@ -4866,7 +4848,7 @@
         <v>-0.22878621173638425</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="15" t="s">
         <v>19</v>
       </c>
@@ -4889,7 +4871,7 @@
         <v>-0.17698487373110305</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="16" t="s">
         <v>20</v>
       </c>
@@ -4912,7 +4894,7 @@
         <v>-0.11101084752344262</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="16" t="s">
         <v>78</v>
       </c>
@@ -4935,7 +4917,7 @@
         <v>1.7432102238569165</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="16"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -4944,7 +4926,7 @@
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27" s="23" t="s">
         <v>65</v>
       </c>
@@ -4955,7 +4937,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="24" t="s">
         <v>66</v>
       </c>
@@ -4978,7 +4960,7 @@
         <v>-4.2549602423638505E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="24" t="s">
         <v>67</v>
       </c>
@@ -5001,7 +4983,7 @@
         <v>0.30063024864655719</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="24" t="s">
         <v>68</v>
       </c>
@@ -5024,7 +5006,7 @@
         <v>0.20506213418464442</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="10"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -5033,7 +5015,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="8" t="s">
         <v>86</v>
       </c>
@@ -5044,7 +5026,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="11" t="s">
         <v>87</v>
       </c>
@@ -5067,7 +5049,7 @@
         <v>-3.3745325273128457E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="11" t="s">
         <v>88</v>
       </c>
@@ -5090,7 +5072,7 @@
         <v>1.4736094674571668E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="11" t="s">
         <v>89</v>
       </c>
@@ -5113,7 +5095,7 @@
         <v>1.3649161701752704E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="11" t="s">
         <v>90</v>
       </c>
@@ -5136,7 +5118,7 @@
         <v>-1.8756289714721541E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="16" t="s">
         <v>74</v>
       </c>
@@ -5159,7 +5141,7 @@
         <v>8.2734274912881507E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="16" t="s">
         <v>33</v>
       </c>
@@ -5182,7 +5164,7 @@
         <v>17.647829517528201</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="8" t="s">
         <v>34</v>
       </c>
@@ -5190,7 +5172,7 @@
         <v>209998</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="19" t="s">
         <v>94</v>
       </c>
@@ -5198,7 +5180,7 @@
         <v>6319.7</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="8" t="s">
         <v>79</v>
       </c>
@@ -5206,7 +5188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="8" t="s">
         <v>80</v>
       </c>
@@ -5214,7 +5196,7 @@
         <v>0.44230000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="8" t="s">
         <v>81</v>
       </c>
@@ -5235,25 +5217,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26849F9A-6EEB-4F2B-B83B-7A1F9C42C79C}">
   <dimension ref="A1:AL37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="29" width="9.140625" customWidth="1"/>
-    <col min="30" max="36" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.1328125" customWidth="1"/>
+    <col min="2" max="2" width="13.86328125" customWidth="1"/>
+    <col min="3" max="29" width="9.1328125" customWidth="1"/>
+    <col min="30" max="36" width="9.265625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -5266,16 +5246,16 @@
         <v>154</v>
       </c>
       <c r="F1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" t="s">
         <v>212</v>
       </c>
-      <c r="G1" t="s">
-        <v>213</v>
-      </c>
       <c r="H1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I1" t="s">
         <v>240</v>
-      </c>
-      <c r="I1" t="s">
-        <v>244</v>
       </c>
       <c r="J1" t="s">
         <v>170</v>
@@ -5293,16 +5273,16 @@
         <v>174</v>
       </c>
       <c r="O1" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="P1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Q1" t="s">
+        <v>237</v>
+      </c>
+      <c r="R1" t="s">
         <v>241</v>
-      </c>
-      <c r="R1" t="s">
-        <v>245</v>
       </c>
       <c r="S1" t="s">
         <v>190</v>
@@ -5320,16 +5300,16 @@
         <v>194</v>
       </c>
       <c r="X1" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="Y1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Z1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA1" t="s">
         <v>242</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>246</v>
       </c>
       <c r="AB1" t="s">
         <v>210</v>
@@ -5338,119 +5318,119 @@
         <v>211</v>
       </c>
       <c r="AD1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH1" t="s">
         <v>218</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AK1" t="s">
         <v>219</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AL1" t="s">
         <v>220</v>
       </c>
-      <c r="AG1" t="s">
-        <v>221</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2">
         <v>4.7957223317056423E-2</v>
       </c>
-      <c r="C2" s="46">
+      <c r="C2">
         <v>2.0579093451348058E-3</v>
       </c>
-      <c r="D2" s="46">
+      <c r="D2">
         <v>2.4440201837069587E-4</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2">
         <v>-6.2161712884245413E-6</v>
       </c>
-      <c r="F2" s="46">
+      <c r="F2">
         <v>3.8871225821754702E-5</v>
       </c>
-      <c r="G2" s="46">
+      <c r="G2">
         <v>-8.1357253790773608E-5</v>
       </c>
-      <c r="H2" s="46">
+      <c r="H2">
         <v>-7.683525442903259E-5</v>
       </c>
-      <c r="I2" s="46">
+      <c r="I2">
         <v>1.0802423045881877E-5</v>
       </c>
-      <c r="J2" s="46">
+      <c r="J2">
         <v>-1.228257843213088E-5</v>
       </c>
-      <c r="K2" s="46">
+      <c r="K2">
         <v>-2.8017574428631947E-3</v>
       </c>
-      <c r="L2" s="46">
+      <c r="L2">
         <v>2.0579093451348106E-3</v>
       </c>
-      <c r="M2" s="46">
+      <c r="M2">
         <v>2.4440201837061374E-4</v>
       </c>
-      <c r="N2" s="46">
+      <c r="N2">
         <v>-5.0150654907449803E-6</v>
       </c>
-      <c r="O2" s="46">
+      <c r="O2">
         <v>3.8871225821689908E-5</v>
       </c>
-      <c r="P2" s="46">
+      <c r="P2">
         <v>-8.1357253790772252E-5</v>
       </c>
-      <c r="Q2" s="46">
+      <c r="Q2">
         <v>-7.6835254429039244E-5</v>
       </c>
-      <c r="R2" s="46">
+      <c r="R2">
         <v>1.0802423045879058E-5</v>
       </c>
-      <c r="S2" s="46">
+      <c r="S2">
         <v>-1.2282578432133153E-5</v>
       </c>
-      <c r="T2" s="46">
+      <c r="T2">
         <v>-3.5142619861228421E-3</v>
       </c>
-      <c r="U2" s="46">
+      <c r="U2">
         <v>2.0579093451348006E-3</v>
       </c>
-      <c r="V2" s="46">
+      <c r="V2">
         <v>2.4440201837114066E-4</v>
       </c>
-      <c r="W2" s="46">
+      <c r="W2">
         <v>-5.2785767817463886E-6</v>
       </c>
-      <c r="X2" s="46">
+      <c r="X2">
         <v>3.8871225821715E-5</v>
       </c>
-      <c r="Y2" s="46">
+      <c r="Y2">
         <v>-8.1357253790749701E-5</v>
       </c>
-      <c r="Z2" s="46">
+      <c r="Z2">
         <v>-7.683525442902519E-5</v>
       </c>
-      <c r="AA2" s="46">
+      <c r="AA2">
         <v>1.0802423045884371E-5</v>
       </c>
-      <c r="AB2" s="46">
+      <c r="AB2">
         <v>-1.2282578432135667E-5</v>
       </c>
-      <c r="AC2" s="46">
+      <c r="AC2">
         <v>-3.3408237372306309E-3</v>
       </c>
       <c r="AD2">
@@ -5481,92 +5461,92 @@
         <v>-3.1466336474070397E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3">
         <v>1.8095891546568421</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3">
         <v>2.4440201837069587E-4</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3">
         <v>2.9805168321957107E-2</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3">
         <v>-6.7422310703128916E-4</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3">
         <v>1.958720117129051E-3</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3">
         <v>1.9198479886554445E-3</v>
       </c>
-      <c r="H3" s="47">
+      <c r="H3">
         <v>3.5695600569846109E-4</v>
       </c>
-      <c r="I3" s="46">
+      <c r="I3">
         <v>4.1076806388001645E-4</v>
       </c>
-      <c r="J3" s="46">
+      <c r="J3">
         <v>6.5399108044422423E-5</v>
       </c>
-      <c r="K3" s="46">
+      <c r="K3">
         <v>-0.33846616290197329</v>
       </c>
-      <c r="L3" s="46">
+      <c r="L3">
         <v>2.4440201837155093E-4</v>
       </c>
-      <c r="M3" s="46">
+      <c r="M3">
         <v>2.9805168321949002E-2</v>
       </c>
-      <c r="N3" s="46">
+      <c r="N3">
         <v>-6.9039398765925611E-4</v>
       </c>
-      <c r="O3" s="46">
+      <c r="O3">
         <v>1.9587201171212161E-3</v>
       </c>
-      <c r="P3" s="46">
+      <c r="P3">
         <v>1.919847988654716E-3</v>
       </c>
-      <c r="Q3" s="46">
+      <c r="Q3">
         <v>3.5695600569828762E-4</v>
       </c>
-      <c r="R3" s="46">
+      <c r="R3">
         <v>4.1076806388033217E-4</v>
       </c>
-      <c r="S3" s="46">
+      <c r="S3">
         <v>6.539910804441852E-5</v>
       </c>
-      <c r="T3" s="46">
+      <c r="T3">
         <v>-0.32979378749557076</v>
       </c>
-      <c r="U3" s="46">
+      <c r="U3">
         <v>2.4440201837016662E-4</v>
       </c>
-      <c r="V3" s="46">
+      <c r="V3">
         <v>2.9805168321976789E-2</v>
       </c>
-      <c r="W3" s="46">
+      <c r="W3">
         <v>-6.9370689065509329E-4</v>
       </c>
-      <c r="X3" s="46">
+      <c r="X3">
         <v>1.9587201171258868E-3</v>
       </c>
-      <c r="Y3" s="46">
+      <c r="Y3">
         <v>1.9198479886585185E-3</v>
       </c>
-      <c r="Z3" s="46">
+      <c r="Z3">
         <v>3.5695600569966845E-4</v>
       </c>
-      <c r="AA3" s="46">
+      <c r="AA3">
         <v>4.1076806388059758E-4</v>
       </c>
-      <c r="AB3" s="46">
+      <c r="AB3">
         <v>6.5399108044086971E-5</v>
       </c>
-      <c r="AC3" s="46">
+      <c r="AC3">
         <v>-0.32915759022558938</v>
       </c>
       <c r="AD3">
@@ -5597,92 +5577,92 @@
         <v>-0.32782208371058508</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4">
         <v>-4.608856265691675E-2</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4">
         <v>-6.2161712884245413E-6</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4">
         <v>-6.7422310703128916E-4</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4">
         <v>2.5664471235754797E-5</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4">
         <v>-4.1902304407297769E-5</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4">
         <v>-4.6357463169213612E-5</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4">
         <v>-4.5393253104006521E-6</v>
       </c>
-      <c r="I4" s="46">
+      <c r="I4">
         <v>-7.9052932085504836E-6</v>
       </c>
-      <c r="J4" s="46">
+      <c r="J4">
         <v>-1.5902023290385162E-6</v>
       </c>
-      <c r="K4" s="46">
+      <c r="K4">
         <v>2.7968755200296833E-3</v>
       </c>
-      <c r="L4" s="46">
+      <c r="L4">
         <v>-6.2161712884585107E-6</v>
       </c>
-      <c r="M4" s="46">
+      <c r="M4">
         <v>-6.7422310703271131E-4</v>
       </c>
-      <c r="N4" s="46">
+      <c r="N4">
         <v>1.7328612454282528E-5</v>
       </c>
-      <c r="O4" s="46">
+      <c r="O4">
         <v>-4.1902304407114566E-5</v>
       </c>
-      <c r="P4" s="46">
+      <c r="P4">
         <v>-4.6357463169195072E-5</v>
       </c>
-      <c r="Q4" s="46">
+      <c r="Q4">
         <v>-4.539325310396749E-6</v>
       </c>
-      <c r="R4" s="46">
+      <c r="R4">
         <v>-7.9052932085569346E-6</v>
       </c>
-      <c r="S4" s="46">
+      <c r="S4">
         <v>-1.5902023290381909E-6</v>
       </c>
-      <c r="T4" s="46">
+      <c r="T4">
         <v>6.7704267696005512E-3</v>
       </c>
-      <c r="U4" s="46">
+      <c r="U4">
         <v>-6.216171288425944E-6</v>
       </c>
-      <c r="V4" s="46">
+      <c r="V4">
         <v>-6.742231070338211E-4</v>
       </c>
-      <c r="W4" s="46">
+      <c r="W4">
         <v>1.5958448619620834E-5</v>
       </c>
-      <c r="X4" s="46">
+      <c r="X4">
         <v>-4.1902304407224843E-5</v>
       </c>
-      <c r="Y4" s="46">
+      <c r="Y4">
         <v>-4.635746316928376E-5</v>
       </c>
-      <c r="Z4" s="46">
+      <c r="Z4">
         <v>-4.5393253104295461E-6</v>
       </c>
-      <c r="AA4" s="46">
+      <c r="AA4">
         <v>-7.9052932085636567E-6</v>
       </c>
-      <c r="AB4" s="46">
+      <c r="AB4">
         <v>-1.5902023290306218E-6</v>
       </c>
-      <c r="AC4" s="46">
+      <c r="AC4">
         <v>7.3434046314924369E-3</v>
       </c>
       <c r="AD4">
@@ -5713,92 +5693,92 @@
         <v>7.4120653010988757E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5">
         <v>0.11210477498055732</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5">
         <v>3.8871225821754702E-5</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5">
         <v>1.958720117129051E-3</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5">
         <v>-4.1902304407297769E-5</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5">
         <v>5.1668018538719837E-4</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5">
         <v>1.1752413294954973E-5</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H5">
         <v>8.1580454641811111E-5</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5">
         <v>9.2403391488414185E-5</v>
       </c>
-      <c r="J5" s="46">
+      <c r="J5">
         <v>-6.0565880512638767E-6</v>
       </c>
-      <c r="K5" s="46">
+      <c r="K5">
         <v>-2.3766290393598413E-2</v>
       </c>
-      <c r="L5" s="46">
+      <c r="L5">
         <v>3.8871225821768241E-5</v>
       </c>
-      <c r="M5" s="46">
+      <c r="M5">
         <v>1.9587201171246977E-3</v>
       </c>
-      <c r="N5" s="46">
+      <c r="N5">
         <v>-4.3398918948620798E-5</v>
       </c>
-      <c r="O5" s="46">
+      <c r="O5">
         <v>5.1668018538665291E-4</v>
       </c>
-      <c r="P5" s="46">
+      <c r="P5">
         <v>1.1752413294892957E-5</v>
       </c>
-      <c r="Q5" s="46">
+      <c r="Q5">
         <v>8.158045464179268E-5</v>
       </c>
-      <c r="R5" s="46">
+      <c r="R5">
         <v>9.2403391488432725E-5</v>
       </c>
-      <c r="S5" s="46">
+      <c r="S5">
         <v>-6.0565880512614644E-6</v>
       </c>
-      <c r="T5" s="46">
+      <c r="T5">
         <v>-2.2871562037919874E-2</v>
       </c>
-      <c r="U5" s="46">
+      <c r="U5">
         <v>3.8871225821677439E-5</v>
       </c>
-      <c r="V5" s="46">
+      <c r="V5">
         <v>1.9587201171278878E-3</v>
       </c>
-      <c r="W5" s="46">
+      <c r="W5">
         <v>-4.3303073613973934E-5</v>
       </c>
-      <c r="X5" s="46">
+      <c r="X5">
         <v>5.1668018538697145E-4</v>
       </c>
-      <c r="Y5" s="46">
+      <c r="Y5">
         <v>1.1752413295131048E-5</v>
       </c>
-      <c r="Z5" s="46">
+      <c r="Z5">
         <v>8.1580454641885054E-5</v>
       </c>
-      <c r="AA5" s="46">
+      <c r="AA5">
         <v>9.2403391488451374E-5</v>
       </c>
-      <c r="AB5" s="46">
+      <c r="AB5">
         <v>-6.0565880512849645E-6</v>
       </c>
-      <c r="AC5" s="46">
+      <c r="AC5">
         <v>-2.2917219103627869E-2</v>
       </c>
       <c r="AD5">
@@ -5829,92 +5809,92 @@
         <v>-2.283844166061761E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B6" s="46">
+        <v>212</v>
+      </c>
+      <c r="B6">
         <v>1.9445940692169863</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6">
         <v>-8.1357253790773608E-5</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6">
         <v>1.9198479886554445E-3</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6">
         <v>-4.6357463169213612E-5</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6">
         <v>1.1752413294954973E-5</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6">
         <v>2.3958904604175248E-3</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H6">
         <v>1.2214490577302172E-4</v>
       </c>
-      <c r="I6" s="46">
+      <c r="I6">
         <v>1.6368351774965909E-4</v>
       </c>
-      <c r="J6" s="46">
+      <c r="J6">
         <v>1.3878993418569972E-5</v>
       </c>
-      <c r="K6" s="46">
+      <c r="K6">
         <v>-2.735625710853281E-2</v>
       </c>
-      <c r="L6" s="46">
+      <c r="L6">
         <v>-8.1357253790760597E-5</v>
       </c>
-      <c r="M6" s="46">
+      <c r="M6">
         <v>1.919847988649118E-3</v>
       </c>
-      <c r="N6" s="46">
+      <c r="N6">
         <v>-4.4830521583513308E-5</v>
       </c>
-      <c r="O6" s="46">
+      <c r="O6">
         <v>1.1752413294411571E-5</v>
       </c>
-      <c r="P6" s="46">
+      <c r="P6">
         <v>2.3958904604175885E-3</v>
       </c>
-      <c r="Q6" s="46">
+      <c r="Q6">
         <v>1.2214490577300502E-4</v>
       </c>
-      <c r="R6" s="46">
+      <c r="R6">
         <v>1.6368351774968229E-4</v>
       </c>
-      <c r="S6" s="46">
+      <c r="S6">
         <v>1.3878993418568047E-5</v>
       </c>
-      <c r="T6" s="46">
+      <c r="T6">
         <v>-2.9124980529094558E-2</v>
       </c>
-      <c r="U6" s="46">
+      <c r="U6">
         <v>-8.1357253790850207E-5</v>
       </c>
-      <c r="V6" s="46">
+      <c r="V6">
         <v>1.9198479886536695E-3</v>
       </c>
-      <c r="W6" s="46">
+      <c r="W6">
         <v>-4.4111942917845798E-5</v>
       </c>
-      <c r="X6" s="46">
+      <c r="X6">
         <v>1.1752413294614751E-5</v>
       </c>
-      <c r="Y6" s="46">
+      <c r="Y6">
         <v>2.3958904604176536E-3</v>
       </c>
-      <c r="Z6" s="46">
+      <c r="Z6">
         <v>1.2214490577310347E-4</v>
       </c>
-      <c r="AA6" s="46">
+      <c r="AA6">
         <v>1.6368351774970766E-4</v>
       </c>
-      <c r="AB6" s="46">
+      <c r="AB6">
         <v>1.3878993418547827E-5</v>
       </c>
-      <c r="AC6" s="46">
+      <c r="AC6">
         <v>-3.0549007873232767E-2</v>
       </c>
       <c r="AD6">
@@ -5945,92 +5925,92 @@
         <v>-3.2124587852342665E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B7" s="46">
+        <v>236</v>
+      </c>
+      <c r="B7">
         <v>6.2654924397043454E-2</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7">
         <v>-7.683525442903259E-5</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7">
         <v>3.5695600569846109E-4</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7">
         <v>-4.5393253104006521E-6</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7">
         <v>8.1580454641811111E-5</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7">
         <v>1.2214490577302172E-4</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H7">
         <v>4.7347903191299881E-3</v>
       </c>
-      <c r="I7" s="46">
+      <c r="I7">
         <v>2.7744094127375991E-3</v>
       </c>
-      <c r="J7" s="46">
+      <c r="J7">
         <v>-2.8009313066154932E-5</v>
       </c>
-      <c r="K7" s="46">
+      <c r="K7">
         <v>-8.0922619082370618E-3</v>
       </c>
-      <c r="L7" s="46">
+      <c r="L7">
         <v>-7.6835254429020596E-5</v>
       </c>
-      <c r="M7" s="46">
+      <c r="M7">
         <v>3.5695600569880261E-4</v>
       </c>
-      <c r="N7" s="46">
+      <c r="N7">
         <v>-6.4141972458106931E-6</v>
       </c>
-      <c r="O7" s="46">
+      <c r="O7">
         <v>8.158045464180195E-5</v>
       </c>
-      <c r="P7" s="46">
+      <c r="P7">
         <v>1.2214490577312705E-4</v>
       </c>
-      <c r="Q7" s="46">
+      <c r="Q7">
         <v>4.7347903191299725E-3</v>
       </c>
-      <c r="R7" s="46">
+      <c r="R7">
         <v>2.7744094127375931E-3</v>
       </c>
-      <c r="S7" s="46">
+      <c r="S7">
         <v>-2.8009313066162416E-5</v>
       </c>
-      <c r="T7" s="46">
+      <c r="T7">
         <v>-7.6835051413862024E-3</v>
       </c>
-      <c r="U7" s="46">
+      <c r="U7">
         <v>-7.6835254429031465E-5</v>
       </c>
-      <c r="V7" s="46">
+      <c r="V7">
         <v>3.5695600569946392E-4</v>
       </c>
-      <c r="W7" s="46">
+      <c r="W7">
         <v>-7.8935967634108316E-6</v>
       </c>
-      <c r="X7" s="46">
+      <c r="X7">
         <v>8.1580454641897089E-5</v>
       </c>
-      <c r="Y7" s="46">
+      <c r="Y7">
         <v>1.2214490577311583E-4</v>
       </c>
-      <c r="Z7" s="46">
+      <c r="Z7">
         <v>4.7347903191299785E-3</v>
       </c>
-      <c r="AA7" s="46">
+      <c r="AA7">
         <v>2.7744094127375948E-3</v>
       </c>
-      <c r="AB7" s="46">
+      <c r="AB7">
         <v>-2.8009313066162274E-5</v>
       </c>
-      <c r="AC7" s="46">
+      <c r="AC7">
         <v>-6.9927991238971348E-3</v>
       </c>
       <c r="AD7">
@@ -6061,92 +6041,92 @@
         <v>-7.3889058913380323E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B8" s="46">
+        <v>240</v>
+      </c>
+      <c r="B8">
         <v>-9.142780929068077E-2</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8">
         <v>1.0802423045881877E-5</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8">
         <v>4.1076806388001645E-4</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8">
         <v>-7.9052932085504836E-6</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8">
         <v>9.2403391488414185E-5</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8">
         <v>1.6368351774965909E-4</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8">
         <v>2.7744094127375991E-3</v>
       </c>
-      <c r="I8" s="46">
+      <c r="I8">
         <v>3.7159031263584432E-3</v>
       </c>
-      <c r="J8" s="46">
+      <c r="J8">
         <v>-3.6211806915326003E-5</v>
       </c>
-      <c r="K8" s="46">
+      <c r="K8">
         <v>-8.2230951296829429E-3</v>
       </c>
-      <c r="L8" s="46">
+      <c r="L8">
         <v>1.0802423045892211E-5</v>
       </c>
-      <c r="M8" s="46">
+      <c r="M8">
         <v>4.107680638798799E-4</v>
       </c>
-      <c r="N8" s="46">
+      <c r="N8">
         <v>-8.8810704325522433E-6</v>
       </c>
-      <c r="O8" s="46">
+      <c r="O8">
         <v>9.2403391488367538E-5</v>
       </c>
-      <c r="P8" s="46">
+      <c r="P8">
         <v>1.6368351774975331E-4</v>
       </c>
-      <c r="Q8" s="46">
+      <c r="Q8">
         <v>2.7744094127375796E-3</v>
       </c>
-      <c r="R8" s="46">
+      <c r="R8">
         <v>3.7159031263584406E-3</v>
       </c>
-      <c r="S8" s="46">
+      <c r="S8">
         <v>-3.62118069153279E-5</v>
       </c>
-      <c r="T8" s="46">
+      <c r="T8">
         <v>-7.7784889114853959E-3</v>
       </c>
-      <c r="U8" s="46">
+      <c r="U8">
         <v>1.0802423045876863E-5</v>
       </c>
-      <c r="V8" s="46">
+      <c r="V8">
         <v>4.1076806388094529E-4</v>
       </c>
-      <c r="W8" s="46">
+      <c r="W8">
         <v>-8.5976070546360269E-6</v>
       </c>
-      <c r="X8" s="46">
+      <c r="X8">
         <v>9.2403391488467311E-5</v>
       </c>
-      <c r="Y8" s="46">
+      <c r="Y8">
         <v>1.636835177497622E-4</v>
       </c>
-      <c r="Z8" s="46">
+      <c r="Z8">
         <v>2.7744094127376013E-3</v>
       </c>
-      <c r="AA8" s="46">
+      <c r="AA8">
         <v>3.7159031263584445E-3</v>
       </c>
-      <c r="AB8" s="46">
+      <c r="AB8">
         <v>-3.6211806915331634E-5</v>
       </c>
-      <c r="AC8" s="46">
+      <c r="AC8">
         <v>-7.9878863094123564E-3</v>
       </c>
       <c r="AD8">
@@ -6177,92 +6157,92 @@
         <v>-8.1998346042545245E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>170</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9">
         <v>2.9322733083300245E-2</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9">
         <v>-1.228257843213088E-5</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9">
         <v>6.5399108044422423E-5</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9">
         <v>-1.5902023290385162E-6</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9">
         <v>-6.0565880512638767E-6</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9">
         <v>1.3878993418569972E-5</v>
       </c>
-      <c r="H9" s="47">
+      <c r="H9">
         <v>-2.8009313066154932E-5</v>
       </c>
-      <c r="I9" s="46">
+      <c r="I9">
         <v>-3.6211806915326003E-5</v>
       </c>
-      <c r="J9" s="46">
+      <c r="J9">
         <v>7.6214153394962882E-5</v>
       </c>
-      <c r="K9" s="46">
+      <c r="K9">
         <v>-1.7426946337935454E-3</v>
       </c>
-      <c r="L9" s="46">
+      <c r="L9">
         <v>-1.2282578432129057E-5</v>
       </c>
-      <c r="M9" s="46">
+      <c r="M9">
         <v>6.5399108044421014E-5</v>
       </c>
-      <c r="N9" s="46">
+      <c r="N9">
         <v>-1.5356902763145409E-6</v>
       </c>
-      <c r="O9" s="46">
+      <c r="O9">
         <v>-6.0565880512861368E-6</v>
       </c>
-      <c r="P9" s="46">
+      <c r="P9">
         <v>1.3878993418582576E-5</v>
       </c>
-      <c r="Q9" s="46">
+      <c r="Q9">
         <v>-2.8009313066160177E-5</v>
       </c>
-      <c r="R9" s="46">
+      <c r="R9">
         <v>-3.6211806915326423E-5</v>
       </c>
-      <c r="S9" s="46">
+      <c r="S9">
         <v>7.6214153394961595E-5</v>
       </c>
-      <c r="T9" s="46">
+      <c r="T9">
         <v>-1.7290067943791245E-3</v>
       </c>
-      <c r="U9" s="46">
+      <c r="U9">
         <v>-1.2282578432133428E-5</v>
       </c>
-      <c r="V9" s="46">
+      <c r="V9">
         <v>6.5399108044637963E-5</v>
       </c>
-      <c r="W9" s="46">
+      <c r="W9">
         <v>-1.5376299325477758E-6</v>
       </c>
-      <c r="X9" s="46">
+      <c r="X9">
         <v>-6.0565880512827012E-6</v>
       </c>
-      <c r="Y9" s="46">
+      <c r="Y9">
         <v>1.3878993418583877E-5</v>
       </c>
-      <c r="Z9" s="46">
+      <c r="Z9">
         <v>-2.8009313066155352E-5</v>
       </c>
-      <c r="AA9" s="46">
+      <c r="AA9">
         <v>-3.6211806915328415E-5</v>
       </c>
-      <c r="AB9" s="46">
+      <c r="AB9">
         <v>7.621415339496276E-5</v>
       </c>
-      <c r="AC9" s="46">
+      <c r="AC9">
         <v>-1.7386530695139586E-3</v>
       </c>
       <c r="AD9">
@@ -6293,92 +6273,92 @@
         <v>-1.781490889534598E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10">
         <v>-19.081528762609302</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10">
         <v>-2.8017574428631947E-3</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10">
         <v>-0.33846616290197329</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10">
         <v>2.7968755200296833E-3</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10">
         <v>-2.3766290393598413E-2</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10">
         <v>-2.735625710853281E-2</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10">
         <v>-8.0922619082370618E-3</v>
       </c>
-      <c r="I10" s="46">
+      <c r="I10">
         <v>-8.2230951296829429E-3</v>
       </c>
-      <c r="J10" s="46">
+      <c r="J10">
         <v>-1.7426946337935454E-3</v>
       </c>
-      <c r="K10" s="46">
+      <c r="K10">
         <v>6.219405020276418</v>
       </c>
-      <c r="L10" s="46">
+      <c r="L10">
         <v>-2.8017574428665336E-3</v>
       </c>
-      <c r="M10" s="46">
+      <c r="M10">
         <v>-0.33846616290112325</v>
       </c>
-      <c r="N10" s="46">
+      <c r="N10">
         <v>7.0921057345397602E-3</v>
       </c>
-      <c r="O10" s="46">
+      <c r="O10">
         <v>-2.3766290393508971E-2</v>
       </c>
-      <c r="P10" s="46">
+      <c r="P10">
         <v>-2.7356257108535065E-2</v>
       </c>
-      <c r="Q10" s="46">
+      <c r="Q10">
         <v>-8.0922619082270941E-3</v>
       </c>
-      <c r="R10" s="46">
+      <c r="R10">
         <v>-8.2230951296794752E-3</v>
       </c>
-      <c r="S10" s="46">
+      <c r="S10">
         <v>-1.7426946337918761E-3</v>
       </c>
-      <c r="T10" s="46">
+      <c r="T10">
         <v>4.0978119637307149</v>
       </c>
-      <c r="U10" s="46">
+      <c r="U10">
         <v>-2.8017574428514484E-3</v>
       </c>
-      <c r="V10" s="46">
+      <c r="V10">
         <v>-0.33846616290164899</v>
       </c>
-      <c r="W10" s="46">
+      <c r="W10">
         <v>7.7538761464506804E-3</v>
       </c>
-      <c r="X10" s="46">
+      <c r="X10">
         <v>-2.3766290393559202E-2</v>
       </c>
-      <c r="Y10" s="46">
+      <c r="Y10">
         <v>-2.7356257108576532E-2</v>
       </c>
-      <c r="Z10" s="46">
+      <c r="Z10">
         <v>-8.0922619082419711E-3</v>
       </c>
-      <c r="AA10" s="46">
+      <c r="AA10">
         <v>-8.223095129682223E-3</v>
       </c>
-      <c r="AB10" s="46">
+      <c r="AB10">
         <v>-1.7426946337881534E-3</v>
       </c>
-      <c r="AC10" s="46">
+      <c r="AC10">
         <v>3.8324131639937988</v>
       </c>
       <c r="AD10">
@@ -6409,92 +6389,92 @@
         <v>3.7789978040002516</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>172</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11">
         <v>4.795722331705863E-2</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11">
         <v>2.0579093451348106E-3</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11">
         <v>2.4440201837155093E-4</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11">
         <v>-6.2161712884585107E-6</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11">
         <v>3.8871225821768241E-5</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11">
         <v>-8.1357253790760597E-5</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11">
         <v>-7.6835254429020596E-5</v>
       </c>
-      <c r="I11" s="46">
+      <c r="I11">
         <v>1.0802423045892211E-5</v>
       </c>
-      <c r="J11" s="46">
+      <c r="J11">
         <v>-1.2282578432129057E-5</v>
       </c>
-      <c r="K11" s="46">
+      <c r="K11">
         <v>-2.8017574428665336E-3</v>
       </c>
-      <c r="L11" s="46">
+      <c r="L11">
         <v>2.057909345134815E-3</v>
       </c>
-      <c r="M11" s="46">
+      <c r="M11">
         <v>2.4440201837064085E-4</v>
       </c>
-      <c r="N11" s="46">
+      <c r="N11">
         <v>-5.0150654907456071E-6</v>
       </c>
-      <c r="O11" s="46">
+      <c r="O11">
         <v>3.8871225821691981E-5</v>
       </c>
-      <c r="P11" s="46">
+      <c r="P11">
         <v>-8.1357253790769921E-5</v>
       </c>
-      <c r="Q11" s="46">
+      <c r="Q11">
         <v>-7.6835254429038946E-5</v>
       </c>
-      <c r="R11" s="46">
+      <c r="R11">
         <v>1.0802423045879302E-5</v>
       </c>
-      <c r="S11" s="46">
+      <c r="S11">
         <v>-1.2282578432133019E-5</v>
       </c>
-      <c r="T11" s="46">
+      <c r="T11">
         <v>-3.5142619861231617E-3</v>
       </c>
-      <c r="U11" s="46">
+      <c r="U11">
         <v>2.0579093451348019E-3</v>
       </c>
-      <c r="V11" s="46">
+      <c r="V11">
         <v>2.4440201837116809E-4</v>
       </c>
-      <c r="W11" s="46">
+      <c r="W11">
         <v>-5.2785767817470146E-6</v>
       </c>
-      <c r="X11" s="46">
+      <c r="X11">
         <v>3.8871225821717053E-5</v>
       </c>
-      <c r="Y11" s="46">
+      <c r="Y11">
         <v>-8.1357253790747153E-5</v>
       </c>
-      <c r="Z11" s="46">
+      <c r="Z11">
         <v>-7.6835254429024878E-5</v>
       </c>
-      <c r="AA11" s="46">
+      <c r="AA11">
         <v>1.0802423045884642E-5</v>
       </c>
-      <c r="AB11" s="46">
+      <c r="AB11">
         <v>-1.2282578432135533E-5</v>
       </c>
-      <c r="AC11" s="46">
+      <c r="AC11">
         <v>-3.3408237372309396E-3</v>
       </c>
       <c r="AD11">
@@ -6525,92 +6505,92 @@
         <v>-3.1466336474073476E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>173</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12">
         <v>1.8095891546568412</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12">
         <v>2.4440201837061374E-4</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12">
         <v>2.9805168321949002E-2</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12">
         <v>-6.7422310703271131E-4</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12">
         <v>1.9587201171246977E-3</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12">
         <v>1.919847988649118E-3</v>
       </c>
-      <c r="H12" s="47">
+      <c r="H12">
         <v>3.5695600569880261E-4</v>
       </c>
-      <c r="I12" s="46">
+      <c r="I12">
         <v>4.107680638798799E-4</v>
       </c>
-      <c r="J12" s="46">
+      <c r="J12">
         <v>6.5399108044421014E-5</v>
       </c>
-      <c r="K12" s="46">
+      <c r="K12">
         <v>-0.33846616290112325</v>
       </c>
-      <c r="L12" s="46">
+      <c r="L12">
         <v>2.4440201837064085E-4</v>
       </c>
-      <c r="M12" s="46">
+      <c r="M12">
         <v>2.9805168321948947E-2</v>
       </c>
-      <c r="N12" s="46">
+      <c r="N12">
         <v>-6.9039398765925514E-4</v>
       </c>
-      <c r="O12" s="46">
+      <c r="O12">
         <v>1.9587201171212317E-3</v>
       </c>
-      <c r="P12" s="46">
+      <c r="P12">
         <v>1.919847988654709E-3</v>
       </c>
-      <c r="Q12" s="46">
+      <c r="Q12">
         <v>3.5695600569828415E-4</v>
       </c>
-      <c r="R12" s="46">
+      <c r="R12">
         <v>4.1076806388033391E-4</v>
       </c>
-      <c r="S12" s="46">
+      <c r="S12">
         <v>6.5399108044420472E-5</v>
       </c>
-      <c r="T12" s="46">
+      <c r="T12">
         <v>-0.32979378749557015</v>
       </c>
-      <c r="U12" s="46">
+      <c r="U12">
         <v>2.4440201837016662E-4</v>
       </c>
-      <c r="V12" s="46">
+      <c r="V12">
         <v>2.9805168321972709E-2</v>
       </c>
-      <c r="W12" s="46">
+      <c r="W12">
         <v>-6.9370689065509209E-4</v>
       </c>
-      <c r="X12" s="46">
+      <c r="X12">
         <v>1.9587201171259016E-3</v>
       </c>
-      <c r="Y12" s="46">
+      <c r="Y12">
         <v>1.9198479886585254E-3</v>
       </c>
-      <c r="Z12" s="46">
+      <c r="Z12">
         <v>3.5695600569966845E-4</v>
       </c>
-      <c r="AA12" s="46">
+      <c r="AA12">
         <v>4.1076806388060452E-4</v>
       </c>
-      <c r="AB12" s="46">
+      <c r="AB12">
         <v>6.539910804408914E-5</v>
       </c>
-      <c r="AC12" s="46">
+      <c r="AC12">
         <v>-0.32915759022558844</v>
       </c>
       <c r="AD12">
@@ -6641,92 +6621,92 @@
         <v>-0.32782208371058474</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>174</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13">
         <v>-3.8512463911479305E-2</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13">
         <v>-5.0150654907449803E-6</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13">
         <v>-6.9039398765925611E-4</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13">
         <v>1.7328612454282528E-5</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13">
         <v>-4.3398918948620798E-5</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13">
         <v>-4.4830521583513308E-5</v>
       </c>
-      <c r="H13" s="47">
+      <c r="H13">
         <v>-6.4141972458106931E-6</v>
       </c>
-      <c r="I13" s="46">
+      <c r="I13">
         <v>-8.8810704325522433E-6</v>
       </c>
-      <c r="J13" s="46">
+      <c r="J13">
         <v>-1.5356902763145409E-6</v>
       </c>
-      <c r="K13" s="46">
+      <c r="K13">
         <v>7.0921057345397602E-3</v>
       </c>
-      <c r="L13" s="46">
+      <c r="L13">
         <v>-5.0150654907456071E-6</v>
       </c>
-      <c r="M13" s="46">
+      <c r="M13">
         <v>-6.9039398765925514E-4</v>
       </c>
-      <c r="N13" s="46">
+      <c r="N13">
         <v>1.7659892730653542E-5</v>
       </c>
-      <c r="O13" s="46">
+      <c r="O13">
         <v>-4.3398918948530979E-5</v>
       </c>
-      <c r="P13" s="46">
+      <c r="P13">
         <v>-4.4830521583595151E-5</v>
       </c>
-      <c r="Q13" s="46">
+      <c r="Q13">
         <v>-6.4141972457783009E-6</v>
       </c>
-      <c r="R13" s="46">
+      <c r="R13">
         <v>-8.8810704325369442E-6</v>
       </c>
-      <c r="S13" s="46">
+      <c r="S13">
         <v>-1.5356902763092071E-6</v>
       </c>
-      <c r="T13" s="46">
+      <c r="T13">
         <v>6.9620309225938148E-3</v>
       </c>
-      <c r="U13" s="46">
+      <c r="U13">
         <v>-5.0150654907269284E-6</v>
       </c>
-      <c r="V13" s="46">
+      <c r="V13">
         <v>-6.9039398766025108E-4</v>
       </c>
-      <c r="W13" s="46">
+      <c r="W13">
         <v>1.6333427013527549E-5</v>
       </c>
-      <c r="X13" s="46">
+      <c r="X13">
         <v>-4.3398918948643587E-5</v>
       </c>
-      <c r="Y13" s="46">
+      <c r="Y13">
         <v>-4.4830521583685357E-5</v>
       </c>
-      <c r="Z13" s="46">
+      <c r="Z13">
         <v>-6.4141972458105017E-6</v>
       </c>
-      <c r="AA13" s="46">
+      <c r="AA13">
         <v>-8.8810704325436121E-6</v>
       </c>
-      <c r="AB13" s="46">
+      <c r="AB13">
         <v>-1.5356902763016177E-6</v>
       </c>
-      <c r="AC13" s="46">
+      <c r="AC13">
         <v>7.5122810894399294E-3</v>
       </c>
       <c r="AD13">
@@ -6757,92 +6737,92 @@
         <v>7.5780556550874168E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>179</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14">
         <v>0.11210477498056017</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14">
         <v>3.8871225821689908E-5</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14">
         <v>1.9587201171212161E-3</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14">
         <v>-4.1902304407114566E-5</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14">
         <v>5.1668018538665291E-4</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14">
         <v>1.1752413294411571E-5</v>
       </c>
-      <c r="H14" s="47">
+      <c r="H14">
         <v>8.158045464180195E-5</v>
       </c>
-      <c r="I14" s="46">
+      <c r="I14">
         <v>9.2403391488367538E-5</v>
       </c>
-      <c r="J14" s="46">
+      <c r="J14">
         <v>-6.0565880512861368E-6</v>
       </c>
-      <c r="K14" s="46">
+      <c r="K14">
         <v>-2.3766290393508971E-2</v>
       </c>
-      <c r="L14" s="46">
+      <c r="L14">
         <v>3.8871225821691981E-5</v>
       </c>
-      <c r="M14" s="46">
+      <c r="M14">
         <v>1.9587201171212317E-3</v>
       </c>
-      <c r="N14" s="46">
+      <c r="N14">
         <v>-4.3398918948530979E-5</v>
       </c>
-      <c r="O14" s="46">
+      <c r="O14">
         <v>5.1668018538663122E-4</v>
       </c>
-      <c r="P14" s="46">
+      <c r="P14">
         <v>1.1752413294901197E-5</v>
       </c>
-      <c r="Q14" s="46">
+      <c r="Q14">
         <v>8.1580454641784006E-5</v>
       </c>
-      <c r="R14" s="46">
+      <c r="R14">
         <v>9.240339148842763E-5</v>
       </c>
-      <c r="S14" s="46">
+      <c r="S14">
         <v>-6.0565880512685117E-6</v>
       </c>
-      <c r="T14" s="46">
+      <c r="T14">
         <v>-2.2871562037920238E-2</v>
       </c>
-      <c r="U14" s="46">
+      <c r="U14">
         <v>3.8871225821676992E-5</v>
       </c>
-      <c r="V14" s="46">
+      <c r="V14">
         <v>1.9587201171279499E-3</v>
       </c>
-      <c r="W14" s="46">
+      <c r="W14">
         <v>-4.3303073613975303E-5</v>
       </c>
-      <c r="X14" s="46">
+      <c r="X14">
         <v>5.1668018538679711E-4</v>
       </c>
-      <c r="Y14" s="46">
+      <c r="Y14">
         <v>1.1752413295139721E-5</v>
       </c>
-      <c r="Z14" s="46">
+      <c r="Z14">
         <v>8.158045464187638E-5</v>
       </c>
-      <c r="AA14" s="46">
+      <c r="AA14">
         <v>9.2403391488446061E-5</v>
       </c>
-      <c r="AB14" s="46">
+      <c r="AB14">
         <v>-6.0565880512919576E-6</v>
       </c>
-      <c r="AC14" s="46">
+      <c r="AC14">
         <v>-2.2917219103628501E-2</v>
       </c>
       <c r="AD14">
@@ -6873,92 +6853,92 @@
         <v>-2.2838441660618228E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B15" s="46">
+        <v>213</v>
+      </c>
+      <c r="B15">
         <v>1.9445940692169885</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15">
         <v>-8.1357253790772252E-5</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15">
         <v>1.919847988654716E-3</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15">
         <v>-4.6357463169195072E-5</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15">
         <v>1.1752413294892957E-5</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15">
         <v>2.3958904604175885E-3</v>
       </c>
-      <c r="H15" s="47">
+      <c r="H15">
         <v>1.2214490577312705E-4</v>
       </c>
-      <c r="I15" s="46">
+      <c r="I15">
         <v>1.6368351774975331E-4</v>
       </c>
-      <c r="J15" s="46">
+      <c r="J15">
         <v>1.3878993418582576E-5</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15">
         <v>-2.7356257108535065E-2</v>
       </c>
-      <c r="L15" s="46">
+      <c r="L15">
         <v>-8.1357253790769921E-5</v>
       </c>
-      <c r="M15" s="46">
+      <c r="M15">
         <v>1.919847988654709E-3</v>
       </c>
-      <c r="N15" s="46">
+      <c r="N15">
         <v>-4.4830521583595151E-5</v>
       </c>
-      <c r="O15" s="46">
+      <c r="O15">
         <v>1.1752413294901197E-5</v>
       </c>
-      <c r="P15" s="46">
+      <c r="P15">
         <v>2.3958904604176527E-3</v>
       </c>
-      <c r="Q15" s="46">
+      <c r="Q15">
         <v>1.2214490577300719E-4</v>
       </c>
-      <c r="R15" s="46">
+      <c r="R15">
         <v>1.6368351774968316E-4</v>
       </c>
-      <c r="S15" s="46">
+      <c r="S15">
         <v>1.3878993418568535E-5</v>
       </c>
-      <c r="T15" s="46">
+      <c r="T15">
         <v>-2.9124980529094728E-2</v>
       </c>
-      <c r="U15" s="46">
+      <c r="U15">
         <v>-8.13572537908498E-5</v>
       </c>
-      <c r="V15" s="46">
+      <c r="V15">
         <v>1.9198479886536838E-3</v>
       </c>
-      <c r="W15" s="46">
+      <c r="W15">
         <v>-4.4111942917846137E-5</v>
       </c>
-      <c r="X15" s="46">
+      <c r="X15">
         <v>1.1752413294615293E-5</v>
       </c>
-      <c r="Y15" s="46">
+      <c r="Y15">
         <v>2.3958904604177173E-3</v>
       </c>
-      <c r="Z15" s="46">
+      <c r="Z15">
         <v>1.221449057731052E-4</v>
       </c>
-      <c r="AA15" s="46">
+      <c r="AA15">
         <v>1.636835177497094E-4</v>
       </c>
-      <c r="AB15" s="46">
+      <c r="AB15">
         <v>1.3878993418548261E-5</v>
       </c>
-      <c r="AC15" s="46">
+      <c r="AC15">
         <v>-3.0549007873232892E-2</v>
       </c>
       <c r="AD15">
@@ -6989,92 +6969,92 @@
         <v>-3.2124587852342811E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>241</v>
-      </c>
-      <c r="B16" s="46">
+        <v>237</v>
+      </c>
+      <c r="B16">
         <v>6.2654924397042594E-2</v>
       </c>
-      <c r="C16" s="46">
+      <c r="C16">
         <v>-7.6835254429039244E-5</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16">
         <v>3.5695600569828762E-4</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16">
         <v>-4.539325310396749E-6</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16">
         <v>8.158045464179268E-5</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16">
         <v>1.2214490577300502E-4</v>
       </c>
-      <c r="H16" s="47">
+      <c r="H16">
         <v>4.7347903191299725E-3</v>
       </c>
-      <c r="I16" s="46">
+      <c r="I16">
         <v>2.7744094127375796E-3</v>
       </c>
-      <c r="J16" s="46">
+      <c r="J16">
         <v>-2.8009313066160177E-5</v>
       </c>
-      <c r="K16" s="46">
+      <c r="K16">
         <v>-8.0922619082270941E-3</v>
       </c>
-      <c r="L16" s="46">
+      <c r="L16">
         <v>-7.6835254429038946E-5</v>
       </c>
-      <c r="M16" s="46">
+      <c r="M16">
         <v>3.5695600569828415E-4</v>
       </c>
-      <c r="N16" s="46">
+      <c r="N16">
         <v>-6.4141972457783009E-6</v>
       </c>
-      <c r="O16" s="46">
+      <c r="O16">
         <v>8.1580454641784006E-5</v>
       </c>
-      <c r="P16" s="46">
+      <c r="P16">
         <v>1.2214490577300719E-4</v>
       </c>
-      <c r="Q16" s="46">
+      <c r="Q16">
         <v>4.7347903191299707E-3</v>
       </c>
-      <c r="R16" s="46">
+      <c r="R16">
         <v>2.7744094127375913E-3</v>
       </c>
-      <c r="S16" s="46">
+      <c r="S16">
         <v>-2.8009313066162924E-5</v>
       </c>
-      <c r="T16" s="46">
+      <c r="T16">
         <v>-7.6835051413861556E-3</v>
       </c>
-      <c r="U16" s="46">
+      <c r="U16">
         <v>-7.683525442903221E-5</v>
       </c>
-      <c r="V16" s="46">
+      <c r="V16">
         <v>3.5695600569946007E-4</v>
       </c>
-      <c r="W16" s="46">
+      <c r="W16">
         <v>-7.8935967634107385E-6</v>
       </c>
-      <c r="X16" s="46">
+      <c r="X16">
         <v>8.158045464189328E-5</v>
       </c>
-      <c r="Y16" s="46">
+      <c r="Y16">
         <v>1.2214490577311854E-4</v>
       </c>
-      <c r="Z16" s="46">
+      <c r="Z16">
         <v>4.7347903191299707E-3</v>
       </c>
-      <c r="AA16" s="46">
+      <c r="AA16">
         <v>2.7744094127375935E-3</v>
       </c>
-      <c r="AB16" s="46">
+      <c r="AB16">
         <v>-2.8009313066162809E-5</v>
       </c>
-      <c r="AC16" s="46">
+      <c r="AC16">
         <v>-6.9927991238971044E-3</v>
       </c>
       <c r="AD16">
@@ -7105,92 +7085,92 @@
         <v>-7.3889058913380185E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B17" s="46">
+        <v>241</v>
+      </c>
+      <c r="B17">
         <v>-9.1427809290669779E-2</v>
       </c>
-      <c r="C17" s="46">
+      <c r="C17">
         <v>1.0802423045879058E-5</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D17">
         <v>4.1076806388033217E-4</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17">
         <v>-7.9052932085569346E-6</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F17">
         <v>9.2403391488432725E-5</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G17">
         <v>1.6368351774968229E-4</v>
       </c>
-      <c r="H17" s="47">
+      <c r="H17">
         <v>2.7744094127375931E-3</v>
       </c>
-      <c r="I17" s="46">
+      <c r="I17">
         <v>3.7159031263584406E-3</v>
       </c>
-      <c r="J17" s="46">
+      <c r="J17">
         <v>-3.6211806915326423E-5</v>
       </c>
-      <c r="K17" s="46">
+      <c r="K17">
         <v>-8.2230951296794752E-3</v>
       </c>
-      <c r="L17" s="46">
+      <c r="L17">
         <v>1.0802423045879302E-5</v>
       </c>
-      <c r="M17" s="46">
+      <c r="M17">
         <v>4.1076806388033391E-4</v>
       </c>
-      <c r="N17" s="46">
+      <c r="N17">
         <v>-8.8810704325369442E-6</v>
       </c>
-      <c r="O17" s="46">
+      <c r="O17">
         <v>9.240339148842763E-5</v>
       </c>
-      <c r="P17" s="46">
+      <c r="P17">
         <v>1.6368351774968316E-4</v>
       </c>
-      <c r="Q17" s="46">
+      <c r="Q17">
         <v>2.7744094127375913E-3</v>
       </c>
-      <c r="R17" s="46">
+      <c r="R17">
         <v>3.7159031263584454E-3</v>
       </c>
-      <c r="S17" s="46">
+      <c r="S17">
         <v>-3.6211806915326674E-5</v>
       </c>
-      <c r="T17" s="46">
+      <c r="T17">
         <v>-7.7784889114871688E-3</v>
       </c>
-      <c r="U17" s="46">
+      <c r="U17">
         <v>1.0802423045876781E-5</v>
       </c>
-      <c r="V17" s="46">
+      <c r="V17">
         <v>4.1076806388110423E-4</v>
       </c>
-      <c r="W17" s="46">
+      <c r="W17">
         <v>-8.5976070546396658E-6</v>
       </c>
-      <c r="X17" s="46">
+      <c r="X17">
         <v>9.240339148847837E-5</v>
       </c>
-      <c r="Y17" s="46">
+      <c r="Y17">
         <v>1.6368351774977293E-4</v>
       </c>
-      <c r="Z17" s="46">
+      <c r="Z17">
         <v>2.7744094127376E-3</v>
       </c>
-      <c r="AA17" s="46">
+      <c r="AA17">
         <v>3.7159031263584458E-3</v>
       </c>
-      <c r="AB17" s="46">
+      <c r="AB17">
         <v>-3.6211806915330407E-5</v>
       </c>
-      <c r="AC17" s="46">
+      <c r="AC17">
         <v>-7.9878863094141328E-3</v>
       </c>
       <c r="AD17">
@@ -7221,92 +7201,92 @@
         <v>-8.1998346042562592E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>190</v>
       </c>
-      <c r="B18" s="46">
+      <c r="B18">
         <v>2.9322733083299024E-2</v>
       </c>
-      <c r="C18" s="46">
+      <c r="C18">
         <v>-1.2282578432133153E-5</v>
       </c>
-      <c r="D18" s="46">
+      <c r="D18">
         <v>6.539910804441852E-5</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18">
         <v>-1.5902023290381909E-6</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18">
         <v>-6.0565880512614644E-6</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18">
         <v>1.3878993418568047E-5</v>
       </c>
-      <c r="H18" s="47">
+      <c r="H18">
         <v>-2.8009313066162416E-5</v>
       </c>
-      <c r="I18" s="46">
+      <c r="I18">
         <v>-3.62118069153279E-5</v>
       </c>
-      <c r="J18" s="46">
+      <c r="J18">
         <v>7.6214153394961595E-5</v>
       </c>
-      <c r="K18" s="46">
+      <c r="K18">
         <v>-1.7426946337918761E-3</v>
       </c>
-      <c r="L18" s="46">
+      <c r="L18">
         <v>-1.2282578432133019E-5</v>
       </c>
-      <c r="M18" s="46">
+      <c r="M18">
         <v>6.5399108044420472E-5</v>
       </c>
-      <c r="N18" s="46">
+      <c r="N18">
         <v>-1.5356902763092071E-6</v>
       </c>
-      <c r="O18" s="46">
+      <c r="O18">
         <v>-6.0565880512685117E-6</v>
       </c>
-      <c r="P18" s="46">
+      <c r="P18">
         <v>1.3878993418568535E-5</v>
       </c>
-      <c r="Q18" s="46">
+      <c r="Q18">
         <v>-2.8009313066162924E-5</v>
       </c>
-      <c r="R18" s="46">
+      <c r="R18">
         <v>-3.6211806915326674E-5</v>
       </c>
-      <c r="S18" s="46">
+      <c r="S18">
         <v>7.6214153394960876E-5</v>
       </c>
-      <c r="T18" s="46">
+      <c r="T18">
         <v>-1.7290067943792216E-3</v>
       </c>
-      <c r="U18" s="46">
+      <c r="U18">
         <v>-1.2282578432134735E-5</v>
       </c>
-      <c r="V18" s="46">
+      <c r="V18">
         <v>6.5399108044643858E-5</v>
       </c>
-      <c r="W18" s="46">
+      <c r="W18">
         <v>-1.5376299325479351E-6</v>
       </c>
-      <c r="X18" s="46">
+      <c r="X18">
         <v>-6.0565880512786219E-6</v>
       </c>
-      <c r="Y18" s="46">
+      <c r="Y18">
         <v>1.3878993418590111E-5</v>
       </c>
-      <c r="Z18" s="46">
+      <c r="Z18">
         <v>-2.8009313066161844E-5</v>
       </c>
-      <c r="AA18" s="46">
+      <c r="AA18">
         <v>-3.6211806915328984E-5</v>
       </c>
-      <c r="AB18" s="46">
+      <c r="AB18">
         <v>7.6214153394962028E-5</v>
       </c>
-      <c r="AC18" s="46">
+      <c r="AC18">
         <v>-1.7386530695140871E-3</v>
       </c>
       <c r="AD18">
@@ -7337,92 +7317,92 @@
         <v>-1.7814908895347299E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>191</v>
       </c>
-      <c r="B19" s="46">
+      <c r="B19">
         <v>-24.448135760028638</v>
       </c>
-      <c r="C19" s="46">
+      <c r="C19">
         <v>-3.5142619861228421E-3</v>
       </c>
-      <c r="D19" s="46">
+      <c r="D19">
         <v>-0.32979378749557076</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19">
         <v>6.7704267696005512E-3</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19">
         <v>-2.2871562037919874E-2</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19">
         <v>-2.9124980529094558E-2</v>
       </c>
-      <c r="H19" s="47">
+      <c r="H19">
         <v>-7.6835051413862024E-3</v>
       </c>
-      <c r="I19" s="46">
+      <c r="I19">
         <v>-7.7784889114853959E-3</v>
       </c>
-      <c r="J19" s="46">
+      <c r="J19">
         <v>-1.7290067943791245E-3</v>
       </c>
-      <c r="K19" s="46">
+      <c r="K19">
         <v>4.0978119637307149</v>
       </c>
-      <c r="L19" s="46">
+      <c r="L19">
         <v>-3.5142619861231617E-3</v>
       </c>
-      <c r="M19" s="46">
+      <c r="M19">
         <v>-0.32979378749557015</v>
       </c>
-      <c r="N19" s="46">
+      <c r="N19">
         <v>6.9620309225938148E-3</v>
       </c>
-      <c r="O19" s="46">
+      <c r="O19">
         <v>-2.2871562037920238E-2</v>
       </c>
-      <c r="P19" s="46">
+      <c r="P19">
         <v>-2.9124980529094728E-2</v>
       </c>
-      <c r="Q19" s="46">
+      <c r="Q19">
         <v>-7.6835051413861556E-3</v>
       </c>
-      <c r="R19" s="46">
+      <c r="R19">
         <v>-7.7784889114871688E-3</v>
       </c>
-      <c r="S19" s="46">
+      <c r="S19">
         <v>-1.7290067943792216E-3</v>
       </c>
-      <c r="T19" s="46">
+      <c r="T19">
         <v>3.9837256648443171</v>
       </c>
-      <c r="U19" s="46">
+      <c r="U19">
         <v>-3.514261986109872E-3</v>
       </c>
-      <c r="V19" s="46">
+      <c r="V19">
         <v>-0.32979378749553501</v>
       </c>
-      <c r="W19" s="46">
+      <c r="W19">
         <v>7.5596311790258166E-3</v>
       </c>
-      <c r="X19" s="46">
+      <c r="X19">
         <v>-2.2871562037898224E-2</v>
       </c>
-      <c r="Y19" s="46">
+      <c r="Y19">
         <v>-2.912498052915713E-2</v>
       </c>
-      <c r="Z19" s="46">
+      <c r="Z19">
         <v>-7.6835051413892963E-3</v>
       </c>
-      <c r="AA19" s="46">
+      <c r="AA19">
         <v>-7.7784889114839995E-3</v>
       </c>
-      <c r="AB19" s="46">
+      <c r="AB19">
         <v>-1.7290067943733604E-3</v>
       </c>
-      <c r="AC19" s="46">
+      <c r="AC19">
         <v>3.7429924994697097</v>
       </c>
       <c r="AD19">
@@ -7453,92 +7433,92 @@
         <v>3.6938238714533558</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>192</v>
       </c>
-      <c r="B20" s="46">
+      <c r="B20">
         <v>4.7957223317055028E-2</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C20">
         <v>2.0579093451348006E-3</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20">
         <v>2.4440201837016662E-4</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20">
         <v>-6.216171288425944E-6</v>
       </c>
-      <c r="F20" s="46">
+      <c r="F20">
         <v>3.8871225821677439E-5</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20">
         <v>-8.1357253790850207E-5</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20">
         <v>-7.6835254429031465E-5</v>
       </c>
-      <c r="I20" s="46">
+      <c r="I20">
         <v>1.0802423045876863E-5</v>
       </c>
-      <c r="J20" s="46">
+      <c r="J20">
         <v>-1.2282578432133428E-5</v>
       </c>
-      <c r="K20" s="46">
+      <c r="K20">
         <v>-2.8017574428514484E-3</v>
       </c>
-      <c r="L20" s="46">
+      <c r="L20">
         <v>2.0579093451348019E-3</v>
       </c>
-      <c r="M20" s="46">
+      <c r="M20">
         <v>2.4440201837016662E-4</v>
       </c>
-      <c r="N20" s="46">
+      <c r="N20">
         <v>-5.0150654907269284E-6</v>
       </c>
-      <c r="O20" s="46">
+      <c r="O20">
         <v>3.8871225821676992E-5</v>
       </c>
-      <c r="P20" s="46">
+      <c r="P20">
         <v>-8.13572537908498E-5</v>
       </c>
-      <c r="Q20" s="46">
+      <c r="Q20">
         <v>-7.683525442903221E-5</v>
       </c>
-      <c r="R20" s="46">
+      <c r="R20">
         <v>1.0802423045876781E-5</v>
       </c>
-      <c r="S20" s="46">
+      <c r="S20">
         <v>-1.2282578432134735E-5</v>
       </c>
-      <c r="T20" s="46">
+      <c r="T20">
         <v>-3.514261986109872E-3</v>
       </c>
-      <c r="U20" s="46">
+      <c r="U20">
         <v>2.0579093451348015E-3</v>
       </c>
-      <c r="V20" s="46">
+      <c r="V20">
         <v>2.4440201837112635E-4</v>
       </c>
-      <c r="W20" s="46">
+      <c r="W20">
         <v>-5.2785767817460625E-6</v>
       </c>
-      <c r="X20" s="46">
+      <c r="X20">
         <v>3.8871225821714058E-5</v>
       </c>
-      <c r="Y20" s="46">
+      <c r="Y20">
         <v>-8.1357253790751056E-5</v>
       </c>
-      <c r="Z20" s="46">
+      <c r="Z20">
         <v>-7.6835254429025366E-5</v>
       </c>
-      <c r="AA20" s="46">
+      <c r="AA20">
         <v>1.0802423045883964E-5</v>
       </c>
-      <c r="AB20" s="46">
+      <c r="AB20">
         <v>-1.2282578432135798E-5</v>
       </c>
-      <c r="AC20" s="46">
+      <c r="AC20">
         <v>-3.340823737230463E-3</v>
       </c>
       <c r="AD20">
@@ -7569,92 +7549,92 @@
         <v>-3.1466336474068818E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>193</v>
       </c>
-      <c r="B21" s="46">
+      <c r="B21">
         <v>1.8095891546568423</v>
       </c>
-      <c r="C21" s="46">
+      <c r="C21">
         <v>2.4440201837114066E-4</v>
       </c>
-      <c r="D21" s="46">
+      <c r="D21">
         <v>2.9805168321976789E-2</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21">
         <v>-6.742231070338211E-4</v>
       </c>
-      <c r="F21" s="46">
+      <c r="F21">
         <v>1.9587201171278878E-3</v>
       </c>
-      <c r="G21" s="46">
+      <c r="G21">
         <v>1.9198479886536695E-3</v>
       </c>
-      <c r="H21" s="47">
+      <c r="H21">
         <v>3.5695600569946392E-4</v>
       </c>
-      <c r="I21" s="46">
+      <c r="I21">
         <v>4.1076806388094529E-4</v>
       </c>
-      <c r="J21" s="46">
+      <c r="J21">
         <v>6.5399108044637963E-5</v>
       </c>
-      <c r="K21" s="46">
+      <c r="K21">
         <v>-0.33846616290164899</v>
       </c>
-      <c r="L21" s="46">
+      <c r="L21">
         <v>2.4440201837116809E-4</v>
       </c>
-      <c r="M21" s="46">
+      <c r="M21">
         <v>2.9805168321972709E-2</v>
       </c>
-      <c r="N21" s="46">
+      <c r="N21">
         <v>-6.9039398766025108E-4</v>
       </c>
-      <c r="O21" s="46">
+      <c r="O21">
         <v>1.9587201171279499E-3</v>
       </c>
-      <c r="P21" s="46">
+      <c r="P21">
         <v>1.9198479886536838E-3</v>
       </c>
-      <c r="Q21" s="46">
+      <c r="Q21">
         <v>3.5695600569946007E-4</v>
       </c>
-      <c r="R21" s="46">
+      <c r="R21">
         <v>4.1076806388110423E-4</v>
       </c>
-      <c r="S21" s="46">
+      <c r="S21">
         <v>6.5399108044643858E-5</v>
       </c>
-      <c r="T21" s="46">
+      <c r="T21">
         <v>-0.32979378749553501</v>
       </c>
-      <c r="U21" s="46">
+      <c r="U21">
         <v>2.4440201837112635E-4</v>
       </c>
-      <c r="V21" s="46">
+      <c r="V21">
         <v>2.9805168321996468E-2</v>
       </c>
-      <c r="W21" s="46">
+      <c r="W21">
         <v>-6.9370689065509437E-4</v>
       </c>
-      <c r="X21" s="46">
+      <c r="X21">
         <v>1.9587201171258921E-3</v>
       </c>
-      <c r="Y21" s="46">
+      <c r="Y21">
         <v>1.9198479886585462E-3</v>
       </c>
-      <c r="Z21" s="46">
+      <c r="Z21">
         <v>3.5695600569966152E-4</v>
       </c>
-      <c r="AA21" s="46">
+      <c r="AA21">
         <v>4.1076806388059585E-4</v>
       </c>
-      <c r="AB21" s="46">
+      <c r="AB21">
         <v>6.5399108044081116E-5</v>
       </c>
-      <c r="AC21" s="46">
+      <c r="AC21">
         <v>-0.3291575902255901</v>
       </c>
       <c r="AD21">
@@ -7685,92 +7665,92 @@
         <v>-0.32782208371058585</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>194</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22">
         <v>-3.8393118562815041E-2</v>
       </c>
-      <c r="C22" s="46">
+      <c r="C22">
         <v>-5.2785767817463886E-6</v>
       </c>
-      <c r="D22" s="46">
+      <c r="D22">
         <v>-6.9370689065509329E-4</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22">
         <v>1.5958448619620834E-5</v>
       </c>
-      <c r="F22" s="46">
+      <c r="F22">
         <v>-4.3303073613973934E-5</v>
       </c>
-      <c r="G22" s="46">
+      <c r="G22">
         <v>-4.4111942917845798E-5</v>
       </c>
-      <c r="H22" s="47">
+      <c r="H22">
         <v>-7.8935967634108316E-6</v>
       </c>
-      <c r="I22" s="46">
+      <c r="I22">
         <v>-8.5976070546360269E-6</v>
       </c>
-      <c r="J22" s="46">
+      <c r="J22">
         <v>-1.5376299325477758E-6</v>
       </c>
-      <c r="K22" s="46">
+      <c r="K22">
         <v>7.7538761464506804E-3</v>
       </c>
-      <c r="L22" s="46">
+      <c r="L22">
         <v>-5.2785767817470146E-6</v>
       </c>
-      <c r="M22" s="46">
+      <c r="M22">
         <v>-6.9370689065509209E-4</v>
       </c>
-      <c r="N22" s="46">
+      <c r="N22">
         <v>1.6333427013527549E-5</v>
       </c>
-      <c r="O22" s="46">
+      <c r="O22">
         <v>-4.3303073613975303E-5</v>
       </c>
-      <c r="P22" s="46">
+      <c r="P22">
         <v>-4.4111942917846137E-5</v>
       </c>
-      <c r="Q22" s="46">
+      <c r="Q22">
         <v>-7.8935967634107385E-6</v>
       </c>
-      <c r="R22" s="46">
+      <c r="R22">
         <v>-8.5976070546396658E-6</v>
       </c>
-      <c r="S22" s="46">
+      <c r="S22">
         <v>-1.5376299325479351E-6</v>
       </c>
-      <c r="T22" s="46">
+      <c r="T22">
         <v>7.5596311790258166E-3</v>
       </c>
-      <c r="U22" s="46">
+      <c r="U22">
         <v>-5.2785767817460625E-6</v>
       </c>
-      <c r="V22" s="46">
+      <c r="V22">
         <v>-6.9370689065509437E-4</v>
       </c>
-      <c r="W22" s="46">
+      <c r="W22">
         <v>1.651933345794549E-5</v>
       </c>
-      <c r="X22" s="46">
+      <c r="X22">
         <v>-4.3303073614193248E-5</v>
       </c>
-      <c r="Y22" s="46">
+      <c r="Y22">
         <v>-4.4111942918220607E-5</v>
       </c>
-      <c r="Z22" s="46">
+      <c r="Z22">
         <v>-7.8935967634402322E-6</v>
       </c>
-      <c r="AA22" s="46">
+      <c r="AA22">
         <v>-8.5976070546720461E-6</v>
       </c>
-      <c r="AB22" s="46">
+      <c r="AB22">
         <v>-1.5376299325505622E-6</v>
       </c>
-      <c r="AC22" s="46">
+      <c r="AC22">
         <v>7.504010881660461E-3</v>
       </c>
       <c r="AD22">
@@ -7801,92 +7781,92 @@
         <v>7.6060550245593186E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>199</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23">
         <v>0.11210477498054905</v>
       </c>
-      <c r="C23" s="46">
+      <c r="C23">
         <v>3.8871225821715E-5</v>
       </c>
-      <c r="D23" s="46">
+      <c r="D23">
         <v>1.9587201171258868E-3</v>
       </c>
-      <c r="E23" s="46">
+      <c r="E23">
         <v>-4.1902304407224843E-5</v>
       </c>
-      <c r="F23" s="46">
+      <c r="F23">
         <v>5.1668018538697145E-4</v>
       </c>
-      <c r="G23" s="46">
+      <c r="G23">
         <v>1.1752413294614751E-5</v>
       </c>
-      <c r="H23" s="47">
+      <c r="H23">
         <v>8.1580454641897089E-5</v>
       </c>
-      <c r="I23" s="46">
+      <c r="I23">
         <v>9.2403391488467311E-5</v>
       </c>
-      <c r="J23" s="46">
+      <c r="J23">
         <v>-6.0565880512827012E-6</v>
       </c>
-      <c r="K23" s="46">
+      <c r="K23">
         <v>-2.3766290393559202E-2</v>
       </c>
-      <c r="L23" s="46">
+      <c r="L23">
         <v>3.8871225821717053E-5</v>
       </c>
-      <c r="M23" s="46">
+      <c r="M23">
         <v>1.9587201171259016E-3</v>
       </c>
-      <c r="N23" s="46">
+      <c r="N23">
         <v>-4.3398918948643587E-5</v>
       </c>
-      <c r="O23" s="46">
+      <c r="O23">
         <v>5.1668018538679711E-4</v>
       </c>
-      <c r="P23" s="46">
+      <c r="P23">
         <v>1.1752413294615293E-5</v>
       </c>
-      <c r="Q23" s="46">
+      <c r="Q23">
         <v>8.158045464189328E-5</v>
       </c>
-      <c r="R23" s="46">
+      <c r="R23">
         <v>9.240339148847837E-5</v>
       </c>
-      <c r="S23" s="46">
+      <c r="S23">
         <v>-6.0565880512786219E-6</v>
       </c>
-      <c r="T23" s="46">
+      <c r="T23">
         <v>-2.2871562037898224E-2</v>
       </c>
-      <c r="U23" s="46">
+      <c r="U23">
         <v>3.8871225821714058E-5</v>
       </c>
-      <c r="V23" s="46">
+      <c r="V23">
         <v>1.9587201171258921E-3</v>
       </c>
-      <c r="W23" s="46">
+      <c r="W23">
         <v>-4.3303073614193248E-5</v>
       </c>
-      <c r="X23" s="46">
+      <c r="X23">
         <v>5.1668018538696299E-4</v>
       </c>
-      <c r="Y23" s="46">
+      <c r="Y23">
         <v>1.1752413295128446E-5</v>
       </c>
-      <c r="Z23" s="46">
+      <c r="Z23">
         <v>8.1580454641897197E-5</v>
       </c>
-      <c r="AA23" s="46">
+      <c r="AA23">
         <v>9.240339148844953E-5</v>
       </c>
-      <c r="AB23" s="46">
+      <c r="AB23">
         <v>-6.0565880512905752E-6</v>
       </c>
-      <c r="AC23" s="46">
+      <c r="AC23">
         <v>-2.2917219103626468E-2</v>
       </c>
       <c r="AD23">
@@ -7917,92 +7897,92 @@
         <v>-2.2838441660616181E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>217</v>
-      </c>
-      <c r="B24" s="46">
+        <v>214</v>
+      </c>
+      <c r="B24">
         <v>1.9445940692169854</v>
       </c>
-      <c r="C24" s="46">
+      <c r="C24">
         <v>-8.1357253790749701E-5</v>
       </c>
-      <c r="D24" s="46">
+      <c r="D24">
         <v>1.9198479886585185E-3</v>
       </c>
-      <c r="E24" s="46">
+      <c r="E24">
         <v>-4.635746316928376E-5</v>
       </c>
-      <c r="F24" s="46">
+      <c r="F24">
         <v>1.1752413295131048E-5</v>
       </c>
-      <c r="G24" s="46">
+      <c r="G24">
         <v>2.3958904604176536E-3</v>
       </c>
-      <c r="H24" s="47">
+      <c r="H24">
         <v>1.2214490577311583E-4</v>
       </c>
-      <c r="I24" s="46">
+      <c r="I24">
         <v>1.636835177497622E-4</v>
       </c>
-      <c r="J24" s="46">
+      <c r="J24">
         <v>1.3878993418583877E-5</v>
       </c>
-      <c r="K24" s="46">
+      <c r="K24">
         <v>-2.7356257108576532E-2</v>
       </c>
-      <c r="L24" s="46">
+      <c r="L24">
         <v>-8.1357253790747153E-5</v>
       </c>
-      <c r="M24" s="46">
+      <c r="M24">
         <v>1.9198479886585254E-3</v>
       </c>
-      <c r="N24" s="46">
+      <c r="N24">
         <v>-4.4830521583685357E-5</v>
       </c>
-      <c r="O24" s="46">
+      <c r="O24">
         <v>1.1752413295139721E-5</v>
       </c>
-      <c r="P24" s="46">
+      <c r="P24">
         <v>2.3958904604177173E-3</v>
       </c>
-      <c r="Q24" s="46">
+      <c r="Q24">
         <v>1.2214490577311854E-4</v>
       </c>
-      <c r="R24" s="46">
+      <c r="R24">
         <v>1.6368351774977293E-4</v>
       </c>
-      <c r="S24" s="46">
+      <c r="S24">
         <v>1.3878993418590111E-5</v>
       </c>
-      <c r="T24" s="46">
+      <c r="T24">
         <v>-2.912498052915713E-2</v>
       </c>
-      <c r="U24" s="46">
+      <c r="U24">
         <v>-8.1357253790751056E-5</v>
       </c>
-      <c r="V24" s="46">
+      <c r="V24">
         <v>1.9198479886585462E-3</v>
       </c>
-      <c r="W24" s="46">
+      <c r="W24">
         <v>-4.4111942918220607E-5</v>
       </c>
-      <c r="X24" s="46">
+      <c r="X24">
         <v>1.1752413295128446E-5</v>
       </c>
-      <c r="Y24" s="46">
+      <c r="Y24">
         <v>2.3958904604177819E-3</v>
       </c>
-      <c r="Z24" s="46">
+      <c r="Z24">
         <v>1.2214490577310347E-4</v>
       </c>
-      <c r="AA24" s="46">
+      <c r="AA24">
         <v>1.6368351774970701E-4</v>
       </c>
-      <c r="AB24" s="46">
+      <c r="AB24">
         <v>1.3878993418547854E-5</v>
       </c>
-      <c r="AC24" s="46">
+      <c r="AC24">
         <v>-3.0549007873232677E-2</v>
       </c>
       <c r="AD24">
@@ -8033,92 +8013,92 @@
         <v>-3.2124587852342588E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>242</v>
-      </c>
-      <c r="B25" s="46">
+        <v>238</v>
+      </c>
+      <c r="B25">
         <v>6.2654924397044537E-2</v>
       </c>
-      <c r="C25" s="46">
+      <c r="C25">
         <v>-7.683525442902519E-5</v>
       </c>
-      <c r="D25" s="46">
+      <c r="D25">
         <v>3.5695600569966845E-4</v>
       </c>
-      <c r="E25" s="46">
+      <c r="E25">
         <v>-4.5393253104295461E-6</v>
       </c>
-      <c r="F25" s="46">
+      <c r="F25">
         <v>8.1580454641885054E-5</v>
       </c>
-      <c r="G25" s="46">
+      <c r="G25">
         <v>1.2214490577310347E-4</v>
       </c>
-      <c r="H25" s="47">
+      <c r="H25">
         <v>4.7347903191299785E-3</v>
       </c>
-      <c r="I25" s="46">
+      <c r="I25">
         <v>2.7744094127376013E-3</v>
       </c>
-      <c r="J25" s="46">
+      <c r="J25">
         <v>-2.8009313066155352E-5</v>
       </c>
-      <c r="K25" s="46">
+      <c r="K25">
         <v>-8.0922619082419711E-3</v>
       </c>
-      <c r="L25" s="46">
+      <c r="L25">
         <v>-7.6835254429024878E-5</v>
       </c>
-      <c r="M25" s="46">
+      <c r="M25">
         <v>3.5695600569966845E-4</v>
       </c>
-      <c r="N25" s="46">
+      <c r="N25">
         <v>-6.4141972458105017E-6</v>
       </c>
-      <c r="O25" s="46">
+      <c r="O25">
         <v>8.158045464187638E-5</v>
       </c>
-      <c r="P25" s="46">
+      <c r="P25">
         <v>1.221449057731052E-4</v>
       </c>
-      <c r="Q25" s="46">
+      <c r="Q25">
         <v>4.7347903191299707E-3</v>
       </c>
-      <c r="R25" s="46">
+      <c r="R25">
         <v>2.7744094127376E-3</v>
       </c>
-      <c r="S25" s="46">
+      <c r="S25">
         <v>-2.8009313066161844E-5</v>
       </c>
-      <c r="T25" s="46">
+      <c r="T25">
         <v>-7.6835051413892963E-3</v>
       </c>
-      <c r="U25" s="46">
+      <c r="U25">
         <v>-7.6835254429025366E-5</v>
       </c>
-      <c r="V25" s="46">
+      <c r="V25">
         <v>3.5695600569966152E-4</v>
       </c>
-      <c r="W25" s="46">
+      <c r="W25">
         <v>-7.8935967634402322E-6</v>
       </c>
-      <c r="X25" s="46">
+      <c r="X25">
         <v>8.1580454641897197E-5</v>
       </c>
-      <c r="Y25" s="46">
+      <c r="Y25">
         <v>1.2214490577310347E-4</v>
       </c>
-      <c r="Z25" s="46">
+      <c r="Z25">
         <v>4.7347903191299699E-3</v>
       </c>
-      <c r="AA25" s="46">
+      <c r="AA25">
         <v>2.7744094127375931E-3</v>
       </c>
-      <c r="AB25" s="46">
+      <c r="AB25">
         <v>-2.8009313066162457E-5</v>
       </c>
-      <c r="AC25" s="46">
+      <c r="AC25">
         <v>-6.9927991238973673E-3</v>
       </c>
       <c r="AD25">
@@ -8149,92 +8129,92 @@
         <v>-7.3889058913382873E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>246</v>
-      </c>
-      <c r="B26" s="46">
+        <v>242</v>
+      </c>
+      <c r="B26">
         <v>-9.1427809290675552E-2</v>
       </c>
-      <c r="C26" s="46">
+      <c r="C26">
         <v>1.0802423045884371E-5</v>
       </c>
-      <c r="D26" s="46">
+      <c r="D26">
         <v>4.1076806388059758E-4</v>
       </c>
-      <c r="E26" s="46">
+      <c r="E26">
         <v>-7.9052932085636567E-6</v>
       </c>
-      <c r="F26" s="46">
+      <c r="F26">
         <v>9.2403391488451374E-5</v>
       </c>
-      <c r="G26" s="46">
+      <c r="G26">
         <v>1.6368351774970766E-4</v>
       </c>
-      <c r="H26" s="47">
+      <c r="H26">
         <v>2.7744094127375948E-3</v>
       </c>
-      <c r="I26" s="46">
+      <c r="I26">
         <v>3.7159031263584445E-3</v>
       </c>
-      <c r="J26" s="46">
+      <c r="J26">
         <v>-3.6211806915328415E-5</v>
       </c>
-      <c r="K26" s="46">
+      <c r="K26">
         <v>-8.223095129682223E-3</v>
       </c>
-      <c r="L26" s="46">
+      <c r="L26">
         <v>1.0802423045884642E-5</v>
       </c>
-      <c r="M26" s="46">
+      <c r="M26">
         <v>4.1076806388060452E-4</v>
       </c>
-      <c r="N26" s="46">
+      <c r="N26">
         <v>-8.8810704325436121E-6</v>
       </c>
-      <c r="O26" s="46">
+      <c r="O26">
         <v>9.2403391488446061E-5</v>
       </c>
-      <c r="P26" s="46">
+      <c r="P26">
         <v>1.636835177497094E-4</v>
       </c>
-      <c r="Q26" s="46">
+      <c r="Q26">
         <v>2.7744094127375935E-3</v>
       </c>
-      <c r="R26" s="46">
+      <c r="R26">
         <v>3.7159031263584458E-3</v>
       </c>
-      <c r="S26" s="46">
+      <c r="S26">
         <v>-3.6211806915328984E-5</v>
       </c>
-      <c r="T26" s="46">
+      <c r="T26">
         <v>-7.7784889114839995E-3</v>
       </c>
-      <c r="U26" s="46">
+      <c r="U26">
         <v>1.0802423045883964E-5</v>
       </c>
-      <c r="V26" s="46">
+      <c r="V26">
         <v>4.1076806388059585E-4</v>
       </c>
-      <c r="W26" s="46">
+      <c r="W26">
         <v>-8.5976070546720461E-6</v>
       </c>
-      <c r="X26" s="46">
+      <c r="X26">
         <v>9.240339148844953E-5</v>
       </c>
-      <c r="Y26" s="46">
+      <c r="Y26">
         <v>1.6368351774970701E-4</v>
       </c>
-      <c r="Z26" s="46">
+      <c r="Z26">
         <v>2.7744094127375931E-3</v>
       </c>
-      <c r="AA26" s="46">
+      <c r="AA26">
         <v>3.7159031263584458E-3</v>
       </c>
-      <c r="AB26" s="46">
+      <c r="AB26">
         <v>-3.6211806915331004E-5</v>
       </c>
-      <c r="AC26" s="46">
+      <c r="AC26">
         <v>-7.9878863094134615E-3</v>
       </c>
       <c r="AD26">
@@ -8265,92 +8245,92 @@
         <v>-8.1998346042555931E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>210</v>
       </c>
-      <c r="B27" s="46">
+      <c r="B27">
         <v>2.9322733083299357E-2</v>
       </c>
-      <c r="C27" s="46">
+      <c r="C27">
         <v>-1.2282578432135667E-5</v>
       </c>
-      <c r="D27" s="46">
+      <c r="D27">
         <v>6.5399108044086971E-5</v>
       </c>
-      <c r="E27" s="46">
+      <c r="E27">
         <v>-1.5902023290306218E-6</v>
       </c>
-      <c r="F27" s="46">
+      <c r="F27">
         <v>-6.0565880512849645E-6</v>
       </c>
-      <c r="G27" s="46">
+      <c r="G27">
         <v>1.3878993418547827E-5</v>
       </c>
-      <c r="H27" s="47">
+      <c r="H27">
         <v>-2.8009313066162274E-5</v>
       </c>
-      <c r="I27" s="46">
+      <c r="I27">
         <v>-3.6211806915331634E-5</v>
       </c>
-      <c r="J27" s="46">
+      <c r="J27">
         <v>7.621415339496276E-5</v>
       </c>
-      <c r="K27" s="46">
+      <c r="K27">
         <v>-1.7426946337881534E-3</v>
       </c>
-      <c r="L27" s="46">
+      <c r="L27">
         <v>-1.2282578432135533E-5</v>
       </c>
-      <c r="M27" s="46">
+      <c r="M27">
         <v>6.539910804408914E-5</v>
       </c>
-      <c r="N27" s="46">
+      <c r="N27">
         <v>-1.5356902763016177E-6</v>
       </c>
-      <c r="O27" s="46">
+      <c r="O27">
         <v>-6.0565880512919576E-6</v>
       </c>
-      <c r="P27" s="46">
+      <c r="P27">
         <v>1.3878993418548261E-5</v>
       </c>
-      <c r="Q27" s="46">
+      <c r="Q27">
         <v>-2.8009313066162809E-5</v>
       </c>
-      <c r="R27" s="46">
+      <c r="R27">
         <v>-3.6211806915330407E-5</v>
       </c>
-      <c r="S27" s="46">
+      <c r="S27">
         <v>7.6214153394962028E-5</v>
       </c>
-      <c r="T27" s="46">
+      <c r="T27">
         <v>-1.7290067943733604E-3</v>
       </c>
-      <c r="U27" s="46">
+      <c r="U27">
         <v>-1.2282578432135798E-5</v>
       </c>
-      <c r="V27" s="46">
+      <c r="V27">
         <v>6.5399108044081116E-5</v>
       </c>
-      <c r="W27" s="46">
+      <c r="W27">
         <v>-1.5376299325505622E-6</v>
       </c>
-      <c r="X27" s="46">
+      <c r="X27">
         <v>-6.0565880512905752E-6</v>
       </c>
-      <c r="Y27" s="46">
+      <c r="Y27">
         <v>1.3878993418547854E-5</v>
       </c>
-      <c r="Z27" s="46">
+      <c r="Z27">
         <v>-2.8009313066162457E-5</v>
       </c>
-      <c r="AA27" s="46">
+      <c r="AA27">
         <v>-3.6211806915331004E-5</v>
       </c>
-      <c r="AB27" s="46">
+      <c r="AB27">
         <v>7.6214153394963492E-5</v>
       </c>
-      <c r="AC27" s="46">
+      <c r="AC27">
         <v>-1.7386530695139412E-3</v>
       </c>
       <c r="AD27">
@@ -8381,92 +8361,92 @@
         <v>-1.7814908895346059E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>211</v>
       </c>
-      <c r="B28" s="46">
+      <c r="B28">
         <v>-26.657420447030471</v>
       </c>
-      <c r="C28" s="46">
+      <c r="C28">
         <v>-3.3408237372306309E-3</v>
       </c>
-      <c r="D28" s="46">
+      <c r="D28">
         <v>-0.32915759022558938</v>
       </c>
-      <c r="E28" s="46">
+      <c r="E28">
         <v>7.3434046314924369E-3</v>
       </c>
-      <c r="F28" s="46">
+      <c r="F28">
         <v>-2.2917219103627869E-2</v>
       </c>
-      <c r="G28" s="46">
+      <c r="G28">
         <v>-3.0549007873232767E-2</v>
       </c>
-      <c r="H28" s="47">
+      <c r="H28">
         <v>-6.9927991238971348E-3</v>
       </c>
-      <c r="I28" s="46">
+      <c r="I28">
         <v>-7.9878863094123564E-3</v>
       </c>
-      <c r="J28" s="46">
+      <c r="J28">
         <v>-1.7386530695139586E-3</v>
       </c>
-      <c r="K28" s="46">
+      <c r="K28">
         <v>3.8324131639937988</v>
       </c>
-      <c r="L28" s="46">
+      <c r="L28">
         <v>-3.3408237372309396E-3</v>
       </c>
-      <c r="M28" s="46">
+      <c r="M28">
         <v>-0.32915759022558844</v>
       </c>
-      <c r="N28" s="46">
+      <c r="N28">
         <v>7.5122810894399294E-3</v>
       </c>
-      <c r="O28" s="46">
+      <c r="O28">
         <v>-2.2917219103628501E-2</v>
       </c>
-      <c r="P28" s="46">
+      <c r="P28">
         <v>-3.0549007873232892E-2</v>
       </c>
-      <c r="Q28" s="46">
+      <c r="Q28">
         <v>-6.9927991238971044E-3</v>
       </c>
-      <c r="R28" s="46">
+      <c r="R28">
         <v>-7.9878863094141328E-3</v>
       </c>
-      <c r="S28" s="46">
+      <c r="S28">
         <v>-1.7386530695140871E-3</v>
       </c>
-      <c r="T28" s="46">
+      <c r="T28">
         <v>3.7429924994697097</v>
       </c>
-      <c r="U28" s="46">
+      <c r="U28">
         <v>-3.340823737230463E-3</v>
       </c>
-      <c r="V28" s="46">
+      <c r="V28">
         <v>-0.3291575902255901</v>
       </c>
-      <c r="W28" s="46">
+      <c r="W28">
         <v>7.504010881660461E-3</v>
       </c>
-      <c r="X28" s="46">
+      <c r="X28">
         <v>-2.2917219103626468E-2</v>
       </c>
-      <c r="Y28" s="46">
+      <c r="Y28">
         <v>-3.0549007873232677E-2</v>
       </c>
-      <c r="Z28" s="46">
+      <c r="Z28">
         <v>-6.9927991238973673E-3</v>
       </c>
-      <c r="AA28" s="46">
+      <c r="AA28">
         <v>-7.9878863094134615E-3</v>
       </c>
-      <c r="AB28" s="46">
+      <c r="AB28">
         <v>-1.7386530695139412E-3</v>
       </c>
-      <c r="AC28" s="46">
+      <c r="AC28">
         <v>3.7581089781854553</v>
       </c>
       <c r="AD28">
@@ -8497,9 +8477,9 @@
         <v>3.6956203394853961</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B29">
         <v>4.7957223317056902E-2</v>
@@ -8613,9 +8593,9 @@
         <v>-3.1466336474071221E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B30">
         <v>1.8095891546568426</v>
@@ -8729,9 +8709,9 @@
         <v>-0.3278220837105853</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B31">
         <v>-4.0116292111520603E-2</v>
@@ -8845,9 +8825,9 @@
         <v>7.6331687368054665E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B32">
         <v>0.11210477498055749</v>
@@ -8961,9 +8941,9 @@
         <v>-2.2838441660617811E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B33">
         <v>1.9445940692169901</v>
@@ -9077,9 +9057,9 @@
         <v>-3.2124587852343144E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B34">
         <v>6.2654924397042316E-2</v>
@@ -9193,9 +9173,9 @@
         <v>-7.3889058913378554E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B35">
         <v>-9.142780929067966E-2</v>
@@ -9309,9 +9289,9 @@
         <v>-8.1998346042548246E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B36">
         <v>2.9322733083303687E-2</v>
@@ -9425,9 +9405,9 @@
         <v>-1.7814908895351462E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B37">
         <v>-29.257298170000475</v>
@@ -9554,13 +9534,13 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.59765625" customWidth="1"/>
+    <col min="2" max="2" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9622,10 +9602,10 @@
         <v>169</v>
       </c>
       <c r="U1" t="s">
+        <v>236</v>
+      </c>
+      <c r="V1" t="s">
         <v>240</v>
-      </c>
-      <c r="V1" t="s">
-        <v>244</v>
       </c>
       <c r="W1" t="s">
         <v>170</v>
@@ -9688,10 +9668,10 @@
         <v>189</v>
       </c>
       <c r="AQ1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AR1" t="s">
         <v>241</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>245</v>
       </c>
       <c r="AS1" t="s">
         <v>190</v>
@@ -9754,10 +9734,10 @@
         <v>209</v>
       </c>
       <c r="BM1" t="s">
+        <v>238</v>
+      </c>
+      <c r="BN1" t="s">
         <v>242</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>246</v>
       </c>
       <c r="BO1" t="s">
         <v>210</v>
@@ -9766,73 +9746,73 @@
         <v>211</v>
       </c>
       <c r="BQ1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="BR1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>217</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>227</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>228</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>229</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>230</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>231</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>232</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>233</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>235</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>239</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>243</v>
+      </c>
+      <c r="CK1" t="s">
         <v>219</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="CL1" t="s">
         <v>220</v>
       </c>
-      <c r="BT1" t="s">
-        <v>225</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>226</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>228</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>229</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>231</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>232</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>233</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>234</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>235</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>236</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>237</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>238</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>239</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>243</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>247</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>223</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -10104,7 +10084,7 @@
         <v>-1.0490039341488319E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>153</v>
       </c>
@@ -10376,7 +10356,7 @@
         <v>-1.6956689840685723E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>154</v>
       </c>
@@ -10648,7 +10628,7 @@
         <v>1.400594066266329E-7</v>
       </c>
     </row>
-    <row r="5" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -10920,7 +10900,7 @@
         <v>-1.861795063334435E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>156</v>
       </c>
@@ -11192,7 +11172,7 @@
         <v>-3.2889283182999697E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>157</v>
       </c>
@@ -11464,7 +11444,7 @@
         <v>-2.4943825588150453E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>158</v>
       </c>
@@ -11736,7 +11716,7 @@
         <v>-4.8459452018413007E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>159</v>
       </c>
@@ -12008,7 +11988,7 @@
         <v>-2.1504277827800542E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>160</v>
       </c>
@@ -12280,7 +12260,7 @@
         <v>-1.354816197406094E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>161</v>
       </c>
@@ -12552,7 +12532,7 @@
         <v>-1.6624491069777681E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>162</v>
       </c>
@@ -12824,7 +12804,7 @@
         <v>-1.878440024776751E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>163</v>
       </c>
@@ -13096,7 +13076,7 @@
         <v>-6.2665024623450032E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>164</v>
       </c>
@@ -13368,7 +13348,7 @@
         <v>-5.6594896095283541E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>165</v>
       </c>
@@ -13640,7 +13620,7 @@
         <v>-5.4864605403638633E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>166</v>
       </c>
@@ -13912,7 +13892,7 @@
         <v>-4.7013783449441435E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>167</v>
       </c>
@@ -14184,7 +14164,7 @@
         <v>-6.022968258973759E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>168</v>
       </c>
@@ -14456,7 +14436,7 @@
         <v>-3.9059726714072985E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>169</v>
       </c>
@@ -14728,9 +14708,9 @@
         <v>-1.0312491975096987E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B20">
         <v>0.13918765517654272</v>
@@ -15000,9 +14980,9 @@
         <v>-6.2633605488092066E-6</v>
       </c>
     </row>
-    <row r="21" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B21">
         <v>0.28415403649826682</v>
@@ -15272,7 +15252,7 @@
         <v>9.1630961601268043E-6</v>
       </c>
     </row>
-    <row r="22" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>170</v>
       </c>
@@ -15544,7 +15524,7 @@
         <v>-1.3771618207563304E-7</v>
       </c>
     </row>
-    <row r="23" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>171</v>
       </c>
@@ -15816,7 +15796,7 @@
         <v>7.6801119330651899E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>172</v>
       </c>
@@ -16088,7 +16068,7 @@
         <v>-2.0522042099631901E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>173</v>
       </c>
@@ -16360,7 +16340,7 @@
         <v>-3.1334384779658279E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>174</v>
       </c>
@@ -16632,7 +16612,7 @@
         <v>2.6827148968523447E-7</v>
       </c>
     </row>
-    <row r="27" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>175</v>
       </c>
@@ -16904,7 +16884,7 @@
         <v>-1.6625576152837673E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>176</v>
       </c>
@@ -17176,7 +17156,7 @@
         <v>-3.8321442713671638E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>177</v>
       </c>
@@ -17448,7 +17428,7 @@
         <v>-2.4943825588150457E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>178</v>
       </c>
@@ -17720,7 +17700,7 @@
         <v>-8.0271702820336872E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>179</v>
       </c>
@@ -17992,7 +17972,7 @@
         <v>-2.1504277827800558E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>180</v>
       </c>
@@ -18264,7 +18244,7 @@
         <v>-1.5504140672655342E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>181</v>
       </c>
@@ -18536,7 +18516,7 @@
         <v>-1.8906077568921504E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>182</v>
       </c>
@@ -18808,7 +18788,7 @@
         <v>-2.1695233394592505E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>183</v>
       </c>
@@ -19080,7 +19060,7 @@
         <v>-1.8664623793584339E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>184</v>
       </c>
@@ -19352,7 +19332,7 @@
         <v>-1.7350416020169831E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>185</v>
       </c>
@@ -19624,7 +19604,7 @@
         <v>-1.767687508735971E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>186</v>
       </c>
@@ -19896,7 +19876,7 @@
         <v>-1.8785355498664215E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>187</v>
       </c>
@@ -20168,7 +20148,7 @@
         <v>-6.0229682589805664E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>188</v>
       </c>
@@ -20440,7 +20420,7 @@
         <v>-5.1802483897686315E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>189</v>
       </c>
@@ -20712,9 +20692,9 @@
         <v>-1.0312491975095217E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B42">
         <v>6.419236358576498E-2</v>
@@ -20984,9 +20964,9 @@
         <v>-1.1895801178708549E-6</v>
       </c>
     </row>
-    <row r="43" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B43">
         <v>1.7714248972645619E-3</v>
@@ -21256,7 +21236,7 @@
         <v>8.3792770390926576E-6</v>
       </c>
     </row>
-    <row r="44" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>190</v>
       </c>
@@ -21528,7 +21508,7 @@
         <v>-2.616562766605495E-6</v>
       </c>
     </row>
-    <row r="45" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>191</v>
       </c>
@@ -21800,7 +21780,7 @@
         <v>1.3431015890912014E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>192</v>
       </c>
@@ -22072,7 +22052,7 @@
         <v>-5.9839404101186494E-5</v>
       </c>
     </row>
-    <row r="47" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>193</v>
       </c>
@@ -22344,7 +22324,7 @@
         <v>-9.9624432893476281E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>194</v>
       </c>
@@ -22616,7 +22596,7 @@
         <v>9.6153702141154955E-7</v>
       </c>
     </row>
-    <row r="49" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>195</v>
       </c>
@@ -22888,7 +22868,7 @@
         <v>-5.8127607766088176E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>196</v>
       </c>
@@ -23160,7 +23140,7 @@
         <v>-1.1480835158096878E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>197</v>
       </c>
@@ -23432,7 +23412,7 @@
         <v>-2.4943825588150496E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>198</v>
       </c>
@@ -23704,7 +23684,7 @@
         <v>-2.712410576049227E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>199</v>
       </c>
@@ -23976,7 +23956,7 @@
         <v>-2.1504277827800436E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>200</v>
       </c>
@@ -24248,7 +24228,7 @@
         <v>-2.5312365366293547E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>201</v>
       </c>
@@ -24520,7 +24500,7 @@
         <v>-3.0694676947394273E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>202</v>
       </c>
@@ -24792,7 +24772,7 @@
         <v>-3.3092201884488462E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>203</v>
       </c>
@@ -25064,7 +25044,7 @@
         <v>-1.959238947293974E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>204</v>
       </c>
@@ -25336,7 +25316,7 @@
         <v>-8.4749149451797141E-5</v>
       </c>
     </row>
-    <row r="59" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>205</v>
       </c>
@@ -25608,7 +25588,7 @@
         <v>-1.2971584425921427E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>206</v>
       </c>
@@ -25880,7 +25860,7 @@
         <v>-1.4025343538546641E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>207</v>
       </c>
@@ -26152,7 +26132,7 @@
         <v>-6.022968258973242E-5</v>
       </c>
     </row>
-    <row r="62" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>208</v>
       </c>
@@ -26424,7 +26404,7 @@
         <v>-1.8016621077838023E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>209</v>
       </c>
@@ -26696,9 +26676,9 @@
         <v>-1.0312491975099974E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B64">
         <v>2.4223758658090681E-2</v>
@@ -26968,9 +26948,9 @@
         <v>-1.5980612100079183E-5</v>
       </c>
     </row>
-    <row r="65" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B65">
         <v>-0.13307297575868937</v>
@@ -27240,7 +27220,7 @@
         <v>-5.196080855511196E-6</v>
       </c>
     </row>
-    <row r="66" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>210</v>
       </c>
@@ -27512,7 +27492,7 @@
         <v>-2.3171621864085717E-5</v>
       </c>
     </row>
-    <row r="67" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>211</v>
       </c>
@@ -27784,9 +27764,9 @@
         <v>3.410141250586239E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B68">
         <v>0.17487849288747845</v>
@@ -28056,9 +28036,9 @@
         <v>-2.5653653515449491E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B69">
         <v>-9.246255273051443E-2</v>
@@ -28328,9 +28308,9 @@
         <v>-8.2028457738573971E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B70">
         <v>4.124627529933575E-4</v>
@@ -28600,9 +28580,9 @@
         <v>8.7450874407178169E-6</v>
       </c>
     </row>
-    <row r="71" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B71">
         <v>-0.3127882951906148</v>
@@ -28872,9 +28852,9 @@
         <v>-5.8773994723794985E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B72">
         <v>-0.5087194653233329</v>
@@ -29144,9 +29124,9 @@
         <v>-1.0316274854187933E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B73">
         <v>8.4557928014271061E-2</v>
@@ -29416,9 +29396,9 @@
         <v>-2.4943825588150457E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B74">
         <v>-0.14836932476573114</v>
@@ -29688,9 +29668,9 @@
         <v>-1.6426039280238592E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B75">
         <v>-4.3068124451263547E-2</v>
@@ -29960,9 +29940,9 @@
         <v>-2.1504277827800441E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B76">
         <v>-0.16821818318621698</v>
@@ -30232,9 +30212,9 @@
         <v>-6.2510320352201229E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B77">
         <v>-7.7215872750258971E-2</v>
@@ -30504,9 +30484,9 @@
         <v>-4.1464932180266823E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B78">
         <v>9.67485192912797E-2</v>
@@ -30776,9 +30756,9 @@
         <v>-4.984732678178517E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B79">
         <v>-3.5289894020996906</v>
@@ -31048,9 +31028,9 @@
         <v>9.6502772454399081E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B80">
         <v>-3.8819691199744795</v>
@@ -31320,9 +31300,9 @@
         <v>3.0484037677571725E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B81">
         <v>-3.061382475790682</v>
@@ -31592,9 +31572,9 @@
         <v>-2.1707774406773379E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B82">
         <v>-1.9481772888360551</v>
@@ -31864,9 +31844,9 @@
         <v>-1.8503289184482831E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B83">
         <v>0.10241412756803916</v>
@@ -32136,9 +32116,9 @@
         <v>-6.0229682589762215E-5</v>
       </c>
     </row>
-    <row r="84" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B84">
         <v>0.10652922874815993</v>
@@ -32408,9 +32388,9 @@
         <v>-1.9956314326647286E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B85">
         <v>3.8644794605721705E-2</v>
@@ -32680,9 +32660,9 @@
         <v>-1.0312491975104363E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B86">
         <v>-0.14857136304979085</v>
@@ -32952,9 +32932,9 @@
         <v>-3.468148509851751E-4</v>
       </c>
     </row>
-    <row r="87" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B87">
         <v>-0.2703592783548765</v>
@@ -33224,9 +33204,9 @@
         <v>-3.8919296465790662E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B88">
         <v>2.5259366999476375E-2</v>
@@ -33496,9 +33476,9 @@
         <v>-2.4687229920128872E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B89">
         <v>2.7922421147333627</v>
@@ -33782,13 +33762,13 @@
       <selection activeCell="A23" sqref="A23:A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.86328125" customWidth="1"/>
+    <col min="2" max="2" width="16.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -33898,7 +33878,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -34008,7 +33988,7 @@
         <v>1.3308787830383989E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>150</v>
       </c>
@@ -34118,7 +34098,7 @@
         <v>-7.2316731663269124E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>151</v>
       </c>
@@ -34228,7 +34208,7 @@
         <v>9.0828682345405607E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -34338,7 +34318,7 @@
         <v>-2.5585415602170235E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -34448,7 +34428,7 @@
         <v>-1.9491142407908285E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -34558,7 +34538,7 @@
         <v>7.1049094443931347E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -34668,7 +34648,7 @@
         <v>6.9482914748976877E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -34778,7 +34758,7 @@
         <v>9.1919461189593249E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -34888,7 +34868,7 @@
         <v>2.2322077142174239E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>145</v>
       </c>
@@ -34998,7 +34978,7 @@
         <v>-2.3969843713489772E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>146</v>
       </c>
@@ -35108,7 +35088,7 @@
         <v>-2.3541922424720474E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>147</v>
       </c>
@@ -35218,7 +35198,7 @@
         <v>-2.5010895824015437E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>148</v>
       </c>
@@ -35328,7 +35308,7 @@
         <v>-2.828870908622573E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>141</v>
       </c>
@@ -35438,7 +35418,7 @@
         <v>-3.6199843315042502E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>142</v>
       </c>
@@ -35548,7 +35528,7 @@
         <v>1.1446815155231607E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>143</v>
       </c>
@@ -35658,7 +35638,7 @@
         <v>6.9121156838246648E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>144</v>
       </c>
@@ -35768,7 +35748,7 @@
         <v>7.6986712477901832E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -35878,7 +35858,7 @@
         <v>2.2443646231509727E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -35988,7 +35968,7 @@
         <v>3.0346277662830498E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>72</v>
       </c>
@@ -36098,7 +36078,7 @@
         <v>-5.1305884055158155E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -36208,7 +36188,7 @@
         <v>7.7722871792616462E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -36318,7 +36298,7 @@
         <v>-1.1387072902821834E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -36428,7 +36408,7 @@
         <v>-7.9001999580115036E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -36538,7 +36518,7 @@
         <v>-6.010599267192036E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -36648,7 +36628,7 @@
         <v>-4.4324819185235067E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -36758,7 +36738,7 @@
         <v>-5.452375051686725E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -36868,7 +36848,7 @@
         <v>-7.0888125952147368E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -36978,7 +36958,7 @@
         <v>-4.988771614540477E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -37088,7 +37068,7 @@
         <v>-7.0488766190545307E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -37198,7 +37178,7 @@
         <v>-9.0913598847857137E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -37308,7 +37288,7 @@
         <v>-4.4828893248231895E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -37418,7 +37398,7 @@
         <v>-5.8986570924524206E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>99</v>
       </c>
@@ -37528,7 +37508,7 @@
         <v>-7.2799842296539295E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -37651,18 +37631,18 @@
       <selection activeCell="AI35" sqref="AI35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="31"/>
       <c r="B2" s="32" t="s">
         <v>5</v>
@@ -37674,7 +37654,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -37716,7 +37696,7 @@
       <c r="AH3" s="42"/>
       <c r="AI3" s="42"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -37758,7 +37738,7 @@
       <c r="AH4" s="42"/>
       <c r="AI4" s="42"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -37800,7 +37780,7 @@
       <c r="AH5" s="42"/>
       <c r="AI5" s="42"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -37836,7 +37816,7 @@
       <c r="AH6" s="42"/>
       <c r="AI6" s="42"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -37878,7 +37858,7 @@
       <c r="AH7" s="42"/>
       <c r="AI7" s="42"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -37920,7 +37900,7 @@
       <c r="AH8" s="42"/>
       <c r="AI8" s="42"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -37962,7 +37942,7 @@
       <c r="AH9" s="42"/>
       <c r="AI9" s="42"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -38004,7 +37984,7 @@
       <c r="AH10" s="42"/>
       <c r="AI10" s="42"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>125</v>
       </c>
@@ -38040,7 +38020,7 @@
       <c r="AH11" s="42"/>
       <c r="AI11" s="42"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>126</v>
       </c>
@@ -38082,7 +38062,7 @@
       <c r="AH12" s="42"/>
       <c r="AI12" s="42"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>122</v>
       </c>
@@ -38124,7 +38104,7 @@
       <c r="AH13" s="42"/>
       <c r="AI13" s="42"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>123</v>
       </c>
@@ -38166,7 +38146,7 @@
       <c r="AH14" s="42"/>
       <c r="AI14" s="42"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>124</v>
       </c>
@@ -38208,7 +38188,7 @@
       <c r="AH15" s="42"/>
       <c r="AI15" s="42"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
@@ -38244,7 +38224,7 @@
       <c r="AH16" s="42"/>
       <c r="AI16" s="42"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
@@ -38286,7 +38266,7 @@
       <c r="AH17" s="42"/>
       <c r="AI17" s="42"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
@@ -38328,7 +38308,7 @@
       <c r="AH18" s="42"/>
       <c r="AI18" s="42"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -38370,7 +38350,7 @@
       <c r="AH19" s="42"/>
       <c r="AI19" s="42"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -38412,7 +38392,7 @@
       <c r="AH20" s="42"/>
       <c r="AI20" s="42"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -38454,7 +38434,7 @@
       <c r="AH21" s="42"/>
       <c r="AI21" s="42"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -38496,7 +38476,7 @@
       <c r="AH22" s="42"/>
       <c r="AI22" s="42"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -38538,7 +38518,7 @@
       <c r="AH23" s="42"/>
       <c r="AI23" s="42"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -38580,7 +38560,7 @@
       <c r="AH24" s="42"/>
       <c r="AI24" s="42"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -38622,7 +38602,7 @@
       <c r="AH25" s="42"/>
       <c r="AI25" s="42"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -38664,7 +38644,7 @@
       <c r="AH26" s="42"/>
       <c r="AI26" s="42"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -38706,7 +38686,7 @@
       <c r="AH27" s="42"/>
       <c r="AI27" s="42"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A28" s="36" t="s">
         <v>127</v>
       </c>
@@ -38748,7 +38728,7 @@
       <c r="AH28" s="42"/>
       <c r="AI28" s="42"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
         <v>128</v>
       </c>
@@ -38788,7 +38768,7 @@
       <c r="AH29" s="42"/>
       <c r="AI29" s="42"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
         <v>129</v>
       </c>
@@ -38801,7 +38781,7 @@
       <c r="D30" s="33"/>
       <c r="N30" s="5"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
         <v>130</v>
       </c>
@@ -38814,7 +38794,7 @@
       <c r="D31" s="33"/>
       <c r="N31" s="5"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A32" s="36" t="s">
         <v>131</v>
       </c>
@@ -38827,7 +38807,7 @@
       <c r="D32" s="34"/>
       <c r="N32" s="5"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>119</v>
       </c>
@@ -38835,7 +38815,7 @@
         <v>23948</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="35" t="s">
         <v>80</v>
       </c>
@@ -38845,7 +38825,7 @@
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:4" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38859,25 +38839,25 @@
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="34" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="41" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.86328125" customWidth="1"/>
+    <col min="8" max="8" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="28" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="30" max="34" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="36" max="41" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="31"/>
       <c r="B2" s="32" t="s">
         <v>5</v>
@@ -38889,7 +38869,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -38903,7 +38883,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -38917,7 +38897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -38931,7 +38911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>59</v>
       </c>
@@ -38939,7 +38919,7 @@
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>60</v>
       </c>
@@ -38953,7 +38933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>61</v>
       </c>
@@ -38967,7 +38947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>62</v>
       </c>
@@ -38975,7 +38955,7 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>63</v>
       </c>
@@ -38989,7 +38969,7 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>64</v>
       </c>
@@ -39003,7 +38983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -39011,7 +38991,7 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
@@ -39025,7 +39005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -39039,7 +39019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -39053,7 +39033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -39067,7 +39047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>125</v>
       </c>
@@ -39075,7 +39055,7 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>126</v>
       </c>
@@ -39089,7 +39069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>122</v>
       </c>
@@ -39103,7 +39083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
         <v>123</v>
       </c>
@@ -39117,7 +39097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>124</v>
       </c>
@@ -39131,7 +39111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>133</v>
       </c>
@@ -39139,7 +39119,7 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>66</v>
       </c>
@@ -39153,7 +39133,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
         <v>67</v>
       </c>
@@ -39167,7 +39147,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>68</v>
       </c>
@@ -39181,7 +39161,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
@@ -39189,7 +39169,7 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>22</v>
       </c>
@@ -39203,7 +39183,7 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
         <v>23</v>
       </c>
@@ -39217,7 +39197,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>24</v>
       </c>
@@ -39231,7 +39211,7 @@
         <v>0.95199999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>25</v>
       </c>
@@ -39245,7 +39225,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>26</v>
       </c>
@@ -39259,7 +39239,7 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>27</v>
       </c>
@@ -39273,7 +39253,7 @@
         <v>0.998</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>28</v>
       </c>
@@ -39287,7 +39267,7 @@
         <v>0.67600000000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>29</v>
       </c>
@@ -39301,7 +39281,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>30</v>
       </c>
@@ -39315,7 +39295,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>31</v>
       </c>
@@ -39329,7 +39309,7 @@
         <v>0.67900000000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>32</v>
       </c>
@@ -39343,7 +39323,7 @@
         <v>0.35099999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="36" t="s">
         <v>127</v>
       </c>
@@ -39357,7 +39337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
         <v>128</v>
       </c>
@@ -39369,7 +39349,7 @@
       </c>
       <c r="D39" s="33"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
         <v>129</v>
       </c>
@@ -39381,7 +39361,7 @@
       </c>
       <c r="D40" s="33"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
         <v>130</v>
       </c>
@@ -39393,7 +39373,7 @@
       </c>
       <c r="D41" s="33"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="36" t="s">
         <v>131</v>
       </c>
@@ -39405,7 +39385,7 @@
       </c>
       <c r="D42" s="34"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>119</v>
       </c>
@@ -39413,7 +39393,7 @@
         <v>417742</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="35" t="s">
         <v>80</v>
       </c>
@@ -39423,7 +39403,7 @@
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:4" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39437,14 +39417,14 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="50.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.1328125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="37" t="s">
         <v>149</v>
       </c>
@@ -39452,7 +39432,7 @@
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A3" s="31"/>
       <c r="B3" s="32" t="s">
         <v>5</v>
@@ -39464,7 +39444,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>121</v>
       </c>
@@ -39514,7 +39494,7 @@
       <c r="AN4"/>
       <c r="AO4"/>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -39564,7 +39544,7 @@
       <c r="AN5"/>
       <c r="AO5"/>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -39614,7 +39594,7 @@
       <c r="AN6"/>
       <c r="AO6"/>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>59</v>
       </c>
@@ -39658,7 +39638,7 @@
       <c r="AN7"/>
       <c r="AO7"/>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>60</v>
       </c>
@@ -39708,7 +39688,7 @@
       <c r="AN8"/>
       <c r="AO8"/>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>61</v>
       </c>
@@ -39753,7 +39733,7 @@
       <c r="AN9"/>
       <c r="AO9"/>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -39797,7 +39777,7 @@
       <c r="AN10"/>
       <c r="AO10"/>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -39847,7 +39827,7 @@
       <c r="AN11"/>
       <c r="AO11"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -39897,7 +39877,7 @@
       <c r="AN12"/>
       <c r="AO12"/>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
@@ -39947,7 +39927,7 @@
       <c r="AN13"/>
       <c r="AO13"/>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
@@ -39997,7 +39977,7 @@
       <c r="AN14"/>
       <c r="AO14"/>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>136</v>
       </c>
@@ -40041,7 +40021,7 @@
       <c r="AN15"/>
       <c r="AO15"/>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
         <v>126</v>
       </c>
@@ -40091,7 +40071,7 @@
       <c r="AN16"/>
       <c r="AO16"/>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>122</v>
       </c>
@@ -40141,7 +40121,7 @@
       <c r="AN17"/>
       <c r="AO17"/>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>123</v>
       </c>
@@ -40191,7 +40171,7 @@
       <c r="AN18"/>
       <c r="AO18"/>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>124</v>
       </c>
@@ -40241,7 +40221,7 @@
       <c r="AN19"/>
       <c r="AO19"/>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>125</v>
       </c>
@@ -40285,7 +40265,7 @@
       <c r="AN20"/>
       <c r="AO20"/>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>126</v>
       </c>
@@ -40335,7 +40315,7 @@
       <c r="AN21"/>
       <c r="AO21"/>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
         <v>122</v>
       </c>
@@ -40385,7 +40365,7 @@
       <c r="AN22"/>
       <c r="AO22"/>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>123</v>
       </c>
@@ -40435,7 +40415,7 @@
       <c r="AN23"/>
       <c r="AO23"/>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
         <v>124</v>
       </c>
@@ -40485,7 +40465,7 @@
       <c r="AN24"/>
       <c r="AO24"/>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>135</v>
       </c>
@@ -40535,7 +40515,7 @@
       <c r="AN25"/>
       <c r="AO25"/>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>133</v>
       </c>
@@ -40579,7 +40559,7 @@
       <c r="AN26"/>
       <c r="AO26"/>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>66</v>
       </c>
@@ -40628,7 +40608,7 @@
       <c r="AN27"/>
       <c r="AO27"/>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
         <v>67</v>
       </c>
@@ -40677,7 +40657,7 @@
       <c r="AN28"/>
       <c r="AO28"/>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>68</v>
       </c>
@@ -40726,7 +40706,7 @@
       <c r="AN29"/>
       <c r="AO29"/>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
         <v>21</v>
       </c>
@@ -40765,7 +40745,7 @@
       <c r="AN30"/>
       <c r="AO30"/>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
         <v>22</v>
       </c>
@@ -40810,7 +40790,7 @@
       <c r="AN31"/>
       <c r="AO31"/>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A32" s="4" t="s">
         <v>23</v>
       </c>
@@ -40855,7 +40835,7 @@
       <c r="AN32"/>
       <c r="AO32"/>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>24</v>
       </c>
@@ -40900,7 +40880,7 @@
       <c r="AN33"/>
       <c r="AO33"/>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>25</v>
       </c>
@@ -40945,7 +40925,7 @@
       <c r="AN34"/>
       <c r="AO34"/>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>26</v>
       </c>
@@ -40990,7 +40970,7 @@
       <c r="AN35"/>
       <c r="AO35"/>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>27</v>
       </c>
@@ -41035,7 +41015,7 @@
       <c r="AN36"/>
       <c r="AO36"/>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>28</v>
       </c>
@@ -41080,7 +41060,7 @@
       <c r="AN37"/>
       <c r="AO37"/>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>29</v>
       </c>
@@ -41096,7 +41076,7 @@
       <c r="H38"/>
       <c r="I38" s="43"/>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>30</v>
       </c>
@@ -41112,7 +41092,7 @@
       <c r="H39"/>
       <c r="I39" s="43"/>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
@@ -41126,7 +41106,7 @@
         <v>0.21299999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>32</v>
       </c>
@@ -41140,7 +41120,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
         <v>127</v>
       </c>
@@ -41154,7 +41134,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A43" s="39" t="s">
         <v>33</v>
       </c>
@@ -41168,7 +41148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>119</v>
       </c>
@@ -41176,7 +41156,7 @@
         <v>241903</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>134</v>
       </c>
@@ -41184,7 +41164,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A46" s="35" t="s">
         <v>80</v>
       </c>
@@ -41194,13 +41174,13 @@
       <c r="C46" s="41"/>
       <c r="D46" s="41"/>
     </row>
-    <row r="47" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B47" s="6"/>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.45">
       <c r="B48" s="6"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B49" s="6"/>
     </row>
   </sheetData>
@@ -41215,13 +41195,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.59765625" customWidth="1"/>
+    <col min="2" max="2" width="13.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -41271,7 +41251,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -41321,7 +41301,7 @@
         <v>1.8753731426314202E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -41371,7 +41351,7 @@
         <v>-1.1303694196299896E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -41421,7 +41401,7 @@
         <v>2.6407089713510745E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -41471,7 +41451,7 @@
         <v>3.3610095615436708E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -41521,7 +41501,7 @@
         <v>1.2639690732600392E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -41571,7 +41551,7 @@
         <v>-3.6079111958840504E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -41621,7 +41601,7 @@
         <v>1.0729430779657725E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -41671,7 +41651,7 @@
         <v>-7.4117997081126832E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -41721,7 +41701,7 @@
         <v>7.0481205618844883E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -41771,7 +41751,7 @@
         <v>6.1560836536517088E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -41821,7 +41801,7 @@
         <v>-8.5135432408051104E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -41871,7 +41851,7 @@
         <v>8.1603052033131507E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -41921,7 +41901,7 @@
         <v>-8.8821766633698229E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -41982,13 +41962,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.59765625" customWidth="1"/>
+    <col min="2" max="2" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -42059,7 +42039,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -42131,7 +42111,7 @@
       </c>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -42203,7 +42183,7 @@
       </c>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -42275,7 +42255,7 @@
       </c>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -42347,7 +42327,7 @@
       </c>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -42419,7 +42399,7 @@
       </c>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -42491,7 +42471,7 @@
       </c>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -42563,7 +42543,7 @@
       </c>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -42635,7 +42615,7 @@
       </c>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -42707,7 +42687,7 @@
       </c>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -42779,7 +42759,7 @@
       </c>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -42851,7 +42831,7 @@
       </c>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -42923,7 +42903,7 @@
       </c>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -42995,7 +42975,7 @@
       </c>
       <c r="AD14" s="2"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -43067,7 +43047,7 @@
       </c>
       <c r="AD15" s="2"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -43139,7 +43119,7 @@
       </c>
       <c r="AD16" s="2"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -43211,7 +43191,7 @@
       </c>
       <c r="AD17" s="2"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>96</v>
       </c>
@@ -43283,7 +43263,7 @@
       </c>
       <c r="AD18" s="2"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -43355,7 +43335,7 @@
       </c>
       <c r="AD19" s="2"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>98</v>
       </c>
@@ -43427,7 +43407,7 @@
       </c>
       <c r="AD20" s="2"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -43499,7 +43479,7 @@
       </c>
       <c r="AD21" s="2"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>33</v>
       </c>
